--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emf\306\306project-G4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6C921C-0A15-4B82-A5E7-F415A5BF870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A30F631-669B-4B85-80D9-41CC652520C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Tâches</t>
   </si>
@@ -94,36 +94,6 @@
   </si>
   <si>
     <t>heures &gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>Projet :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Titre du projet]      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                      </t>
-    </r>
   </si>
   <si>
     <t>Férié</t>
@@ -232,6 +202,39 @@
   </si>
   <si>
     <t xml:space="preserve">Les 3 </t>
+  </si>
+  <si>
+    <r>
+      <t>Projet :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Gestion des températures dans les classes avec alertes    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+  </si>
+  <si>
+    <t>Création du diagramme useCase</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -890,8 +893,131 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -902,131 +1028,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1116,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1121,7 +1135,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3785394" y="679450"/>
-          <a:ext cx="1034256" cy="5228828"/>
+          <a:ext cx="1631156" cy="5228828"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1536,7 +1550,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1551,18 +1565,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1599,175 +1613,175 @@
     </row>
     <row r="2" spans="1:84" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="37"/>
-      <c r="BW2" s="37"/>
-      <c r="BX2" s="37"/>
-      <c r="BY2" s="37"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="37"/>
-      <c r="CB2" s="37"/>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="37"/>
-      <c r="CE2" s="37"/>
+        <v>11</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="61"/>
+      <c r="BR2" s="61"/>
+      <c r="BS2" s="61"/>
+      <c r="BT2" s="61"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
+      <c r="BY2" s="61"/>
+      <c r="BZ2" s="61"/>
+      <c r="CA2" s="61"/>
+      <c r="CB2" s="61"/>
+      <c r="CC2" s="61"/>
+      <c r="CD2" s="61"/>
+      <c r="CE2" s="61"/>
     </row>
     <row r="3" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="38"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
-      <c r="BN3" s="38"/>
-      <c r="BO3" s="38"/>
-      <c r="BP3" s="38"/>
-      <c r="BQ3" s="38"/>
-      <c r="BR3" s="38"/>
-      <c r="BS3" s="38"/>
-      <c r="BT3" s="38"/>
-      <c r="BU3" s="38"/>
-      <c r="BV3" s="38"/>
-      <c r="BW3" s="38"/>
-      <c r="BX3" s="38"/>
-      <c r="BY3" s="38"/>
-      <c r="BZ3" s="38"/>
-      <c r="CA3" s="38"/>
-      <c r="CB3" s="38"/>
-      <c r="CC3" s="38"/>
-      <c r="CD3" s="38"/>
-      <c r="CE3" s="38"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62"/>
+      <c r="BS3" s="62"/>
+      <c r="BT3" s="62"/>
+      <c r="BU3" s="62"/>
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="62"/>
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="62"/>
+      <c r="CA3" s="62"/>
+      <c r="CB3" s="62"/>
+      <c r="CC3" s="62"/>
+      <c r="CD3" s="62"/>
+      <c r="CE3" s="62"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -1776,132 +1790,132 @@
       <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="33">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59">
         <v>45992</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="33">
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59">
         <v>45993</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35" t="s">
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="33">
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="59">
         <v>45999</v>
       </c>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="35" t="s">
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="33">
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="59">
         <v>46000</v>
       </c>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="35" t="s">
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="33">
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="59">
         <v>46006</v>
       </c>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="35" t="s">
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="33">
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="59">
         <v>46007</v>
       </c>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="33">
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="59">
         <v>46027</v>
       </c>
-      <c r="BE4" s="33"/>
-      <c r="BF4" s="33"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="35" t="s">
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="33">
+      <c r="BI4" s="58"/>
+      <c r="BJ4" s="58"/>
+      <c r="BK4" s="58"/>
+      <c r="BL4" s="59">
         <v>46028</v>
       </c>
-      <c r="BM4" s="33"/>
-      <c r="BN4" s="33"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="33">
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ4" s="58"/>
+      <c r="BR4" s="58"/>
+      <c r="BS4" s="58"/>
+      <c r="BT4" s="59">
         <v>46034</v>
       </c>
-      <c r="BU4" s="33"/>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="35" t="s">
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="36"/>
-      <c r="CB4" s="33">
+      <c r="BY4" s="58"/>
+      <c r="BZ4" s="58"/>
+      <c r="CA4" s="58"/>
+      <c r="CB4" s="59">
         <v>46035</v>
       </c>
-      <c r="CC4" s="33"/>
-      <c r="CD4" s="33"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="39" t="s">
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="59"/>
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -2148,20 +2162,20 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="39"/>
+      <c r="CF5" s="44"/>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -2174,16 +2188,16 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="45"/>
+      <c r="T6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="50"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
@@ -2240,22 +2254,22 @@
       <c r="CC6" s="10"/>
       <c r="CD6" s="10"/>
       <c r="CE6" s="11"/>
-      <c r="CF6" s="39"/>
+      <c r="CF6" s="44"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="16"/>
       <c r="K7" s="17"/>
       <c r="L7" s="15"/>
@@ -2266,14 +2280,14 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="48"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="53"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
@@ -2330,22 +2344,22 @@
       <c r="CC7" s="16"/>
       <c r="CD7" s="16"/>
       <c r="CE7" s="17"/>
-      <c r="CF7" s="39"/>
+      <c r="CF7" s="44"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="16"/>
       <c r="K8" s="17"/>
       <c r="L8" s="15"/>
@@ -2356,14 +2370,14 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="48"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="53"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
@@ -2420,14 +2434,14 @@
       <c r="CC8" s="16"/>
       <c r="CD8" s="16"/>
       <c r="CE8" s="17"/>
-      <c r="CF8" s="39"/>
+      <c r="CF8" s="44"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -2446,14 +2460,14 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="48"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
@@ -2510,19 +2524,22 @@
       <c r="CC9" s="16"/>
       <c r="CD9" s="16"/>
       <c r="CE9" s="17"/>
-      <c r="CF9" s="39"/>
+      <c r="CF9" s="44"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>17</v>
+      <c r="A10" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="16"/>
       <c r="K10" s="17"/>
       <c r="L10" s="15"/>
@@ -2533,14 +2550,14 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="48"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="53"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
@@ -2597,12 +2614,13 @@
       <c r="CC10" s="16"/>
       <c r="CD10" s="16"/>
       <c r="CE10" s="17"/>
-      <c r="CF10" s="39"/>
+      <c r="CF10" s="44"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="39"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
@@ -2620,14 +2638,14 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="48"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="53"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
@@ -2684,12 +2702,13 @@
       <c r="CC11" s="16"/>
       <c r="CD11" s="16"/>
       <c r="CE11" s="17"/>
-      <c r="CF11" s="39"/>
+      <c r="CF11" s="44"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B12" s="39"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
@@ -2707,14 +2726,14 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="48"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
@@ -2771,11 +2790,11 @@
       <c r="CC12" s="16"/>
       <c r="CD12" s="16"/>
       <c r="CE12" s="17"/>
-      <c r="CF12" s="39"/>
+      <c r="CF12" s="44"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="14"/>
@@ -2795,14 +2814,14 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="48"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="53"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
@@ -2859,11 +2878,11 @@
       <c r="CC13" s="16"/>
       <c r="CD13" s="16"/>
       <c r="CE13" s="17"/>
-      <c r="CF13" s="39"/>
+      <c r="CF13" s="44"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="14"/>
@@ -2883,14 +2902,14 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="48"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="53"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
@@ -2947,11 +2966,11 @@
       <c r="CC14" s="16"/>
       <c r="CD14" s="16"/>
       <c r="CE14" s="17"/>
-      <c r="CF14" s="39"/>
+      <c r="CF14" s="44"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="14"/>
@@ -2971,14 +2990,14 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="48"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="53"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
@@ -3035,11 +3054,11 @@
       <c r="CC15" s="16"/>
       <c r="CD15" s="16"/>
       <c r="CE15" s="17"/>
-      <c r="CF15" s="39"/>
+      <c r="CF15" s="44"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="14"/>
@@ -3059,14 +3078,14 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="48"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="53"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -3123,11 +3142,11 @@
       <c r="CC16" s="16"/>
       <c r="CD16" s="16"/>
       <c r="CE16" s="17"/>
-      <c r="CF16" s="39"/>
+      <c r="CF16" s="44"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="14"/>
@@ -3147,14 +3166,14 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="48"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="53"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
@@ -3211,11 +3230,11 @@
       <c r="CC17" s="16"/>
       <c r="CD17" s="16"/>
       <c r="CE17" s="17"/>
-      <c r="CF17" s="39"/>
+      <c r="CF17" s="44"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="14"/>
@@ -3235,14 +3254,14 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="48"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="53"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
@@ -3299,11 +3318,11 @@
       <c r="CC18" s="16"/>
       <c r="CD18" s="16"/>
       <c r="CE18" s="17"/>
-      <c r="CF18" s="39"/>
+      <c r="CF18" s="44"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="14"/>
@@ -3323,14 +3342,14 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="48"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="53"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
@@ -3387,11 +3406,11 @@
       <c r="CC19" s="16"/>
       <c r="CD19" s="16"/>
       <c r="CE19" s="17"/>
-      <c r="CF19" s="39"/>
+      <c r="CF19" s="44"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="14"/>
@@ -3411,14 +3430,14 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="53"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
@@ -3475,11 +3494,11 @@
       <c r="CC20" s="16"/>
       <c r="CD20" s="16"/>
       <c r="CE20" s="17"/>
-      <c r="CF20" s="39"/>
+      <c r="CF20" s="44"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="14"/>
@@ -3499,14 +3518,14 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="48"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="53"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
@@ -3563,11 +3582,11 @@
       <c r="CC21" s="16"/>
       <c r="CD21" s="16"/>
       <c r="CE21" s="17"/>
-      <c r="CF21" s="39"/>
+      <c r="CF21" s="44"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="14"/>
@@ -3587,14 +3606,14 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="48"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="53"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -3651,11 +3670,11 @@
       <c r="CC22" s="16"/>
       <c r="CD22" s="16"/>
       <c r="CE22" s="17"/>
-      <c r="CF22" s="39"/>
+      <c r="CF22" s="44"/>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="14"/>
@@ -3675,14 +3694,14 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="48"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="53"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -3739,11 +3758,11 @@
       <c r="CC23" s="16"/>
       <c r="CD23" s="16"/>
       <c r="CE23" s="17"/>
-      <c r="CF23" s="39"/>
+      <c r="CF23" s="44"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="14"/>
@@ -3763,14 +3782,14 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="48"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="53"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
@@ -3827,11 +3846,11 @@
       <c r="CC24" s="16"/>
       <c r="CD24" s="16"/>
       <c r="CE24" s="17"/>
-      <c r="CF24" s="39"/>
+      <c r="CF24" s="44"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="14"/>
@@ -3851,14 +3870,14 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="48"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="53"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
@@ -3915,11 +3934,11 @@
       <c r="CC25" s="16"/>
       <c r="CD25" s="16"/>
       <c r="CE25" s="17"/>
-      <c r="CF25" s="39"/>
+      <c r="CF25" s="44"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="14"/>
@@ -3939,14 +3958,14 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="48"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="53"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
@@ -4003,11 +4022,11 @@
       <c r="CC26" s="16"/>
       <c r="CD26" s="16"/>
       <c r="CE26" s="17"/>
-      <c r="CF26" s="39"/>
+      <c r="CF26" s="44"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="14"/>
@@ -4027,14 +4046,14 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="48"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="53"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
@@ -4091,11 +4110,11 @@
       <c r="CC27" s="16"/>
       <c r="CD27" s="16"/>
       <c r="CE27" s="17"/>
-      <c r="CF27" s="39"/>
+      <c r="CF27" s="44"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="14"/>
@@ -4115,14 +4134,14 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="48"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="53"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="16"/>
       <c r="AD28" s="16"/>
@@ -4179,11 +4198,11 @@
       <c r="CC28" s="16"/>
       <c r="CD28" s="16"/>
       <c r="CE28" s="17"/>
-      <c r="CF28" s="39"/>
+      <c r="CF28" s="44"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="14"/>
@@ -4203,14 +4222,14 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="48"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="53"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
@@ -4267,11 +4286,11 @@
       <c r="CC29" s="16"/>
       <c r="CD29" s="16"/>
       <c r="CE29" s="17"/>
-      <c r="CF29" s="39"/>
+      <c r="CF29" s="44"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="14"/>
@@ -4291,14 +4310,14 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="48"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="53"/>
       <c r="AB30" s="15"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
@@ -4355,11 +4374,11 @@
       <c r="CC30" s="16"/>
       <c r="CD30" s="16"/>
       <c r="CE30" s="17"/>
-      <c r="CF30" s="39"/>
+      <c r="CF30" s="44"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="14"/>
@@ -4379,14 +4398,14 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="48"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="53"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
@@ -4443,98 +4462,100 @@
       <c r="CC31" s="16"/>
       <c r="CD31" s="16"/>
       <c r="CE31" s="17"/>
-      <c r="CF31" s="39"/>
+      <c r="CF31" s="44"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="58"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="60"/>
-      <c r="AR32" s="58"/>
-      <c r="AS32" s="59"/>
-      <c r="AT32" s="59"/>
-      <c r="AU32" s="59"/>
-      <c r="AV32" s="59"/>
-      <c r="AW32" s="59"/>
-      <c r="AX32" s="59"/>
-      <c r="AY32" s="60"/>
-      <c r="AZ32" s="58"/>
-      <c r="BA32" s="59"/>
-      <c r="BB32" s="59"/>
-      <c r="BC32" s="59"/>
-      <c r="BD32" s="59"/>
-      <c r="BE32" s="59"/>
-      <c r="BF32" s="59"/>
-      <c r="BG32" s="60"/>
-      <c r="BH32" s="58"/>
-      <c r="BI32" s="59"/>
-      <c r="BJ32" s="59"/>
-      <c r="BK32" s="59"/>
-      <c r="BL32" s="59"/>
-      <c r="BM32" s="59"/>
-      <c r="BN32" s="59"/>
-      <c r="BO32" s="60"/>
-      <c r="BP32" s="58"/>
-      <c r="BQ32" s="59"/>
-      <c r="BR32" s="59"/>
-      <c r="BS32" s="59"/>
-      <c r="BT32" s="59"/>
-      <c r="BU32" s="59"/>
-      <c r="BV32" s="59"/>
-      <c r="BW32" s="60"/>
-      <c r="BX32" s="58"/>
-      <c r="BY32" s="59"/>
-      <c r="BZ32" s="59"/>
-      <c r="CA32" s="59"/>
-      <c r="CB32" s="59"/>
-      <c r="CC32" s="59"/>
-      <c r="CD32" s="59"/>
-      <c r="CE32" s="60"/>
-      <c r="CF32" s="39"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="36"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="38"/>
+      <c r="AR32" s="36"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="38"/>
+      <c r="AZ32" s="36"/>
+      <c r="BA32" s="37"/>
+      <c r="BB32" s="37"/>
+      <c r="BC32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BE32" s="37"/>
+      <c r="BF32" s="37"/>
+      <c r="BG32" s="38"/>
+      <c r="BH32" s="36"/>
+      <c r="BI32" s="37"/>
+      <c r="BJ32" s="37"/>
+      <c r="BK32" s="37"/>
+      <c r="BL32" s="37"/>
+      <c r="BM32" s="37"/>
+      <c r="BN32" s="37"/>
+      <c r="BO32" s="38"/>
+      <c r="BP32" s="36"/>
+      <c r="BQ32" s="37"/>
+      <c r="BR32" s="37"/>
+      <c r="BS32" s="37"/>
+      <c r="BT32" s="37"/>
+      <c r="BU32" s="37"/>
+      <c r="BV32" s="37"/>
+      <c r="BW32" s="38"/>
+      <c r="BX32" s="36"/>
+      <c r="BY32" s="37"/>
+      <c r="BZ32" s="37"/>
+      <c r="CA32" s="37"/>
+      <c r="CB32" s="37"/>
+      <c r="CC32" s="37"/>
+      <c r="CD32" s="37"/>
+      <c r="CE32" s="38"/>
+      <c r="CF32" s="44"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="B33" s="24"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
@@ -4553,14 +4574,14 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="48"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="53"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
@@ -4617,7 +4638,7 @@
       <c r="CC33" s="16"/>
       <c r="CD33" s="16"/>
       <c r="CE33" s="17"/>
-      <c r="CF33" s="39"/>
+      <c r="CF33" s="44"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
@@ -4639,14 +4660,14 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="48"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="53"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
@@ -4703,7 +4724,7 @@
       <c r="CC34" s="16"/>
       <c r="CD34" s="16"/>
       <c r="CE34" s="17"/>
-      <c r="CF34" s="39"/>
+      <c r="CF34" s="44"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
@@ -4725,14 +4746,14 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
       <c r="S35" s="17"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="48"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="53"/>
       <c r="AB35" s="15"/>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
@@ -4789,7 +4810,7 @@
       <c r="CC35" s="16"/>
       <c r="CD35" s="16"/>
       <c r="CE35" s="17"/>
-      <c r="CF35" s="39"/>
+      <c r="CF35" s="44"/>
     </row>
     <row r="36" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
@@ -4811,14 +4832,14 @@
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="51"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="56"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
@@ -4875,129 +4896,127 @@
       <c r="CC36" s="21"/>
       <c r="CD36" s="21"/>
       <c r="CE36" s="22"/>
-      <c r="CF36" s="39"/>
+      <c r="CF36" s="44"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="40"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="40"/>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="40"/>
-      <c r="AG37" s="40"/>
-      <c r="AH37" s="40"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="40"/>
-      <c r="AK37" s="40"/>
-      <c r="AL37" s="40"/>
-      <c r="AM37" s="40"/>
-      <c r="AN37" s="40"/>
-      <c r="AO37" s="40"/>
-      <c r="AP37" s="40"/>
-      <c r="AQ37" s="40"/>
-      <c r="AR37" s="40"/>
-      <c r="AS37" s="40"/>
-      <c r="AT37" s="40"/>
-      <c r="AU37" s="40"/>
-      <c r="AV37" s="40"/>
-      <c r="AW37" s="40"/>
-      <c r="AX37" s="40"/>
-      <c r="AY37" s="40"/>
-      <c r="AZ37" s="40"/>
-      <c r="BA37" s="40"/>
-      <c r="BB37" s="40"/>
-      <c r="BC37" s="40"/>
-      <c r="BD37" s="40"/>
-      <c r="BE37" s="40"/>
-      <c r="BF37" s="40"/>
-      <c r="BG37" s="40"/>
-      <c r="BH37" s="40"/>
-      <c r="BI37" s="40"/>
-      <c r="BJ37" s="40"/>
-      <c r="BK37" s="40"/>
-      <c r="BL37" s="40"/>
-      <c r="BM37" s="40"/>
-      <c r="BN37" s="40"/>
-      <c r="BO37" s="40"/>
-      <c r="BP37" s="40"/>
-      <c r="BQ37" s="40"/>
-      <c r="BR37" s="40"/>
-      <c r="BS37" s="40"/>
-      <c r="BT37" s="40"/>
-      <c r="BU37" s="40"/>
-      <c r="BV37" s="40"/>
-      <c r="BW37" s="40"/>
-      <c r="BX37" s="40"/>
-      <c r="BY37" s="40"/>
-      <c r="BZ37" s="40"/>
-      <c r="CA37" s="40"/>
-      <c r="CB37" s="40"/>
-      <c r="CC37" s="40"/>
-      <c r="CD37" s="40"/>
-      <c r="CE37" s="40"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="45"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="45"/>
+      <c r="AX37" s="45"/>
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="45"/>
+      <c r="BA37" s="45"/>
+      <c r="BB37" s="45"/>
+      <c r="BC37" s="45"/>
+      <c r="BD37" s="45"/>
+      <c r="BE37" s="45"/>
+      <c r="BF37" s="45"/>
+      <c r="BG37" s="45"/>
+      <c r="BH37" s="45"/>
+      <c r="BI37" s="45"/>
+      <c r="BJ37" s="45"/>
+      <c r="BK37" s="45"/>
+      <c r="BL37" s="45"/>
+      <c r="BM37" s="45"/>
+      <c r="BN37" s="45"/>
+      <c r="BO37" s="45"/>
+      <c r="BP37" s="45"/>
+      <c r="BQ37" s="45"/>
+      <c r="BR37" s="45"/>
+      <c r="BS37" s="45"/>
+      <c r="BT37" s="45"/>
+      <c r="BU37" s="45"/>
+      <c r="BV37" s="45"/>
+      <c r="BW37" s="45"/>
+      <c r="BX37" s="45"/>
+      <c r="BY37" s="45"/>
+      <c r="BZ37" s="45"/>
+      <c r="CA37" s="45"/>
+      <c r="CB37" s="45"/>
+      <c r="CC37" s="45"/>
+      <c r="CD37" s="45"/>
+      <c r="CE37" s="45"/>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B40" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="62"/>
+      <c r="B40" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B41" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="63"/>
+      <c r="B41" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B42" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="64"/>
+      <c r="B42" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="42"/>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B43" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="65"/>
+      <c r="B43" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CF4:CF36"/>
-    <mergeCell ref="A37:CE37"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA36"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
     <mergeCell ref="AN4:AQ4"/>
@@ -5012,28 +5031,30 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF36"/>
+    <mergeCell ref="A37:CE37"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA36"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="B6:B10">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13:B36">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",B13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B9">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -5054,12 +5075,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5276,20 +5299,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5314,14 +5340,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11122"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emf\306\306project-G4\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A30F631-669B-4B85-80D9-41CC652520C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{9A30F631-669B-4B85-80D9-41CC652520C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C825F6B-FBEE-EF4A-A437-817D91B600B1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-2180" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Tâches</t>
   </si>
@@ -117,67 +117,7 @@
     <t xml:space="preserve">Compte rendu du Kick-off </t>
   </si>
   <si>
-    <t>Création des diagrammes de cas d’utilisation</t>
-  </si>
-  <si>
-    <t>Création du diagramme d'activité</t>
-  </si>
-  <si>
-    <t>Création du diagramme de classes</t>
-  </si>
-  <si>
-    <t>Création du diagramme de séquence</t>
-  </si>
-  <si>
-    <t>Création du modèle ER</t>
-  </si>
-  <si>
-    <t>Mise en place du projet backend</t>
-  </si>
-  <si>
-    <t>Connexion aux capteurs Phidget</t>
-  </si>
-  <si>
-    <t>Lecture des valeurs de température + humidité</t>
-  </si>
-  <si>
-    <t>Création de l'API REST</t>
-  </si>
-  <si>
-    <t>Sauvegarde des données dans la base de données</t>
-  </si>
-  <si>
-    <t>Système d’alertes</t>
-  </si>
-  <si>
-    <t>Tests unitaires simples backend</t>
-  </si>
-  <si>
-    <t>Mise en place du projet frontend</t>
-  </si>
-  <si>
-    <t>Page tableau de bord</t>
-  </si>
-  <si>
-    <t>Page détail d'une salle</t>
-  </si>
-  <si>
-    <t>Page modification des seuils</t>
-  </si>
-  <si>
-    <t>Intégration visuelle</t>
-  </si>
-  <si>
-    <t>Tests front + vérification sur mobile</t>
-  </si>
-  <si>
     <t>Connexion des API au frontend</t>
-  </si>
-  <si>
-    <t>Vérification du rafraîchissement des données</t>
-  </si>
-  <si>
-    <t>Tests d’affichage des alertes</t>
   </si>
   <si>
     <t>Tests fonctionnels complets</t>
@@ -235,6 +175,39 @@
   </si>
   <si>
     <t>Création du diagramme useCase</t>
+  </si>
+  <si>
+    <t>Mise en place du backend web</t>
+  </si>
+  <si>
+    <t>Installatioin de l'os sur le(s) rpi</t>
+  </si>
+  <si>
+    <t>Connexion des capteurs phidget</t>
+  </si>
+  <si>
+    <t>Création du programme pour rpi</t>
+  </si>
+  <si>
+    <t>Création système d’alertes</t>
+  </si>
+  <si>
+    <t>Mise en place du frontend web</t>
+  </si>
+  <si>
+    <t>Tests front + vérification sur navigateur mobile</t>
+  </si>
+  <si>
+    <t>Tests des alertes</t>
+  </si>
+  <si>
+    <t>Création système login</t>
+  </si>
+  <si>
+    <t>Création de lhistorique capteurs</t>
+  </si>
+  <si>
+    <t>Vérification et fix du rafraîchissement des données</t>
   </si>
 </sst>
 </file>
@@ -379,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -778,12 +751,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -944,6 +928,50 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -996,51 +1024,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1048,29 +1064,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0E09CA26-D57B-4FEF-A8F4-4CB706A0B1E1}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1111,14 +1105,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
+      <xdr:colOff>19845</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93135</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1134,8 +1128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3785394" y="679450"/>
-          <a:ext cx="1631156" cy="5228828"/>
+          <a:off x="4126178" y="702733"/>
+          <a:ext cx="911490" cy="5542095"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1542,41 +1536,63 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1F3DDA15-6875-2149-842D-93584F9F0ADA}">
+  <we:reference id="wa200009404" version="1.0.0.3" store="fr-FR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200009404" version="1.0.0.3" store="WA200009404" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="Office.AutoShowTaskpaneWithDocument" value="true"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF43"/>
+  <dimension ref="A1:CF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="94" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:CE29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" style="3" customWidth="1"/>
-    <col min="4" max="83" width="2.1796875" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.1796875" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.1796875" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.54296875" style="3"/>
+    <col min="1" max="1" width="47.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="3" customWidth="1"/>
+    <col min="4" max="83" width="2.1640625" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.1640625" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.1640625" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1611,177 +1627,177 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="61"/>
-      <c r="BL2" s="61"/>
-      <c r="BM2" s="61"/>
-      <c r="BN2" s="61"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="61"/>
-      <c r="BQ2" s="61"/>
-      <c r="BR2" s="61"/>
-      <c r="BS2" s="61"/>
-      <c r="BT2" s="61"/>
-      <c r="BU2" s="61"/>
-      <c r="BV2" s="61"/>
-      <c r="BW2" s="61"/>
-      <c r="BX2" s="61"/>
-      <c r="BY2" s="61"/>
-      <c r="BZ2" s="61"/>
-      <c r="CA2" s="61"/>
-      <c r="CB2" s="61"/>
-      <c r="CC2" s="61"/>
-      <c r="CD2" s="61"/>
-      <c r="CE2" s="61"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="52"/>
+      <c r="BV2" s="52"/>
+      <c r="BW2" s="52"/>
+      <c r="BX2" s="52"/>
+      <c r="BY2" s="52"/>
+      <c r="BZ2" s="52"/>
+      <c r="CA2" s="52"/>
+      <c r="CB2" s="52"/>
+      <c r="CC2" s="52"/>
+      <c r="CD2" s="52"/>
+      <c r="CE2" s="52"/>
     </row>
-    <row r="3" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="62"/>
-      <c r="CA3" s="62"/>
-      <c r="CB3" s="62"/>
-      <c r="CC3" s="62"/>
-      <c r="CD3" s="62"/>
-      <c r="CE3" s="62"/>
+    <row r="3" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="53"/>
+      <c r="BH3" s="53"/>
+      <c r="BI3" s="53"/>
+      <c r="BJ3" s="53"/>
+      <c r="BK3" s="53"/>
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="53"/>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="53"/>
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="53"/>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="53"/>
+      <c r="BX3" s="53"/>
+      <c r="BY3" s="53"/>
+      <c r="BZ3" s="53"/>
+      <c r="CA3" s="53"/>
+      <c r="CB3" s="53"/>
+      <c r="CC3" s="53"/>
+      <c r="CD3" s="53"/>
+      <c r="CE3" s="53"/>
     </row>
-    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -1790,132 +1806,132 @@
       <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="48">
         <v>45992</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="57" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59">
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="48">
         <v>45993</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="57" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="59">
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="48">
         <v>45999</v>
       </c>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="57" t="s">
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="59">
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="48">
         <v>46000</v>
       </c>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="57" t="s">
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="59">
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="48">
         <v>46006</v>
       </c>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="57" t="s">
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="59">
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="48">
         <v>46007</v>
       </c>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="57" t="s">
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="59">
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="48">
         <v>46027</v>
       </c>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="57" t="s">
+      <c r="BE4" s="48"/>
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="58"/>
-      <c r="BJ4" s="58"/>
-      <c r="BK4" s="58"/>
-      <c r="BL4" s="59">
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="48">
         <v>46028</v>
       </c>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="57" t="s">
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="58"/>
-      <c r="BR4" s="58"/>
-      <c r="BS4" s="58"/>
-      <c r="BT4" s="59">
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="48">
         <v>46034</v>
       </c>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="59"/>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="57" t="s">
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="48"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="58"/>
-      <c r="BZ4" s="58"/>
-      <c r="CA4" s="58"/>
-      <c r="CB4" s="59">
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="51"/>
+      <c r="CB4" s="48">
         <v>46035</v>
       </c>
-      <c r="CC4" s="59"/>
-      <c r="CD4" s="59"/>
-      <c r="CE4" s="60"/>
-      <c r="CF4" s="44" t="s">
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -2162,14 +2178,14 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="44"/>
+      <c r="CF5" s="55"/>
     </row>
-    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="30"/>
@@ -2188,16 +2204,16 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="48" t="s">
+      <c r="T6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="50"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
@@ -2254,14 +2270,14 @@
       <c r="CC6" s="10"/>
       <c r="CD6" s="10"/>
       <c r="CE6" s="11"/>
-      <c r="CF6" s="44"/>
+      <c r="CF6" s="55"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
@@ -2270,24 +2286,24 @@
       <c r="G7" s="16"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="53"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="64"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
@@ -2344,40 +2360,40 @@
       <c r="CC7" s="16"/>
       <c r="CD7" s="16"/>
       <c r="CE7" s="17"/>
-      <c r="CF7" s="44"/>
+      <c r="CF7" s="55"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="53"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="64"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
@@ -2434,15 +2450,13 @@
       <c r="CC8" s="16"/>
       <c r="CD8" s="16"/>
       <c r="CE8" s="17"/>
-      <c r="CF8" s="44"/>
+      <c r="CF8" s="55"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>40</v>
-      </c>
+      <c r="B9" s="24"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
@@ -2454,20 +2468,20 @@
       <c r="K9" s="17"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="53"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="64"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
@@ -2524,40 +2538,40 @@
       <c r="CC9" s="16"/>
       <c r="CD9" s="16"/>
       <c r="CE9" s="17"/>
-      <c r="CF9" s="44"/>
+      <c r="CF9" s="55"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="53"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="64"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
@@ -2614,13 +2628,13 @@
       <c r="CC10" s="16"/>
       <c r="CD10" s="16"/>
       <c r="CE10" s="17"/>
-      <c r="CF10" s="44"/>
+      <c r="CF10" s="55"/>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="39"/>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A11" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="24"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
@@ -2638,34 +2652,34 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
       <c r="AI11" s="17"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="16"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
       <c r="AV11" s="16"/>
       <c r="AW11" s="16"/>
       <c r="AX11" s="16"/>
@@ -2702,13 +2716,13 @@
       <c r="CC11" s="16"/>
       <c r="CD11" s="16"/>
       <c r="CE11" s="17"/>
-      <c r="CF11" s="44"/>
+      <c r="CF11" s="55"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="39"/>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A12" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="24"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
@@ -2726,46 +2740,46 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
       <c r="AV12" s="16"/>
       <c r="AW12" s="16"/>
       <c r="AX12" s="16"/>
       <c r="AY12" s="17"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="16"/>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="16"/>
-      <c r="BD12" s="16"/>
-      <c r="BE12" s="16"/>
-      <c r="BF12" s="16"/>
-      <c r="BG12" s="17"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="69"/>
+      <c r="BD12" s="69"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="69"/>
+      <c r="BG12" s="69"/>
       <c r="BH12" s="15"/>
       <c r="BI12" s="16"/>
       <c r="BJ12" s="16"/>
@@ -2790,11 +2804,11 @@
       <c r="CC12" s="16"/>
       <c r="CD12" s="16"/>
       <c r="CE12" s="17"/>
-      <c r="CF12" s="44"/>
+      <c r="CF12" s="55"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A13" s="68" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="14"/>
@@ -2814,16 +2828,16 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="16"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
@@ -2878,11 +2892,11 @@
       <c r="CC13" s="16"/>
       <c r="CD13" s="16"/>
       <c r="CE13" s="17"/>
-      <c r="CF13" s="44"/>
+      <c r="CF13" s="55"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>19</v>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A14" s="68" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="14"/>
@@ -2902,17 +2916,17 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="53"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="64"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
+      <c r="AD14" s="32"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="16"/>
@@ -2966,11 +2980,11 @@
       <c r="CC14" s="16"/>
       <c r="CD14" s="16"/>
       <c r="CE14" s="17"/>
-      <c r="CF14" s="44"/>
+      <c r="CF14" s="55"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>20</v>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A15" s="68" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="14"/>
@@ -2990,40 +3004,40 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="53"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="64"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
+      <c r="AE15" s="32"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="16"/>
       <c r="AI15" s="17"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="16"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="70"/>
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="70"/>
+      <c r="AO15" s="70"/>
+      <c r="AP15" s="70"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="70"/>
       <c r="AV15" s="16"/>
       <c r="AW15" s="16"/>
       <c r="AX15" s="16"/>
       <c r="AY15" s="17"/>
-      <c r="AZ15" s="15"/>
-      <c r="BA15" s="16"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
       <c r="BB15" s="16"/>
       <c r="BC15" s="16"/>
       <c r="BD15" s="16"/>
@@ -3054,11 +3068,11 @@
       <c r="CC15" s="16"/>
       <c r="CD15" s="16"/>
       <c r="CE15" s="17"/>
-      <c r="CF15" s="44"/>
+      <c r="CF15" s="55"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>21</v>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A16" s="68" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="14"/>
@@ -3078,14 +3092,14 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="53"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="64"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -3110,26 +3124,26 @@
       <c r="AW16" s="16"/>
       <c r="AX16" s="16"/>
       <c r="AY16" s="17"/>
-      <c r="AZ16" s="15"/>
-      <c r="BA16" s="16"/>
-      <c r="BB16" s="16"/>
-      <c r="BC16" s="16"/>
-      <c r="BD16" s="16"/>
-      <c r="BE16" s="16"/>
-      <c r="BF16" s="16"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="15"/>
-      <c r="BI16" s="16"/>
-      <c r="BJ16" s="16"/>
-      <c r="BK16" s="16"/>
+      <c r="AZ16" s="45"/>
+      <c r="BA16" s="45"/>
+      <c r="BB16" s="45"/>
+      <c r="BC16" s="45"/>
+      <c r="BD16" s="45"/>
+      <c r="BE16" s="45"/>
+      <c r="BF16" s="45"/>
+      <c r="BG16" s="45"/>
+      <c r="BH16" s="45"/>
+      <c r="BI16" s="45"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="71"/>
       <c r="BL16" s="16"/>
       <c r="BM16" s="16"/>
       <c r="BN16" s="16"/>
       <c r="BO16" s="17"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="16"/>
-      <c r="BR16" s="16"/>
-      <c r="BS16" s="16"/>
+      <c r="BP16" s="71"/>
+      <c r="BQ16" s="71"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="3"/>
       <c r="BT16" s="16"/>
       <c r="BU16" s="16"/>
       <c r="BV16" s="16"/>
@@ -3142,11 +3156,11 @@
       <c r="CC16" s="16"/>
       <c r="CD16" s="16"/>
       <c r="CE16" s="17"/>
-      <c r="CF16" s="44"/>
+      <c r="CF16" s="55"/>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>22</v>
+    <row r="17" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A17" s="68" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="14"/>
@@ -3166,14 +3180,14 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="53"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="64"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
@@ -3206,18 +3220,18 @@
       <c r="BE17" s="16"/>
       <c r="BF17" s="16"/>
       <c r="BG17" s="17"/>
-      <c r="BH17" s="15"/>
-      <c r="BI17" s="16"/>
-      <c r="BJ17" s="16"/>
-      <c r="BK17" s="16"/>
+      <c r="BH17" s="69"/>
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="69"/>
+      <c r="BK17" s="69"/>
       <c r="BL17" s="16"/>
       <c r="BM17" s="16"/>
       <c r="BN17" s="16"/>
       <c r="BO17" s="17"/>
-      <c r="BP17" s="15"/>
-      <c r="BQ17" s="16"/>
-      <c r="BR17" s="16"/>
-      <c r="BS17" s="16"/>
+      <c r="BP17" s="69"/>
+      <c r="BQ17" s="44"/>
+      <c r="BR17" s="69"/>
+      <c r="BS17" s="44"/>
       <c r="BT17" s="16"/>
       <c r="BU17" s="16"/>
       <c r="BV17" s="16"/>
@@ -3230,11 +3244,11 @@
       <c r="CC17" s="16"/>
       <c r="CD17" s="16"/>
       <c r="CE17" s="17"/>
-      <c r="CF17" s="44"/>
+      <c r="CF17" s="55"/>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>23</v>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A18" s="68" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="14"/>
@@ -3254,40 +3268,40 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="17"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
       <c r="AV18" s="16"/>
       <c r="AW18" s="16"/>
       <c r="AX18" s="16"/>
       <c r="AY18" s="17"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="16"/>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="72"/>
       <c r="BB18" s="16"/>
       <c r="BC18" s="16"/>
       <c r="BD18" s="16"/>
@@ -3318,11 +3332,11 @@
       <c r="CC18" s="16"/>
       <c r="CD18" s="16"/>
       <c r="CE18" s="17"/>
-      <c r="CF18" s="44"/>
+      <c r="CF18" s="55"/>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>24</v>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A19" s="68" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="14"/>
@@ -3342,14 +3356,14 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="53"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="64"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
@@ -3382,16 +3396,16 @@
       <c r="BE19" s="16"/>
       <c r="BF19" s="16"/>
       <c r="BG19" s="17"/>
-      <c r="BH19" s="15"/>
-      <c r="BI19" s="16"/>
-      <c r="BJ19" s="16"/>
-      <c r="BK19" s="16"/>
+      <c r="BH19" s="70"/>
+      <c r="BI19" s="70"/>
+      <c r="BJ19" s="70"/>
+      <c r="BK19" s="70"/>
       <c r="BL19" s="16"/>
       <c r="BM19" s="16"/>
       <c r="BN19" s="16"/>
       <c r="BO19" s="17"/>
-      <c r="BP19" s="15"/>
-      <c r="BQ19" s="16"/>
+      <c r="BP19" s="70"/>
+      <c r="BQ19" s="70"/>
       <c r="BR19" s="16"/>
       <c r="BS19" s="16"/>
       <c r="BT19" s="16"/>
@@ -3406,11 +3420,11 @@
       <c r="CC19" s="16"/>
       <c r="CD19" s="16"/>
       <c r="CE19" s="17"/>
-      <c r="CF19" s="44"/>
+      <c r="CF19" s="55"/>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="14"/>
@@ -3430,14 +3444,14 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="53"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="64"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
@@ -3462,9 +3476,9 @@
       <c r="AW20" s="16"/>
       <c r="AX20" s="16"/>
       <c r="AY20" s="17"/>
-      <c r="AZ20" s="15"/>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="16"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="69"/>
       <c r="BC20" s="16"/>
       <c r="BD20" s="16"/>
       <c r="BE20" s="16"/>
@@ -3494,11 +3508,11 @@
       <c r="CC20" s="16"/>
       <c r="CD20" s="16"/>
       <c r="CE20" s="17"/>
-      <c r="CF20" s="44"/>
+      <c r="CF20" s="55"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>26</v>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A21" s="68" t="s">
+        <v>37</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="14"/>
@@ -3518,14 +3532,14 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="53"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="64"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
@@ -3553,11 +3567,11 @@
       <c r="AZ21" s="15"/>
       <c r="BA21" s="16"/>
       <c r="BB21" s="16"/>
-      <c r="BC21" s="16"/>
-      <c r="BD21" s="16"/>
-      <c r="BE21" s="16"/>
-      <c r="BF21" s="16"/>
-      <c r="BG21" s="17"/>
+      <c r="BC21" s="32"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="32"/>
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="32"/>
       <c r="BH21" s="15"/>
       <c r="BI21" s="16"/>
       <c r="BJ21" s="16"/>
@@ -3582,11 +3596,11 @@
       <c r="CC21" s="16"/>
       <c r="CD21" s="16"/>
       <c r="CE21" s="17"/>
-      <c r="CF21" s="44"/>
+      <c r="CF21" s="55"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>27</v>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A22" s="68" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="14"/>
@@ -3606,14 +3620,14 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="53"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="64"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -3658,10 +3672,10 @@
       <c r="BQ22" s="16"/>
       <c r="BR22" s="16"/>
       <c r="BS22" s="16"/>
-      <c r="BT22" s="16"/>
-      <c r="BU22" s="16"/>
-      <c r="BV22" s="16"/>
-      <c r="BW22" s="17"/>
+      <c r="BT22" s="37"/>
+      <c r="BU22" s="37"/>
+      <c r="BV22" s="37"/>
+      <c r="BW22" s="38"/>
       <c r="BX22" s="15"/>
       <c r="BY22" s="16"/>
       <c r="BZ22" s="16"/>
@@ -3670,11 +3684,11 @@
       <c r="CC22" s="16"/>
       <c r="CD22" s="16"/>
       <c r="CE22" s="17"/>
-      <c r="CF22" s="44"/>
+      <c r="CF22" s="55"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="14"/>
@@ -3694,14 +3708,14 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="53"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="64"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -3746,10 +3760,10 @@
       <c r="BQ23" s="16"/>
       <c r="BR23" s="16"/>
       <c r="BS23" s="16"/>
-      <c r="BT23" s="16"/>
-      <c r="BU23" s="16"/>
-      <c r="BV23" s="16"/>
-      <c r="BW23" s="17"/>
+      <c r="BT23" s="37"/>
+      <c r="BU23" s="37"/>
+      <c r="BV23" s="37"/>
+      <c r="BW23" s="38"/>
       <c r="BX23" s="15"/>
       <c r="BY23" s="16"/>
       <c r="BZ23" s="16"/>
@@ -3758,100 +3772,97 @@
       <c r="CC23" s="16"/>
       <c r="CD23" s="16"/>
       <c r="CE23" s="17"/>
-      <c r="CF23" s="44"/>
+      <c r="CF23" s="55"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="15"/>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="15"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
-      <c r="BD24" s="16"/>
-      <c r="BE24" s="16"/>
-      <c r="BF24" s="16"/>
-      <c r="BG24" s="17"/>
-      <c r="BH24" s="15"/>
-      <c r="BI24" s="16"/>
-      <c r="BJ24" s="16"/>
-      <c r="BK24" s="16"/>
-      <c r="BL24" s="16"/>
-      <c r="BM24" s="16"/>
-      <c r="BN24" s="16"/>
-      <c r="BO24" s="17"/>
-      <c r="BP24" s="15"/>
-      <c r="BQ24" s="16"/>
-      <c r="BR24" s="16"/>
-      <c r="BS24" s="16"/>
-      <c r="BT24" s="16"/>
-      <c r="BU24" s="16"/>
-      <c r="BV24" s="16"/>
-      <c r="BW24" s="17"/>
-      <c r="BX24" s="15"/>
-      <c r="BY24" s="16"/>
-      <c r="BZ24" s="16"/>
-      <c r="CA24" s="16"/>
-      <c r="CB24" s="16"/>
-      <c r="CC24" s="16"/>
-      <c r="CD24" s="16"/>
-      <c r="CE24" s="17"/>
-      <c r="CF24" s="44"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="36"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="37"/>
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="36"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="37"/>
+      <c r="BL24" s="37"/>
+      <c r="BM24" s="37"/>
+      <c r="BN24" s="37"/>
+      <c r="BO24" s="38"/>
+      <c r="BP24" s="36"/>
+      <c r="BQ24" s="37"/>
+      <c r="BR24" s="37"/>
+      <c r="BS24" s="37"/>
+      <c r="BT24" s="37"/>
+      <c r="BU24" s="37"/>
+      <c r="BV24" s="37"/>
+      <c r="BW24" s="38"/>
+      <c r="BX24" s="36"/>
+      <c r="BY24" s="37"/>
+      <c r="BZ24" s="37"/>
+      <c r="CA24" s="37"/>
+      <c r="CB24" s="37"/>
+      <c r="CC24" s="37"/>
+      <c r="CD24" s="37"/>
+      <c r="CE24" s="38"/>
+      <c r="CF24" s="55"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>30</v>
-      </c>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.15">
       <c r="B25" s="24"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
@@ -3870,14 +3881,14 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="53"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="64"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
@@ -3934,12 +3945,10 @@
       <c r="CC25" s="16"/>
       <c r="CD25" s="16"/>
       <c r="CE25" s="17"/>
-      <c r="CF25" s="44"/>
+      <c r="CF25" s="55"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>31</v>
-      </c>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
       <c r="B26" s="24"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
@@ -3958,14 +3967,14 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="53"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="64"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
@@ -4022,12 +4031,10 @@
       <c r="CC26" s="16"/>
       <c r="CD26" s="16"/>
       <c r="CE26" s="17"/>
-      <c r="CF26" s="44"/>
+      <c r="CF26" s="55"/>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>32</v>
-      </c>
+    <row r="27" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
       <c r="B27" s="24"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
@@ -4046,14 +4053,14 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="53"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="64"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
@@ -4110,912 +4117,215 @@
       <c r="CC27" s="16"/>
       <c r="CD27" s="16"/>
       <c r="CE27" s="17"/>
-      <c r="CF27" s="44"/>
+      <c r="CF27" s="55"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
-      <c r="AO28" s="16"/>
-      <c r="AP28" s="16"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="15"/>
-      <c r="AS28" s="16"/>
-      <c r="AT28" s="16"/>
-      <c r="AU28" s="16"/>
-      <c r="AV28" s="16"/>
-      <c r="AW28" s="16"/>
-      <c r="AX28" s="16"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="15"/>
-      <c r="BA28" s="16"/>
-      <c r="BB28" s="16"/>
-      <c r="BC28" s="16"/>
-      <c r="BD28" s="16"/>
-      <c r="BE28" s="16"/>
-      <c r="BF28" s="16"/>
-      <c r="BG28" s="17"/>
-      <c r="BH28" s="15"/>
-      <c r="BI28" s="16"/>
-      <c r="BJ28" s="16"/>
-      <c r="BK28" s="16"/>
-      <c r="BL28" s="16"/>
-      <c r="BM28" s="16"/>
-      <c r="BN28" s="16"/>
-      <c r="BO28" s="17"/>
-      <c r="BP28" s="15"/>
-      <c r="BQ28" s="16"/>
-      <c r="BR28" s="16"/>
-      <c r="BS28" s="16"/>
-      <c r="BT28" s="16"/>
-      <c r="BU28" s="16"/>
-      <c r="BV28" s="16"/>
-      <c r="BW28" s="17"/>
-      <c r="BX28" s="15"/>
-      <c r="BY28" s="16"/>
-      <c r="BZ28" s="16"/>
-      <c r="CA28" s="16"/>
-      <c r="CB28" s="16"/>
-      <c r="CC28" s="16"/>
-      <c r="CD28" s="16"/>
-      <c r="CE28" s="17"/>
-      <c r="CF28" s="44"/>
+    <row r="28" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="21"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="21"/>
+      <c r="BB28" s="21"/>
+      <c r="BC28" s="21"/>
+      <c r="BD28" s="21"/>
+      <c r="BE28" s="21"/>
+      <c r="BF28" s="21"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="21"/>
+      <c r="BJ28" s="21"/>
+      <c r="BK28" s="21"/>
+      <c r="BL28" s="21"/>
+      <c r="BM28" s="21"/>
+      <c r="BN28" s="21"/>
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="21"/>
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="21"/>
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="21"/>
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="21"/>
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="55"/>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-      <c r="AN29" s="16"/>
-      <c r="AO29" s="16"/>
-      <c r="AP29" s="16"/>
-      <c r="AQ29" s="17"/>
-      <c r="AR29" s="15"/>
-      <c r="AS29" s="16"/>
-      <c r="AT29" s="16"/>
-      <c r="AU29" s="16"/>
-      <c r="AV29" s="16"/>
-      <c r="AW29" s="16"/>
-      <c r="AX29" s="16"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="15"/>
-      <c r="BA29" s="16"/>
-      <c r="BB29" s="16"/>
-      <c r="BC29" s="16"/>
-      <c r="BD29" s="16"/>
-      <c r="BE29" s="16"/>
-      <c r="BF29" s="16"/>
-      <c r="BG29" s="17"/>
-      <c r="BH29" s="15"/>
-      <c r="BI29" s="16"/>
-      <c r="BJ29" s="16"/>
-      <c r="BK29" s="16"/>
-      <c r="BL29" s="16"/>
-      <c r="BM29" s="16"/>
-      <c r="BN29" s="16"/>
-      <c r="BO29" s="17"/>
-      <c r="BP29" s="15"/>
-      <c r="BQ29" s="16"/>
-      <c r="BR29" s="16"/>
-      <c r="BS29" s="16"/>
-      <c r="BT29" s="16"/>
-      <c r="BU29" s="16"/>
-      <c r="BV29" s="16"/>
-      <c r="BW29" s="17"/>
-      <c r="BX29" s="15"/>
-      <c r="BY29" s="16"/>
-      <c r="BZ29" s="16"/>
-      <c r="CA29" s="16"/>
-      <c r="CB29" s="16"/>
-      <c r="CC29" s="16"/>
-      <c r="CD29" s="16"/>
-      <c r="CE29" s="17"/>
-      <c r="CF29" s="44"/>
+    <row r="29" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A29" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+      <c r="AX29" s="56"/>
+      <c r="AY29" s="56"/>
+      <c r="AZ29" s="56"/>
+      <c r="BA29" s="56"/>
+      <c r="BB29" s="56"/>
+      <c r="BC29" s="56"/>
+      <c r="BD29" s="56"/>
+      <c r="BE29" s="56"/>
+      <c r="BF29" s="56"/>
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+      <c r="BI29" s="56"/>
+      <c r="BJ29" s="56"/>
+      <c r="BK29" s="56"/>
+      <c r="BL29" s="56"/>
+      <c r="BM29" s="56"/>
+      <c r="BN29" s="56"/>
+      <c r="BO29" s="56"/>
+      <c r="BP29" s="56"/>
+      <c r="BQ29" s="56"/>
+      <c r="BR29" s="56"/>
+      <c r="BS29" s="56"/>
+      <c r="BT29" s="56"/>
+      <c r="BU29" s="56"/>
+      <c r="BV29" s="56"/>
+      <c r="BW29" s="56"/>
+      <c r="BX29" s="56"/>
+      <c r="BY29" s="56"/>
+      <c r="BZ29" s="56"/>
+      <c r="CA29" s="56"/>
+      <c r="CB29" s="56"/>
+      <c r="CC29" s="56"/>
+      <c r="CD29" s="56"/>
+      <c r="CE29" s="56"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
-      <c r="AQ30" s="17"/>
-      <c r="AR30" s="15"/>
-      <c r="AS30" s="16"/>
-      <c r="AT30" s="16"/>
-      <c r="AU30" s="16"/>
-      <c r="AV30" s="16"/>
-      <c r="AW30" s="16"/>
-      <c r="AX30" s="16"/>
-      <c r="AY30" s="17"/>
-      <c r="AZ30" s="15"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="16"/>
-      <c r="BC30" s="16"/>
-      <c r="BD30" s="16"/>
-      <c r="BE30" s="16"/>
-      <c r="BF30" s="16"/>
-      <c r="BG30" s="17"/>
-      <c r="BH30" s="15"/>
-      <c r="BI30" s="16"/>
-      <c r="BJ30" s="16"/>
-      <c r="BK30" s="16"/>
-      <c r="BL30" s="16"/>
-      <c r="BM30" s="16"/>
-      <c r="BN30" s="16"/>
-      <c r="BO30" s="17"/>
-      <c r="BP30" s="15"/>
-      <c r="BQ30" s="16"/>
-      <c r="BR30" s="16"/>
-      <c r="BS30" s="16"/>
-      <c r="BT30" s="16"/>
-      <c r="BU30" s="16"/>
-      <c r="BV30" s="16"/>
-      <c r="BW30" s="17"/>
-      <c r="BX30" s="15"/>
-      <c r="BY30" s="16"/>
-      <c r="BZ30" s="16"/>
-      <c r="CA30" s="16"/>
-      <c r="CB30" s="16"/>
-      <c r="CC30" s="16"/>
-      <c r="CD30" s="16"/>
-      <c r="CE30" s="17"/>
-      <c r="CF30" s="44"/>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="B32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="40"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="16"/>
-      <c r="AL31" s="16"/>
-      <c r="AM31" s="16"/>
-      <c r="AN31" s="16"/>
-      <c r="AO31" s="16"/>
-      <c r="AP31" s="16"/>
-      <c r="AQ31" s="17"/>
-      <c r="AR31" s="15"/>
-      <c r="AS31" s="16"/>
-      <c r="AT31" s="16"/>
-      <c r="AU31" s="16"/>
-      <c r="AV31" s="16"/>
-      <c r="AW31" s="16"/>
-      <c r="AX31" s="16"/>
-      <c r="AY31" s="17"/>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="16"/>
-      <c r="BB31" s="16"/>
-      <c r="BC31" s="16"/>
-      <c r="BD31" s="16"/>
-      <c r="BE31" s="16"/>
-      <c r="BF31" s="16"/>
-      <c r="BG31" s="17"/>
-      <c r="BH31" s="15"/>
-      <c r="BI31" s="16"/>
-      <c r="BJ31" s="16"/>
-      <c r="BK31" s="16"/>
-      <c r="BL31" s="16"/>
-      <c r="BM31" s="16"/>
-      <c r="BN31" s="16"/>
-      <c r="BO31" s="17"/>
-      <c r="BP31" s="15"/>
-      <c r="BQ31" s="16"/>
-      <c r="BR31" s="16"/>
-      <c r="BS31" s="16"/>
-      <c r="BT31" s="16"/>
-      <c r="BU31" s="16"/>
-      <c r="BV31" s="16"/>
-      <c r="BW31" s="17"/>
-      <c r="BX31" s="15"/>
-      <c r="BY31" s="16"/>
-      <c r="BZ31" s="16"/>
-      <c r="CA31" s="16"/>
-      <c r="CB31" s="16"/>
-      <c r="CC31" s="16"/>
-      <c r="CD31" s="16"/>
-      <c r="CE31" s="17"/>
-      <c r="CF31" s="44"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="41"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="37"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="37"/>
-      <c r="AT32" s="37"/>
-      <c r="AU32" s="37"/>
-      <c r="AV32" s="37"/>
-      <c r="AW32" s="37"/>
-      <c r="AX32" s="37"/>
-      <c r="AY32" s="38"/>
-      <c r="AZ32" s="36"/>
-      <c r="BA32" s="37"/>
-      <c r="BB32" s="37"/>
-      <c r="BC32" s="37"/>
-      <c r="BD32" s="37"/>
-      <c r="BE32" s="37"/>
-      <c r="BF32" s="37"/>
-      <c r="BG32" s="38"/>
-      <c r="BH32" s="36"/>
-      <c r="BI32" s="37"/>
-      <c r="BJ32" s="37"/>
-      <c r="BK32" s="37"/>
-      <c r="BL32" s="37"/>
-      <c r="BM32" s="37"/>
-      <c r="BN32" s="37"/>
-      <c r="BO32" s="38"/>
-      <c r="BP32" s="36"/>
-      <c r="BQ32" s="37"/>
-      <c r="BR32" s="37"/>
-      <c r="BS32" s="37"/>
-      <c r="BT32" s="37"/>
-      <c r="BU32" s="37"/>
-      <c r="BV32" s="37"/>
-      <c r="BW32" s="38"/>
-      <c r="BX32" s="36"/>
-      <c r="BY32" s="37"/>
-      <c r="BZ32" s="37"/>
-      <c r="CA32" s="37"/>
-      <c r="CB32" s="37"/>
-      <c r="CC32" s="37"/>
-      <c r="CD32" s="37"/>
-      <c r="CE32" s="38"/>
-      <c r="CF32" s="44"/>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="42"/>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="17"/>
-      <c r="AR33" s="15"/>
-      <c r="AS33" s="16"/>
-      <c r="AT33" s="16"/>
-      <c r="AU33" s="16"/>
-      <c r="AV33" s="16"/>
-      <c r="AW33" s="16"/>
-      <c r="AX33" s="16"/>
-      <c r="AY33" s="17"/>
-      <c r="AZ33" s="15"/>
-      <c r="BA33" s="16"/>
-      <c r="BB33" s="16"/>
-      <c r="BC33" s="16"/>
-      <c r="BD33" s="16"/>
-      <c r="BE33" s="16"/>
-      <c r="BF33" s="16"/>
-      <c r="BG33" s="17"/>
-      <c r="BH33" s="15"/>
-      <c r="BI33" s="16"/>
-      <c r="BJ33" s="16"/>
-      <c r="BK33" s="16"/>
-      <c r="BL33" s="16"/>
-      <c r="BM33" s="16"/>
-      <c r="BN33" s="16"/>
-      <c r="BO33" s="17"/>
-      <c r="BP33" s="15"/>
-      <c r="BQ33" s="16"/>
-      <c r="BR33" s="16"/>
-      <c r="BS33" s="16"/>
-      <c r="BT33" s="16"/>
-      <c r="BU33" s="16"/>
-      <c r="BV33" s="16"/>
-      <c r="BW33" s="17"/>
-      <c r="BX33" s="15"/>
-      <c r="BY33" s="16"/>
-      <c r="BZ33" s="16"/>
-      <c r="CA33" s="16"/>
-      <c r="CB33" s="16"/>
-      <c r="CC33" s="16"/>
-      <c r="CD33" s="16"/>
-      <c r="CE33" s="17"/>
-      <c r="CF33" s="44"/>
-    </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="16"/>
-      <c r="AO34" s="16"/>
-      <c r="AP34" s="16"/>
-      <c r="AQ34" s="17"/>
-      <c r="AR34" s="15"/>
-      <c r="AS34" s="16"/>
-      <c r="AT34" s="16"/>
-      <c r="AU34" s="16"/>
-      <c r="AV34" s="16"/>
-      <c r="AW34" s="16"/>
-      <c r="AX34" s="16"/>
-      <c r="AY34" s="17"/>
-      <c r="AZ34" s="15"/>
-      <c r="BA34" s="16"/>
-      <c r="BB34" s="16"/>
-      <c r="BC34" s="16"/>
-      <c r="BD34" s="16"/>
-      <c r="BE34" s="16"/>
-      <c r="BF34" s="16"/>
-      <c r="BG34" s="17"/>
-      <c r="BH34" s="15"/>
-      <c r="BI34" s="16"/>
-      <c r="BJ34" s="16"/>
-      <c r="BK34" s="16"/>
-      <c r="BL34" s="16"/>
-      <c r="BM34" s="16"/>
-      <c r="BN34" s="16"/>
-      <c r="BO34" s="17"/>
-      <c r="BP34" s="15"/>
-      <c r="BQ34" s="16"/>
-      <c r="BR34" s="16"/>
-      <c r="BS34" s="16"/>
-      <c r="BT34" s="16"/>
-      <c r="BU34" s="16"/>
-      <c r="BV34" s="16"/>
-      <c r="BW34" s="17"/>
-      <c r="BX34" s="15"/>
-      <c r="BY34" s="16"/>
-      <c r="BZ34" s="16"/>
-      <c r="CA34" s="16"/>
-      <c r="CB34" s="16"/>
-      <c r="CC34" s="16"/>
-      <c r="CD34" s="16"/>
-      <c r="CE34" s="17"/>
-      <c r="CF34" s="44"/>
-    </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="17"/>
-      <c r="AR35" s="15"/>
-      <c r="AS35" s="16"/>
-      <c r="AT35" s="16"/>
-      <c r="AU35" s="16"/>
-      <c r="AV35" s="16"/>
-      <c r="AW35" s="16"/>
-      <c r="AX35" s="16"/>
-      <c r="AY35" s="17"/>
-      <c r="AZ35" s="15"/>
-      <c r="BA35" s="16"/>
-      <c r="BB35" s="16"/>
-      <c r="BC35" s="16"/>
-      <c r="BD35" s="16"/>
-      <c r="BE35" s="16"/>
-      <c r="BF35" s="16"/>
-      <c r="BG35" s="17"/>
-      <c r="BH35" s="15"/>
-      <c r="BI35" s="16"/>
-      <c r="BJ35" s="16"/>
-      <c r="BK35" s="16"/>
-      <c r="BL35" s="16"/>
-      <c r="BM35" s="16"/>
-      <c r="BN35" s="16"/>
-      <c r="BO35" s="17"/>
-      <c r="BP35" s="15"/>
-      <c r="BQ35" s="16"/>
-      <c r="BR35" s="16"/>
-      <c r="BS35" s="16"/>
-      <c r="BT35" s="16"/>
-      <c r="BU35" s="16"/>
-      <c r="BV35" s="16"/>
-      <c r="BW35" s="17"/>
-      <c r="BX35" s="15"/>
-      <c r="BY35" s="16"/>
-      <c r="BZ35" s="16"/>
-      <c r="CA35" s="16"/>
-      <c r="CB35" s="16"/>
-      <c r="CC35" s="16"/>
-      <c r="CD35" s="16"/>
-      <c r="CE35" s="17"/>
-      <c r="CF35" s="44"/>
-    </row>
-    <row r="36" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="21"/>
-      <c r="AL36" s="21"/>
-      <c r="AM36" s="21"/>
-      <c r="AN36" s="21"/>
-      <c r="AO36" s="21"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="22"/>
-      <c r="AR36" s="20"/>
-      <c r="AS36" s="21"/>
-      <c r="AT36" s="21"/>
-      <c r="AU36" s="21"/>
-      <c r="AV36" s="21"/>
-      <c r="AW36" s="21"/>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="22"/>
-      <c r="AZ36" s="20"/>
-      <c r="BA36" s="21"/>
-      <c r="BB36" s="21"/>
-      <c r="BC36" s="21"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="21"/>
-      <c r="BF36" s="21"/>
-      <c r="BG36" s="22"/>
-      <c r="BH36" s="20"/>
-      <c r="BI36" s="21"/>
-      <c r="BJ36" s="21"/>
-      <c r="BK36" s="21"/>
-      <c r="BL36" s="21"/>
-      <c r="BM36" s="21"/>
-      <c r="BN36" s="21"/>
-      <c r="BO36" s="22"/>
-      <c r="BP36" s="20"/>
-      <c r="BQ36" s="21"/>
-      <c r="BR36" s="21"/>
-      <c r="BS36" s="21"/>
-      <c r="BT36" s="21"/>
-      <c r="BU36" s="21"/>
-      <c r="BV36" s="21"/>
-      <c r="BW36" s="22"/>
-      <c r="BX36" s="20"/>
-      <c r="BY36" s="21"/>
-      <c r="BZ36" s="21"/>
-      <c r="CA36" s="21"/>
-      <c r="CB36" s="21"/>
-      <c r="CC36" s="21"/>
-      <c r="CD36" s="21"/>
-      <c r="CE36" s="22"/>
-      <c r="CF36" s="44"/>
-    </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="45"/>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="45"/>
-      <c r="AS37" s="45"/>
-      <c r="AT37" s="45"/>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="45"/>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="45"/>
-      <c r="BC37" s="45"/>
-      <c r="BD37" s="45"/>
-      <c r="BE37" s="45"/>
-      <c r="BF37" s="45"/>
-      <c r="BG37" s="45"/>
-      <c r="BH37" s="45"/>
-      <c r="BI37" s="45"/>
-      <c r="BJ37" s="45"/>
-      <c r="BK37" s="45"/>
-      <c r="BL37" s="45"/>
-      <c r="BM37" s="45"/>
-      <c r="BN37" s="45"/>
-      <c r="BO37" s="45"/>
-      <c r="BP37" s="45"/>
-      <c r="BQ37" s="45"/>
-      <c r="BR37" s="45"/>
-      <c r="BS37" s="45"/>
-      <c r="BT37" s="45"/>
-      <c r="BU37" s="45"/>
-      <c r="BV37" s="45"/>
-      <c r="BW37" s="45"/>
-      <c r="BX37" s="45"/>
-      <c r="BY37" s="45"/>
-      <c r="BZ37" s="45"/>
-      <c r="CA37" s="45"/>
-      <c r="CB37" s="45"/>
-      <c r="CC37" s="45"/>
-      <c r="CD37" s="45"/>
-      <c r="CE37" s="45"/>
-    </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B40" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="40"/>
-    </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="41"/>
-    </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B42" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="42"/>
-    </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="43"/>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF28"/>
+    <mergeCell ref="A29:CE29"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA28"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
@@ -5031,30 +4341,19 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CF36"/>
-    <mergeCell ref="A37:CE37"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA36"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D2:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B10">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="B6:B28">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",B6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B36">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",B13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -5086,6 +4385,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5298,29 +4606,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5337,12 +4648,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11130"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{9A30F631-669B-4B85-80D9-41CC652520C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C825F6B-FBEE-EF4A-A437-817D91B600B1}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{9A30F631-669B-4B85-80D9-41CC652520C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B245B74-AD4F-9449-8935-6449324198AC}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-2180" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Tâches</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Terminé</t>
-  </si>
-  <si>
-    <t>En cours</t>
   </si>
   <si>
     <t>Cyril</t>
@@ -767,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -936,6 +933,109 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -944,118 +1044,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1110,8 +1102,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>93135</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1128,8 +1120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4126178" y="702733"/>
-          <a:ext cx="911490" cy="5542095"/>
+          <a:off x="4507178" y="702733"/>
+          <a:ext cx="4535222" cy="4187428"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1187,7 +1179,197 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>8468</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>16936</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4805D7BD-A81C-A4EF-3856-A24753972147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="11616268" y="2878666"/>
+          <a:ext cx="3869268" cy="177802"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="33820"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>V1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>154215</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>162683</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>159658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4565EBD-C6F1-7D47-B5AA-60746F3017FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="12655551" y="2819097"/>
+          <a:ext cx="3744082" cy="171754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="33820"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>V2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>7258</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>15726</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EFC46D-E4DC-D241-8214-5DC2773AF048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="14631308" y="2826354"/>
+          <a:ext cx="3744082" cy="171754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="33820"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>V3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1562,11 +1744,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="94" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="94" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29:CE29"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1581,18 +1763,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="A1" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1631,173 +1813,173 @@
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
-      <c r="BV2" s="52"/>
-      <c r="BW2" s="52"/>
-      <c r="BX2" s="52"/>
-      <c r="BY2" s="52"/>
-      <c r="BZ2" s="52"/>
-      <c r="CA2" s="52"/>
-      <c r="CB2" s="52"/>
-      <c r="CC2" s="52"/>
-      <c r="CD2" s="52"/>
-      <c r="CE2" s="52"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
     </row>
     <row r="3" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="53"/>
-      <c r="BC3" s="53"/>
-      <c r="BD3" s="53"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="53"/>
-      <c r="BH3" s="53"/>
-      <c r="BI3" s="53"/>
-      <c r="BJ3" s="53"/>
-      <c r="BK3" s="53"/>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="53"/>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="53"/>
-      <c r="BP3" s="53"/>
-      <c r="BQ3" s="53"/>
-      <c r="BR3" s="53"/>
-      <c r="BS3" s="53"/>
-      <c r="BT3" s="53"/>
-      <c r="BU3" s="53"/>
-      <c r="BV3" s="53"/>
-      <c r="BW3" s="53"/>
-      <c r="BX3" s="53"/>
-      <c r="BY3" s="53"/>
-      <c r="BZ3" s="53"/>
-      <c r="CA3" s="53"/>
-      <c r="CB3" s="53"/>
-      <c r="CC3" s="53"/>
-      <c r="CD3" s="53"/>
-      <c r="CE3" s="53"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="71"/>
+      <c r="BK3" s="71"/>
+      <c r="BL3" s="71"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="71"/>
+      <c r="BO3" s="71"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="71"/>
+      <c r="BR3" s="71"/>
+      <c r="BS3" s="71"/>
+      <c r="BT3" s="71"/>
+      <c r="BU3" s="71"/>
+      <c r="BV3" s="71"/>
+      <c r="BW3" s="71"/>
+      <c r="BX3" s="71"/>
+      <c r="BY3" s="71"/>
+      <c r="BZ3" s="71"/>
+      <c r="CA3" s="71"/>
+      <c r="CB3" s="71"/>
+      <c r="CC3" s="71"/>
+      <c r="CD3" s="71"/>
+      <c r="CE3" s="71"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -1806,132 +1988,132 @@
       <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="48">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67">
         <v>45992</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50" t="s">
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="48">
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67">
         <v>45993</v>
       </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50" t="s">
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="48">
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="67">
         <v>45999</v>
       </c>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="50" t="s">
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="48">
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="67">
         <v>46000</v>
       </c>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="50" t="s">
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="48">
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="67">
         <v>46006</v>
       </c>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="50" t="s">
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="48">
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="67">
         <v>46007</v>
       </c>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="50" t="s">
+      <c r="AW4" s="67"/>
+      <c r="AX4" s="67"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="51"/>
-      <c r="BD4" s="48">
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="67">
         <v>46027</v>
       </c>
-      <c r="BE4" s="48"/>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="49"/>
-      <c r="BH4" s="50" t="s">
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="67"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="51"/>
-      <c r="BJ4" s="51"/>
-      <c r="BK4" s="51"/>
-      <c r="BL4" s="48">
+      <c r="BI4" s="66"/>
+      <c r="BJ4" s="66"/>
+      <c r="BK4" s="66"/>
+      <c r="BL4" s="67">
         <v>46028</v>
       </c>
-      <c r="BM4" s="48"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="49"/>
-      <c r="BP4" s="50" t="s">
+      <c r="BM4" s="67"/>
+      <c r="BN4" s="67"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="51"/>
-      <c r="BR4" s="51"/>
-      <c r="BS4" s="51"/>
-      <c r="BT4" s="48">
+      <c r="BQ4" s="66"/>
+      <c r="BR4" s="66"/>
+      <c r="BS4" s="66"/>
+      <c r="BT4" s="67">
         <v>46034</v>
       </c>
-      <c r="BU4" s="48"/>
-      <c r="BV4" s="48"/>
-      <c r="BW4" s="49"/>
-      <c r="BX4" s="50" t="s">
+      <c r="BU4" s="67"/>
+      <c r="BV4" s="67"/>
+      <c r="BW4" s="68"/>
+      <c r="BX4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="51"/>
-      <c r="BZ4" s="51"/>
-      <c r="CA4" s="51"/>
-      <c r="CB4" s="48">
+      <c r="BY4" s="66"/>
+      <c r="BZ4" s="66"/>
+      <c r="CA4" s="66"/>
+      <c r="CB4" s="67">
         <v>46035</v>
       </c>
-      <c r="CC4" s="48"/>
-      <c r="CD4" s="48"/>
-      <c r="CE4" s="49"/>
-      <c r="CF4" s="55" t="s">
+      <c r="CC4" s="67"/>
+      <c r="CD4" s="67"/>
+      <c r="CE4" s="68"/>
+      <c r="CF4" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -2178,7 +2360,7 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="55"/>
+      <c r="CF5" s="52"/>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -2204,16 +2386,16 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="59" t="s">
+      <c r="T6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="61"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="58"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
@@ -2270,14 +2452,14 @@
       <c r="CC6" s="10"/>
       <c r="CD6" s="10"/>
       <c r="CE6" s="11"/>
-      <c r="CF6" s="55"/>
+      <c r="CF6" s="52"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
@@ -2296,14 +2478,14 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="64"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
@@ -2360,7 +2542,7 @@
       <c r="CC7" s="16"/>
       <c r="CD7" s="16"/>
       <c r="CE7" s="17"/>
-      <c r="CF7" s="55"/>
+      <c r="CF7" s="52"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
@@ -2386,14 +2568,14 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="64"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
@@ -2450,13 +2632,15 @@
       <c r="CC8" s="16"/>
       <c r="CD8" s="16"/>
       <c r="CE8" s="17"/>
-      <c r="CF8" s="55"/>
+      <c r="CF8" s="52"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
@@ -2474,14 +2658,14 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="64"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
@@ -2538,11 +2722,11 @@
       <c r="CC9" s="16"/>
       <c r="CD9" s="16"/>
       <c r="CE9" s="17"/>
-      <c r="CF9" s="55"/>
+      <c r="CF9" s="52"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>19</v>
@@ -2564,14 +2748,14 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="64"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
@@ -2628,11 +2812,11 @@
       <c r="CC10" s="16"/>
       <c r="CD10" s="16"/>
       <c r="CE10" s="17"/>
-      <c r="CF10" s="55"/>
+      <c r="CF10" s="52"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A11" s="68" t="s">
-        <v>27</v>
+      <c r="A11" s="46" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="14"/>
@@ -2652,34 +2836,34 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
       <c r="AI11" s="17"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
       <c r="AV11" s="16"/>
       <c r="AW11" s="16"/>
       <c r="AX11" s="16"/>
@@ -2716,11 +2900,11 @@
       <c r="CC11" s="16"/>
       <c r="CD11" s="16"/>
       <c r="CE11" s="17"/>
-      <c r="CF11" s="55"/>
+      <c r="CF11" s="52"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A12" s="68" t="s">
-        <v>35</v>
+      <c r="A12" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="14"/>
@@ -2740,46 +2924,46 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
       <c r="AV12" s="16"/>
       <c r="AW12" s="16"/>
       <c r="AX12" s="16"/>
       <c r="AY12" s="17"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="69"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="69"/>
-      <c r="BG12" s="69"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="74"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="75"/>
+      <c r="BF12" s="75"/>
+      <c r="BG12" s="75"/>
       <c r="BH12" s="15"/>
       <c r="BI12" s="16"/>
       <c r="BJ12" s="16"/>
@@ -2804,11 +2988,11 @@
       <c r="CC12" s="16"/>
       <c r="CD12" s="16"/>
       <c r="CE12" s="17"/>
-      <c r="CF12" s="55"/>
+      <c r="CF12" s="52"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A13" s="68" t="s">
-        <v>28</v>
+      <c r="A13" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="14"/>
@@ -2828,16 +3012,16 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
@@ -2892,11 +3076,11 @@
       <c r="CC13" s="16"/>
       <c r="CD13" s="16"/>
       <c r="CE13" s="17"/>
-      <c r="CF13" s="55"/>
+      <c r="CF13" s="52"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A14" s="68" t="s">
-        <v>29</v>
+      <c r="A14" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="14"/>
@@ -2916,14 +3100,14 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="64"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="32"/>
@@ -2980,11 +3164,11 @@
       <c r="CC14" s="16"/>
       <c r="CD14" s="16"/>
       <c r="CE14" s="17"/>
-      <c r="CF14" s="55"/>
+      <c r="CF14" s="52"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A15" s="68" t="s">
-        <v>30</v>
+      <c r="A15" s="46" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="14"/>
@@ -3004,14 +3188,14 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="64"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="61"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
@@ -3020,24 +3204,24 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="16"/>
       <c r="AI15" s="17"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="70"/>
-      <c r="AL15" s="70"/>
-      <c r="AM15" s="70"/>
-      <c r="AN15" s="70"/>
-      <c r="AO15" s="70"/>
-      <c r="AP15" s="70"/>
-      <c r="AQ15" s="70"/>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="70"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
       <c r="AV15" s="16"/>
       <c r="AW15" s="16"/>
       <c r="AX15" s="16"/>
       <c r="AY15" s="17"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
       <c r="BB15" s="16"/>
       <c r="BC15" s="16"/>
       <c r="BD15" s="16"/>
@@ -3068,11 +3252,11 @@
       <c r="CC15" s="16"/>
       <c r="CD15" s="16"/>
       <c r="CE15" s="17"/>
-      <c r="CF15" s="55"/>
+      <c r="CF15" s="52"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A16" s="68" t="s">
-        <v>36</v>
+      <c r="A16" s="46" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="14"/>
@@ -3092,14 +3276,14 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="64"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="61"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -3124,29 +3308,29 @@
       <c r="AW16" s="16"/>
       <c r="AX16" s="16"/>
       <c r="AY16" s="17"/>
-      <c r="AZ16" s="45"/>
-      <c r="BA16" s="45"/>
-      <c r="BB16" s="45"/>
-      <c r="BC16" s="45"/>
-      <c r="BD16" s="45"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="17"/>
+      <c r="BD16" s="17"/>
       <c r="BE16" s="45"/>
       <c r="BF16" s="45"/>
       <c r="BG16" s="45"/>
       <c r="BH16" s="45"/>
       <c r="BI16" s="45"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="71"/>
+      <c r="BJ16" s="49"/>
+      <c r="BK16" s="49"/>
       <c r="BL16" s="16"/>
       <c r="BM16" s="16"/>
       <c r="BN16" s="16"/>
       <c r="BO16" s="17"/>
-      <c r="BP16" s="71"/>
-      <c r="BQ16" s="71"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="16"/>
-      <c r="BU16" s="16"/>
-      <c r="BV16" s="16"/>
+      <c r="BP16" s="49"/>
+      <c r="BQ16" s="49"/>
+      <c r="BR16" s="49"/>
+      <c r="BS16" s="49"/>
+      <c r="BT16" s="49"/>
+      <c r="BU16" s="49"/>
+      <c r="BV16" s="49"/>
       <c r="BW16" s="17"/>
       <c r="BX16" s="15"/>
       <c r="BY16" s="16"/>
@@ -3156,11 +3340,11 @@
       <c r="CC16" s="16"/>
       <c r="CD16" s="16"/>
       <c r="CE16" s="17"/>
-      <c r="CF16" s="55"/>
+      <c r="CF16" s="52"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A17" s="68" t="s">
-        <v>31</v>
+      <c r="A17" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="14"/>
@@ -3180,14 +3364,14 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="64"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
@@ -3215,23 +3399,18 @@
       <c r="AZ17" s="15"/>
       <c r="BA17" s="16"/>
       <c r="BB17" s="16"/>
-      <c r="BC17" s="16"/>
-      <c r="BD17" s="16"/>
-      <c r="BE17" s="16"/>
-      <c r="BF17" s="16"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="69"/>
-      <c r="BI17" s="69"/>
-      <c r="BJ17" s="69"/>
-      <c r="BK17" s="69"/>
+      <c r="BC17" s="47"/>
+      <c r="BD17" s="47"/>
+      <c r="BE17" s="47"/>
+      <c r="BF17" s="47"/>
+      <c r="BG17" s="47"/>
+      <c r="BH17" s="44"/>
+      <c r="BI17" s="47"/>
+      <c r="BJ17" s="44"/>
       <c r="BL17" s="16"/>
       <c r="BM17" s="16"/>
       <c r="BN17" s="16"/>
       <c r="BO17" s="17"/>
-      <c r="BP17" s="69"/>
-      <c r="BQ17" s="44"/>
-      <c r="BR17" s="69"/>
-      <c r="BS17" s="44"/>
       <c r="BT17" s="16"/>
       <c r="BU17" s="16"/>
       <c r="BV17" s="16"/>
@@ -3244,11 +3423,11 @@
       <c r="CC17" s="16"/>
       <c r="CD17" s="16"/>
       <c r="CE17" s="17"/>
-      <c r="CF17" s="55"/>
+      <c r="CF17" s="52"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A18" s="68" t="s">
-        <v>32</v>
+      <c r="A18" s="46" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="14"/>
@@ -3268,40 +3447,40 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
       <c r="AF18" s="16"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="17"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
       <c r="AV18" s="16"/>
       <c r="AW18" s="16"/>
       <c r="AX18" s="16"/>
       <c r="AY18" s="17"/>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="72"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
       <c r="BB18" s="16"/>
       <c r="BC18" s="16"/>
       <c r="BD18" s="16"/>
@@ -3332,11 +3511,11 @@
       <c r="CC18" s="16"/>
       <c r="CD18" s="16"/>
       <c r="CE18" s="17"/>
-      <c r="CF18" s="55"/>
+      <c r="CF18" s="52"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A19" s="68" t="s">
-        <v>33</v>
+      <c r="A19" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="14"/>
@@ -3356,14 +3535,14 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="64"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="61"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
@@ -3396,16 +3575,16 @@
       <c r="BE19" s="16"/>
       <c r="BF19" s="16"/>
       <c r="BG19" s="17"/>
-      <c r="BH19" s="70"/>
-      <c r="BI19" s="70"/>
-      <c r="BJ19" s="70"/>
-      <c r="BK19" s="70"/>
+      <c r="BH19" s="48"/>
+      <c r="BI19" s="48"/>
+      <c r="BJ19" s="48"/>
+      <c r="BK19" s="48"/>
       <c r="BL19" s="16"/>
       <c r="BM19" s="16"/>
       <c r="BN19" s="16"/>
       <c r="BO19" s="17"/>
-      <c r="BP19" s="70"/>
-      <c r="BQ19" s="70"/>
+      <c r="BP19" s="48"/>
+      <c r="BQ19" s="48"/>
       <c r="BR19" s="16"/>
       <c r="BS19" s="16"/>
       <c r="BT19" s="16"/>
@@ -3420,7 +3599,7 @@
       <c r="CC19" s="16"/>
       <c r="CD19" s="16"/>
       <c r="CE19" s="17"/>
-      <c r="CF19" s="55"/>
+      <c r="CF19" s="52"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
@@ -3444,14 +3623,14 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="64"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="61"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
@@ -3476,9 +3655,9 @@
       <c r="AW20" s="16"/>
       <c r="AX20" s="16"/>
       <c r="AY20" s="17"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="69"/>
+      <c r="AZ20" s="47"/>
+      <c r="BA20" s="47"/>
+      <c r="BB20" s="47"/>
       <c r="BC20" s="16"/>
       <c r="BD20" s="16"/>
       <c r="BE20" s="16"/>
@@ -3508,11 +3687,11 @@
       <c r="CC20" s="16"/>
       <c r="CD20" s="16"/>
       <c r="CE20" s="17"/>
-      <c r="CF20" s="55"/>
+      <c r="CF20" s="52"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A21" s="68" t="s">
-        <v>37</v>
+      <c r="A21" s="46" t="s">
+        <v>36</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="14"/>
@@ -3532,14 +3711,14 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="64"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
@@ -3596,11 +3775,11 @@
       <c r="CC21" s="16"/>
       <c r="CD21" s="16"/>
       <c r="CE21" s="17"/>
-      <c r="CF21" s="55"/>
+      <c r="CF21" s="52"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A22" s="68" t="s">
-        <v>34</v>
+      <c r="A22" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="14"/>
@@ -3620,14 +3799,14 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="64"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="61"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -3684,7 +3863,7 @@
       <c r="CC22" s="16"/>
       <c r="CD22" s="16"/>
       <c r="CE22" s="17"/>
-      <c r="CF22" s="55"/>
+      <c r="CF22" s="52"/>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
@@ -3708,14 +3887,14 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="64"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="61"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -3772,7 +3951,7 @@
       <c r="CC23" s="16"/>
       <c r="CD23" s="16"/>
       <c r="CE23" s="17"/>
-      <c r="CF23" s="55"/>
+      <c r="CF23" s="52"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
@@ -3796,14 +3975,14 @@
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="64"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="61"/>
       <c r="AB24" s="36"/>
       <c r="AC24" s="37"/>
       <c r="AD24" s="37"/>
@@ -3860,7 +4039,7 @@
       <c r="CC24" s="37"/>
       <c r="CD24" s="37"/>
       <c r="CE24" s="38"/>
-      <c r="CF24" s="55"/>
+      <c r="CF24" s="52"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.15">
       <c r="B25" s="24"/>
@@ -3881,14 +4060,14 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="64"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="61"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
@@ -3945,7 +4124,7 @@
       <c r="CC25" s="16"/>
       <c r="CD25" s="16"/>
       <c r="CE25" s="17"/>
-      <c r="CF25" s="55"/>
+      <c r="CF25" s="52"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
@@ -3967,14 +4146,14 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="64"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="61"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
@@ -4031,7 +4210,7 @@
       <c r="CC26" s="16"/>
       <c r="CD26" s="16"/>
       <c r="CE26" s="17"/>
-      <c r="CF26" s="55"/>
+      <c r="CF26" s="52"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
@@ -4053,14 +4232,14 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="64"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="61"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
@@ -4117,7 +4296,7 @@
       <c r="CC27" s="16"/>
       <c r="CD27" s="16"/>
       <c r="CE27" s="17"/>
-      <c r="CF27" s="55"/>
+      <c r="CF27" s="52"/>
     </row>
     <row r="28" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
@@ -4139,14 +4318,14 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="67"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="64"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="21"/>
       <c r="AD28" s="21"/>
@@ -4203,129 +4382,122 @@
       <c r="CC28" s="21"/>
       <c r="CD28" s="21"/>
       <c r="CE28" s="22"/>
-      <c r="CF28" s="55"/>
+      <c r="CF28" s="52"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="56"/>
-      <c r="AT29" s="56"/>
-      <c r="AU29" s="56"/>
-      <c r="AV29" s="56"/>
-      <c r="AW29" s="56"/>
-      <c r="AX29" s="56"/>
-      <c r="AY29" s="56"/>
-      <c r="AZ29" s="56"/>
-      <c r="BA29" s="56"/>
-      <c r="BB29" s="56"/>
-      <c r="BC29" s="56"/>
-      <c r="BD29" s="56"/>
-      <c r="BE29" s="56"/>
-      <c r="BF29" s="56"/>
-      <c r="BG29" s="56"/>
-      <c r="BH29" s="56"/>
-      <c r="BI29" s="56"/>
-      <c r="BJ29" s="56"/>
-      <c r="BK29" s="56"/>
-      <c r="BL29" s="56"/>
-      <c r="BM29" s="56"/>
-      <c r="BN29" s="56"/>
-      <c r="BO29" s="56"/>
-      <c r="BP29" s="56"/>
-      <c r="BQ29" s="56"/>
-      <c r="BR29" s="56"/>
-      <c r="BS29" s="56"/>
-      <c r="BT29" s="56"/>
-      <c r="BU29" s="56"/>
-      <c r="BV29" s="56"/>
-      <c r="BW29" s="56"/>
-      <c r="BX29" s="56"/>
-      <c r="BY29" s="56"/>
-      <c r="BZ29" s="56"/>
-      <c r="CA29" s="56"/>
-      <c r="CB29" s="56"/>
-      <c r="CC29" s="56"/>
-      <c r="CD29" s="56"/>
-      <c r="CE29" s="56"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="53"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="53"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="53"/>
+      <c r="AZ29" s="53"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="53"/>
+      <c r="BC29" s="53"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="53"/>
+      <c r="BG29" s="53"/>
+      <c r="BH29" s="53"/>
+      <c r="BI29" s="53"/>
+      <c r="BJ29" s="53"/>
+      <c r="BK29" s="53"/>
+      <c r="BL29" s="53"/>
+      <c r="BM29" s="53"/>
+      <c r="BN29" s="53"/>
+      <c r="BO29" s="53"/>
+      <c r="BP29" s="53"/>
+      <c r="BQ29" s="53"/>
+      <c r="BR29" s="53"/>
+      <c r="BS29" s="53"/>
+      <c r="BT29" s="53"/>
+      <c r="BU29" s="53"/>
+      <c r="BV29" s="53"/>
+      <c r="BW29" s="53"/>
+      <c r="BX29" s="53"/>
+      <c r="BY29" s="53"/>
+      <c r="BZ29" s="53"/>
+      <c r="CA29" s="53"/>
+      <c r="CB29" s="53"/>
+      <c r="CC29" s="53"/>
+      <c r="CD29" s="53"/>
+      <c r="CE29" s="53"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.15">
       <c r="B32" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="40"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="41"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="42"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CF4:CF28"/>
-    <mergeCell ref="A29:CE29"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA28"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="D2:AQ3"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
@@ -4342,10 +4514,17 @@
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="CF4:CF28"/>
+    <mergeCell ref="A29:CE29"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA28"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="T4:W4"/>
     <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B6:B28">
@@ -4385,15 +4564,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4606,32 +4776,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4648,4 +4819,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{9A30F631-669B-4B85-80D9-41CC652520C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B245B74-AD4F-9449-8935-6449324198AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F4C8D-FC8F-B546-80A7-493A2EC0109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-2180" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Tâches</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Vérification et fix du rafraîchissement des données</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -764,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -956,6 +962,45 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -1008,46 +1053,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1102,8 +1120,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>160867</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
@@ -1120,8 +1138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4507178" y="702733"/>
-          <a:ext cx="4535222" cy="4187428"/>
+          <a:off x="4501131" y="698500"/>
+          <a:ext cx="4407012" cy="4067685"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1171,7 +1189,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> étirer sur la gauche pour montrer l'avancement du projet</a:t>
+            <a:t> étirer sur la gauche pour montrer l'avancement du projet </a:t>
           </a:r>
           <a:endParaRPr lang="fr-CH" sz="900"/>
         </a:p>
@@ -1366,10 +1384,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1744,11 +1758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="94" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1763,18 +1777,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1813,173 +1827,173 @@
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="53"/>
+      <c r="BR2" s="53"/>
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="53"/>
+      <c r="BY2" s="53"/>
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="53"/>
+      <c r="CB2" s="53"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="53"/>
+      <c r="CE2" s="53"/>
     </row>
     <row r="3" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="71"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54"/>
+      <c r="BE3" s="54"/>
+      <c r="BF3" s="54"/>
+      <c r="BG3" s="54"/>
+      <c r="BH3" s="54"/>
+      <c r="BI3" s="54"/>
+      <c r="BJ3" s="54"/>
+      <c r="BK3" s="54"/>
+      <c r="BL3" s="54"/>
+      <c r="BM3" s="54"/>
+      <c r="BN3" s="54"/>
+      <c r="BO3" s="54"/>
+      <c r="BP3" s="54"/>
+      <c r="BQ3" s="54"/>
+      <c r="BR3" s="54"/>
+      <c r="BS3" s="54"/>
+      <c r="BT3" s="54"/>
+      <c r="BU3" s="54"/>
+      <c r="BV3" s="54"/>
+      <c r="BW3" s="54"/>
+      <c r="BX3" s="54"/>
+      <c r="BY3" s="54"/>
+      <c r="BZ3" s="54"/>
+      <c r="CA3" s="54"/>
+      <c r="CB3" s="54"/>
+      <c r="CC3" s="54"/>
+      <c r="CD3" s="54"/>
+      <c r="CE3" s="54"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -1988,132 +2002,132 @@
       <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58">
         <v>45992</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="65" t="s">
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67">
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58">
         <v>45993</v>
       </c>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="65" t="s">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="67">
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="58">
         <v>45999</v>
       </c>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="65" t="s">
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="67">
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="58">
         <v>46000</v>
       </c>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="65" t="s">
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="67">
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="58">
         <v>46006</v>
       </c>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="65" t="s">
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="67">
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="58">
         <v>46007</v>
       </c>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="65" t="s">
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="67">
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="58">
         <v>46027</v>
       </c>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="65" t="s">
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="58"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="67">
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="58">
         <v>46028</v>
       </c>
-      <c r="BM4" s="67"/>
-      <c r="BN4" s="67"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="65" t="s">
+      <c r="BM4" s="58"/>
+      <c r="BN4" s="58"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="66"/>
-      <c r="BT4" s="67">
+      <c r="BQ4" s="57"/>
+      <c r="BR4" s="57"/>
+      <c r="BS4" s="57"/>
+      <c r="BT4" s="58">
         <v>46034</v>
       </c>
-      <c r="BU4" s="67"/>
-      <c r="BV4" s="67"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="65" t="s">
+      <c r="BU4" s="58"/>
+      <c r="BV4" s="58"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="BY4" s="66"/>
-      <c r="BZ4" s="66"/>
-      <c r="CA4" s="66"/>
-      <c r="CB4" s="67">
+      <c r="BY4" s="57"/>
+      <c r="BZ4" s="57"/>
+      <c r="CA4" s="57"/>
+      <c r="CB4" s="58">
         <v>46035</v>
       </c>
-      <c r="CC4" s="67"/>
-      <c r="CD4" s="67"/>
-      <c r="CE4" s="68"/>
-      <c r="CF4" s="52" t="s">
+      <c r="CC4" s="58"/>
+      <c r="CD4" s="58"/>
+      <c r="CE4" s="59"/>
+      <c r="CF4" s="62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -2360,7 +2374,7 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="52"/>
+      <c r="CF5" s="62"/>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -2386,16 +2400,16 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="56" t="s">
+      <c r="T6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="58"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="68"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
@@ -2452,7 +2466,7 @@
       <c r="CC6" s="10"/>
       <c r="CD6" s="10"/>
       <c r="CE6" s="11"/>
-      <c r="CF6" s="52"/>
+      <c r="CF6" s="62"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
@@ -2478,14 +2492,14 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="71"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
@@ -2542,7 +2556,7 @@
       <c r="CC7" s="16"/>
       <c r="CD7" s="16"/>
       <c r="CE7" s="17"/>
-      <c r="CF7" s="52"/>
+      <c r="CF7" s="62"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
@@ -2568,14 +2582,14 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="61"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="71"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
@@ -2632,7 +2646,7 @@
       <c r="CC8" s="16"/>
       <c r="CD8" s="16"/>
       <c r="CE8" s="17"/>
-      <c r="CF8" s="52"/>
+      <c r="CF8" s="62"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -2658,14 +2672,14 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="61"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="71"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
@@ -2722,7 +2736,7 @@
       <c r="CC9" s="16"/>
       <c r="CD9" s="16"/>
       <c r="CE9" s="17"/>
-      <c r="CF9" s="52"/>
+      <c r="CF9" s="62"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
@@ -2748,14 +2762,14 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="61"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="71"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
@@ -2812,13 +2826,15 @@
       <c r="CC10" s="16"/>
       <c r="CD10" s="16"/>
       <c r="CE10" s="17"/>
-      <c r="CF10" s="52"/>
+      <c r="CF10" s="62"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
@@ -2836,18 +2852,26 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC11" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD11" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE11" s="75" t="s">
+        <v>38</v>
+      </c>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
@@ -2900,7 +2924,7 @@
       <c r="CC11" s="16"/>
       <c r="CD11" s="16"/>
       <c r="CE11" s="17"/>
-      <c r="CF11" s="52"/>
+      <c r="CF11" s="62"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
@@ -2924,14 +2948,14 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="61"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="71"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
       <c r="AD12" s="50"/>
@@ -2956,14 +2980,14 @@
       <c r="AW12" s="16"/>
       <c r="AX12" s="16"/>
       <c r="AY12" s="17"/>
-      <c r="AZ12" s="74"/>
-      <c r="BA12" s="74"/>
-      <c r="BB12" s="74"/>
-      <c r="BC12" s="74"/>
-      <c r="BD12" s="74"/>
-      <c r="BE12" s="75"/>
-      <c r="BF12" s="75"/>
-      <c r="BG12" s="75"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
       <c r="BH12" s="15"/>
       <c r="BI12" s="16"/>
       <c r="BJ12" s="16"/>
@@ -2988,13 +3012,15 @@
       <c r="CC12" s="16"/>
       <c r="CD12" s="16"/>
       <c r="CE12" s="17"/>
-      <c r="CF12" s="52"/>
+      <c r="CF12" s="62"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
@@ -3012,18 +3038,26 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD13" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE13" s="77" t="s">
+        <v>38</v>
+      </c>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
       <c r="AH13" s="16"/>
@@ -3076,7 +3110,7 @@
       <c r="CC13" s="16"/>
       <c r="CD13" s="16"/>
       <c r="CE13" s="17"/>
-      <c r="CF13" s="52"/>
+      <c r="CF13" s="62"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
@@ -3100,14 +3134,14 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="71"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="32"/>
@@ -3164,7 +3198,7 @@
       <c r="CC14" s="16"/>
       <c r="CD14" s="16"/>
       <c r="CE14" s="17"/>
-      <c r="CF14" s="52"/>
+      <c r="CF14" s="62"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
@@ -3188,14 +3222,14 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="61"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="71"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
@@ -3252,7 +3286,7 @@
       <c r="CC15" s="16"/>
       <c r="CD15" s="16"/>
       <c r="CE15" s="17"/>
-      <c r="CF15" s="52"/>
+      <c r="CF15" s="62"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A16" s="46" t="s">
@@ -3276,14 +3310,14 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="61"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="71"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -3340,7 +3374,7 @@
       <c r="CC16" s="16"/>
       <c r="CD16" s="16"/>
       <c r="CE16" s="17"/>
-      <c r="CF16" s="52"/>
+      <c r="CF16" s="62"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A17" s="46" t="s">
@@ -3364,14 +3398,14 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="71"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
@@ -3423,13 +3457,15 @@
       <c r="CC17" s="16"/>
       <c r="CD17" s="16"/>
       <c r="CE17" s="17"/>
-      <c r="CF17" s="52"/>
+      <c r="CF17" s="62"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A18" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
@@ -3447,18 +3483,26 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC18" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD18" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE18" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="AF18" s="16"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="16"/>
@@ -3511,7 +3555,7 @@
       <c r="CC18" s="16"/>
       <c r="CD18" s="16"/>
       <c r="CE18" s="17"/>
-      <c r="CF18" s="52"/>
+      <c r="CF18" s="62"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A19" s="46" t="s">
@@ -3535,14 +3579,14 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="61"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="71"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
@@ -3599,7 +3643,7 @@
       <c r="CC19" s="16"/>
       <c r="CD19" s="16"/>
       <c r="CE19" s="17"/>
-      <c r="CF19" s="52"/>
+      <c r="CF19" s="62"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
@@ -3623,14 +3667,14 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="61"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="71"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
@@ -3687,7 +3731,7 @@
       <c r="CC20" s="16"/>
       <c r="CD20" s="16"/>
       <c r="CE20" s="17"/>
-      <c r="CF20" s="52"/>
+      <c r="CF20" s="62"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A21" s="46" t="s">
@@ -3711,14 +3755,14 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="71"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
@@ -3775,7 +3819,7 @@
       <c r="CC21" s="16"/>
       <c r="CD21" s="16"/>
       <c r="CE21" s="17"/>
-      <c r="CF21" s="52"/>
+      <c r="CF21" s="62"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A22" s="46" t="s">
@@ -3799,14 +3843,14 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="61"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="71"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -3863,7 +3907,7 @@
       <c r="CC22" s="16"/>
       <c r="CD22" s="16"/>
       <c r="CE22" s="17"/>
-      <c r="CF22" s="52"/>
+      <c r="CF22" s="62"/>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
@@ -3887,14 +3931,14 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="61"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="71"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -3951,7 +3995,7 @@
       <c r="CC23" s="16"/>
       <c r="CD23" s="16"/>
       <c r="CE23" s="17"/>
-      <c r="CF23" s="52"/>
+      <c r="CF23" s="62"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
@@ -3975,14 +4019,14 @@
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="61"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="71"/>
       <c r="AB24" s="36"/>
       <c r="AC24" s="37"/>
       <c r="AD24" s="37"/>
@@ -4039,7 +4083,7 @@
       <c r="CC24" s="37"/>
       <c r="CD24" s="37"/>
       <c r="CE24" s="38"/>
-      <c r="CF24" s="52"/>
+      <c r="CF24" s="62"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.15">
       <c r="B25" s="24"/>
@@ -4060,14 +4104,14 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="61"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="71"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
@@ -4124,7 +4168,7 @@
       <c r="CC25" s="16"/>
       <c r="CD25" s="16"/>
       <c r="CE25" s="17"/>
-      <c r="CF25" s="52"/>
+      <c r="CF25" s="62"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
@@ -4146,14 +4190,14 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="61"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="71"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
@@ -4210,7 +4254,7 @@
       <c r="CC26" s="16"/>
       <c r="CD26" s="16"/>
       <c r="CE26" s="17"/>
-      <c r="CF26" s="52"/>
+      <c r="CF26" s="62"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
@@ -4232,14 +4276,14 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="61"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="71"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
@@ -4296,7 +4340,7 @@
       <c r="CC27" s="16"/>
       <c r="CD27" s="16"/>
       <c r="CE27" s="17"/>
-      <c r="CF27" s="52"/>
+      <c r="CF27" s="62"/>
     </row>
     <row r="28" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
@@ -4318,14 +4362,14 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="64"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="74"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="21"/>
       <c r="AD28" s="21"/>
@@ -4382,94 +4426,94 @@
       <c r="CC28" s="21"/>
       <c r="CD28" s="21"/>
       <c r="CE28" s="22"/>
-      <c r="CF28" s="52"/>
+      <c r="CF28" s="62"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="53"/>
-      <c r="AP29" s="53"/>
-      <c r="AQ29" s="53"/>
-      <c r="AR29" s="53"/>
-      <c r="AS29" s="53"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="53"/>
-      <c r="AV29" s="53"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="53"/>
-      <c r="AZ29" s="53"/>
-      <c r="BA29" s="53"/>
-      <c r="BB29" s="53"/>
-      <c r="BC29" s="53"/>
-      <c r="BD29" s="53"/>
-      <c r="BE29" s="53"/>
-      <c r="BF29" s="53"/>
-      <c r="BG29" s="53"/>
-      <c r="BH29" s="53"/>
-      <c r="BI29" s="53"/>
-      <c r="BJ29" s="53"/>
-      <c r="BK29" s="53"/>
-      <c r="BL29" s="53"/>
-      <c r="BM29" s="53"/>
-      <c r="BN29" s="53"/>
-      <c r="BO29" s="53"/>
-      <c r="BP29" s="53"/>
-      <c r="BQ29" s="53"/>
-      <c r="BR29" s="53"/>
-      <c r="BS29" s="53"/>
-      <c r="BT29" s="53"/>
-      <c r="BU29" s="53"/>
-      <c r="BV29" s="53"/>
-      <c r="BW29" s="53"/>
-      <c r="BX29" s="53"/>
-      <c r="BY29" s="53"/>
-      <c r="BZ29" s="53"/>
-      <c r="CA29" s="53"/>
-      <c r="CB29" s="53"/>
-      <c r="CC29" s="53"/>
-      <c r="CD29" s="53"/>
-      <c r="CE29" s="53"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="63"/>
+      <c r="AV29" s="63"/>
+      <c r="AW29" s="63"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="63"/>
+      <c r="BC29" s="63"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="63"/>
+      <c r="BJ29" s="63"/>
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="63"/>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="63"/>
+      <c r="BO29" s="63"/>
+      <c r="BP29" s="63"/>
+      <c r="BQ29" s="63"/>
+      <c r="BR29" s="63"/>
+      <c r="BS29" s="63"/>
+      <c r="BT29" s="63"/>
+      <c r="BU29" s="63"/>
+      <c r="BV29" s="63"/>
+      <c r="BW29" s="63"/>
+      <c r="BX29" s="63"/>
+      <c r="BY29" s="63"/>
+      <c r="BZ29" s="63"/>
+      <c r="CA29" s="63"/>
+      <c r="CB29" s="63"/>
+      <c r="CC29" s="63"/>
+      <c r="CD29" s="63"/>
+      <c r="CE29" s="63"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.15">
       <c r="B32" s="39" t="s">
@@ -4497,6 +4541,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="CF4:CF28"/>
+    <mergeCell ref="A29:CE29"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA28"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="D2:AQ3"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
@@ -4513,18 +4569,6 @@
     <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="CF4:CF28"/>
-    <mergeCell ref="A29:CE29"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA28"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B6:B28">
@@ -4564,6 +4608,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4776,15 +4829,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
@@ -4803,6 +4847,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4819,12 +4871,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wickil01\Downloads\306project-G4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03808DA-BB10-4E41-9586-D95CE5D3AF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E621EBD9-CCD5-4C03-9296-F6584F75EC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,19 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1132,147 +1132,82 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1878,13 +1813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF44"/>
+  <dimension ref="A1:CF43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2499,7 +2434,7 @@
       <c r="CF5" s="58"/>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="78" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -2950,28 +2885,28 @@
       <c r="CE10" s="16"/>
       <c r="CF10" s="58"/>
     </row>
-    <row r="11" spans="1:84" s="86" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+    <row r="11" spans="1:84" s="87" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="84"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="85"/>
       <c r="T11" s="65"/>
       <c r="U11" s="66"/>
       <c r="V11" s="66"/>
@@ -2980,86 +2915,86 @@
       <c r="Y11" s="66"/>
       <c r="Z11" s="66"/>
       <c r="AA11" s="67"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="80"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="83"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="80"/>
-      <c r="AS11" s="83"/>
-      <c r="AT11" s="83"/>
-      <c r="AU11" s="83"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="81"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="80"/>
-      <c r="BA11" s="81"/>
-      <c r="BB11" s="81"/>
-      <c r="BC11" s="81"/>
-      <c r="BD11" s="81"/>
-      <c r="BE11" s="81"/>
-      <c r="BF11" s="81"/>
-      <c r="BG11" s="84"/>
-      <c r="BH11" s="80"/>
-      <c r="BI11" s="81"/>
-      <c r="BJ11" s="81"/>
-      <c r="BK11" s="81"/>
-      <c r="BL11" s="81"/>
-      <c r="BM11" s="81"/>
-      <c r="BN11" s="81"/>
-      <c r="BO11" s="84"/>
-      <c r="BP11" s="80"/>
-      <c r="BQ11" s="81"/>
-      <c r="BR11" s="81"/>
-      <c r="BS11" s="81"/>
-      <c r="BT11" s="81"/>
-      <c r="BU11" s="81"/>
-      <c r="BV11" s="81"/>
-      <c r="BW11" s="84"/>
-      <c r="BX11" s="80"/>
-      <c r="BY11" s="81"/>
-      <c r="BZ11" s="81"/>
-      <c r="CA11" s="81"/>
-      <c r="CB11" s="81"/>
-      <c r="CC11" s="81"/>
-      <c r="CD11" s="81"/>
-      <c r="CE11" s="84"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="81"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="81"/>
+      <c r="BA11" s="82"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="82"/>
+      <c r="BD11" s="82"/>
+      <c r="BE11" s="82"/>
+      <c r="BF11" s="82"/>
+      <c r="BG11" s="85"/>
+      <c r="BH11" s="81"/>
+      <c r="BI11" s="82"/>
+      <c r="BJ11" s="82"/>
+      <c r="BK11" s="82"/>
+      <c r="BL11" s="82"/>
+      <c r="BM11" s="82"/>
+      <c r="BN11" s="82"/>
+      <c r="BO11" s="85"/>
+      <c r="BP11" s="81"/>
+      <c r="BQ11" s="82"/>
+      <c r="BR11" s="82"/>
+      <c r="BS11" s="82"/>
+      <c r="BT11" s="82"/>
+      <c r="BU11" s="82"/>
+      <c r="BV11" s="82"/>
+      <c r="BW11" s="85"/>
+      <c r="BX11" s="81"/>
+      <c r="BY11" s="82"/>
+      <c r="BZ11" s="82"/>
+      <c r="CA11" s="82"/>
+      <c r="CB11" s="82"/>
+      <c r="CC11" s="82"/>
+      <c r="CD11" s="82"/>
+      <c r="CE11" s="85"/>
       <c r="CF11" s="58"/>
     </row>
-    <row r="12" spans="1:84" s="86" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+    <row r="12" spans="1:84" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="84"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="85"/>
       <c r="T12" s="65"/>
       <c r="U12" s="66"/>
       <c r="V12" s="66"/>
@@ -3068,86 +3003,86 @@
       <c r="Y12" s="66"/>
       <c r="Z12" s="66"/>
       <c r="AA12" s="67"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="81"/>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="80"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="80"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="81"/>
-      <c r="AW12" s="81"/>
-      <c r="AX12" s="81"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="80"/>
-      <c r="BA12" s="81"/>
-      <c r="BB12" s="81"/>
-      <c r="BC12" s="81"/>
-      <c r="BD12" s="81"/>
-      <c r="BE12" s="81"/>
-      <c r="BF12" s="81"/>
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="80"/>
-      <c r="BI12" s="81"/>
-      <c r="BJ12" s="81"/>
-      <c r="BK12" s="81"/>
-      <c r="BL12" s="81"/>
-      <c r="BM12" s="81"/>
-      <c r="BN12" s="81"/>
-      <c r="BO12" s="84"/>
-      <c r="BP12" s="80"/>
-      <c r="BQ12" s="81"/>
-      <c r="BR12" s="81"/>
-      <c r="BS12" s="81"/>
-      <c r="BT12" s="81"/>
-      <c r="BU12" s="81"/>
-      <c r="BV12" s="81"/>
-      <c r="BW12" s="84"/>
-      <c r="BX12" s="80"/>
-      <c r="BY12" s="81"/>
-      <c r="BZ12" s="81"/>
-      <c r="CA12" s="81"/>
-      <c r="CB12" s="81"/>
-      <c r="CC12" s="81"/>
-      <c r="CD12" s="81"/>
-      <c r="CE12" s="84"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="85"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="82"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="82"/>
+      <c r="AY12" s="85"/>
+      <c r="AZ12" s="81"/>
+      <c r="BA12" s="82"/>
+      <c r="BB12" s="82"/>
+      <c r="BC12" s="82"/>
+      <c r="BD12" s="82"/>
+      <c r="BE12" s="82"/>
+      <c r="BF12" s="82"/>
+      <c r="BG12" s="85"/>
+      <c r="BH12" s="81"/>
+      <c r="BI12" s="82"/>
+      <c r="BJ12" s="82"/>
+      <c r="BK12" s="82"/>
+      <c r="BL12" s="82"/>
+      <c r="BM12" s="82"/>
+      <c r="BN12" s="82"/>
+      <c r="BO12" s="85"/>
+      <c r="BP12" s="81"/>
+      <c r="BQ12" s="82"/>
+      <c r="BR12" s="82"/>
+      <c r="BS12" s="82"/>
+      <c r="BT12" s="82"/>
+      <c r="BU12" s="82"/>
+      <c r="BV12" s="82"/>
+      <c r="BW12" s="85"/>
+      <c r="BX12" s="81"/>
+      <c r="BY12" s="82"/>
+      <c r="BZ12" s="82"/>
+      <c r="CA12" s="82"/>
+      <c r="CB12" s="82"/>
+      <c r="CC12" s="82"/>
+      <c r="CD12" s="82"/>
+      <c r="CE12" s="85"/>
       <c r="CF12" s="58"/>
     </row>
-    <row r="13" spans="1:84" s="98" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:84" s="87" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="96"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="85"/>
       <c r="T13" s="65"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -3156,86 +3091,86 @@
       <c r="Y13" s="66"/>
       <c r="Z13" s="66"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="95"/>
-      <c r="AT13" s="95"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="93"/>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="93"/>
-      <c r="AY13" s="96"/>
-      <c r="AZ13" s="92"/>
-      <c r="BA13" s="93"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="93"/>
-      <c r="BE13" s="93"/>
-      <c r="BF13" s="93"/>
-      <c r="BG13" s="96"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="93"/>
-      <c r="BJ13" s="93"/>
-      <c r="BK13" s="93"/>
-      <c r="BL13" s="93"/>
-      <c r="BM13" s="93"/>
-      <c r="BN13" s="93"/>
-      <c r="BO13" s="96"/>
-      <c r="BP13" s="92"/>
-      <c r="BQ13" s="93"/>
-      <c r="BR13" s="93"/>
-      <c r="BS13" s="93"/>
-      <c r="BT13" s="93"/>
-      <c r="BU13" s="93"/>
-      <c r="BV13" s="93"/>
-      <c r="BW13" s="96"/>
-      <c r="BX13" s="92"/>
-      <c r="BY13" s="93"/>
-      <c r="BZ13" s="93"/>
-      <c r="CA13" s="93"/>
-      <c r="CB13" s="93"/>
-      <c r="CC13" s="93"/>
-      <c r="CD13" s="93"/>
-      <c r="CE13" s="96"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="81"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="85"/>
+      <c r="AZ13" s="81"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="82"/>
+      <c r="BD13" s="82"/>
+      <c r="BE13" s="82"/>
+      <c r="BF13" s="82"/>
+      <c r="BG13" s="85"/>
+      <c r="BH13" s="81"/>
+      <c r="BI13" s="82"/>
+      <c r="BJ13" s="82"/>
+      <c r="BK13" s="82"/>
+      <c r="BL13" s="82"/>
+      <c r="BM13" s="82"/>
+      <c r="BN13" s="82"/>
+      <c r="BO13" s="85"/>
+      <c r="BP13" s="81"/>
+      <c r="BQ13" s="82"/>
+      <c r="BR13" s="82"/>
+      <c r="BS13" s="82"/>
+      <c r="BT13" s="82"/>
+      <c r="BU13" s="82"/>
+      <c r="BV13" s="82"/>
+      <c r="BW13" s="85"/>
+      <c r="BX13" s="81"/>
+      <c r="BY13" s="82"/>
+      <c r="BZ13" s="82"/>
+      <c r="CA13" s="82"/>
+      <c r="CB13" s="82"/>
+      <c r="CC13" s="82"/>
+      <c r="CD13" s="82"/>
+      <c r="CE13" s="85"/>
       <c r="CF13" s="58"/>
     </row>
-    <row r="14" spans="1:84" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="105" t="s">
+    <row r="14" spans="1:84" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="97"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="86"/>
       <c r="T14" s="65"/>
       <c r="U14" s="66"/>
       <c r="V14" s="66"/>
@@ -3244,85 +3179,85 @@
       <c r="Y14" s="66"/>
       <c r="Z14" s="66"/>
       <c r="AA14" s="67"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="97"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="97"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="95"/>
-      <c r="BB14" s="95"/>
-      <c r="BC14" s="95"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="97"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="95"/>
-      <c r="BJ14" s="95"/>
-      <c r="BK14" s="95"/>
-      <c r="BL14" s="95"/>
-      <c r="BM14" s="95"/>
-      <c r="BN14" s="95"/>
-      <c r="BO14" s="97"/>
-      <c r="BP14" s="95"/>
-      <c r="BQ14" s="95"/>
-      <c r="BR14" s="95"/>
-      <c r="BS14" s="95"/>
-      <c r="BT14" s="95"/>
-      <c r="BU14" s="95"/>
-      <c r="BV14" s="95"/>
-      <c r="BW14" s="97"/>
-      <c r="BX14" s="95"/>
-      <c r="BY14" s="95"/>
-      <c r="BZ14" s="95"/>
-      <c r="CA14" s="95"/>
-      <c r="CB14" s="95"/>
-      <c r="CC14" s="95"/>
-      <c r="CD14" s="95"/>
-      <c r="CE14" s="97"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="84"/>
+      <c r="BA14" s="84"/>
+      <c r="BB14" s="84"/>
+      <c r="BC14" s="84"/>
+      <c r="BD14" s="84"/>
+      <c r="BE14" s="84"/>
+      <c r="BF14" s="84"/>
+      <c r="BG14" s="86"/>
+      <c r="BH14" s="84"/>
+      <c r="BI14" s="84"/>
+      <c r="BJ14" s="84"/>
+      <c r="BK14" s="84"/>
+      <c r="BL14" s="84"/>
+      <c r="BM14" s="84"/>
+      <c r="BN14" s="84"/>
+      <c r="BO14" s="86"/>
+      <c r="BP14" s="84"/>
+      <c r="BQ14" s="84"/>
+      <c r="BR14" s="84"/>
+      <c r="BS14" s="84"/>
+      <c r="BT14" s="84"/>
+      <c r="BU14" s="84"/>
+      <c r="BV14" s="84"/>
+      <c r="BW14" s="86"/>
+      <c r="BX14" s="84"/>
+      <c r="BY14" s="84"/>
+      <c r="BZ14" s="84"/>
+      <c r="CA14" s="84"/>
+      <c r="CB14" s="84"/>
+      <c r="CC14" s="84"/>
+      <c r="CD14" s="84"/>
+      <c r="CE14" s="86"/>
       <c r="CF14" s="58"/>
     </row>
-    <row r="15" spans="1:84" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
+    <row r="15" spans="1:84" s="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="101"/>
+      <c r="B15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="92"/>
       <c r="T15" s="65"/>
       <c r="U15" s="66"/>
       <c r="V15" s="66"/>
@@ -3331,85 +3266,85 @@
       <c r="Y15" s="66"/>
       <c r="Z15" s="66"/>
       <c r="AA15" s="67"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="101"/>
-      <c r="AJ15" s="99"/>
-      <c r="AK15" s="99"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="99"/>
-      <c r="AN15" s="99"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="99"/>
-      <c r="AR15" s="99"/>
-      <c r="AS15" s="99"/>
-      <c r="AT15" s="99"/>
-      <c r="AU15" s="99"/>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="99"/>
-      <c r="AX15" s="99"/>
-      <c r="AY15" s="101"/>
-      <c r="AZ15" s="99"/>
-      <c r="BA15" s="99"/>
-      <c r="BB15" s="99"/>
-      <c r="BC15" s="99"/>
-      <c r="BD15" s="99"/>
-      <c r="BE15" s="99"/>
-      <c r="BF15" s="99"/>
-      <c r="BG15" s="101"/>
-      <c r="BH15" s="99"/>
-      <c r="BI15" s="99"/>
-      <c r="BJ15" s="99"/>
-      <c r="BK15" s="99"/>
-      <c r="BL15" s="99"/>
-      <c r="BM15" s="99"/>
-      <c r="BN15" s="99"/>
-      <c r="BO15" s="101"/>
-      <c r="BP15" s="99"/>
-      <c r="BQ15" s="99"/>
-      <c r="BR15" s="99"/>
-      <c r="BS15" s="99"/>
-      <c r="BT15" s="99"/>
-      <c r="BU15" s="99"/>
-      <c r="BV15" s="99"/>
-      <c r="BW15" s="101"/>
-      <c r="BX15" s="99"/>
-      <c r="BY15" s="99"/>
-      <c r="BZ15" s="99"/>
-      <c r="CA15" s="99"/>
-      <c r="CB15" s="99"/>
-      <c r="CC15" s="99"/>
-      <c r="CD15" s="99"/>
-      <c r="CE15" s="101"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="88"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="88"/>
+      <c r="AH15" s="88"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="88"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="88"/>
+      <c r="AM15" s="88"/>
+      <c r="AN15" s="88"/>
+      <c r="AO15" s="88"/>
+      <c r="AP15" s="88"/>
+      <c r="AQ15" s="88"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="88"/>
+      <c r="AT15" s="88"/>
+      <c r="AU15" s="88"/>
+      <c r="AV15" s="88"/>
+      <c r="AW15" s="88"/>
+      <c r="AX15" s="88"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="88"/>
+      <c r="BA15" s="88"/>
+      <c r="BB15" s="88"/>
+      <c r="BC15" s="88"/>
+      <c r="BD15" s="88"/>
+      <c r="BE15" s="88"/>
+      <c r="BF15" s="88"/>
+      <c r="BG15" s="92"/>
+      <c r="BH15" s="88"/>
+      <c r="BI15" s="88"/>
+      <c r="BJ15" s="88"/>
+      <c r="BK15" s="88"/>
+      <c r="BL15" s="88"/>
+      <c r="BM15" s="88"/>
+      <c r="BN15" s="88"/>
+      <c r="BO15" s="92"/>
+      <c r="BP15" s="88"/>
+      <c r="BQ15" s="88"/>
+      <c r="BR15" s="88"/>
+      <c r="BS15" s="88"/>
+      <c r="BT15" s="88"/>
+      <c r="BU15" s="88"/>
+      <c r="BV15" s="88"/>
+      <c r="BW15" s="92"/>
+      <c r="BX15" s="88"/>
+      <c r="BY15" s="88"/>
+      <c r="BZ15" s="88"/>
+      <c r="CA15" s="88"/>
+      <c r="CB15" s="88"/>
+      <c r="CC15" s="88"/>
+      <c r="CD15" s="88"/>
+      <c r="CE15" s="92"/>
       <c r="CF15" s="58"/>
     </row>
-    <row r="16" spans="1:84" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99" t="s">
+    <row r="16" spans="1:84" s="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="101"/>
+      <c r="B16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="92"/>
       <c r="T16" s="65"/>
       <c r="U16" s="66"/>
       <c r="V16" s="66"/>
@@ -3418,86 +3353,86 @@
       <c r="Y16" s="66"/>
       <c r="Z16" s="66"/>
       <c r="AA16" s="67"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="101"/>
-      <c r="AJ16" s="99"/>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="99"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="99"/>
-      <c r="AQ16" s="99"/>
-      <c r="AR16" s="99"/>
-      <c r="AS16" s="99"/>
-      <c r="AT16" s="99"/>
-      <c r="AU16" s="99"/>
-      <c r="AV16" s="99"/>
-      <c r="AW16" s="99"/>
-      <c r="AX16" s="99"/>
-      <c r="AY16" s="101"/>
-      <c r="AZ16" s="99"/>
-      <c r="BA16" s="99"/>
-      <c r="BB16" s="99"/>
-      <c r="BC16" s="99"/>
-      <c r="BD16" s="99"/>
-      <c r="BE16" s="99"/>
-      <c r="BF16" s="99"/>
-      <c r="BG16" s="101"/>
-      <c r="BH16" s="99"/>
-      <c r="BI16" s="99"/>
-      <c r="BJ16" s="99"/>
-      <c r="BK16" s="99"/>
-      <c r="BL16" s="99"/>
-      <c r="BM16" s="99"/>
-      <c r="BN16" s="99"/>
-      <c r="BO16" s="101"/>
-      <c r="BP16" s="99"/>
-      <c r="BQ16" s="99"/>
-      <c r="BR16" s="99"/>
-      <c r="BS16" s="99"/>
-      <c r="BT16" s="99"/>
-      <c r="BU16" s="99"/>
-      <c r="BV16" s="99"/>
-      <c r="BW16" s="101"/>
-      <c r="BX16" s="99"/>
-      <c r="BY16" s="99"/>
-      <c r="BZ16" s="99"/>
-      <c r="CA16" s="99"/>
-      <c r="CB16" s="99"/>
-      <c r="CC16" s="99"/>
-      <c r="CD16" s="99"/>
-      <c r="CE16" s="101"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="88"/>
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="88"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="88"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="88"/>
+      <c r="AK16" s="88"/>
+      <c r="AL16" s="88"/>
+      <c r="AM16" s="88"/>
+      <c r="AN16" s="88"/>
+      <c r="AO16" s="88"/>
+      <c r="AP16" s="88"/>
+      <c r="AQ16" s="88"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="88"/>
+      <c r="AT16" s="88"/>
+      <c r="AU16" s="88"/>
+      <c r="AV16" s="88"/>
+      <c r="AW16" s="88"/>
+      <c r="AX16" s="88"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="88"/>
+      <c r="BA16" s="88"/>
+      <c r="BB16" s="88"/>
+      <c r="BC16" s="88"/>
+      <c r="BD16" s="88"/>
+      <c r="BE16" s="88"/>
+      <c r="BF16" s="88"/>
+      <c r="BG16" s="92"/>
+      <c r="BH16" s="88"/>
+      <c r="BI16" s="88"/>
+      <c r="BJ16" s="88"/>
+      <c r="BK16" s="88"/>
+      <c r="BL16" s="88"/>
+      <c r="BM16" s="88"/>
+      <c r="BN16" s="88"/>
+      <c r="BO16" s="92"/>
+      <c r="BP16" s="88"/>
+      <c r="BQ16" s="88"/>
+      <c r="BR16" s="88"/>
+      <c r="BS16" s="88"/>
+      <c r="BT16" s="88"/>
+      <c r="BU16" s="88"/>
+      <c r="BV16" s="88"/>
+      <c r="BW16" s="92"/>
+      <c r="BX16" s="88"/>
+      <c r="BY16" s="88"/>
+      <c r="BZ16" s="88"/>
+      <c r="CA16" s="88"/>
+      <c r="CB16" s="88"/>
+      <c r="CC16" s="88"/>
+      <c r="CD16" s="88"/>
+      <c r="CE16" s="92"/>
       <c r="CF16" s="58"/>
     </row>
-    <row r="17" spans="1:84" s="115" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="106" t="s">
+    <row r="17" spans="1:84" s="87" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="113"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="85"/>
       <c r="T17" s="65"/>
       <c r="U17" s="66"/>
       <c r="V17" s="66"/>
@@ -3506,86 +3441,86 @@
       <c r="Y17" s="66"/>
       <c r="Z17" s="66"/>
       <c r="AA17" s="67"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="112"/>
-      <c r="AD17" s="112"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="112"/>
-      <c r="AL17" s="112"/>
-      <c r="AM17" s="112"/>
-      <c r="AN17" s="112"/>
-      <c r="AO17" s="112"/>
-      <c r="AP17" s="112"/>
-      <c r="AQ17" s="114"/>
-      <c r="AR17" s="109"/>
-      <c r="AS17" s="112"/>
-      <c r="AT17" s="112"/>
-      <c r="AU17" s="112"/>
-      <c r="AV17" s="110"/>
-      <c r="AW17" s="110"/>
-      <c r="AX17" s="110"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="109"/>
-      <c r="BA17" s="110"/>
-      <c r="BB17" s="110"/>
-      <c r="BC17" s="110"/>
-      <c r="BD17" s="110"/>
-      <c r="BE17" s="110"/>
-      <c r="BF17" s="110"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="109"/>
-      <c r="BI17" s="110"/>
-      <c r="BJ17" s="110"/>
-      <c r="BK17" s="110"/>
-      <c r="BL17" s="110"/>
-      <c r="BM17" s="110"/>
-      <c r="BN17" s="110"/>
-      <c r="BO17" s="113"/>
-      <c r="BP17" s="109"/>
-      <c r="BQ17" s="110"/>
-      <c r="BR17" s="110"/>
-      <c r="BS17" s="110"/>
-      <c r="BT17" s="110"/>
-      <c r="BU17" s="110"/>
-      <c r="BV17" s="110"/>
-      <c r="BW17" s="113"/>
-      <c r="BX17" s="109"/>
-      <c r="BY17" s="110"/>
-      <c r="BZ17" s="110"/>
-      <c r="CA17" s="110"/>
-      <c r="CB17" s="110"/>
-      <c r="CC17" s="110"/>
-      <c r="CD17" s="110"/>
-      <c r="CE17" s="113"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="84"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="86"/>
+      <c r="AR17" s="81"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="84"/>
+      <c r="AV17" s="82"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="82"/>
+      <c r="AY17" s="85"/>
+      <c r="AZ17" s="81"/>
+      <c r="BA17" s="82"/>
+      <c r="BB17" s="82"/>
+      <c r="BC17" s="82"/>
+      <c r="BD17" s="82"/>
+      <c r="BE17" s="82"/>
+      <c r="BF17" s="82"/>
+      <c r="BG17" s="85"/>
+      <c r="BH17" s="81"/>
+      <c r="BI17" s="82"/>
+      <c r="BJ17" s="82"/>
+      <c r="BK17" s="82"/>
+      <c r="BL17" s="82"/>
+      <c r="BM17" s="82"/>
+      <c r="BN17" s="82"/>
+      <c r="BO17" s="85"/>
+      <c r="BP17" s="81"/>
+      <c r="BQ17" s="82"/>
+      <c r="BR17" s="82"/>
+      <c r="BS17" s="82"/>
+      <c r="BT17" s="82"/>
+      <c r="BU17" s="82"/>
+      <c r="BV17" s="82"/>
+      <c r="BW17" s="85"/>
+      <c r="BX17" s="81"/>
+      <c r="BY17" s="82"/>
+      <c r="BZ17" s="82"/>
+      <c r="CA17" s="82"/>
+      <c r="CB17" s="82"/>
+      <c r="CC17" s="82"/>
+      <c r="CD17" s="82"/>
+      <c r="CE17" s="85"/>
       <c r="CF17" s="58"/>
     </row>
-    <row r="18" spans="1:84" s="115" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116" t="s">
+    <row r="18" spans="1:84" s="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="113"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="85"/>
       <c r="T18" s="65"/>
       <c r="U18" s="66"/>
       <c r="V18" s="66"/>
@@ -3594,65 +3529,65 @@
       <c r="Y18" s="66"/>
       <c r="Z18" s="66"/>
       <c r="AA18" s="67"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="112"/>
-      <c r="AD18" s="112"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="113"/>
-      <c r="AJ18" s="109"/>
-      <c r="AK18" s="112"/>
-      <c r="AL18" s="112"/>
-      <c r="AM18" s="112"/>
-      <c r="AN18" s="112"/>
-      <c r="AO18" s="112"/>
-      <c r="AP18" s="112"/>
-      <c r="AQ18" s="114"/>
-      <c r="AR18" s="109"/>
-      <c r="AS18" s="112"/>
-      <c r="AT18" s="112"/>
-      <c r="AU18" s="112"/>
-      <c r="AV18" s="110"/>
-      <c r="AW18" s="110"/>
-      <c r="AX18" s="110"/>
-      <c r="AY18" s="113"/>
-      <c r="AZ18" s="109"/>
-      <c r="BA18" s="110"/>
-      <c r="BB18" s="110"/>
-      <c r="BC18" s="110"/>
-      <c r="BD18" s="110"/>
-      <c r="BE18" s="110"/>
-      <c r="BF18" s="110"/>
-      <c r="BG18" s="113"/>
-      <c r="BH18" s="109"/>
-      <c r="BI18" s="110"/>
-      <c r="BJ18" s="110"/>
-      <c r="BK18" s="110"/>
-      <c r="BL18" s="110"/>
-      <c r="BM18" s="110"/>
-      <c r="BN18" s="110"/>
-      <c r="BO18" s="113"/>
-      <c r="BP18" s="109"/>
-      <c r="BQ18" s="110"/>
-      <c r="BR18" s="110"/>
-      <c r="BS18" s="110"/>
-      <c r="BT18" s="110"/>
-      <c r="BU18" s="110"/>
-      <c r="BV18" s="110"/>
-      <c r="BW18" s="113"/>
-      <c r="BX18" s="109"/>
-      <c r="BY18" s="110"/>
-      <c r="BZ18" s="110"/>
-      <c r="CA18" s="110"/>
-      <c r="CB18" s="110"/>
-      <c r="CC18" s="110"/>
-      <c r="CD18" s="110"/>
-      <c r="CE18" s="113"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="84"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="86"/>
+      <c r="AR18" s="81"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="84"/>
+      <c r="AV18" s="82"/>
+      <c r="AW18" s="82"/>
+      <c r="AX18" s="82"/>
+      <c r="AY18" s="85"/>
+      <c r="AZ18" s="81"/>
+      <c r="BA18" s="82"/>
+      <c r="BB18" s="82"/>
+      <c r="BC18" s="82"/>
+      <c r="BD18" s="82"/>
+      <c r="BE18" s="82"/>
+      <c r="BF18" s="82"/>
+      <c r="BG18" s="85"/>
+      <c r="BH18" s="81"/>
+      <c r="BI18" s="82"/>
+      <c r="BJ18" s="82"/>
+      <c r="BK18" s="82"/>
+      <c r="BL18" s="82"/>
+      <c r="BM18" s="82"/>
+      <c r="BN18" s="82"/>
+      <c r="BO18" s="85"/>
+      <c r="BP18" s="81"/>
+      <c r="BQ18" s="82"/>
+      <c r="BR18" s="82"/>
+      <c r="BS18" s="82"/>
+      <c r="BT18" s="82"/>
+      <c r="BU18" s="82"/>
+      <c r="BV18" s="82"/>
+      <c r="BW18" s="85"/>
+      <c r="BX18" s="81"/>
+      <c r="BY18" s="82"/>
+      <c r="BZ18" s="82"/>
+      <c r="CA18" s="82"/>
+      <c r="CB18" s="82"/>
+      <c r="CC18" s="82"/>
+      <c r="CD18" s="82"/>
+      <c r="CE18" s="85"/>
       <c r="CF18" s="58"/>
     </row>
-    <row r="19" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
         <v>25</v>
       </c>
@@ -3750,7 +3685,7 @@
       <c r="CE19" s="16"/>
       <c r="CF19" s="58"/>
     </row>
-    <row r="20" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>33</v>
       </c>
@@ -3838,7 +3773,7 @@
       <c r="CE20" s="16"/>
       <c r="CF20" s="58"/>
     </row>
-    <row r="21" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
         <v>26</v>
       </c>
@@ -3936,7 +3871,7 @@
       <c r="CE21" s="16"/>
       <c r="CF21" s="58"/>
     </row>
-    <row r="22" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
         <v>27</v>
       </c>
@@ -4024,7 +3959,7 @@
       <c r="CE22" s="16"/>
       <c r="CF22" s="58"/>
     </row>
-    <row r="23" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
         <v>28</v>
       </c>
@@ -4112,7 +4047,7 @@
       <c r="CE23" s="16"/>
       <c r="CF23" s="58"/>
     </row>
-    <row r="24" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
         <v>34</v>
       </c>
@@ -4200,7 +4135,7 @@
       <c r="CE24" s="16"/>
       <c r="CF24" s="58"/>
     </row>
-    <row r="25" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
         <v>29</v>
       </c>
@@ -4265,15 +4200,10 @@
       <c r="BH25" s="43"/>
       <c r="BI25" s="46"/>
       <c r="BJ25" s="43"/>
-      <c r="BK25" s="2"/>
       <c r="BL25" s="15"/>
       <c r="BM25" s="15"/>
       <c r="BN25" s="15"/>
       <c r="BO25" s="16"/>
-      <c r="BP25" s="2"/>
-      <c r="BQ25" s="2"/>
-      <c r="BR25" s="2"/>
-      <c r="BS25" s="2"/>
       <c r="BT25" s="15"/>
       <c r="BU25" s="15"/>
       <c r="BV25" s="15"/>
@@ -4288,7 +4218,7 @@
       <c r="CE25" s="16"/>
       <c r="CF25" s="58"/>
     </row>
-    <row r="26" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
         <v>30</v>
       </c>
@@ -4386,7 +4316,7 @@
       <c r="CE26" s="16"/>
       <c r="CF26" s="58"/>
     </row>
-    <row r="27" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
         <v>31</v>
       </c>
@@ -4474,7 +4404,7 @@
       <c r="CE27" s="16"/>
       <c r="CF27" s="58"/>
     </row>
-    <row r="28" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>15</v>
       </c>
@@ -4562,7 +4492,7 @@
       <c r="CE28" s="16"/>
       <c r="CF28" s="58"/>
     </row>
-    <row r="29" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
         <v>35</v>
       </c>
@@ -4650,7 +4580,7 @@
       <c r="CE29" s="16"/>
       <c r="CF29" s="58"/>
     </row>
-    <row r="30" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
         <v>32</v>
       </c>
@@ -4738,7 +4668,7 @@
       <c r="CE30" s="16"/>
       <c r="CF30" s="58"/>
     </row>
-    <row r="31" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>16</v>
       </c>
@@ -4826,7 +4756,7 @@
       <c r="CE31" s="16"/>
       <c r="CF31" s="58"/>
     </row>
-    <row r="32" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
@@ -4914,7 +4844,7 @@
       <c r="CE32" s="37"/>
       <c r="CF32" s="58"/>
     </row>
-    <row r="33" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B33" s="23"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
@@ -4999,7 +4929,7 @@
       <c r="CE33" s="16"/>
       <c r="CF33" s="58"/>
     </row>
-    <row r="34" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="23"/>
       <c r="C34" s="13"/>
@@ -5085,7 +5015,7 @@
       <c r="CE34" s="16"/>
       <c r="CF34" s="58"/>
     </row>
-    <row r="35" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="23"/>
       <c r="C35" s="13"/>
@@ -5171,7 +5101,7 @@
       <c r="CE35" s="16"/>
       <c r="CF35" s="58"/>
     </row>
-    <row r="36" spans="1:84" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="24"/>
       <c r="C36" s="18"/>
@@ -5257,7 +5187,7 @@
       <c r="CE36" s="21"/>
       <c r="CF36" s="58"/>
     </row>
-    <row r="37" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A37" s="59" t="s">
         <v>2</v>
       </c>
@@ -5344,431 +5274,29 @@
       <c r="CD37" s="59"/>
       <c r="CE37" s="59"/>
     </row>
-    <row r="40" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B40" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="39"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
-      <c r="AM40" s="2"/>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="2"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="2"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
-      <c r="AZ40" s="2"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
-      <c r="BD40" s="2"/>
-      <c r="BE40" s="2"/>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
-      <c r="BH40" s="2"/>
-      <c r="BI40" s="2"/>
-      <c r="BJ40" s="2"/>
-      <c r="BK40" s="2"/>
-      <c r="BL40" s="2"/>
-      <c r="BM40" s="2"/>
-      <c r="BN40" s="2"/>
-      <c r="BO40" s="2"/>
-      <c r="BP40" s="2"/>
-      <c r="BQ40" s="2"/>
-      <c r="BR40" s="2"/>
-      <c r="BS40" s="2"/>
-      <c r="BT40" s="2"/>
-      <c r="BU40" s="2"/>
-      <c r="BV40" s="2"/>
-      <c r="BW40" s="2"/>
-      <c r="BX40" s="2"/>
-      <c r="BY40" s="2"/>
-      <c r="BZ40" s="2"/>
-      <c r="CA40" s="2"/>
-      <c r="CB40" s="2"/>
-      <c r="CC40" s="2"/>
-      <c r="CD40" s="2"/>
-      <c r="CE40" s="2"/>
     </row>
-    <row r="41" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B41" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="40"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
-      <c r="AM41" s="2"/>
-      <c r="AN41" s="2"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
-      <c r="AY41" s="2"/>
-      <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
-      <c r="BD41" s="2"/>
-      <c r="BE41" s="2"/>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2"/>
-      <c r="BH41" s="2"/>
-      <c r="BI41" s="2"/>
-      <c r="BJ41" s="2"/>
-      <c r="BK41" s="2"/>
-      <c r="BL41" s="2"/>
-      <c r="BM41" s="2"/>
-      <c r="BN41" s="2"/>
-      <c r="BO41" s="2"/>
-      <c r="BP41" s="2"/>
-      <c r="BQ41" s="2"/>
-      <c r="BR41" s="2"/>
-      <c r="BS41" s="2"/>
-      <c r="BT41" s="2"/>
-      <c r="BU41" s="2"/>
-      <c r="BV41" s="2"/>
-      <c r="BW41" s="2"/>
-      <c r="BX41" s="2"/>
-      <c r="BY41" s="2"/>
-      <c r="BZ41" s="2"/>
-      <c r="CA41" s="2"/>
-      <c r="CB41" s="2"/>
-      <c r="CC41" s="2"/>
-      <c r="CD41" s="2"/>
-      <c r="CE41" s="2"/>
     </row>
-    <row r="42" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="41"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42" s="2"/>
-      <c r="AN42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="2"/>
-      <c r="AQ42" s="2"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="2"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2"/>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
-      <c r="AY42" s="2"/>
-      <c r="AZ42" s="2"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="2"/>
-      <c r="BD42" s="2"/>
-      <c r="BE42" s="2"/>
-      <c r="BF42" s="2"/>
-      <c r="BG42" s="2"/>
-      <c r="BH42" s="2"/>
-      <c r="BI42" s="2"/>
-      <c r="BJ42" s="2"/>
-      <c r="BK42" s="2"/>
-      <c r="BL42" s="2"/>
-      <c r="BM42" s="2"/>
-      <c r="BN42" s="2"/>
-      <c r="BO42" s="2"/>
-      <c r="BP42" s="2"/>
-      <c r="BQ42" s="2"/>
-      <c r="BR42" s="2"/>
-      <c r="BS42" s="2"/>
-      <c r="BT42" s="2"/>
-      <c r="BU42" s="2"/>
-      <c r="BV42" s="2"/>
-      <c r="BW42" s="2"/>
-      <c r="BX42" s="2"/>
-      <c r="BY42" s="2"/>
-      <c r="BZ42" s="2"/>
-      <c r="CA42" s="2"/>
-      <c r="CB42" s="2"/>
-      <c r="CC42" s="2"/>
-      <c r="CD42" s="2"/>
-      <c r="CE42" s="2"/>
     </row>
-    <row r="43" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B43" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="42"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43" s="2"/>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="2"/>
-      <c r="AP43" s="2"/>
-      <c r="AQ43" s="2"/>
-      <c r="AR43" s="2"/>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2"/>
-      <c r="AW43" s="2"/>
-      <c r="AX43" s="2"/>
-      <c r="AY43" s="2"/>
-      <c r="AZ43" s="2"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
-      <c r="BD43" s="2"/>
-      <c r="BE43" s="2"/>
-      <c r="BF43" s="2"/>
-      <c r="BG43" s="2"/>
-      <c r="BH43" s="2"/>
-      <c r="BI43" s="2"/>
-      <c r="BJ43" s="2"/>
-      <c r="BK43" s="2"/>
-      <c r="BL43" s="2"/>
-      <c r="BM43" s="2"/>
-      <c r="BN43" s="2"/>
-      <c r="BO43" s="2"/>
-      <c r="BP43" s="2"/>
-      <c r="BQ43" s="2"/>
-      <c r="BR43" s="2"/>
-      <c r="BS43" s="2"/>
-      <c r="BT43" s="2"/>
-      <c r="BU43" s="2"/>
-      <c r="BV43" s="2"/>
-      <c r="BW43" s="2"/>
-      <c r="BX43" s="2"/>
-      <c r="BY43" s="2"/>
-      <c r="BZ43" s="2"/>
-      <c r="CA43" s="2"/>
-      <c r="CB43" s="2"/>
-      <c r="CC43" s="2"/>
-      <c r="CD43" s="2"/>
-      <c r="CE43" s="2"/>
-    </row>
-    <row r="44" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="2"/>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="2"/>
-      <c r="AQ44" s="2"/>
-      <c r="AR44" s="2"/>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="2"/>
-      <c r="AU44" s="2"/>
-      <c r="AV44" s="2"/>
-      <c r="AW44" s="2"/>
-      <c r="AX44" s="2"/>
-      <c r="AY44" s="2"/>
-      <c r="AZ44" s="2"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="2"/>
-      <c r="BD44" s="2"/>
-      <c r="BE44" s="2"/>
-      <c r="BF44" s="2"/>
-      <c r="BG44" s="2"/>
-      <c r="BH44" s="2"/>
-      <c r="BI44" s="2"/>
-      <c r="BJ44" s="2"/>
-      <c r="BK44" s="2"/>
-      <c r="BL44" s="2"/>
-      <c r="BM44" s="2"/>
-      <c r="BN44" s="2"/>
-      <c r="BO44" s="2"/>
-      <c r="BP44" s="2"/>
-      <c r="BQ44" s="2"/>
-      <c r="BR44" s="2"/>
-      <c r="BS44" s="2"/>
-      <c r="BT44" s="2"/>
-      <c r="BU44" s="2"/>
-      <c r="BV44" s="2"/>
-      <c r="BW44" s="2"/>
-      <c r="BX44" s="2"/>
-      <c r="BY44" s="2"/>
-      <c r="BZ44" s="2"/>
-      <c r="CA44" s="2"/>
-      <c r="CB44" s="2"/>
-      <c r="CC44" s="2"/>
-      <c r="CD44" s="2"/>
-      <c r="CE44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wickil01\Downloads\306project-G4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E621EBD9-CCD5-4C03-9296-F6584F75EC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90EFC0-BBAC-423A-8DD2-6AE7C9DA918D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,15 +67,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Tâches</t>
   </si>
   <si>
     <t>Etat</t>
-  </si>
-  <si>
-    <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
   <si>
     <t>[En cours / Terminé]</t>
@@ -225,9 +222,6 @@
     <t>Prof - configurer le seuil de température</t>
   </si>
   <si>
-    <t>Prof - être notifié par mail en fontion du seuil qu'il a configurer et des classes auxquelles il s'est abonné.</t>
-  </si>
-  <si>
     <t>Prof - être notifié en fonction du seuil et des abonnements</t>
   </si>
   <si>
@@ -251,6 +245,9 @@
       </rPr>
       <t>"</t>
     </r>
+  </si>
+  <si>
+    <t>Créer un business model canvas</t>
   </si>
 </sst>
 </file>
@@ -357,16 +354,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFABB2BF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1132,9 +1129,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1185,14 +1179,14 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1203,13 +1197,16 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1816,10 +1813,10 @@
   <dimension ref="A1:CF43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6:AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1835,7 +1832,7 @@
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -1882,7 +1879,7 @@
     </row>
     <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
@@ -2057,10 +2054,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="72"/>
       <c r="F4" s="72"/>
@@ -2072,7 +2069,7 @@
       <c r="J4" s="73"/>
       <c r="K4" s="74"/>
       <c r="L4" s="71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
@@ -2084,7 +2081,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="74"/>
       <c r="T4" s="71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" s="72"/>
       <c r="V4" s="72"/>
@@ -2096,7 +2093,7 @@
       <c r="Z4" s="73"/>
       <c r="AA4" s="74"/>
       <c r="AB4" s="71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC4" s="72"/>
       <c r="AD4" s="72"/>
@@ -2108,7 +2105,7 @@
       <c r="AH4" s="73"/>
       <c r="AI4" s="74"/>
       <c r="AJ4" s="71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK4" s="72"/>
       <c r="AL4" s="72"/>
@@ -2120,7 +2117,7 @@
       <c r="AP4" s="73"/>
       <c r="AQ4" s="74"/>
       <c r="AR4" s="71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS4" s="72"/>
       <c r="AT4" s="72"/>
@@ -2132,7 +2129,7 @@
       <c r="AX4" s="73"/>
       <c r="AY4" s="74"/>
       <c r="AZ4" s="71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA4" s="72"/>
       <c r="BB4" s="72"/>
@@ -2144,7 +2141,7 @@
       <c r="BF4" s="73"/>
       <c r="BG4" s="74"/>
       <c r="BH4" s="71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI4" s="72"/>
       <c r="BJ4" s="72"/>
@@ -2156,7 +2153,7 @@
       <c r="BN4" s="73"/>
       <c r="BO4" s="74"/>
       <c r="BP4" s="71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BQ4" s="72"/>
       <c r="BR4" s="72"/>
@@ -2168,7 +2165,7 @@
       <c r="BV4" s="73"/>
       <c r="BW4" s="74"/>
       <c r="BX4" s="71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY4" s="72"/>
       <c r="BZ4" s="72"/>
@@ -2180,16 +2177,16 @@
       <c r="CD4" s="73"/>
       <c r="CE4" s="74"/>
       <c r="CF4" s="58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -2434,11 +2431,11 @@
       <c r="CF5" s="58"/>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
-        <v>43</v>
+      <c r="A6" s="99" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
@@ -2458,7 +2455,7 @@
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
       <c r="T6" s="62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U6" s="63"/>
       <c r="V6" s="63"/>
@@ -2527,10 +2524,10 @@
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -2617,10 +2614,10 @@
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -2707,10 +2704,10 @@
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -2797,10 +2794,10 @@
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -2885,28 +2882,28 @@
       <c r="CE10" s="16"/>
       <c r="CF10" s="58"/>
     </row>
-    <row r="11" spans="1:84" s="87" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="85"/>
+    <row r="11" spans="1:84" s="86" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="84"/>
       <c r="T11" s="65"/>
       <c r="U11" s="66"/>
       <c r="V11" s="66"/>
@@ -2915,86 +2912,86 @@
       <c r="Y11" s="66"/>
       <c r="Z11" s="66"/>
       <c r="AA11" s="67"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="81"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="82"/>
-      <c r="AW11" s="82"/>
-      <c r="AX11" s="82"/>
-      <c r="AY11" s="85"/>
-      <c r="AZ11" s="81"/>
-      <c r="BA11" s="82"/>
-      <c r="BB11" s="82"/>
-      <c r="BC11" s="82"/>
-      <c r="BD11" s="82"/>
-      <c r="BE11" s="82"/>
-      <c r="BF11" s="82"/>
-      <c r="BG11" s="85"/>
-      <c r="BH11" s="81"/>
-      <c r="BI11" s="82"/>
-      <c r="BJ11" s="82"/>
-      <c r="BK11" s="82"/>
-      <c r="BL11" s="82"/>
-      <c r="BM11" s="82"/>
-      <c r="BN11" s="82"/>
-      <c r="BO11" s="85"/>
-      <c r="BP11" s="81"/>
-      <c r="BQ11" s="82"/>
-      <c r="BR11" s="82"/>
-      <c r="BS11" s="82"/>
-      <c r="BT11" s="82"/>
-      <c r="BU11" s="82"/>
-      <c r="BV11" s="82"/>
-      <c r="BW11" s="85"/>
-      <c r="BX11" s="81"/>
-      <c r="BY11" s="82"/>
-      <c r="BZ11" s="82"/>
-      <c r="CA11" s="82"/>
-      <c r="CB11" s="82"/>
-      <c r="CC11" s="82"/>
-      <c r="CD11" s="82"/>
-      <c r="CE11" s="85"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="80"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="83"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="85"/>
+      <c r="AR11" s="80"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="81"/>
+      <c r="AW11" s="81"/>
+      <c r="AX11" s="81"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="80"/>
+      <c r="BA11" s="81"/>
+      <c r="BB11" s="81"/>
+      <c r="BC11" s="81"/>
+      <c r="BD11" s="81"/>
+      <c r="BE11" s="81"/>
+      <c r="BF11" s="81"/>
+      <c r="BG11" s="84"/>
+      <c r="BH11" s="80"/>
+      <c r="BI11" s="81"/>
+      <c r="BJ11" s="81"/>
+      <c r="BK11" s="81"/>
+      <c r="BL11" s="81"/>
+      <c r="BM11" s="81"/>
+      <c r="BN11" s="81"/>
+      <c r="BO11" s="84"/>
+      <c r="BP11" s="80"/>
+      <c r="BQ11" s="81"/>
+      <c r="BR11" s="81"/>
+      <c r="BS11" s="81"/>
+      <c r="BT11" s="81"/>
+      <c r="BU11" s="81"/>
+      <c r="BV11" s="81"/>
+      <c r="BW11" s="84"/>
+      <c r="BX11" s="80"/>
+      <c r="BY11" s="81"/>
+      <c r="BZ11" s="81"/>
+      <c r="CA11" s="81"/>
+      <c r="CB11" s="81"/>
+      <c r="CC11" s="81"/>
+      <c r="CD11" s="81"/>
+      <c r="CE11" s="84"/>
       <c r="CF11" s="58"/>
     </row>
-    <row r="12" spans="1:84" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="85"/>
+    <row r="12" spans="1:84" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="84"/>
       <c r="T12" s="65"/>
       <c r="U12" s="66"/>
       <c r="V12" s="66"/>
@@ -3003,86 +3000,86 @@
       <c r="Y12" s="66"/>
       <c r="Z12" s="66"/>
       <c r="AA12" s="67"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="81"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="81"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="82"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="81"/>
-      <c r="BA12" s="82"/>
-      <c r="BB12" s="82"/>
-      <c r="BC12" s="82"/>
-      <c r="BD12" s="82"/>
-      <c r="BE12" s="82"/>
-      <c r="BF12" s="82"/>
-      <c r="BG12" s="85"/>
-      <c r="BH12" s="81"/>
-      <c r="BI12" s="82"/>
-      <c r="BJ12" s="82"/>
-      <c r="BK12" s="82"/>
-      <c r="BL12" s="82"/>
-      <c r="BM12" s="82"/>
-      <c r="BN12" s="82"/>
-      <c r="BO12" s="85"/>
-      <c r="BP12" s="81"/>
-      <c r="BQ12" s="82"/>
-      <c r="BR12" s="82"/>
-      <c r="BS12" s="82"/>
-      <c r="BT12" s="82"/>
-      <c r="BU12" s="82"/>
-      <c r="BV12" s="82"/>
-      <c r="BW12" s="85"/>
-      <c r="BX12" s="81"/>
-      <c r="BY12" s="82"/>
-      <c r="BZ12" s="82"/>
-      <c r="CA12" s="82"/>
-      <c r="CB12" s="82"/>
-      <c r="CC12" s="82"/>
-      <c r="CD12" s="82"/>
-      <c r="CE12" s="85"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="85"/>
+      <c r="AR12" s="80"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="81"/>
+      <c r="AW12" s="81"/>
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="80"/>
+      <c r="BA12" s="81"/>
+      <c r="BB12" s="81"/>
+      <c r="BC12" s="81"/>
+      <c r="BD12" s="81"/>
+      <c r="BE12" s="81"/>
+      <c r="BF12" s="81"/>
+      <c r="BG12" s="84"/>
+      <c r="BH12" s="80"/>
+      <c r="BI12" s="81"/>
+      <c r="BJ12" s="81"/>
+      <c r="BK12" s="81"/>
+      <c r="BL12" s="81"/>
+      <c r="BM12" s="81"/>
+      <c r="BN12" s="81"/>
+      <c r="BO12" s="84"/>
+      <c r="BP12" s="80"/>
+      <c r="BQ12" s="81"/>
+      <c r="BR12" s="81"/>
+      <c r="BS12" s="81"/>
+      <c r="BT12" s="81"/>
+      <c r="BU12" s="81"/>
+      <c r="BV12" s="81"/>
+      <c r="BW12" s="84"/>
+      <c r="BX12" s="80"/>
+      <c r="BY12" s="81"/>
+      <c r="BZ12" s="81"/>
+      <c r="CA12" s="81"/>
+      <c r="CB12" s="81"/>
+      <c r="CC12" s="81"/>
+      <c r="CD12" s="81"/>
+      <c r="CE12" s="84"/>
       <c r="CF12" s="58"/>
     </row>
-    <row r="13" spans="1:84" s="87" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="85"/>
+    <row r="13" spans="1:84" s="86" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="84"/>
       <c r="T13" s="65"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -3091,86 +3088,86 @@
       <c r="Y13" s="66"/>
       <c r="Z13" s="66"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="81"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="82"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="85"/>
-      <c r="AZ13" s="81"/>
-      <c r="BA13" s="82"/>
-      <c r="BB13" s="82"/>
-      <c r="BC13" s="82"/>
-      <c r="BD13" s="82"/>
-      <c r="BE13" s="82"/>
-      <c r="BF13" s="82"/>
-      <c r="BG13" s="85"/>
-      <c r="BH13" s="81"/>
-      <c r="BI13" s="82"/>
-      <c r="BJ13" s="82"/>
-      <c r="BK13" s="82"/>
-      <c r="BL13" s="82"/>
-      <c r="BM13" s="82"/>
-      <c r="BN13" s="82"/>
-      <c r="BO13" s="85"/>
-      <c r="BP13" s="81"/>
-      <c r="BQ13" s="82"/>
-      <c r="BR13" s="82"/>
-      <c r="BS13" s="82"/>
-      <c r="BT13" s="82"/>
-      <c r="BU13" s="82"/>
-      <c r="BV13" s="82"/>
-      <c r="BW13" s="85"/>
-      <c r="BX13" s="81"/>
-      <c r="BY13" s="82"/>
-      <c r="BZ13" s="82"/>
-      <c r="CA13" s="82"/>
-      <c r="CB13" s="82"/>
-      <c r="CC13" s="82"/>
-      <c r="CD13" s="82"/>
-      <c r="CE13" s="85"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="81"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="80"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="83"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="85"/>
+      <c r="AR13" s="80"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="81"/>
+      <c r="AW13" s="81"/>
+      <c r="AX13" s="81"/>
+      <c r="AY13" s="84"/>
+      <c r="AZ13" s="80"/>
+      <c r="BA13" s="81"/>
+      <c r="BB13" s="81"/>
+      <c r="BC13" s="81"/>
+      <c r="BD13" s="81"/>
+      <c r="BE13" s="81"/>
+      <c r="BF13" s="81"/>
+      <c r="BG13" s="84"/>
+      <c r="BH13" s="80"/>
+      <c r="BI13" s="81"/>
+      <c r="BJ13" s="81"/>
+      <c r="BK13" s="81"/>
+      <c r="BL13" s="81"/>
+      <c r="BM13" s="81"/>
+      <c r="BN13" s="81"/>
+      <c r="BO13" s="84"/>
+      <c r="BP13" s="80"/>
+      <c r="BQ13" s="81"/>
+      <c r="BR13" s="81"/>
+      <c r="BS13" s="81"/>
+      <c r="BT13" s="81"/>
+      <c r="BU13" s="81"/>
+      <c r="BV13" s="81"/>
+      <c r="BW13" s="84"/>
+      <c r="BX13" s="80"/>
+      <c r="BY13" s="81"/>
+      <c r="BZ13" s="81"/>
+      <c r="CA13" s="81"/>
+      <c r="CB13" s="81"/>
+      <c r="CC13" s="81"/>
+      <c r="CD13" s="81"/>
+      <c r="CE13" s="84"/>
       <c r="CF13" s="58"/>
     </row>
-    <row r="14" spans="1:84" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="86"/>
+    <row r="14" spans="1:84" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="85"/>
       <c r="T14" s="65"/>
       <c r="U14" s="66"/>
       <c r="V14" s="66"/>
@@ -3179,85 +3176,85 @@
       <c r="Y14" s="66"/>
       <c r="Z14" s="66"/>
       <c r="AA14" s="67"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="84"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="84"/>
-      <c r="BC14" s="84"/>
-      <c r="BD14" s="84"/>
-      <c r="BE14" s="84"/>
-      <c r="BF14" s="84"/>
-      <c r="BG14" s="86"/>
-      <c r="BH14" s="84"/>
-      <c r="BI14" s="84"/>
-      <c r="BJ14" s="84"/>
-      <c r="BK14" s="84"/>
-      <c r="BL14" s="84"/>
-      <c r="BM14" s="84"/>
-      <c r="BN14" s="84"/>
-      <c r="BO14" s="86"/>
-      <c r="BP14" s="84"/>
-      <c r="BQ14" s="84"/>
-      <c r="BR14" s="84"/>
-      <c r="BS14" s="84"/>
-      <c r="BT14" s="84"/>
-      <c r="BU14" s="84"/>
-      <c r="BV14" s="84"/>
-      <c r="BW14" s="86"/>
-      <c r="BX14" s="84"/>
-      <c r="BY14" s="84"/>
-      <c r="BZ14" s="84"/>
-      <c r="CA14" s="84"/>
-      <c r="CB14" s="84"/>
-      <c r="CC14" s="84"/>
-      <c r="CD14" s="84"/>
-      <c r="CE14" s="86"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="83"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="85"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="83"/>
+      <c r="BA14" s="83"/>
+      <c r="BB14" s="83"/>
+      <c r="BC14" s="83"/>
+      <c r="BD14" s="83"/>
+      <c r="BE14" s="83"/>
+      <c r="BF14" s="83"/>
+      <c r="BG14" s="85"/>
+      <c r="BH14" s="83"/>
+      <c r="BI14" s="83"/>
+      <c r="BJ14" s="83"/>
+      <c r="BK14" s="83"/>
+      <c r="BL14" s="83"/>
+      <c r="BM14" s="83"/>
+      <c r="BN14" s="83"/>
+      <c r="BO14" s="85"/>
+      <c r="BP14" s="83"/>
+      <c r="BQ14" s="83"/>
+      <c r="BR14" s="83"/>
+      <c r="BS14" s="83"/>
+      <c r="BT14" s="83"/>
+      <c r="BU14" s="83"/>
+      <c r="BV14" s="83"/>
+      <c r="BW14" s="85"/>
+      <c r="BX14" s="83"/>
+      <c r="BY14" s="83"/>
+      <c r="BZ14" s="83"/>
+      <c r="CA14" s="83"/>
+      <c r="CB14" s="83"/>
+      <c r="CC14" s="83"/>
+      <c r="CD14" s="83"/>
+      <c r="CE14" s="85"/>
       <c r="CF14" s="58"/>
     </row>
-    <row r="15" spans="1:84" s="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="92"/>
+    <row r="15" spans="1:84" s="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="91"/>
       <c r="T15" s="65"/>
       <c r="U15" s="66"/>
       <c r="V15" s="66"/>
@@ -3266,85 +3263,85 @@
       <c r="Y15" s="66"/>
       <c r="Z15" s="66"/>
       <c r="AA15" s="67"/>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="88"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="88"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="88"/>
-      <c r="AP15" s="88"/>
-      <c r="AQ15" s="88"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="88"/>
-      <c r="AT15" s="88"/>
-      <c r="AU15" s="88"/>
-      <c r="AV15" s="88"/>
-      <c r="AW15" s="88"/>
-      <c r="AX15" s="88"/>
-      <c r="AY15" s="92"/>
-      <c r="AZ15" s="88"/>
-      <c r="BA15" s="88"/>
-      <c r="BB15" s="88"/>
-      <c r="BC15" s="88"/>
-      <c r="BD15" s="88"/>
-      <c r="BE15" s="88"/>
-      <c r="BF15" s="88"/>
-      <c r="BG15" s="92"/>
-      <c r="BH15" s="88"/>
-      <c r="BI15" s="88"/>
-      <c r="BJ15" s="88"/>
-      <c r="BK15" s="88"/>
-      <c r="BL15" s="88"/>
-      <c r="BM15" s="88"/>
-      <c r="BN15" s="88"/>
-      <c r="BO15" s="92"/>
-      <c r="BP15" s="88"/>
-      <c r="BQ15" s="88"/>
-      <c r="BR15" s="88"/>
-      <c r="BS15" s="88"/>
-      <c r="BT15" s="88"/>
-      <c r="BU15" s="88"/>
-      <c r="BV15" s="88"/>
-      <c r="BW15" s="92"/>
-      <c r="BX15" s="88"/>
-      <c r="BY15" s="88"/>
-      <c r="BZ15" s="88"/>
-      <c r="CA15" s="88"/>
-      <c r="CB15" s="88"/>
-      <c r="CC15" s="88"/>
-      <c r="CD15" s="88"/>
-      <c r="CE15" s="92"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="87"/>
+      <c r="BA15" s="87"/>
+      <c r="BB15" s="87"/>
+      <c r="BC15" s="87"/>
+      <c r="BD15" s="87"/>
+      <c r="BE15" s="87"/>
+      <c r="BF15" s="87"/>
+      <c r="BG15" s="91"/>
+      <c r="BH15" s="87"/>
+      <c r="BI15" s="87"/>
+      <c r="BJ15" s="87"/>
+      <c r="BK15" s="87"/>
+      <c r="BL15" s="87"/>
+      <c r="BM15" s="87"/>
+      <c r="BN15" s="87"/>
+      <c r="BO15" s="91"/>
+      <c r="BP15" s="87"/>
+      <c r="BQ15" s="87"/>
+      <c r="BR15" s="87"/>
+      <c r="BS15" s="87"/>
+      <c r="BT15" s="87"/>
+      <c r="BU15" s="87"/>
+      <c r="BV15" s="87"/>
+      <c r="BW15" s="91"/>
+      <c r="BX15" s="87"/>
+      <c r="BY15" s="87"/>
+      <c r="BZ15" s="87"/>
+      <c r="CA15" s="87"/>
+      <c r="CB15" s="87"/>
+      <c r="CC15" s="87"/>
+      <c r="CD15" s="87"/>
+      <c r="CE15" s="91"/>
       <c r="CF15" s="58"/>
     </row>
-    <row r="16" spans="1:84" s="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="92"/>
+    <row r="16" spans="1:84" s="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="91"/>
       <c r="T16" s="65"/>
       <c r="U16" s="66"/>
       <c r="V16" s="66"/>
@@ -3353,86 +3350,86 @@
       <c r="Y16" s="66"/>
       <c r="Z16" s="66"/>
       <c r="AA16" s="67"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="88"/>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="88"/>
-      <c r="AQ16" s="88"/>
-      <c r="AR16" s="88"/>
-      <c r="AS16" s="88"/>
-      <c r="AT16" s="88"/>
-      <c r="AU16" s="88"/>
-      <c r="AV16" s="88"/>
-      <c r="AW16" s="88"/>
-      <c r="AX16" s="88"/>
-      <c r="AY16" s="92"/>
-      <c r="AZ16" s="88"/>
-      <c r="BA16" s="88"/>
-      <c r="BB16" s="88"/>
-      <c r="BC16" s="88"/>
-      <c r="BD16" s="88"/>
-      <c r="BE16" s="88"/>
-      <c r="BF16" s="88"/>
-      <c r="BG16" s="92"/>
-      <c r="BH16" s="88"/>
-      <c r="BI16" s="88"/>
-      <c r="BJ16" s="88"/>
-      <c r="BK16" s="88"/>
-      <c r="BL16" s="88"/>
-      <c r="BM16" s="88"/>
-      <c r="BN16" s="88"/>
-      <c r="BO16" s="92"/>
-      <c r="BP16" s="88"/>
-      <c r="BQ16" s="88"/>
-      <c r="BR16" s="88"/>
-      <c r="BS16" s="88"/>
-      <c r="BT16" s="88"/>
-      <c r="BU16" s="88"/>
-      <c r="BV16" s="88"/>
-      <c r="BW16" s="92"/>
-      <c r="BX16" s="88"/>
-      <c r="BY16" s="88"/>
-      <c r="BZ16" s="88"/>
-      <c r="CA16" s="88"/>
-      <c r="CB16" s="88"/>
-      <c r="CC16" s="88"/>
-      <c r="CD16" s="88"/>
-      <c r="CE16" s="92"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="87"/>
+      <c r="BA16" s="87"/>
+      <c r="BB16" s="87"/>
+      <c r="BC16" s="87"/>
+      <c r="BD16" s="87"/>
+      <c r="BE16" s="87"/>
+      <c r="BF16" s="87"/>
+      <c r="BG16" s="91"/>
+      <c r="BH16" s="87"/>
+      <c r="BI16" s="87"/>
+      <c r="BJ16" s="87"/>
+      <c r="BK16" s="87"/>
+      <c r="BL16" s="87"/>
+      <c r="BM16" s="87"/>
+      <c r="BN16" s="87"/>
+      <c r="BO16" s="91"/>
+      <c r="BP16" s="87"/>
+      <c r="BQ16" s="87"/>
+      <c r="BR16" s="87"/>
+      <c r="BS16" s="87"/>
+      <c r="BT16" s="87"/>
+      <c r="BU16" s="87"/>
+      <c r="BV16" s="87"/>
+      <c r="BW16" s="91"/>
+      <c r="BX16" s="87"/>
+      <c r="BY16" s="87"/>
+      <c r="BZ16" s="87"/>
+      <c r="CA16" s="87"/>
+      <c r="CB16" s="87"/>
+      <c r="CC16" s="87"/>
+      <c r="CD16" s="87"/>
+      <c r="CE16" s="91"/>
       <c r="CF16" s="58"/>
     </row>
-    <row r="17" spans="1:84" s="87" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="85"/>
+    <row r="17" spans="1:84" s="86" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="84"/>
       <c r="T17" s="65"/>
       <c r="U17" s="66"/>
       <c r="V17" s="66"/>
@@ -3441,86 +3438,86 @@
       <c r="Y17" s="66"/>
       <c r="Z17" s="66"/>
       <c r="AA17" s="67"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="86"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="84"/>
-      <c r="AV17" s="82"/>
-      <c r="AW17" s="82"/>
-      <c r="AX17" s="82"/>
-      <c r="AY17" s="85"/>
-      <c r="AZ17" s="81"/>
-      <c r="BA17" s="82"/>
-      <c r="BB17" s="82"/>
-      <c r="BC17" s="82"/>
-      <c r="BD17" s="82"/>
-      <c r="BE17" s="82"/>
-      <c r="BF17" s="82"/>
-      <c r="BG17" s="85"/>
-      <c r="BH17" s="81"/>
-      <c r="BI17" s="82"/>
-      <c r="BJ17" s="82"/>
-      <c r="BK17" s="82"/>
-      <c r="BL17" s="82"/>
-      <c r="BM17" s="82"/>
-      <c r="BN17" s="82"/>
-      <c r="BO17" s="85"/>
-      <c r="BP17" s="81"/>
-      <c r="BQ17" s="82"/>
-      <c r="BR17" s="82"/>
-      <c r="BS17" s="82"/>
-      <c r="BT17" s="82"/>
-      <c r="BU17" s="82"/>
-      <c r="BV17" s="82"/>
-      <c r="BW17" s="85"/>
-      <c r="BX17" s="81"/>
-      <c r="BY17" s="82"/>
-      <c r="BZ17" s="82"/>
-      <c r="CA17" s="82"/>
-      <c r="CB17" s="82"/>
-      <c r="CC17" s="82"/>
-      <c r="CD17" s="82"/>
-      <c r="CE17" s="85"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="83"/>
+      <c r="AO17" s="83"/>
+      <c r="AP17" s="83"/>
+      <c r="AQ17" s="85"/>
+      <c r="AR17" s="80"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="81"/>
+      <c r="AW17" s="81"/>
+      <c r="AX17" s="81"/>
+      <c r="AY17" s="84"/>
+      <c r="AZ17" s="80"/>
+      <c r="BA17" s="81"/>
+      <c r="BB17" s="81"/>
+      <c r="BC17" s="81"/>
+      <c r="BD17" s="81"/>
+      <c r="BE17" s="81"/>
+      <c r="BF17" s="81"/>
+      <c r="BG17" s="84"/>
+      <c r="BH17" s="80"/>
+      <c r="BI17" s="81"/>
+      <c r="BJ17" s="81"/>
+      <c r="BK17" s="81"/>
+      <c r="BL17" s="81"/>
+      <c r="BM17" s="81"/>
+      <c r="BN17" s="81"/>
+      <c r="BO17" s="84"/>
+      <c r="BP17" s="80"/>
+      <c r="BQ17" s="81"/>
+      <c r="BR17" s="81"/>
+      <c r="BS17" s="81"/>
+      <c r="BT17" s="81"/>
+      <c r="BU17" s="81"/>
+      <c r="BV17" s="81"/>
+      <c r="BW17" s="84"/>
+      <c r="BX17" s="80"/>
+      <c r="BY17" s="81"/>
+      <c r="BZ17" s="81"/>
+      <c r="CA17" s="81"/>
+      <c r="CB17" s="81"/>
+      <c r="CC17" s="81"/>
+      <c r="CD17" s="81"/>
+      <c r="CE17" s="84"/>
       <c r="CF17" s="58"/>
     </row>
-    <row r="18" spans="1:84" s="87" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="85"/>
+    <row r="18" spans="1:84" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="84"/>
       <c r="T18" s="65"/>
       <c r="U18" s="66"/>
       <c r="V18" s="66"/>
@@ -3529,70 +3526,70 @@
       <c r="Y18" s="66"/>
       <c r="Z18" s="66"/>
       <c r="AA18" s="67"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="82"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="86"/>
-      <c r="AR18" s="81"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="84"/>
-      <c r="AU18" s="84"/>
-      <c r="AV18" s="82"/>
-      <c r="AW18" s="82"/>
-      <c r="AX18" s="82"/>
-      <c r="AY18" s="85"/>
-      <c r="AZ18" s="81"/>
-      <c r="BA18" s="82"/>
-      <c r="BB18" s="82"/>
-      <c r="BC18" s="82"/>
-      <c r="BD18" s="82"/>
-      <c r="BE18" s="82"/>
-      <c r="BF18" s="82"/>
-      <c r="BG18" s="85"/>
-      <c r="BH18" s="81"/>
-      <c r="BI18" s="82"/>
-      <c r="BJ18" s="82"/>
-      <c r="BK18" s="82"/>
-      <c r="BL18" s="82"/>
-      <c r="BM18" s="82"/>
-      <c r="BN18" s="82"/>
-      <c r="BO18" s="85"/>
-      <c r="BP18" s="81"/>
-      <c r="BQ18" s="82"/>
-      <c r="BR18" s="82"/>
-      <c r="BS18" s="82"/>
-      <c r="BT18" s="82"/>
-      <c r="BU18" s="82"/>
-      <c r="BV18" s="82"/>
-      <c r="BW18" s="85"/>
-      <c r="BX18" s="81"/>
-      <c r="BY18" s="82"/>
-      <c r="BZ18" s="82"/>
-      <c r="CA18" s="82"/>
-      <c r="CB18" s="82"/>
-      <c r="CC18" s="82"/>
-      <c r="CD18" s="82"/>
-      <c r="CE18" s="85"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="83"/>
+      <c r="AO18" s="83"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="85"/>
+      <c r="AR18" s="80"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="81"/>
+      <c r="AW18" s="81"/>
+      <c r="AX18" s="81"/>
+      <c r="AY18" s="84"/>
+      <c r="AZ18" s="80"/>
+      <c r="BA18" s="81"/>
+      <c r="BB18" s="81"/>
+      <c r="BC18" s="81"/>
+      <c r="BD18" s="81"/>
+      <c r="BE18" s="81"/>
+      <c r="BF18" s="81"/>
+      <c r="BG18" s="84"/>
+      <c r="BH18" s="80"/>
+      <c r="BI18" s="81"/>
+      <c r="BJ18" s="81"/>
+      <c r="BK18" s="81"/>
+      <c r="BL18" s="81"/>
+      <c r="BM18" s="81"/>
+      <c r="BN18" s="81"/>
+      <c r="BO18" s="84"/>
+      <c r="BP18" s="80"/>
+      <c r="BQ18" s="81"/>
+      <c r="BR18" s="81"/>
+      <c r="BS18" s="81"/>
+      <c r="BT18" s="81"/>
+      <c r="BU18" s="81"/>
+      <c r="BV18" s="81"/>
+      <c r="BW18" s="84"/>
+      <c r="BX18" s="80"/>
+      <c r="BY18" s="81"/>
+      <c r="BZ18" s="81"/>
+      <c r="CA18" s="81"/>
+      <c r="CB18" s="81"/>
+      <c r="CC18" s="81"/>
+      <c r="CD18" s="81"/>
+      <c r="CE18" s="84"/>
       <c r="CF18" s="58"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
@@ -3620,16 +3617,16 @@
       <c r="Z19" s="66"/>
       <c r="AA19" s="67"/>
       <c r="AB19" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC19" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD19" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE19" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
@@ -3687,7 +3684,7 @@
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="13"/>
@@ -3775,10 +3772,10 @@
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -3806,16 +3803,16 @@
       <c r="Z21" s="66"/>
       <c r="AA21" s="67"/>
       <c r="AB21" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC21" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD21" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE21" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
@@ -3873,7 +3870,7 @@
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="13"/>
@@ -3961,7 +3958,7 @@
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="13"/>
@@ -4049,7 +4046,7 @@
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="13"/>
@@ -4137,7 +4134,7 @@
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="13"/>
@@ -4220,10 +4217,10 @@
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
@@ -4251,16 +4248,16 @@
       <c r="Z26" s="66"/>
       <c r="AA26" s="67"/>
       <c r="AB26" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC26" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD26" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE26" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
@@ -4318,7 +4315,7 @@
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="13"/>
@@ -4406,7 +4403,7 @@
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="13"/>
@@ -4494,7 +4491,7 @@
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="13"/>
@@ -4582,7 +4579,7 @@
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="13"/>
@@ -4670,7 +4667,7 @@
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="13"/>
@@ -4758,7 +4755,7 @@
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="13"/>
@@ -5188,9 +5185,7 @@
       <c r="CF36" s="58"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A37" s="59" t="s">
-        <v>2</v>
-      </c>
+      <c r="A37" s="59"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -5276,25 +5271,25 @@
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B40" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B41" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B43" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="42"/>
     </row>

--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wickil01\Downloads\306project-G4\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emf\306\306project-G4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90EFC0-BBAC-423A-8DD2-6AE7C9DA918D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B08CCC7-8119-4FA3-9F2A-3FB77CB18044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Tâches</t>
   </si>
@@ -833,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1041,6 +1041,110 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1100,113 +1204,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1812,25 +1809,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6:AA36"/>
+      <selection pane="bottomRight" activeCell="BH27" sqref="BH27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
-    <col min="4" max="83" width="2.140625" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="57.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="3" customWidth="1"/>
+    <col min="4" max="83" width="2.1796875" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.1796875" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.1796875" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="77" t="s">
         <v>22</v>
       </c>
@@ -1877,177 +1874,177 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="75"/>
-      <c r="AY2" s="75"/>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
-      <c r="BG2" s="75"/>
-      <c r="BH2" s="75"/>
-      <c r="BI2" s="75"/>
-      <c r="BJ2" s="75"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="75"/>
-      <c r="BM2" s="75"/>
-      <c r="BN2" s="75"/>
-      <c r="BO2" s="75"/>
-      <c r="BP2" s="75"/>
-      <c r="BQ2" s="75"/>
-      <c r="BR2" s="75"/>
-      <c r="BS2" s="75"/>
-      <c r="BT2" s="75"/>
-      <c r="BU2" s="75"/>
-      <c r="BV2" s="75"/>
-      <c r="BW2" s="75"/>
-      <c r="BX2" s="75"/>
-      <c r="BY2" s="75"/>
-      <c r="BZ2" s="75"/>
-      <c r="CA2" s="75"/>
-      <c r="CB2" s="75"/>
-      <c r="CC2" s="75"/>
-      <c r="CD2" s="75"/>
-      <c r="CE2" s="75"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="78"/>
+      <c r="BZ2" s="78"/>
+      <c r="CA2" s="78"/>
+      <c r="CB2" s="78"/>
+      <c r="CC2" s="78"/>
+      <c r="CD2" s="78"/>
+      <c r="CE2" s="78"/>
     </row>
-    <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="76"/>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="76"/>
-      <c r="BF3" s="76"/>
-      <c r="BG3" s="76"/>
-      <c r="BH3" s="76"/>
-      <c r="BI3" s="76"/>
-      <c r="BJ3" s="76"/>
-      <c r="BK3" s="76"/>
-      <c r="BL3" s="76"/>
-      <c r="BM3" s="76"/>
-      <c r="BN3" s="76"/>
-      <c r="BO3" s="76"/>
-      <c r="BP3" s="76"/>
-      <c r="BQ3" s="76"/>
-      <c r="BR3" s="76"/>
-      <c r="BS3" s="76"/>
-      <c r="BT3" s="76"/>
-      <c r="BU3" s="76"/>
-      <c r="BV3" s="76"/>
-      <c r="BW3" s="76"/>
-      <c r="BX3" s="76"/>
-      <c r="BY3" s="76"/>
-      <c r="BZ3" s="76"/>
-      <c r="CA3" s="76"/>
-      <c r="CB3" s="76"/>
-      <c r="CC3" s="76"/>
-      <c r="CD3" s="76"/>
-      <c r="CE3" s="76"/>
+    <row r="3" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="79"/>
+      <c r="AR3" s="79"/>
+      <c r="AS3" s="79"/>
+      <c r="AT3" s="79"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="79"/>
+      <c r="AW3" s="79"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="79"/>
+      <c r="BF3" s="79"/>
+      <c r="BG3" s="79"/>
+      <c r="BH3" s="79"/>
+      <c r="BI3" s="79"/>
+      <c r="BJ3" s="79"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="79"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="79"/>
+      <c r="BO3" s="79"/>
+      <c r="BP3" s="79"/>
+      <c r="BQ3" s="79"/>
+      <c r="BR3" s="79"/>
+      <c r="BS3" s="79"/>
+      <c r="BT3" s="79"/>
+      <c r="BU3" s="79"/>
+      <c r="BV3" s="79"/>
+      <c r="BW3" s="79"/>
+      <c r="BX3" s="79"/>
+      <c r="BY3" s="79"/>
+      <c r="BZ3" s="79"/>
+      <c r="CA3" s="79"/>
+      <c r="CB3" s="79"/>
+      <c r="CC3" s="79"/>
+      <c r="CD3" s="79"/>
+      <c r="CE3" s="79"/>
     </row>
-    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2056,132 +2053,132 @@
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82">
         <v>45992</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="71" t="s">
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="73">
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82">
         <v>45993</v>
       </c>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="71" t="s">
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="73">
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="82">
         <v>45999</v>
       </c>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="71" t="s">
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="73">
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="82">
         <v>46000</v>
       </c>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="71" t="s">
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="73">
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="82">
         <v>46006</v>
       </c>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="71" t="s">
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="73">
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="82">
         <v>46007</v>
       </c>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="71" t="s">
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="73">
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="82">
         <v>46027</v>
       </c>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="73"/>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="71" t="s">
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="82"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="73">
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="82">
         <v>46028</v>
       </c>
-      <c r="BM4" s="73"/>
-      <c r="BN4" s="73"/>
-      <c r="BO4" s="74"/>
-      <c r="BP4" s="71" t="s">
+      <c r="BM4" s="82"/>
+      <c r="BN4" s="82"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="72"/>
-      <c r="BR4" s="72"/>
-      <c r="BS4" s="72"/>
-      <c r="BT4" s="73">
+      <c r="BQ4" s="81"/>
+      <c r="BR4" s="81"/>
+      <c r="BS4" s="81"/>
+      <c r="BT4" s="82">
         <v>46034</v>
       </c>
-      <c r="BU4" s="73"/>
-      <c r="BV4" s="73"/>
-      <c r="BW4" s="74"/>
-      <c r="BX4" s="71" t="s">
+      <c r="BU4" s="82"/>
+      <c r="BV4" s="82"/>
+      <c r="BW4" s="83"/>
+      <c r="BX4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="72"/>
-      <c r="BZ4" s="72"/>
-      <c r="CA4" s="72"/>
-      <c r="CB4" s="73">
+      <c r="BY4" s="81"/>
+      <c r="BZ4" s="81"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="82">
         <v>46035</v>
       </c>
-      <c r="CC4" s="73"/>
-      <c r="CD4" s="73"/>
-      <c r="CE4" s="74"/>
-      <c r="CF4" s="58" t="s">
+      <c r="CC4" s="82"/>
+      <c r="CD4" s="82"/>
+      <c r="CE4" s="83"/>
+      <c r="CF4" s="86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+    <row r="5" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="89"/>
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
@@ -2428,10 +2425,10 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="58"/>
+      <c r="CF5" s="86"/>
     </row>
-    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -2454,16 +2451,16 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="62" t="s">
+      <c r="T6" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="64"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="92"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -2520,9 +2517,9 @@
       <c r="CC6" s="9"/>
       <c r="CD6" s="9"/>
       <c r="CE6" s="10"/>
-      <c r="CF6" s="58"/>
+      <c r="CF6" s="86"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2546,14 +2543,14 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="67"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="95"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
@@ -2610,9 +2607,9 @@
       <c r="CC7" s="15"/>
       <c r="CD7" s="15"/>
       <c r="CE7" s="16"/>
-      <c r="CF7" s="58"/>
+      <c r="CF7" s="86"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
@@ -2636,14 +2633,14 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="67"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="95"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
@@ -2700,9 +2697,9 @@
       <c r="CC8" s="15"/>
       <c r="CD8" s="15"/>
       <c r="CE8" s="16"/>
-      <c r="CF8" s="58"/>
+      <c r="CF8" s="86"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2726,14 +2723,14 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="67"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="95"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
@@ -2790,9 +2787,9 @@
       <c r="CC9" s="15"/>
       <c r="CD9" s="15"/>
       <c r="CE9" s="16"/>
-      <c r="CF9" s="58"/>
+      <c r="CF9" s="86"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>23</v>
       </c>
@@ -2816,14 +2813,14 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="67"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="95"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
@@ -2880,711 +2877,710 @@
       <c r="CC10" s="15"/>
       <c r="CD10" s="15"/>
       <c r="CE10" s="16"/>
-      <c r="CF10" s="58"/>
+      <c r="CF10" s="86"/>
     </row>
-    <row r="11" spans="1:84" s="86" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92" t="s">
+    <row r="11" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="80"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="83"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="80"/>
-      <c r="AS11" s="83"/>
-      <c r="AT11" s="83"/>
-      <c r="AU11" s="83"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="81"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="80"/>
-      <c r="BA11" s="81"/>
-      <c r="BB11" s="81"/>
-      <c r="BC11" s="81"/>
-      <c r="BD11" s="81"/>
-      <c r="BE11" s="81"/>
-      <c r="BF11" s="81"/>
-      <c r="BG11" s="84"/>
-      <c r="BH11" s="80"/>
-      <c r="BI11" s="81"/>
-      <c r="BJ11" s="81"/>
-      <c r="BK11" s="81"/>
-      <c r="BL11" s="81"/>
-      <c r="BM11" s="81"/>
-      <c r="BN11" s="81"/>
-      <c r="BO11" s="84"/>
-      <c r="BP11" s="80"/>
-      <c r="BQ11" s="81"/>
-      <c r="BR11" s="81"/>
-      <c r="BS11" s="81"/>
-      <c r="BT11" s="81"/>
-      <c r="BU11" s="81"/>
-      <c r="BV11" s="81"/>
-      <c r="BW11" s="84"/>
-      <c r="BX11" s="80"/>
-      <c r="BY11" s="81"/>
-      <c r="BZ11" s="81"/>
-      <c r="CA11" s="81"/>
-      <c r="CB11" s="81"/>
-      <c r="CC11" s="81"/>
-      <c r="CD11" s="81"/>
-      <c r="CE11" s="84"/>
-      <c r="CF11" s="58"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="61"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="63"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="62"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="59"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="59"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="58"/>
+      <c r="BI11" s="59"/>
+      <c r="BJ11" s="59"/>
+      <c r="BK11" s="59"/>
+      <c r="BL11" s="59"/>
+      <c r="BM11" s="59"/>
+      <c r="BN11" s="59"/>
+      <c r="BO11" s="62"/>
+      <c r="BP11" s="58"/>
+      <c r="BQ11" s="59"/>
+      <c r="BR11" s="59"/>
+      <c r="BS11" s="59"/>
+      <c r="BT11" s="59"/>
+      <c r="BU11" s="59"/>
+      <c r="BV11" s="59"/>
+      <c r="BW11" s="62"/>
+      <c r="BX11" s="58"/>
+      <c r="BY11" s="59"/>
+      <c r="BZ11" s="59"/>
+      <c r="CA11" s="59"/>
+      <c r="CB11" s="59"/>
+      <c r="CC11" s="59"/>
+      <c r="CD11" s="59"/>
+      <c r="CE11" s="62"/>
+      <c r="CF11" s="86"/>
     </row>
-    <row r="12" spans="1:84" s="86" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+    <row r="12" spans="1:84" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="81"/>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="80"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="80"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="81"/>
-      <c r="AW12" s="81"/>
-      <c r="AX12" s="81"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="80"/>
-      <c r="BA12" s="81"/>
-      <c r="BB12" s="81"/>
-      <c r="BC12" s="81"/>
-      <c r="BD12" s="81"/>
-      <c r="BE12" s="81"/>
-      <c r="BF12" s="81"/>
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="80"/>
-      <c r="BI12" s="81"/>
-      <c r="BJ12" s="81"/>
-      <c r="BK12" s="81"/>
-      <c r="BL12" s="81"/>
-      <c r="BM12" s="81"/>
-      <c r="BN12" s="81"/>
-      <c r="BO12" s="84"/>
-      <c r="BP12" s="80"/>
-      <c r="BQ12" s="81"/>
-      <c r="BR12" s="81"/>
-      <c r="BS12" s="81"/>
-      <c r="BT12" s="81"/>
-      <c r="BU12" s="81"/>
-      <c r="BV12" s="81"/>
-      <c r="BW12" s="84"/>
-      <c r="BX12" s="80"/>
-      <c r="BY12" s="81"/>
-      <c r="BZ12" s="81"/>
-      <c r="CA12" s="81"/>
-      <c r="CB12" s="81"/>
-      <c r="CC12" s="81"/>
-      <c r="CD12" s="81"/>
-      <c r="CE12" s="84"/>
-      <c r="CF12" s="58"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="61"/>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="63"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="61"/>
+      <c r="AT12" s="61"/>
+      <c r="AU12" s="61"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="62"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="62"/>
+      <c r="BH12" s="58"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="59"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="62"/>
+      <c r="BP12" s="58"/>
+      <c r="BQ12" s="59"/>
+      <c r="BR12" s="59"/>
+      <c r="BS12" s="59"/>
+      <c r="BT12" s="59"/>
+      <c r="BU12" s="59"/>
+      <c r="BV12" s="59"/>
+      <c r="BW12" s="62"/>
+      <c r="BX12" s="58"/>
+      <c r="BY12" s="59"/>
+      <c r="BZ12" s="59"/>
+      <c r="CA12" s="59"/>
+      <c r="CB12" s="59"/>
+      <c r="CC12" s="59"/>
+      <c r="CD12" s="59"/>
+      <c r="CE12" s="62"/>
+      <c r="CF12" s="86"/>
     </row>
-    <row r="13" spans="1:84" s="86" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+    <row r="13" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="80"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="83"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="83"/>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="80"/>
-      <c r="AS13" s="83"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="83"/>
-      <c r="AV13" s="81"/>
-      <c r="AW13" s="81"/>
-      <c r="AX13" s="81"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="80"/>
-      <c r="BA13" s="81"/>
-      <c r="BB13" s="81"/>
-      <c r="BC13" s="81"/>
-      <c r="BD13" s="81"/>
-      <c r="BE13" s="81"/>
-      <c r="BF13" s="81"/>
-      <c r="BG13" s="84"/>
-      <c r="BH13" s="80"/>
-      <c r="BI13" s="81"/>
-      <c r="BJ13" s="81"/>
-      <c r="BK13" s="81"/>
-      <c r="BL13" s="81"/>
-      <c r="BM13" s="81"/>
-      <c r="BN13" s="81"/>
-      <c r="BO13" s="84"/>
-      <c r="BP13" s="80"/>
-      <c r="BQ13" s="81"/>
-      <c r="BR13" s="81"/>
-      <c r="BS13" s="81"/>
-      <c r="BT13" s="81"/>
-      <c r="BU13" s="81"/>
-      <c r="BV13" s="81"/>
-      <c r="BW13" s="84"/>
-      <c r="BX13" s="80"/>
-      <c r="BY13" s="81"/>
-      <c r="BZ13" s="81"/>
-      <c r="CA13" s="81"/>
-      <c r="CB13" s="81"/>
-      <c r="CC13" s="81"/>
-      <c r="CD13" s="81"/>
-      <c r="CE13" s="84"/>
-      <c r="CF13" s="58"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="63"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="59"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="62"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="62"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="59"/>
+      <c r="BM13" s="59"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="62"/>
+      <c r="BP13" s="58"/>
+      <c r="BQ13" s="59"/>
+      <c r="BR13" s="59"/>
+      <c r="BS13" s="59"/>
+      <c r="BT13" s="59"/>
+      <c r="BU13" s="59"/>
+      <c r="BV13" s="59"/>
+      <c r="BW13" s="62"/>
+      <c r="BX13" s="58"/>
+      <c r="BY13" s="59"/>
+      <c r="BZ13" s="59"/>
+      <c r="CA13" s="59"/>
+      <c r="CB13" s="59"/>
+      <c r="CC13" s="59"/>
+      <c r="CD13" s="59"/>
+      <c r="CE13" s="62"/>
+      <c r="CF13" s="86"/>
     </row>
-    <row r="14" spans="1:84" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
+    <row r="14" spans="1:84" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="83"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="83"/>
-      <c r="AP14" s="83"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="83"/>
-      <c r="AT14" s="83"/>
-      <c r="AU14" s="83"/>
-      <c r="AV14" s="83"/>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="83"/>
-      <c r="BA14" s="83"/>
-      <c r="BB14" s="83"/>
-      <c r="BC14" s="83"/>
-      <c r="BD14" s="83"/>
-      <c r="BE14" s="83"/>
-      <c r="BF14" s="83"/>
-      <c r="BG14" s="85"/>
-      <c r="BH14" s="83"/>
-      <c r="BI14" s="83"/>
-      <c r="BJ14" s="83"/>
-      <c r="BK14" s="83"/>
-      <c r="BL14" s="83"/>
-      <c r="BM14" s="83"/>
-      <c r="BN14" s="83"/>
-      <c r="BO14" s="85"/>
-      <c r="BP14" s="83"/>
-      <c r="BQ14" s="83"/>
-      <c r="BR14" s="83"/>
-      <c r="BS14" s="83"/>
-      <c r="BT14" s="83"/>
-      <c r="BU14" s="83"/>
-      <c r="BV14" s="83"/>
-      <c r="BW14" s="85"/>
-      <c r="BX14" s="83"/>
-      <c r="BY14" s="83"/>
-      <c r="BZ14" s="83"/>
-      <c r="CA14" s="83"/>
-      <c r="CB14" s="83"/>
-      <c r="CC14" s="83"/>
-      <c r="CD14" s="83"/>
-      <c r="CE14" s="85"/>
-      <c r="CF14" s="58"/>
+      <c r="B14" s="66"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="61"/>
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="61"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="61"/>
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="61"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="63"/>
+      <c r="AZ14" s="61"/>
+      <c r="BA14" s="61"/>
+      <c r="BB14" s="61"/>
+      <c r="BC14" s="61"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="61"/>
+      <c r="BF14" s="61"/>
+      <c r="BG14" s="63"/>
+      <c r="BH14" s="61"/>
+      <c r="BI14" s="61"/>
+      <c r="BJ14" s="61"/>
+      <c r="BK14" s="61"/>
+      <c r="BL14" s="61"/>
+      <c r="BM14" s="61"/>
+      <c r="BN14" s="61"/>
+      <c r="BO14" s="63"/>
+      <c r="BP14" s="61"/>
+      <c r="BQ14" s="61"/>
+      <c r="BR14" s="61"/>
+      <c r="BS14" s="61"/>
+      <c r="BT14" s="61"/>
+      <c r="BU14" s="61"/>
+      <c r="BV14" s="61"/>
+      <c r="BW14" s="63"/>
+      <c r="BX14" s="61"/>
+      <c r="BY14" s="61"/>
+      <c r="BZ14" s="61"/>
+      <c r="CA14" s="61"/>
+      <c r="CB14" s="61"/>
+      <c r="CC14" s="61"/>
+      <c r="CD14" s="61"/>
+      <c r="CE14" s="63"/>
+      <c r="CF14" s="86"/>
     </row>
-    <row r="15" spans="1:84" s="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="96" t="s">
+    <row r="15" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="87"/>
-      <c r="BA15" s="87"/>
-      <c r="BB15" s="87"/>
-      <c r="BC15" s="87"/>
-      <c r="BD15" s="87"/>
-      <c r="BE15" s="87"/>
-      <c r="BF15" s="87"/>
-      <c r="BG15" s="91"/>
-      <c r="BH15" s="87"/>
-      <c r="BI15" s="87"/>
-      <c r="BJ15" s="87"/>
-      <c r="BK15" s="87"/>
-      <c r="BL15" s="87"/>
-      <c r="BM15" s="87"/>
-      <c r="BN15" s="87"/>
-      <c r="BO15" s="91"/>
-      <c r="BP15" s="87"/>
-      <c r="BQ15" s="87"/>
-      <c r="BR15" s="87"/>
-      <c r="BS15" s="87"/>
-      <c r="BT15" s="87"/>
-      <c r="BU15" s="87"/>
-      <c r="BV15" s="87"/>
-      <c r="BW15" s="91"/>
-      <c r="BX15" s="87"/>
-      <c r="BY15" s="87"/>
-      <c r="BZ15" s="87"/>
-      <c r="CA15" s="87"/>
-      <c r="CB15" s="87"/>
-      <c r="CC15" s="87"/>
-      <c r="CD15" s="87"/>
-      <c r="CE15" s="91"/>
-      <c r="CF15" s="58"/>
+      <c r="B15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="65"/>
+      <c r="BE15" s="65"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="65"/>
+      <c r="BK15" s="65"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="65"/>
+      <c r="BN15" s="65"/>
+      <c r="BO15" s="68"/>
+      <c r="BP15" s="65"/>
+      <c r="BQ15" s="65"/>
+      <c r="BR15" s="65"/>
+      <c r="BS15" s="65"/>
+      <c r="BT15" s="65"/>
+      <c r="BU15" s="65"/>
+      <c r="BV15" s="65"/>
+      <c r="BW15" s="68"/>
+      <c r="BX15" s="65"/>
+      <c r="BY15" s="65"/>
+      <c r="BZ15" s="65"/>
+      <c r="CA15" s="65"/>
+      <c r="CB15" s="65"/>
+      <c r="CC15" s="65"/>
+      <c r="CD15" s="65"/>
+      <c r="CE15" s="68"/>
+      <c r="CF15" s="86"/>
     </row>
-    <row r="16" spans="1:84" s="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="96" t="s">
+    <row r="16" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="91"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="87"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="87"/>
-      <c r="BA16" s="87"/>
-      <c r="BB16" s="87"/>
-      <c r="BC16" s="87"/>
-      <c r="BD16" s="87"/>
-      <c r="BE16" s="87"/>
-      <c r="BF16" s="87"/>
-      <c r="BG16" s="91"/>
-      <c r="BH16" s="87"/>
-      <c r="BI16" s="87"/>
-      <c r="BJ16" s="87"/>
-      <c r="BK16" s="87"/>
-      <c r="BL16" s="87"/>
-      <c r="BM16" s="87"/>
-      <c r="BN16" s="87"/>
-      <c r="BO16" s="91"/>
-      <c r="BP16" s="87"/>
-      <c r="BQ16" s="87"/>
-      <c r="BR16" s="87"/>
-      <c r="BS16" s="87"/>
-      <c r="BT16" s="87"/>
-      <c r="BU16" s="87"/>
-      <c r="BV16" s="87"/>
-      <c r="BW16" s="91"/>
-      <c r="BX16" s="87"/>
-      <c r="BY16" s="87"/>
-      <c r="BZ16" s="87"/>
-      <c r="CA16" s="87"/>
-      <c r="CB16" s="87"/>
-      <c r="CC16" s="87"/>
-      <c r="CD16" s="87"/>
-      <c r="CE16" s="91"/>
-      <c r="CF16" s="58"/>
+      <c r="B16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="65"/>
+      <c r="BE16" s="65"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="65"/>
+      <c r="BN16" s="65"/>
+      <c r="BO16" s="68"/>
+      <c r="BP16" s="65"/>
+      <c r="BQ16" s="65"/>
+      <c r="BR16" s="65"/>
+      <c r="BS16" s="65"/>
+      <c r="BT16" s="65"/>
+      <c r="BU16" s="65"/>
+      <c r="BV16" s="65"/>
+      <c r="BW16" s="68"/>
+      <c r="BX16" s="65"/>
+      <c r="BY16" s="65"/>
+      <c r="BZ16" s="65"/>
+      <c r="CA16" s="65"/>
+      <c r="CB16" s="65"/>
+      <c r="CC16" s="65"/>
+      <c r="CD16" s="65"/>
+      <c r="CE16" s="68"/>
+      <c r="CF16" s="86"/>
     </row>
-    <row r="17" spans="1:84" s="86" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="97" t="s">
+    <row r="17" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="80"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="83"/>
-      <c r="AP17" s="83"/>
-      <c r="AQ17" s="85"/>
-      <c r="AR17" s="80"/>
-      <c r="AS17" s="83"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="83"/>
-      <c r="AV17" s="81"/>
-      <c r="AW17" s="81"/>
-      <c r="AX17" s="81"/>
-      <c r="AY17" s="84"/>
-      <c r="AZ17" s="80"/>
-      <c r="BA17" s="81"/>
-      <c r="BB17" s="81"/>
-      <c r="BC17" s="81"/>
-      <c r="BD17" s="81"/>
-      <c r="BE17" s="81"/>
-      <c r="BF17" s="81"/>
-      <c r="BG17" s="84"/>
-      <c r="BH17" s="80"/>
-      <c r="BI17" s="81"/>
-      <c r="BJ17" s="81"/>
-      <c r="BK17" s="81"/>
-      <c r="BL17" s="81"/>
-      <c r="BM17" s="81"/>
-      <c r="BN17" s="81"/>
-      <c r="BO17" s="84"/>
-      <c r="BP17" s="80"/>
-      <c r="BQ17" s="81"/>
-      <c r="BR17" s="81"/>
-      <c r="BS17" s="81"/>
-      <c r="BT17" s="81"/>
-      <c r="BU17" s="81"/>
-      <c r="BV17" s="81"/>
-      <c r="BW17" s="84"/>
-      <c r="BX17" s="80"/>
-      <c r="BY17" s="81"/>
-      <c r="BZ17" s="81"/>
-      <c r="CA17" s="81"/>
-      <c r="CB17" s="81"/>
-      <c r="CC17" s="81"/>
-      <c r="CD17" s="81"/>
-      <c r="CE17" s="84"/>
-      <c r="CF17" s="58"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="61"/>
+      <c r="AV17" s="59"/>
+      <c r="AW17" s="59"/>
+      <c r="AX17" s="59"/>
+      <c r="AY17" s="62"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="59"/>
+      <c r="BB17" s="59"/>
+      <c r="BC17" s="59"/>
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="59"/>
+      <c r="BF17" s="59"/>
+      <c r="BG17" s="62"/>
+      <c r="BH17" s="58"/>
+      <c r="BI17" s="59"/>
+      <c r="BJ17" s="59"/>
+      <c r="BK17" s="59"/>
+      <c r="BL17" s="59"/>
+      <c r="BM17" s="59"/>
+      <c r="BN17" s="59"/>
+      <c r="BO17" s="62"/>
+      <c r="BP17" s="58"/>
+      <c r="BQ17" s="59"/>
+      <c r="BR17" s="59"/>
+      <c r="BS17" s="59"/>
+      <c r="BT17" s="59"/>
+      <c r="BU17" s="59"/>
+      <c r="BV17" s="59"/>
+      <c r="BW17" s="62"/>
+      <c r="BX17" s="58"/>
+      <c r="BY17" s="59"/>
+      <c r="BZ17" s="59"/>
+      <c r="CA17" s="59"/>
+      <c r="CB17" s="59"/>
+      <c r="CC17" s="59"/>
+      <c r="CD17" s="59"/>
+      <c r="CE17" s="62"/>
+      <c r="CF17" s="86"/>
     </row>
-    <row r="18" spans="1:84" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="98" t="s">
+    <row r="18" spans="1:84" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="81"/>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="80"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="83"/>
-      <c r="AM18" s="83"/>
-      <c r="AN18" s="83"/>
-      <c r="AO18" s="83"/>
-      <c r="AP18" s="83"/>
-      <c r="AQ18" s="85"/>
-      <c r="AR18" s="80"/>
-      <c r="AS18" s="83"/>
-      <c r="AT18" s="83"/>
-      <c r="AU18" s="83"/>
-      <c r="AV18" s="81"/>
-      <c r="AW18" s="81"/>
-      <c r="AX18" s="81"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="80"/>
-      <c r="BA18" s="81"/>
-      <c r="BB18" s="81"/>
-      <c r="BC18" s="81"/>
-      <c r="BD18" s="81"/>
-      <c r="BE18" s="81"/>
-      <c r="BF18" s="81"/>
-      <c r="BG18" s="84"/>
-      <c r="BH18" s="80"/>
-      <c r="BI18" s="81"/>
-      <c r="BJ18" s="81"/>
-      <c r="BK18" s="81"/>
-      <c r="BL18" s="81"/>
-      <c r="BM18" s="81"/>
-      <c r="BN18" s="81"/>
-      <c r="BO18" s="84"/>
-      <c r="BP18" s="80"/>
-      <c r="BQ18" s="81"/>
-      <c r="BR18" s="81"/>
-      <c r="BS18" s="81"/>
-      <c r="BT18" s="81"/>
-      <c r="BU18" s="81"/>
-      <c r="BV18" s="81"/>
-      <c r="BW18" s="84"/>
-      <c r="BX18" s="80"/>
-      <c r="BY18" s="81"/>
-      <c r="BZ18" s="81"/>
-      <c r="CA18" s="81"/>
-      <c r="CB18" s="81"/>
-      <c r="CC18" s="81"/>
-      <c r="CD18" s="81"/>
-      <c r="CE18" s="84"/>
-      <c r="CF18" s="58"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="58"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="59"/>
+      <c r="AX18" s="59"/>
+      <c r="AY18" s="62"/>
+      <c r="AZ18" s="58"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="59"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="59"/>
+      <c r="BE18" s="59"/>
+      <c r="BF18" s="59"/>
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="58"/>
+      <c r="BI18" s="59"/>
+      <c r="BJ18" s="59"/>
+      <c r="BK18" s="59"/>
+      <c r="BL18" s="59"/>
+      <c r="BM18" s="59"/>
+      <c r="BN18" s="59"/>
+      <c r="BO18" s="62"/>
+      <c r="BP18" s="58"/>
+      <c r="BQ18" s="59"/>
+      <c r="BR18" s="59"/>
+      <c r="BS18" s="59"/>
+      <c r="BT18" s="59"/>
+      <c r="BU18" s="59"/>
+      <c r="BV18" s="59"/>
+      <c r="BW18" s="62"/>
+      <c r="BX18" s="58"/>
+      <c r="BY18" s="59"/>
+      <c r="BZ18" s="59"/>
+      <c r="CA18" s="59"/>
+      <c r="CB18" s="59"/>
+      <c r="CC18" s="59"/>
+      <c r="CD18" s="59"/>
+      <c r="CE18" s="62"/>
+      <c r="CF18" s="86"/>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>24</v>
       </c>
@@ -3608,14 +3604,14 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="16"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="67"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="95"/>
       <c r="AB19" s="52" t="s">
         <v>36</v>
       </c>
@@ -3680,9 +3676,9 @@
       <c r="CC19" s="15"/>
       <c r="CD19" s="15"/>
       <c r="CE19" s="16"/>
-      <c r="CF19" s="58"/>
+      <c r="CF19" s="86"/>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>32</v>
       </c>
@@ -3704,14 +3700,14 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="16"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="67"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="95"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="49"/>
@@ -3768,14 +3764,14 @@
       <c r="CC20" s="15"/>
       <c r="CD20" s="15"/>
       <c r="CE20" s="16"/>
-      <c r="CF20" s="58"/>
+      <c r="CF20" s="86"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -3794,14 +3790,14 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="67"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="95"/>
       <c r="AB21" s="53" t="s">
         <v>36</v>
       </c>
@@ -3818,7 +3814,9 @@
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="16"/>
-      <c r="AJ21" s="14"/>
+      <c r="AJ21" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="AK21" s="15"/>
       <c r="AL21" s="15"/>
       <c r="AM21" s="15"/>
@@ -3866,13 +3864,15 @@
       <c r="CC21" s="15"/>
       <c r="CD21" s="15"/>
       <c r="CE21" s="16"/>
-      <c r="CF21" s="58"/>
+      <c r="CF21" s="86"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
@@ -3890,14 +3890,14 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="16"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="67"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="95"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="15"/>
       <c r="AD22" s="31"/>
@@ -3907,8 +3907,12 @@
       <c r="AH22" s="15"/>
       <c r="AI22" s="16"/>
       <c r="AJ22" s="14"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
+      <c r="AK22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL22" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="15"/>
@@ -3954,13 +3958,15 @@
       <c r="CC22" s="15"/>
       <c r="CD22" s="15"/>
       <c r="CE22" s="16"/>
-      <c r="CF22" s="58"/>
+      <c r="CF22" s="86"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
@@ -3978,14 +3984,14 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="67"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="95"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
@@ -3997,13 +4003,27 @@
       <c r="AJ23" s="47"/>
       <c r="AK23" s="47"/>
       <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="47"/>
+      <c r="AM23" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN23" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO23" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP23" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ23" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR23" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS23" s="47" t="s">
+        <v>36</v>
+      </c>
       <c r="AT23" s="47"/>
       <c r="AU23" s="47"/>
       <c r="AV23" s="15"/>
@@ -4042,9 +4062,9 @@
       <c r="CC23" s="15"/>
       <c r="CD23" s="15"/>
       <c r="CE23" s="16"/>
-      <c r="CF23" s="58"/>
+      <c r="CF23" s="86"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>33</v>
       </c>
@@ -4066,14 +4086,14 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="67"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="95"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
@@ -4130,9 +4150,9 @@
       <c r="CC24" s="15"/>
       <c r="CD24" s="15"/>
       <c r="CE24" s="16"/>
-      <c r="CF24" s="58"/>
+      <c r="CF24" s="86"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>28</v>
       </c>
@@ -4154,14 +4174,14 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="67"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="95"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
@@ -4213,9 +4233,9 @@
       <c r="CC25" s="15"/>
       <c r="CD25" s="15"/>
       <c r="CE25" s="16"/>
-      <c r="CF25" s="58"/>
+      <c r="CF25" s="86"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>29</v>
       </c>
@@ -4239,14 +4259,14 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="67"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="95"/>
       <c r="AB26" s="55" t="s">
         <v>36</v>
       </c>
@@ -4311,9 +4331,9 @@
       <c r="CC26" s="15"/>
       <c r="CD26" s="15"/>
       <c r="CE26" s="16"/>
-      <c r="CF26" s="58"/>
+      <c r="CF26" s="86"/>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>30</v>
       </c>
@@ -4335,14 +4355,14 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="16"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="67"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="95"/>
       <c r="AB27" s="14"/>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
@@ -4399,9 +4419,9 @@
       <c r="CC27" s="15"/>
       <c r="CD27" s="15"/>
       <c r="CE27" s="16"/>
-      <c r="CF27" s="58"/>
+      <c r="CF27" s="86"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>14</v>
       </c>
@@ -4423,14 +4443,14 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="16"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="67"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="95"/>
       <c r="AB28" s="14"/>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
@@ -4487,9 +4507,9 @@
       <c r="CC28" s="15"/>
       <c r="CD28" s="15"/>
       <c r="CE28" s="16"/>
-      <c r="CF28" s="58"/>
+      <c r="CF28" s="86"/>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>34</v>
       </c>
@@ -4511,14 +4531,14 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="16"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="67"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="95"/>
       <c r="AB29" s="14"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
@@ -4575,9 +4595,9 @@
       <c r="CC29" s="15"/>
       <c r="CD29" s="15"/>
       <c r="CE29" s="16"/>
-      <c r="CF29" s="58"/>
+      <c r="CF29" s="86"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>31</v>
       </c>
@@ -4599,14 +4619,14 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="67"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="95"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
@@ -4663,9 +4683,9 @@
       <c r="CC30" s="15"/>
       <c r="CD30" s="15"/>
       <c r="CE30" s="16"/>
-      <c r="CF30" s="58"/>
+      <c r="CF30" s="86"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>15</v>
       </c>
@@ -4687,14 +4707,14 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="16"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="67"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="95"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
@@ -4751,9 +4771,9 @@
       <c r="CC31" s="15"/>
       <c r="CD31" s="15"/>
       <c r="CE31" s="16"/>
-      <c r="CF31" s="58"/>
+      <c r="CF31" s="86"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>16</v>
       </c>
@@ -4775,14 +4795,14 @@
       <c r="Q32" s="33"/>
       <c r="R32" s="33"/>
       <c r="S32" s="34"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="67"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="95"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="36"/>
       <c r="AD32" s="36"/>
@@ -4839,9 +4859,9 @@
       <c r="CC32" s="36"/>
       <c r="CD32" s="36"/>
       <c r="CE32" s="37"/>
-      <c r="CF32" s="58"/>
+      <c r="CF32" s="86"/>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
@@ -4860,14 +4880,14 @@
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="16"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="67"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="95"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
@@ -4924,9 +4944,9 @@
       <c r="CC33" s="15"/>
       <c r="CD33" s="15"/>
       <c r="CE33" s="16"/>
-      <c r="CF33" s="58"/>
+      <c r="CF33" s="86"/>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="23"/>
       <c r="C34" s="13"/>
@@ -4946,14 +4966,14 @@
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="67"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="95"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
@@ -5010,9 +5030,9 @@
       <c r="CC34" s="15"/>
       <c r="CD34" s="15"/>
       <c r="CE34" s="16"/>
-      <c r="CF34" s="58"/>
+      <c r="CF34" s="86"/>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="23"/>
       <c r="C35" s="13"/>
@@ -5032,14 +5052,14 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="67"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="95"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -5096,9 +5116,9 @@
       <c r="CC35" s="15"/>
       <c r="CD35" s="15"/>
       <c r="CE35" s="16"/>
-      <c r="CF35" s="58"/>
+      <c r="CF35" s="86"/>
     </row>
-    <row r="36" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="24"/>
       <c r="C36" s="18"/>
@@ -5118,14 +5138,14 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="70"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="97"/>
+      <c r="V36" s="97"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="98"/>
       <c r="AB36" s="19"/>
       <c r="AC36" s="20"/>
       <c r="AD36" s="20"/>
@@ -5182,112 +5202,112 @@
       <c r="CC36" s="20"/>
       <c r="CD36" s="20"/>
       <c r="CE36" s="21"/>
-      <c r="CF36" s="58"/>
+      <c r="CF36" s="86"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="59"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="59"/>
-      <c r="AO37" s="59"/>
-      <c r="AP37" s="59"/>
-      <c r="AQ37" s="59"/>
-      <c r="AR37" s="59"/>
-      <c r="AS37" s="59"/>
-      <c r="AT37" s="59"/>
-      <c r="AU37" s="59"/>
-      <c r="AV37" s="59"/>
-      <c r="AW37" s="59"/>
-      <c r="AX37" s="59"/>
-      <c r="AY37" s="59"/>
-      <c r="AZ37" s="59"/>
-      <c r="BA37" s="59"/>
-      <c r="BB37" s="59"/>
-      <c r="BC37" s="59"/>
-      <c r="BD37" s="59"/>
-      <c r="BE37" s="59"/>
-      <c r="BF37" s="59"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="59"/>
-      <c r="BJ37" s="59"/>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="59"/>
-      <c r="BM37" s="59"/>
-      <c r="BN37" s="59"/>
-      <c r="BO37" s="59"/>
-      <c r="BP37" s="59"/>
-      <c r="BQ37" s="59"/>
-      <c r="BR37" s="59"/>
-      <c r="BS37" s="59"/>
-      <c r="BT37" s="59"/>
-      <c r="BU37" s="59"/>
-      <c r="BV37" s="59"/>
-      <c r="BW37" s="59"/>
-      <c r="BX37" s="59"/>
-      <c r="BY37" s="59"/>
-      <c r="BZ37" s="59"/>
-      <c r="CA37" s="59"/>
-      <c r="CB37" s="59"/>
-      <c r="CC37" s="59"/>
-      <c r="CD37" s="59"/>
-      <c r="CE37" s="59"/>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A37" s="87"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="87"/>
+      <c r="AB37" s="87"/>
+      <c r="AC37" s="87"/>
+      <c r="AD37" s="87"/>
+      <c r="AE37" s="87"/>
+      <c r="AF37" s="87"/>
+      <c r="AG37" s="87"/>
+      <c r="AH37" s="87"/>
+      <c r="AI37" s="87"/>
+      <c r="AJ37" s="87"/>
+      <c r="AK37" s="87"/>
+      <c r="AL37" s="87"/>
+      <c r="AM37" s="87"/>
+      <c r="AN37" s="87"/>
+      <c r="AO37" s="87"/>
+      <c r="AP37" s="87"/>
+      <c r="AQ37" s="87"/>
+      <c r="AR37" s="87"/>
+      <c r="AS37" s="87"/>
+      <c r="AT37" s="87"/>
+      <c r="AU37" s="87"/>
+      <c r="AV37" s="87"/>
+      <c r="AW37" s="87"/>
+      <c r="AX37" s="87"/>
+      <c r="AY37" s="87"/>
+      <c r="AZ37" s="87"/>
+      <c r="BA37" s="87"/>
+      <c r="BB37" s="87"/>
+      <c r="BC37" s="87"/>
+      <c r="BD37" s="87"/>
+      <c r="BE37" s="87"/>
+      <c r="BF37" s="87"/>
+      <c r="BG37" s="87"/>
+      <c r="BH37" s="87"/>
+      <c r="BI37" s="87"/>
+      <c r="BJ37" s="87"/>
+      <c r="BK37" s="87"/>
+      <c r="BL37" s="87"/>
+      <c r="BM37" s="87"/>
+      <c r="BN37" s="87"/>
+      <c r="BO37" s="87"/>
+      <c r="BP37" s="87"/>
+      <c r="BQ37" s="87"/>
+      <c r="BR37" s="87"/>
+      <c r="BS37" s="87"/>
+      <c r="BT37" s="87"/>
+      <c r="BU37" s="87"/>
+      <c r="BV37" s="87"/>
+      <c r="BW37" s="87"/>
+      <c r="BX37" s="87"/>
+      <c r="BY37" s="87"/>
+      <c r="BZ37" s="87"/>
+      <c r="CA37" s="87"/>
+      <c r="CB37" s="87"/>
+      <c r="CC37" s="87"/>
+      <c r="CD37" s="87"/>
+      <c r="CE37" s="87"/>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="39"/>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B41" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="40"/>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B43" s="38" t="s">
         <v>21</v>
       </c>
@@ -5295,6 +5315,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF36"/>
+    <mergeCell ref="A37:CE37"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA36"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
@@ -5311,18 +5343,6 @@
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="CF4:CF36"/>
-    <mergeCell ref="A37:CE37"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA36"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D2:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B6:B14 B17:B36">
@@ -5351,6 +5371,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5563,27 +5603,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5600,29 +5645,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emf\306\306project-G4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B08CCC7-8119-4FA3-9F2A-3FB77CB18044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA3355F-B15E-4D88-9B7A-72CC10C5C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>Tâches</t>
   </si>
@@ -1117,92 +1117,92 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1810,10 +1810,10 @@
   <dimension ref="A1:CF43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BH27" sqref="BH27"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1828,18 +1828,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1878,173 +1878,173 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="78"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="78"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="78"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="78"/>
-      <c r="BQ2" s="78"/>
-      <c r="BR2" s="78"/>
-      <c r="BS2" s="78"/>
-      <c r="BT2" s="78"/>
-      <c r="BU2" s="78"/>
-      <c r="BV2" s="78"/>
-      <c r="BW2" s="78"/>
-      <c r="BX2" s="78"/>
-      <c r="BY2" s="78"/>
-      <c r="BZ2" s="78"/>
-      <c r="CA2" s="78"/>
-      <c r="CB2" s="78"/>
-      <c r="CC2" s="78"/>
-      <c r="CD2" s="78"/>
-      <c r="CE2" s="78"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="77"/>
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="77"/>
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="77"/>
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="77"/>
+      <c r="BH2" s="77"/>
+      <c r="BI2" s="77"/>
+      <c r="BJ2" s="77"/>
+      <c r="BK2" s="77"/>
+      <c r="BL2" s="77"/>
+      <c r="BM2" s="77"/>
+      <c r="BN2" s="77"/>
+      <c r="BO2" s="77"/>
+      <c r="BP2" s="77"/>
+      <c r="BQ2" s="77"/>
+      <c r="BR2" s="77"/>
+      <c r="BS2" s="77"/>
+      <c r="BT2" s="77"/>
+      <c r="BU2" s="77"/>
+      <c r="BV2" s="77"/>
+      <c r="BW2" s="77"/>
+      <c r="BX2" s="77"/>
+      <c r="BY2" s="77"/>
+      <c r="BZ2" s="77"/>
+      <c r="CA2" s="77"/>
+      <c r="CB2" s="77"/>
+      <c r="CC2" s="77"/>
+      <c r="CD2" s="77"/>
+      <c r="CE2" s="77"/>
     </row>
     <row r="3" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="79"/>
-      <c r="AS3" s="79"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="79"/>
-      <c r="BF3" s="79"/>
-      <c r="BG3" s="79"/>
-      <c r="BH3" s="79"/>
-      <c r="BI3" s="79"/>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
-      <c r="BQ3" s="79"/>
-      <c r="BR3" s="79"/>
-      <c r="BS3" s="79"/>
-      <c r="BT3" s="79"/>
-      <c r="BU3" s="79"/>
-      <c r="BV3" s="79"/>
-      <c r="BW3" s="79"/>
-      <c r="BX3" s="79"/>
-      <c r="BY3" s="79"/>
-      <c r="BZ3" s="79"/>
-      <c r="CA3" s="79"/>
-      <c r="CB3" s="79"/>
-      <c r="CC3" s="79"/>
-      <c r="CD3" s="79"/>
-      <c r="CE3" s="79"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78"/>
+      <c r="BS3" s="78"/>
+      <c r="BT3" s="78"/>
+      <c r="BU3" s="78"/>
+      <c r="BV3" s="78"/>
+      <c r="BW3" s="78"/>
+      <c r="BX3" s="78"/>
+      <c r="BY3" s="78"/>
+      <c r="BZ3" s="78"/>
+      <c r="CA3" s="78"/>
+      <c r="CB3" s="78"/>
+      <c r="CC3" s="78"/>
+      <c r="CD3" s="78"/>
+      <c r="CE3" s="78"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2053,132 +2053,132 @@
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94">
         <v>45992</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="80" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82">
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94">
         <v>45993</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="80" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="82">
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="94">
         <v>45999</v>
       </c>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="80" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="82">
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="94">
         <v>46000</v>
       </c>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="80" t="s">
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="82">
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="94">
         <v>46006</v>
       </c>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="80" t="s">
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="82">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="94">
         <v>46007</v>
       </c>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="83"/>
-      <c r="AZ4" s="80" t="s">
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="82">
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="94">
         <v>46027</v>
       </c>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="82"/>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="80" t="s">
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="82">
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94">
         <v>46028</v>
       </c>
-      <c r="BM4" s="82"/>
-      <c r="BN4" s="82"/>
-      <c r="BO4" s="83"/>
-      <c r="BP4" s="80" t="s">
+      <c r="BM4" s="94"/>
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="95"/>
+      <c r="BP4" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="81"/>
-      <c r="BR4" s="81"/>
-      <c r="BS4" s="81"/>
-      <c r="BT4" s="82">
+      <c r="BQ4" s="93"/>
+      <c r="BR4" s="93"/>
+      <c r="BS4" s="93"/>
+      <c r="BT4" s="94">
         <v>46034</v>
       </c>
-      <c r="BU4" s="82"/>
-      <c r="BV4" s="82"/>
-      <c r="BW4" s="83"/>
-      <c r="BX4" s="80" t="s">
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="94"/>
+      <c r="BW4" s="95"/>
+      <c r="BX4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="81"/>
-      <c r="BZ4" s="81"/>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="82">
+      <c r="BY4" s="93"/>
+      <c r="BZ4" s="93"/>
+      <c r="CA4" s="93"/>
+      <c r="CB4" s="94">
         <v>46035</v>
       </c>
-      <c r="CC4" s="82"/>
-      <c r="CD4" s="82"/>
-      <c r="CE4" s="83"/>
-      <c r="CF4" s="86" t="s">
+      <c r="CC4" s="94"/>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="95"/>
+      <c r="CF4" s="79" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="86"/>
+      <c r="CF5" s="79"/>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
@@ -2451,16 +2451,16 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="92"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="85"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -2517,7 +2517,7 @@
       <c r="CC6" s="9"/>
       <c r="CD6" s="9"/>
       <c r="CE6" s="10"/>
-      <c r="CF6" s="86"/>
+      <c r="CF6" s="79"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -2543,14 +2543,14 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="95"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="88"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
@@ -2607,7 +2607,7 @@
       <c r="CC7" s="15"/>
       <c r="CD7" s="15"/>
       <c r="CE7" s="16"/>
-      <c r="CF7" s="86"/>
+      <c r="CF7" s="79"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -2633,14 +2633,14 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="95"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="88"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
@@ -2697,7 +2697,7 @@
       <c r="CC8" s="15"/>
       <c r="CD8" s="15"/>
       <c r="CE8" s="16"/>
-      <c r="CF8" s="86"/>
+      <c r="CF8" s="79"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2723,14 +2723,14 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="95"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="88"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
@@ -2787,7 +2787,7 @@
       <c r="CC9" s="15"/>
       <c r="CD9" s="15"/>
       <c r="CE9" s="16"/>
-      <c r="CF9" s="86"/>
+      <c r="CF9" s="79"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
@@ -2813,14 +2813,14 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="95"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="88"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
@@ -2877,7 +2877,7 @@
       <c r="CC10" s="15"/>
       <c r="CD10" s="15"/>
       <c r="CE10" s="16"/>
-      <c r="CF10" s="86"/>
+      <c r="CF10" s="79"/>
     </row>
     <row r="11" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
@@ -2901,14 +2901,14 @@
       <c r="Q11" s="59"/>
       <c r="R11" s="59"/>
       <c r="S11" s="62"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="95"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="88"/>
       <c r="AB11" s="58"/>
       <c r="AC11" s="61"/>
       <c r="AD11" s="61"/>
@@ -2965,7 +2965,7 @@
       <c r="CC11" s="59"/>
       <c r="CD11" s="59"/>
       <c r="CE11" s="62"/>
-      <c r="CF11" s="86"/>
+      <c r="CF11" s="79"/>
     </row>
     <row r="12" spans="1:84" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
@@ -2989,14 +2989,14 @@
       <c r="Q12" s="59"/>
       <c r="R12" s="59"/>
       <c r="S12" s="62"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="95"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="88"/>
       <c r="AB12" s="58"/>
       <c r="AC12" s="61"/>
       <c r="AD12" s="61"/>
@@ -3053,7 +3053,7 @@
       <c r="CC12" s="59"/>
       <c r="CD12" s="59"/>
       <c r="CE12" s="62"/>
-      <c r="CF12" s="86"/>
+      <c r="CF12" s="79"/>
     </row>
     <row r="13" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
@@ -3077,14 +3077,14 @@
       <c r="Q13" s="59"/>
       <c r="R13" s="59"/>
       <c r="S13" s="62"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="95"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="88"/>
       <c r="AB13" s="58"/>
       <c r="AC13" s="61"/>
       <c r="AD13" s="61"/>
@@ -3141,7 +3141,7 @@
       <c r="CC13" s="59"/>
       <c r="CD13" s="59"/>
       <c r="CE13" s="62"/>
-      <c r="CF13" s="86"/>
+      <c r="CF13" s="79"/>
     </row>
     <row r="14" spans="1:84" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
@@ -3164,14 +3164,14 @@
       <c r="Q14" s="61"/>
       <c r="R14" s="61"/>
       <c r="S14" s="63"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="95"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="88"/>
       <c r="AB14" s="61"/>
       <c r="AC14" s="61"/>
       <c r="AD14" s="61"/>
@@ -3228,7 +3228,7 @@
       <c r="CC14" s="61"/>
       <c r="CD14" s="61"/>
       <c r="CE14" s="63"/>
-      <c r="CF14" s="86"/>
+      <c r="CF14" s="79"/>
     </row>
     <row r="15" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
@@ -3251,14 +3251,14 @@
       <c r="Q15" s="65"/>
       <c r="R15" s="65"/>
       <c r="S15" s="68"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="95"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="88"/>
       <c r="AB15" s="65"/>
       <c r="AC15" s="65"/>
       <c r="AD15" s="65"/>
@@ -3315,7 +3315,7 @@
       <c r="CC15" s="65"/>
       <c r="CD15" s="65"/>
       <c r="CE15" s="68"/>
-      <c r="CF15" s="86"/>
+      <c r="CF15" s="79"/>
     </row>
     <row r="16" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
@@ -3338,14 +3338,14 @@
       <c r="Q16" s="65"/>
       <c r="R16" s="65"/>
       <c r="S16" s="68"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="95"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="88"/>
       <c r="AB16" s="65"/>
       <c r="AC16" s="65"/>
       <c r="AD16" s="65"/>
@@ -3402,7 +3402,7 @@
       <c r="CC16" s="65"/>
       <c r="CD16" s="65"/>
       <c r="CE16" s="68"/>
-      <c r="CF16" s="86"/>
+      <c r="CF16" s="79"/>
     </row>
     <row r="17" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
@@ -3426,14 +3426,14 @@
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
       <c r="S17" s="62"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="95"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="88"/>
       <c r="AB17" s="58"/>
       <c r="AC17" s="61"/>
       <c r="AD17" s="61"/>
@@ -3490,7 +3490,7 @@
       <c r="CC17" s="59"/>
       <c r="CD17" s="59"/>
       <c r="CE17" s="62"/>
-      <c r="CF17" s="86"/>
+      <c r="CF17" s="79"/>
     </row>
     <row r="18" spans="1:84" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
@@ -3514,14 +3514,14 @@
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
       <c r="S18" s="62"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="95"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="88"/>
       <c r="AB18" s="58"/>
       <c r="AC18" s="61"/>
       <c r="AD18" s="61"/>
@@ -3578,14 +3578,14 @@
       <c r="CC18" s="59"/>
       <c r="CD18" s="59"/>
       <c r="CE18" s="62"/>
-      <c r="CF18" s="86"/>
+      <c r="CF18" s="79"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
@@ -3604,14 +3604,14 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="16"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="95"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="88"/>
       <c r="AB19" s="52" t="s">
         <v>36</v>
       </c>
@@ -3628,11 +3628,21 @@
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
       <c r="AI19" s="16"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="46"/>
+      <c r="AJ19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN19" s="46" t="s">
+        <v>36</v>
+      </c>
       <c r="AO19" s="46"/>
       <c r="AP19" s="46"/>
       <c r="AQ19" s="46"/>
@@ -3676,7 +3686,7 @@
       <c r="CC19" s="15"/>
       <c r="CD19" s="15"/>
       <c r="CE19" s="16"/>
-      <c r="CF19" s="86"/>
+      <c r="CF19" s="79"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -3700,14 +3710,14 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="16"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="95"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="88"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="49"/>
@@ -3764,7 +3774,7 @@
       <c r="CC20" s="15"/>
       <c r="CD20" s="15"/>
       <c r="CE20" s="16"/>
-      <c r="CF20" s="86"/>
+      <c r="CF20" s="79"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
@@ -3790,14 +3800,14 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="95"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="88"/>
       <c r="AB21" s="53" t="s">
         <v>36</v>
       </c>
@@ -3864,7 +3874,7 @@
       <c r="CC21" s="15"/>
       <c r="CD21" s="15"/>
       <c r="CE21" s="16"/>
-      <c r="CF21" s="86"/>
+      <c r="CF21" s="79"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
@@ -3890,14 +3900,14 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="16"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="95"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="88"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="15"/>
       <c r="AD22" s="31"/>
@@ -3958,7 +3968,7 @@
       <c r="CC22" s="15"/>
       <c r="CD22" s="15"/>
       <c r="CE22" s="16"/>
-      <c r="CF22" s="86"/>
+      <c r="CF22" s="79"/>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
@@ -3984,14 +3994,14 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="95"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="88"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
@@ -4062,7 +4072,7 @@
       <c r="CC23" s="15"/>
       <c r="CD23" s="15"/>
       <c r="CE23" s="16"/>
-      <c r="CF23" s="86"/>
+      <c r="CF23" s="79"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
@@ -4086,14 +4096,14 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="95"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="88"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
@@ -4150,7 +4160,7 @@
       <c r="CC24" s="15"/>
       <c r="CD24" s="15"/>
       <c r="CE24" s="16"/>
-      <c r="CF24" s="86"/>
+      <c r="CF24" s="79"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
@@ -4174,14 +4184,14 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="95"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="88"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
@@ -4233,7 +4243,7 @@
       <c r="CC25" s="15"/>
       <c r="CD25" s="15"/>
       <c r="CE25" s="16"/>
-      <c r="CF25" s="86"/>
+      <c r="CF25" s="79"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
@@ -4259,14 +4269,14 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="95"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="88"/>
       <c r="AB26" s="55" t="s">
         <v>36</v>
       </c>
@@ -4283,18 +4293,42 @@
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="16"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="48"/>
+      <c r="AJ26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT26" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU26" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="AV26" s="15"/>
       <c r="AW26" s="15"/>
       <c r="AX26" s="15"/>
@@ -4331,7 +4365,7 @@
       <c r="CC26" s="15"/>
       <c r="CD26" s="15"/>
       <c r="CE26" s="16"/>
-      <c r="CF26" s="86"/>
+      <c r="CF26" s="79"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -4355,14 +4389,14 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="16"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="95"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="88"/>
       <c r="AB27" s="14"/>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
@@ -4419,7 +4453,7 @@
       <c r="CC27" s="15"/>
       <c r="CD27" s="15"/>
       <c r="CE27" s="16"/>
-      <c r="CF27" s="86"/>
+      <c r="CF27" s="79"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -4443,14 +4477,14 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="16"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="95"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="88"/>
       <c r="AB28" s="14"/>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
@@ -4507,7 +4541,7 @@
       <c r="CC28" s="15"/>
       <c r="CD28" s="15"/>
       <c r="CE28" s="16"/>
-      <c r="CF28" s="86"/>
+      <c r="CF28" s="79"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
@@ -4531,14 +4565,14 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="16"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="95"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="88"/>
       <c r="AB29" s="14"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
@@ -4595,7 +4629,7 @@
       <c r="CC29" s="15"/>
       <c r="CD29" s="15"/>
       <c r="CE29" s="16"/>
-      <c r="CF29" s="86"/>
+      <c r="CF29" s="79"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
@@ -4619,14 +4653,14 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="95"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="88"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
@@ -4683,7 +4717,7 @@
       <c r="CC30" s="15"/>
       <c r="CD30" s="15"/>
       <c r="CE30" s="16"/>
-      <c r="CF30" s="86"/>
+      <c r="CF30" s="79"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -4707,14 +4741,14 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="16"/>
-      <c r="T31" s="93"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="95"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="88"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
@@ -4771,7 +4805,7 @@
       <c r="CC31" s="15"/>
       <c r="CD31" s="15"/>
       <c r="CE31" s="16"/>
-      <c r="CF31" s="86"/>
+      <c r="CF31" s="79"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
@@ -4795,14 +4829,14 @@
       <c r="Q32" s="33"/>
       <c r="R32" s="33"/>
       <c r="S32" s="34"/>
-      <c r="T32" s="93"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="95"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="88"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="36"/>
       <c r="AD32" s="36"/>
@@ -4859,7 +4893,7 @@
       <c r="CC32" s="36"/>
       <c r="CD32" s="36"/>
       <c r="CE32" s="37"/>
-      <c r="CF32" s="86"/>
+      <c r="CF32" s="79"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
@@ -4880,14 +4914,14 @@
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="16"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="95"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="88"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
@@ -4944,7 +4978,7 @@
       <c r="CC33" s="15"/>
       <c r="CD33" s="15"/>
       <c r="CE33" s="16"/>
-      <c r="CF33" s="86"/>
+      <c r="CF33" s="79"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -4966,14 +5000,14 @@
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="95"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="88"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
@@ -5030,7 +5064,7 @@
       <c r="CC34" s="15"/>
       <c r="CD34" s="15"/>
       <c r="CE34" s="16"/>
-      <c r="CF34" s="86"/>
+      <c r="CF34" s="79"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
@@ -5052,14 +5086,14 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="93"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="95"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="88"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -5116,7 +5150,7 @@
       <c r="CC35" s="15"/>
       <c r="CD35" s="15"/>
       <c r="CE35" s="16"/>
-      <c r="CF35" s="86"/>
+      <c r="CF35" s="79"/>
     </row>
     <row r="36" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
@@ -5138,14 +5172,14 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="98"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="90"/>
+      <c r="AA36" s="91"/>
       <c r="AB36" s="19"/>
       <c r="AC36" s="20"/>
       <c r="AD36" s="20"/>
@@ -5202,92 +5236,92 @@
       <c r="CC36" s="20"/>
       <c r="CD36" s="20"/>
       <c r="CE36" s="21"/>
-      <c r="CF36" s="86"/>
+      <c r="CF36" s="79"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
-      <c r="Z37" s="87"/>
-      <c r="AA37" s="87"/>
-      <c r="AB37" s="87"/>
-      <c r="AC37" s="87"/>
-      <c r="AD37" s="87"/>
-      <c r="AE37" s="87"/>
-      <c r="AF37" s="87"/>
-      <c r="AG37" s="87"/>
-      <c r="AH37" s="87"/>
-      <c r="AI37" s="87"/>
-      <c r="AJ37" s="87"/>
-      <c r="AK37" s="87"/>
-      <c r="AL37" s="87"/>
-      <c r="AM37" s="87"/>
-      <c r="AN37" s="87"/>
-      <c r="AO37" s="87"/>
-      <c r="AP37" s="87"/>
-      <c r="AQ37" s="87"/>
-      <c r="AR37" s="87"/>
-      <c r="AS37" s="87"/>
-      <c r="AT37" s="87"/>
-      <c r="AU37" s="87"/>
-      <c r="AV37" s="87"/>
-      <c r="AW37" s="87"/>
-      <c r="AX37" s="87"/>
-      <c r="AY37" s="87"/>
-      <c r="AZ37" s="87"/>
-      <c r="BA37" s="87"/>
-      <c r="BB37" s="87"/>
-      <c r="BC37" s="87"/>
-      <c r="BD37" s="87"/>
-      <c r="BE37" s="87"/>
-      <c r="BF37" s="87"/>
-      <c r="BG37" s="87"/>
-      <c r="BH37" s="87"/>
-      <c r="BI37" s="87"/>
-      <c r="BJ37" s="87"/>
-      <c r="BK37" s="87"/>
-      <c r="BL37" s="87"/>
-      <c r="BM37" s="87"/>
-      <c r="BN37" s="87"/>
-      <c r="BO37" s="87"/>
-      <c r="BP37" s="87"/>
-      <c r="BQ37" s="87"/>
-      <c r="BR37" s="87"/>
-      <c r="BS37" s="87"/>
-      <c r="BT37" s="87"/>
-      <c r="BU37" s="87"/>
-      <c r="BV37" s="87"/>
-      <c r="BW37" s="87"/>
-      <c r="BX37" s="87"/>
-      <c r="BY37" s="87"/>
-      <c r="BZ37" s="87"/>
-      <c r="CA37" s="87"/>
-      <c r="CB37" s="87"/>
-      <c r="CC37" s="87"/>
-      <c r="CD37" s="87"/>
-      <c r="CE37" s="87"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="80"/>
+      <c r="Z37" s="80"/>
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="80"/>
+      <c r="AC37" s="80"/>
+      <c r="AD37" s="80"/>
+      <c r="AE37" s="80"/>
+      <c r="AF37" s="80"/>
+      <c r="AG37" s="80"/>
+      <c r="AH37" s="80"/>
+      <c r="AI37" s="80"/>
+      <c r="AJ37" s="80"/>
+      <c r="AK37" s="80"/>
+      <c r="AL37" s="80"/>
+      <c r="AM37" s="80"/>
+      <c r="AN37" s="80"/>
+      <c r="AO37" s="80"/>
+      <c r="AP37" s="80"/>
+      <c r="AQ37" s="80"/>
+      <c r="AR37" s="80"/>
+      <c r="AS37" s="80"/>
+      <c r="AT37" s="80"/>
+      <c r="AU37" s="80"/>
+      <c r="AV37" s="80"/>
+      <c r="AW37" s="80"/>
+      <c r="AX37" s="80"/>
+      <c r="AY37" s="80"/>
+      <c r="AZ37" s="80"/>
+      <c r="BA37" s="80"/>
+      <c r="BB37" s="80"/>
+      <c r="BC37" s="80"/>
+      <c r="BD37" s="80"/>
+      <c r="BE37" s="80"/>
+      <c r="BF37" s="80"/>
+      <c r="BG37" s="80"/>
+      <c r="BH37" s="80"/>
+      <c r="BI37" s="80"/>
+      <c r="BJ37" s="80"/>
+      <c r="BK37" s="80"/>
+      <c r="BL37" s="80"/>
+      <c r="BM37" s="80"/>
+      <c r="BN37" s="80"/>
+      <c r="BO37" s="80"/>
+      <c r="BP37" s="80"/>
+      <c r="BQ37" s="80"/>
+      <c r="BR37" s="80"/>
+      <c r="BS37" s="80"/>
+      <c r="BT37" s="80"/>
+      <c r="BU37" s="80"/>
+      <c r="BV37" s="80"/>
+      <c r="BW37" s="80"/>
+      <c r="BX37" s="80"/>
+      <c r="BY37" s="80"/>
+      <c r="BZ37" s="80"/>
+      <c r="CA37" s="80"/>
+      <c r="CB37" s="80"/>
+      <c r="CC37" s="80"/>
+      <c r="CD37" s="80"/>
+      <c r="CE37" s="80"/>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
@@ -5315,18 +5349,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="CF4:CF36"/>
-    <mergeCell ref="A37:CE37"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA36"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
@@ -5343,6 +5365,18 @@
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF36"/>
+    <mergeCell ref="A37:CE37"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA36"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B6:B14 B17:B36">
@@ -5371,26 +5405,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5603,32 +5617,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5645,4 +5654,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11214"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emf\306\306project-G4\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA3355F-B15E-4D88-9B7A-72CC10C5C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{CAA3355F-B15E-4D88-9B7A-72CC10C5C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E935518-463F-384B-AB49-6D7BC397DD6A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-2200" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Tâches</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Tests des alertes</t>
   </si>
   <si>
-    <t>Création système login</t>
-  </si>
-  <si>
     <t>Création de lhistorique capteurs</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Créer un business model canvas</t>
+  </si>
+  <si>
+    <t>Création système login/register</t>
   </si>
 </sst>
 </file>
@@ -1117,6 +1117,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1125,14 +1129,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1177,32 +1201,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1258,7 @@
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>16936</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>160868</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1320,7 +1320,7 @@
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>162683</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>159658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1382,7 +1382,7 @@
     <xdr:to>
       <xdr:col>74</xdr:col>
       <xdr:colOff>15726</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>166915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1807,39 +1807,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF43"/>
+  <dimension ref="A1:CF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="3" customWidth="1"/>
-    <col min="4" max="83" width="2.1796875" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.1796875" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.1796875" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.453125" style="3"/>
+    <col min="1" max="1" width="57.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" customWidth="1"/>
+    <col min="4" max="83" width="2.1640625" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.1640625" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.1640625" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1874,177 +1874,177 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77"/>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="77"/>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77"/>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="77"/>
-      <c r="BL2" s="77"/>
-      <c r="BM2" s="77"/>
-      <c r="BN2" s="77"/>
-      <c r="BO2" s="77"/>
-      <c r="BP2" s="77"/>
-      <c r="BQ2" s="77"/>
-      <c r="BR2" s="77"/>
-      <c r="BS2" s="77"/>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77"/>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77"/>
-      <c r="BX2" s="77"/>
-      <c r="BY2" s="77"/>
-      <c r="BZ2" s="77"/>
-      <c r="CA2" s="77"/>
-      <c r="CB2" s="77"/>
-      <c r="CC2" s="77"/>
-      <c r="CD2" s="77"/>
-      <c r="CE2" s="77"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="78"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="78"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="78"/>
+      <c r="BY2" s="78"/>
+      <c r="BZ2" s="78"/>
+      <c r="CA2" s="78"/>
+      <c r="CB2" s="78"/>
+      <c r="CC2" s="78"/>
+      <c r="CD2" s="78"/>
+      <c r="CE2" s="78"/>
     </row>
-    <row r="3" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="78"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="78"/>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="78"/>
-      <c r="BP3" s="78"/>
-      <c r="BQ3" s="78"/>
-      <c r="BR3" s="78"/>
-      <c r="BS3" s="78"/>
-      <c r="BT3" s="78"/>
-      <c r="BU3" s="78"/>
-      <c r="BV3" s="78"/>
-      <c r="BW3" s="78"/>
-      <c r="BX3" s="78"/>
-      <c r="BY3" s="78"/>
-      <c r="BZ3" s="78"/>
-      <c r="CA3" s="78"/>
-      <c r="CB3" s="78"/>
-      <c r="CC3" s="78"/>
-      <c r="CD3" s="78"/>
-      <c r="CE3" s="78"/>
+    <row r="3" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="79"/>
+      <c r="AR3" s="79"/>
+      <c r="AS3" s="79"/>
+      <c r="AT3" s="79"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="79"/>
+      <c r="AW3" s="79"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="79"/>
+      <c r="BF3" s="79"/>
+      <c r="BG3" s="79"/>
+      <c r="BH3" s="79"/>
+      <c r="BI3" s="79"/>
+      <c r="BJ3" s="79"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="79"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="79"/>
+      <c r="BO3" s="79"/>
+      <c r="BP3" s="79"/>
+      <c r="BQ3" s="79"/>
+      <c r="BR3" s="79"/>
+      <c r="BS3" s="79"/>
+      <c r="BT3" s="79"/>
+      <c r="BU3" s="79"/>
+      <c r="BV3" s="79"/>
+      <c r="BW3" s="79"/>
+      <c r="BX3" s="79"/>
+      <c r="BY3" s="79"/>
+      <c r="BZ3" s="79"/>
+      <c r="CA3" s="79"/>
+      <c r="CB3" s="79"/>
+      <c r="CC3" s="79"/>
+      <c r="CD3" s="79"/>
+      <c r="CE3" s="79"/>
     </row>
-    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2053,132 +2053,132 @@
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82">
         <v>45992</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="92" t="s">
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="94">
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82">
         <v>45993</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="92" t="s">
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="94">
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="82">
         <v>45999</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="92" t="s">
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="94">
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="82">
         <v>46000</v>
       </c>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="92" t="s">
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="94">
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="82">
         <v>46006</v>
       </c>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="92" t="s">
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="94">
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="82">
         <v>46007</v>
       </c>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="92" t="s">
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="94">
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="82">
         <v>46027</v>
       </c>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="94"/>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="92" t="s">
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="82"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94">
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="82">
         <v>46028</v>
       </c>
-      <c r="BM4" s="94"/>
-      <c r="BN4" s="94"/>
-      <c r="BO4" s="95"/>
-      <c r="BP4" s="92" t="s">
+      <c r="BM4" s="82"/>
+      <c r="BN4" s="82"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="93"/>
-      <c r="BR4" s="93"/>
-      <c r="BS4" s="93"/>
-      <c r="BT4" s="94">
+      <c r="BQ4" s="81"/>
+      <c r="BR4" s="81"/>
+      <c r="BS4" s="81"/>
+      <c r="BT4" s="82">
         <v>46034</v>
       </c>
-      <c r="BU4" s="94"/>
-      <c r="BV4" s="94"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="92" t="s">
+      <c r="BU4" s="82"/>
+      <c r="BV4" s="82"/>
+      <c r="BW4" s="83"/>
+      <c r="BX4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="93"/>
-      <c r="BZ4" s="93"/>
-      <c r="CA4" s="93"/>
-      <c r="CB4" s="94">
+      <c r="BY4" s="81"/>
+      <c r="BZ4" s="81"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="82">
         <v>46035</v>
       </c>
-      <c r="CC4" s="94"/>
-      <c r="CD4" s="94"/>
-      <c r="CE4" s="95"/>
-      <c r="CF4" s="79" t="s">
+      <c r="CC4" s="82"/>
+      <c r="CD4" s="82"/>
+      <c r="CE4" s="83"/>
+      <c r="CF4" s="86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+    <row r="5" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="88"/>
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
@@ -2425,11 +2425,11 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="79"/>
+      <c r="CF5" s="86"/>
     </row>
-    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>17</v>
@@ -2451,16 +2451,16 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="83" t="s">
+      <c r="T6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="85"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="91"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -2517,9 +2517,9 @@
       <c r="CC6" s="9"/>
       <c r="CD6" s="9"/>
       <c r="CE6" s="10"/>
-      <c r="CF6" s="79"/>
+      <c r="CF6" s="86"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2543,14 +2543,14 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="88"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="94"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
@@ -2607,9 +2607,9 @@
       <c r="CC7" s="15"/>
       <c r="CD7" s="15"/>
       <c r="CE7" s="16"/>
-      <c r="CF7" s="79"/>
+      <c r="CF7" s="86"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
@@ -2633,14 +2633,14 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="88"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="94"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
@@ -2697,9 +2697,9 @@
       <c r="CC8" s="15"/>
       <c r="CD8" s="15"/>
       <c r="CE8" s="16"/>
-      <c r="CF8" s="79"/>
+      <c r="CF8" s="86"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2723,14 +2723,14 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="88"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="94"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
@@ -2787,9 +2787,9 @@
       <c r="CC9" s="15"/>
       <c r="CD9" s="15"/>
       <c r="CE9" s="16"/>
-      <c r="CF9" s="79"/>
+      <c r="CF9" s="86"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A10" s="38" t="s">
         <v>23</v>
       </c>
@@ -2813,14 +2813,14 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="88"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="94"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
@@ -2877,11 +2877,11 @@
       <c r="CC10" s="15"/>
       <c r="CD10" s="15"/>
       <c r="CE10" s="16"/>
-      <c r="CF10" s="79"/>
+      <c r="CF10" s="86"/>
     </row>
-    <row r="11" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="57"/>
@@ -2901,14 +2901,14 @@
       <c r="Q11" s="59"/>
       <c r="R11" s="59"/>
       <c r="S11" s="62"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="88"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
       <c r="AB11" s="58"/>
       <c r="AC11" s="61"/>
       <c r="AD11" s="61"/>
@@ -2965,99 +2965,119 @@
       <c r="CC11" s="59"/>
       <c r="CD11" s="59"/>
       <c r="CE11" s="62"/>
-      <c r="CF11" s="79"/>
+      <c r="CF11" s="86"/>
     </row>
-    <row r="12" spans="1:84" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="63"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="61"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="62"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="62"/>
-      <c r="BP12" s="58"/>
-      <c r="BQ12" s="59"/>
-      <c r="BR12" s="59"/>
-      <c r="BS12" s="59"/>
-      <c r="BT12" s="59"/>
-      <c r="BU12" s="59"/>
-      <c r="BV12" s="59"/>
-      <c r="BW12" s="62"/>
-      <c r="BX12" s="58"/>
-      <c r="BY12" s="59"/>
-      <c r="BZ12" s="59"/>
-      <c r="CA12" s="59"/>
-      <c r="CB12" s="59"/>
-      <c r="CC12" s="59"/>
-      <c r="CD12" s="59"/>
-      <c r="CE12" s="62"/>
-      <c r="CF12" s="79"/>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A12" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="15"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="14"/>
+      <c r="BQ12" s="15"/>
+      <c r="BR12" s="15"/>
+      <c r="BS12" s="15"/>
+      <c r="BT12" s="15"/>
+      <c r="BU12" s="15"/>
+      <c r="BV12" s="15"/>
+      <c r="BW12" s="16"/>
+      <c r="BX12" s="14"/>
+      <c r="BY12" s="15"/>
+      <c r="BZ12" s="15"/>
+      <c r="CA12" s="15"/>
+      <c r="CB12" s="15"/>
+      <c r="CC12" s="15"/>
+      <c r="CD12" s="15"/>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="86"/>
     </row>
-    <row r="13" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
-        <v>39</v>
+    <row r="13" spans="1:84" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="70" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
@@ -3077,14 +3097,14 @@
       <c r="Q13" s="59"/>
       <c r="R13" s="59"/>
       <c r="S13" s="62"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="88"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="94"/>
       <c r="AB13" s="58"/>
       <c r="AC13" s="61"/>
       <c r="AD13" s="61"/>
@@ -3141,46 +3161,47 @@
       <c r="CC13" s="59"/>
       <c r="CD13" s="59"/>
       <c r="CE13" s="62"/>
-      <c r="CF13" s="79"/>
+      <c r="CF13" s="86"/>
     </row>
-    <row r="14" spans="1:84" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="63"/>
+    <row r="14" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="61"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="58"/>
       <c r="AC14" s="61"/>
       <c r="AD14" s="61"/>
       <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="61"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="58"/>
       <c r="AK14" s="61"/>
       <c r="AL14" s="61"/>
       <c r="AM14" s="61"/>
@@ -3188,138 +3209,138 @@
       <c r="AO14" s="61"/>
       <c r="AP14" s="61"/>
       <c r="AQ14" s="63"/>
-      <c r="AR14" s="61"/>
+      <c r="AR14" s="58"/>
       <c r="AS14" s="61"/>
       <c r="AT14" s="61"/>
       <c r="AU14" s="61"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="63"/>
-      <c r="AZ14" s="61"/>
-      <c r="BA14" s="61"/>
-      <c r="BB14" s="61"/>
-      <c r="BC14" s="61"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="61"/>
-      <c r="BG14" s="63"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="61"/>
-      <c r="BJ14" s="61"/>
-      <c r="BK14" s="61"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="61"/>
-      <c r="BO14" s="63"/>
-      <c r="BP14" s="61"/>
-      <c r="BQ14" s="61"/>
-      <c r="BR14" s="61"/>
-      <c r="BS14" s="61"/>
-      <c r="BT14" s="61"/>
-      <c r="BU14" s="61"/>
-      <c r="BV14" s="61"/>
-      <c r="BW14" s="63"/>
-      <c r="BX14" s="61"/>
-      <c r="BY14" s="61"/>
-      <c r="BZ14" s="61"/>
-      <c r="CA14" s="61"/>
-      <c r="CB14" s="61"/>
-      <c r="CC14" s="61"/>
-      <c r="CD14" s="61"/>
-      <c r="CE14" s="63"/>
-      <c r="CF14" s="79"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="59"/>
+      <c r="BD14" s="59"/>
+      <c r="BE14" s="59"/>
+      <c r="BF14" s="59"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="59"/>
+      <c r="BJ14" s="59"/>
+      <c r="BK14" s="59"/>
+      <c r="BL14" s="59"/>
+      <c r="BM14" s="59"/>
+      <c r="BN14" s="59"/>
+      <c r="BO14" s="62"/>
+      <c r="BP14" s="58"/>
+      <c r="BQ14" s="59"/>
+      <c r="BR14" s="59"/>
+      <c r="BS14" s="59"/>
+      <c r="BT14" s="59"/>
+      <c r="BU14" s="59"/>
+      <c r="BV14" s="59"/>
+      <c r="BW14" s="62"/>
+      <c r="BX14" s="58"/>
+      <c r="BY14" s="59"/>
+      <c r="BZ14" s="59"/>
+      <c r="CA14" s="59"/>
+      <c r="CB14" s="59"/>
+      <c r="CC14" s="59"/>
+      <c r="CD14" s="59"/>
+      <c r="CE14" s="62"/>
+      <c r="CF14" s="86"/>
     </row>
-    <row r="15" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="65"/>
-      <c r="BK15" s="65"/>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="65"/>
-      <c r="BN15" s="65"/>
-      <c r="BO15" s="68"/>
-      <c r="BP15" s="65"/>
-      <c r="BQ15" s="65"/>
-      <c r="BR15" s="65"/>
-      <c r="BS15" s="65"/>
-      <c r="BT15" s="65"/>
-      <c r="BU15" s="65"/>
-      <c r="BV15" s="65"/>
-      <c r="BW15" s="68"/>
-      <c r="BX15" s="65"/>
-      <c r="BY15" s="65"/>
-      <c r="BZ15" s="65"/>
-      <c r="CA15" s="65"/>
-      <c r="CB15" s="65"/>
-      <c r="CC15" s="65"/>
-      <c r="CD15" s="65"/>
-      <c r="CE15" s="68"/>
-      <c r="CF15" s="79"/>
+    <row r="15" spans="1:84" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="61"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="61"/>
+      <c r="AV15" s="61"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="63"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="61"/>
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="61"/>
+      <c r="BF15" s="61"/>
+      <c r="BG15" s="63"/>
+      <c r="BH15" s="61"/>
+      <c r="BI15" s="61"/>
+      <c r="BJ15" s="61"/>
+      <c r="BK15" s="61"/>
+      <c r="BL15" s="61"/>
+      <c r="BM15" s="61"/>
+      <c r="BN15" s="61"/>
+      <c r="BO15" s="63"/>
+      <c r="BP15" s="61"/>
+      <c r="BQ15" s="61"/>
+      <c r="BR15" s="61"/>
+      <c r="BS15" s="61"/>
+      <c r="BT15" s="61"/>
+      <c r="BU15" s="61"/>
+      <c r="BV15" s="61"/>
+      <c r="BW15" s="63"/>
+      <c r="BX15" s="61"/>
+      <c r="BY15" s="61"/>
+      <c r="BZ15" s="61"/>
+      <c r="CA15" s="61"/>
+      <c r="CB15" s="61"/>
+      <c r="CC15" s="61"/>
+      <c r="CD15" s="61"/>
+      <c r="CE15" s="63"/>
+      <c r="CF15" s="86"/>
     </row>
-    <row r="16" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="65"/>
       <c r="D16" s="65"/>
@@ -3338,14 +3359,14 @@
       <c r="Q16" s="65"/>
       <c r="R16" s="65"/>
       <c r="S16" s="68"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="88"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="94"/>
       <c r="AB16" s="65"/>
       <c r="AC16" s="65"/>
       <c r="AD16" s="65"/>
@@ -3402,99 +3423,98 @@
       <c r="CC16" s="65"/>
       <c r="CD16" s="65"/>
       <c r="CE16" s="68"/>
-      <c r="CF16" s="79"/>
+      <c r="CF16" s="86"/>
     </row>
-    <row r="17" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="63"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="61"/>
-      <c r="AV17" s="59"/>
-      <c r="AW17" s="59"/>
-      <c r="AX17" s="59"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="58"/>
-      <c r="BA17" s="59"/>
-      <c r="BB17" s="59"/>
-      <c r="BC17" s="59"/>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="59"/>
-      <c r="BF17" s="59"/>
-      <c r="BG17" s="62"/>
-      <c r="BH17" s="58"/>
-      <c r="BI17" s="59"/>
-      <c r="BJ17" s="59"/>
-      <c r="BK17" s="59"/>
-      <c r="BL17" s="59"/>
-      <c r="BM17" s="59"/>
-      <c r="BN17" s="59"/>
-      <c r="BO17" s="62"/>
-      <c r="BP17" s="58"/>
-      <c r="BQ17" s="59"/>
-      <c r="BR17" s="59"/>
-      <c r="BS17" s="59"/>
-      <c r="BT17" s="59"/>
-      <c r="BU17" s="59"/>
-      <c r="BV17" s="59"/>
-      <c r="BW17" s="62"/>
-      <c r="BX17" s="58"/>
-      <c r="BY17" s="59"/>
-      <c r="BZ17" s="59"/>
-      <c r="CA17" s="59"/>
-      <c r="CB17" s="59"/>
-      <c r="CC17" s="59"/>
-      <c r="CD17" s="59"/>
-      <c r="CE17" s="62"/>
-      <c r="CF17" s="79"/>
+    <row r="17" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="65"/>
+      <c r="BO17" s="68"/>
+      <c r="BP17" s="65"/>
+      <c r="BQ17" s="65"/>
+      <c r="BR17" s="65"/>
+      <c r="BS17" s="65"/>
+      <c r="BT17" s="65"/>
+      <c r="BU17" s="65"/>
+      <c r="BV17" s="65"/>
+      <c r="BW17" s="68"/>
+      <c r="BX17" s="65"/>
+      <c r="BY17" s="65"/>
+      <c r="BZ17" s="65"/>
+      <c r="CA17" s="65"/>
+      <c r="CB17" s="65"/>
+      <c r="CC17" s="65"/>
+      <c r="CD17" s="65"/>
+      <c r="CE17" s="68"/>
+      <c r="CF17" s="86"/>
     </row>
-    <row r="18" spans="1:84" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
-        <v>44</v>
+    <row r="18" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="74" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="56"/>
       <c r="C18" s="57"/>
@@ -3514,14 +3534,14 @@
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
       <c r="S18" s="62"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="88"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="94"/>
       <c r="AB18" s="58"/>
       <c r="AC18" s="61"/>
       <c r="AD18" s="61"/>
@@ -3578,121 +3598,103 @@
       <c r="CC18" s="59"/>
       <c r="CD18" s="59"/>
       <c r="CE18" s="62"/>
-      <c r="CF18" s="79"/>
+      <c r="CF18" s="86"/>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:84" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="58"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="61"/>
+      <c r="AV19" s="59"/>
+      <c r="AW19" s="59"/>
+      <c r="AX19" s="59"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="59"/>
+      <c r="BB19" s="59"/>
+      <c r="BC19" s="59"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="59"/>
+      <c r="BF19" s="59"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="58"/>
+      <c r="BI19" s="59"/>
+      <c r="BJ19" s="59"/>
+      <c r="BK19" s="59"/>
+      <c r="BL19" s="59"/>
+      <c r="BM19" s="59"/>
+      <c r="BN19" s="59"/>
+      <c r="BO19" s="62"/>
+      <c r="BP19" s="58"/>
+      <c r="BQ19" s="59"/>
+      <c r="BR19" s="59"/>
+      <c r="BS19" s="59"/>
+      <c r="BT19" s="59"/>
+      <c r="BU19" s="59"/>
+      <c r="BV19" s="59"/>
+      <c r="BW19" s="62"/>
+      <c r="BX19" s="58"/>
+      <c r="BY19" s="59"/>
+      <c r="BZ19" s="59"/>
+      <c r="CA19" s="59"/>
+      <c r="CB19" s="59"/>
+      <c r="CC19" s="59"/>
+      <c r="CD19" s="59"/>
+      <c r="CE19" s="62"/>
+      <c r="CF19" s="86"/>
+    </row>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A20" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC19" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD19" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE19" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK19" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL19" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM19" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN19" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
-      <c r="AT19" s="46"/>
-      <c r="AU19" s="46"/>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="16"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="15"/>
-      <c r="BB19" s="15"/>
-      <c r="BC19" s="15"/>
-      <c r="BD19" s="15"/>
-      <c r="BE19" s="15"/>
-      <c r="BF19" s="15"/>
-      <c r="BG19" s="16"/>
-      <c r="BH19" s="14"/>
-      <c r="BI19" s="15"/>
-      <c r="BJ19" s="15"/>
-      <c r="BK19" s="15"/>
-      <c r="BL19" s="15"/>
-      <c r="BM19" s="15"/>
-      <c r="BN19" s="15"/>
-      <c r="BO19" s="16"/>
-      <c r="BP19" s="14"/>
-      <c r="BQ19" s="15"/>
-      <c r="BR19" s="15"/>
-      <c r="BS19" s="15"/>
-      <c r="BT19" s="15"/>
-      <c r="BU19" s="15"/>
-      <c r="BV19" s="15"/>
-      <c r="BW19" s="16"/>
-      <c r="BX19" s="14"/>
-      <c r="BY19" s="15"/>
-      <c r="BZ19" s="15"/>
-      <c r="CA19" s="15"/>
-      <c r="CB19" s="15"/>
-      <c r="CC19" s="15"/>
-      <c r="CD19" s="15"/>
-      <c r="CE19" s="16"/>
-      <c r="CF19" s="79"/>
-    </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="23"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
@@ -3710,46 +3712,64 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="16"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC20" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE20" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="16"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="49"/>
-      <c r="AP20" s="49"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
+      <c r="AJ20" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK20" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL20" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM20" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN20" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
       <c r="AV20" s="15"/>
       <c r="AW20" s="15"/>
       <c r="AX20" s="15"/>
       <c r="AY20" s="16"/>
-      <c r="AZ20" s="51"/>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="16"/>
       <c r="BH20" s="14"/>
       <c r="BI20" s="15"/>
       <c r="BJ20" s="15"/>
@@ -3774,15 +3794,13 @@
       <c r="CC20" s="15"/>
       <c r="CD20" s="15"/>
       <c r="CE20" s="16"/>
-      <c r="CF20" s="79"/>
+      <c r="CF20" s="86"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A21" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>17</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B21" s="23"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
@@ -3800,56 +3818,46 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC21" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD21" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE21" s="54" t="s">
-        <v>36</v>
-      </c>
+      <c r="T21" s="92"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="16"/>
-      <c r="AJ21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="16"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="50"/>
       <c r="AR21" s="14"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
       <c r="AV21" s="15"/>
       <c r="AW21" s="15"/>
       <c r="AX21" s="15"/>
       <c r="AY21" s="16"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="15"/>
-      <c r="BB21" s="15"/>
-      <c r="BC21" s="15"/>
-      <c r="BD21" s="15"/>
-      <c r="BE21" s="15"/>
-      <c r="BF21" s="15"/>
-      <c r="BG21" s="16"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="51"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
       <c r="BH21" s="14"/>
       <c r="BI21" s="15"/>
       <c r="BJ21" s="15"/>
@@ -3874,11 +3882,11 @@
       <c r="CC21" s="15"/>
       <c r="CD21" s="15"/>
       <c r="CE21" s="16"/>
-      <c r="CF21" s="79"/>
+      <c r="CF21" s="86"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A22" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>17</v>
@@ -3900,29 +3908,35 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="16"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="15"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC22" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD22" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE22" s="54" t="s">
+        <v>35</v>
+      </c>
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="16"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL22" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="AJ22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="15"/>
@@ -3968,11 +3982,11 @@
       <c r="CC22" s="15"/>
       <c r="CD22" s="15"/>
       <c r="CE22" s="16"/>
-      <c r="CF22" s="79"/>
+      <c r="CF22" s="86"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A23" s="45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>17</v>
@@ -3994,54 +4008,44 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="88"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
       <c r="AI23" s="16"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN23" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO23" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP23" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ23" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR23" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS23" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="47"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
       <c r="AV23" s="15"/>
       <c r="AW23" s="15"/>
       <c r="AX23" s="15"/>
       <c r="AY23" s="16"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="47"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="15"/>
       <c r="BB23" s="15"/>
       <c r="BC23" s="15"/>
       <c r="BD23" s="15"/>
@@ -4072,13 +4076,15 @@
       <c r="CC23" s="15"/>
       <c r="CD23" s="15"/>
       <c r="CE23" s="16"/>
-      <c r="CF23" s="79"/>
+      <c r="CF23" s="86"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A24" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -4096,61 +4102,75 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="88"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
+      <c r="AE24" s="31"/>
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="15"/>
       <c r="AI24" s="16"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="15"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="15"/>
-      <c r="AT24" s="15"/>
-      <c r="AU24" s="15"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN24" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO24" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP24" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ24" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR24" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS24" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
       <c r="AV24" s="15"/>
       <c r="AW24" s="15"/>
       <c r="AX24" s="15"/>
       <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
-      <c r="BD24" s="16"/>
-      <c r="BE24" s="44"/>
-      <c r="BF24" s="44"/>
-      <c r="BG24" s="44"/>
-      <c r="BH24" s="44"/>
-      <c r="BI24" s="44"/>
-      <c r="BJ24" s="48"/>
-      <c r="BK24" s="48"/>
+      <c r="AZ24" s="47"/>
+      <c r="BA24" s="47"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="16"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
       <c r="BM24" s="15"/>
       <c r="BN24" s="15"/>
       <c r="BO24" s="16"/>
-      <c r="BP24" s="48"/>
-      <c r="BQ24" s="48"/>
-      <c r="BR24" s="48"/>
-      <c r="BS24" s="48"/>
-      <c r="BT24" s="48"/>
-      <c r="BU24" s="48"/>
-      <c r="BV24" s="48"/>
+      <c r="BP24" s="14"/>
+      <c r="BQ24" s="15"/>
+      <c r="BR24" s="15"/>
+      <c r="BS24" s="15"/>
+      <c r="BT24" s="15"/>
+      <c r="BU24" s="15"/>
+      <c r="BV24" s="15"/>
       <c r="BW24" s="16"/>
       <c r="BX24" s="14"/>
       <c r="BY24" s="15"/>
@@ -4160,11 +4180,11 @@
       <c r="CC24" s="15"/>
       <c r="CD24" s="15"/>
       <c r="CE24" s="16"/>
-      <c r="CF24" s="79"/>
+      <c r="CF24" s="86"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A25" s="45" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="13"/>
@@ -4184,14 +4204,14 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="88"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
@@ -4216,24 +4236,29 @@
       <c r="AW25" s="15"/>
       <c r="AX25" s="15"/>
       <c r="AY25" s="16"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="46"/>
-      <c r="BD25" s="46"/>
-      <c r="BE25" s="46"/>
-      <c r="BF25" s="46"/>
-      <c r="BG25" s="46"/>
-      <c r="BH25" s="43"/>
-      <c r="BI25" s="46"/>
-      <c r="BJ25" s="43"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="44"/>
+      <c r="BF25" s="44"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="48"/>
+      <c r="BK25" s="48"/>
       <c r="BL25" s="15"/>
       <c r="BM25" s="15"/>
       <c r="BN25" s="15"/>
       <c r="BO25" s="16"/>
-      <c r="BT25" s="15"/>
-      <c r="BU25" s="15"/>
-      <c r="BV25" s="15"/>
+      <c r="BP25" s="48"/>
+      <c r="BQ25" s="48"/>
+      <c r="BR25" s="48"/>
+      <c r="BS25" s="48"/>
+      <c r="BT25" s="48"/>
+      <c r="BU25" s="48"/>
+      <c r="BV25" s="48"/>
       <c r="BW25" s="16"/>
       <c r="BX25" s="14"/>
       <c r="BY25" s="15"/>
@@ -4243,15 +4268,13 @@
       <c r="CC25" s="15"/>
       <c r="CD25" s="15"/>
       <c r="CE25" s="16"/>
-      <c r="CF25" s="79"/>
+      <c r="CF25" s="86"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A26" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B26" s="23"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
@@ -4269,90 +4292,53 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC26" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD26" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE26" s="55" t="s">
-        <v>36</v>
-      </c>
+      <c r="T26" s="92"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="16"/>
-      <c r="AJ26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU26" s="48" t="s">
-        <v>36</v>
-      </c>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
       <c r="AV26" s="15"/>
       <c r="AW26" s="15"/>
       <c r="AX26" s="15"/>
       <c r="AY26" s="16"/>
       <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
+      <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
-      <c r="BC26" s="15"/>
-      <c r="BD26" s="15"/>
-      <c r="BE26" s="15"/>
-      <c r="BF26" s="15"/>
-      <c r="BG26" s="16"/>
-      <c r="BH26" s="14"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="15"/>
-      <c r="BK26" s="15"/>
+      <c r="BC26" s="46"/>
+      <c r="BD26" s="46"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="43"/>
+      <c r="BI26" s="46"/>
+      <c r="BJ26" s="43"/>
       <c r="BL26" s="15"/>
       <c r="BM26" s="15"/>
       <c r="BN26" s="15"/>
       <c r="BO26" s="16"/>
-      <c r="BP26" s="14"/>
-      <c r="BQ26" s="15"/>
-      <c r="BR26" s="15"/>
-      <c r="BS26" s="15"/>
       <c r="BT26" s="15"/>
       <c r="BU26" s="15"/>
       <c r="BV26" s="15"/>
@@ -4365,13 +4351,15 @@
       <c r="CC26" s="15"/>
       <c r="CD26" s="15"/>
       <c r="CE26" s="16"/>
-      <c r="CF26" s="79"/>
+      <c r="CF26" s="86"/>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A27" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
@@ -4389,56 +4377,88 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="16"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="88"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC27" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD27" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE27" s="55" t="s">
+        <v>35</v>
+      </c>
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
       <c r="AI27" s="16"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="15"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="15"/>
-      <c r="AT27" s="15"/>
-      <c r="AU27" s="15"/>
+      <c r="AJ27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU27" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="AV27" s="15"/>
       <c r="AW27" s="15"/>
       <c r="AX27" s="15"/>
       <c r="AY27" s="16"/>
       <c r="AZ27" s="14"/>
-      <c r="BA27" s="15"/>
+      <c r="BA27" s="14"/>
       <c r="BB27" s="15"/>
       <c r="BC27" s="15"/>
       <c r="BD27" s="15"/>
       <c r="BE27" s="15"/>
       <c r="BF27" s="15"/>
       <c r="BG27" s="16"/>
-      <c r="BH27" s="47"/>
-      <c r="BI27" s="47"/>
-      <c r="BJ27" s="47"/>
-      <c r="BK27" s="47"/>
+      <c r="BH27" s="14"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
       <c r="BM27" s="15"/>
       <c r="BN27" s="15"/>
       <c r="BO27" s="16"/>
-      <c r="BP27" s="47"/>
-      <c r="BQ27" s="47"/>
+      <c r="BP27" s="14"/>
+      <c r="BQ27" s="15"/>
       <c r="BR27" s="15"/>
       <c r="BS27" s="15"/>
       <c r="BT27" s="15"/>
@@ -4453,11 +4473,11 @@
       <c r="CC27" s="15"/>
       <c r="CD27" s="15"/>
       <c r="CE27" s="16"/>
-      <c r="CF27" s="79"/>
+      <c r="CF27" s="86"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>14</v>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A28" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="13"/>
@@ -4477,14 +4497,14 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="16"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="88"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="94"/>
       <c r="AB28" s="14"/>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
@@ -4509,24 +4529,24 @@
       <c r="AW28" s="15"/>
       <c r="AX28" s="15"/>
       <c r="AY28" s="16"/>
-      <c r="AZ28" s="46"/>
-      <c r="BA28" s="46"/>
-      <c r="BB28" s="46"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
       <c r="BC28" s="15"/>
       <c r="BD28" s="15"/>
       <c r="BE28" s="15"/>
       <c r="BF28" s="15"/>
       <c r="BG28" s="16"/>
-      <c r="BH28" s="14"/>
-      <c r="BI28" s="15"/>
-      <c r="BJ28" s="15"/>
-      <c r="BK28" s="15"/>
+      <c r="BH28" s="47"/>
+      <c r="BI28" s="47"/>
+      <c r="BJ28" s="47"/>
+      <c r="BK28" s="47"/>
       <c r="BL28" s="15"/>
       <c r="BM28" s="15"/>
       <c r="BN28" s="15"/>
       <c r="BO28" s="16"/>
-      <c r="BP28" s="14"/>
-      <c r="BQ28" s="15"/>
+      <c r="BP28" s="47"/>
+      <c r="BQ28" s="47"/>
       <c r="BR28" s="15"/>
       <c r="BS28" s="15"/>
       <c r="BT28" s="15"/>
@@ -4541,11 +4561,11 @@
       <c r="CC28" s="15"/>
       <c r="CD28" s="15"/>
       <c r="CE28" s="16"/>
-      <c r="CF28" s="79"/>
+      <c r="CF28" s="86"/>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
-        <v>34</v>
+    <row r="29" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="13"/>
@@ -4565,14 +4585,14 @@
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="16"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="88"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="94"/>
       <c r="AB29" s="14"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
@@ -4597,14 +4617,14 @@
       <c r="AW29" s="15"/>
       <c r="AX29" s="15"/>
       <c r="AY29" s="16"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="15"/>
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="31"/>
-      <c r="BD29" s="31"/>
-      <c r="BE29" s="31"/>
-      <c r="BF29" s="31"/>
-      <c r="BG29" s="31"/>
+      <c r="AZ29" s="46"/>
+      <c r="BA29" s="46"/>
+      <c r="BB29" s="46"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="16"/>
       <c r="BH29" s="14"/>
       <c r="BI29" s="15"/>
       <c r="BJ29" s="15"/>
@@ -4629,11 +4649,11 @@
       <c r="CC29" s="15"/>
       <c r="CD29" s="15"/>
       <c r="CE29" s="16"/>
-      <c r="CF29" s="79"/>
+      <c r="CF29" s="86"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A30" s="45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="13"/>
@@ -4653,14 +4673,14 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="88"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="94"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
@@ -4688,11 +4708,11 @@
       <c r="AZ30" s="14"/>
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
-      <c r="BC30" s="15"/>
-      <c r="BD30" s="15"/>
-      <c r="BE30" s="15"/>
-      <c r="BF30" s="15"/>
-      <c r="BG30" s="16"/>
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="31"/>
+      <c r="BG30" s="31"/>
       <c r="BH30" s="14"/>
       <c r="BI30" s="15"/>
       <c r="BJ30" s="15"/>
@@ -4705,10 +4725,10 @@
       <c r="BQ30" s="15"/>
       <c r="BR30" s="15"/>
       <c r="BS30" s="15"/>
-      <c r="BT30" s="36"/>
-      <c r="BU30" s="36"/>
-      <c r="BV30" s="36"/>
-      <c r="BW30" s="37"/>
+      <c r="BT30" s="15"/>
+      <c r="BU30" s="15"/>
+      <c r="BV30" s="15"/>
+      <c r="BW30" s="16"/>
       <c r="BX30" s="14"/>
       <c r="BY30" s="15"/>
       <c r="BZ30" s="15"/>
@@ -4717,11 +4737,11 @@
       <c r="CC30" s="15"/>
       <c r="CD30" s="15"/>
       <c r="CE30" s="16"/>
-      <c r="CF30" s="79"/>
+      <c r="CF30" s="86"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>15</v>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A31" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="13"/>
@@ -4741,14 +4761,14 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="16"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="88"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="94"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
@@ -4805,183 +4825,185 @@
       <c r="CC31" s="15"/>
       <c r="CD31" s="15"/>
       <c r="CE31" s="16"/>
-      <c r="CF31" s="79"/>
+      <c r="CF31" s="86"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="88"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="37"/>
-      <c r="AR32" s="35"/>
-      <c r="AS32" s="36"/>
-      <c r="AT32" s="36"/>
-      <c r="AU32" s="36"/>
-      <c r="AV32" s="36"/>
-      <c r="AW32" s="36"/>
-      <c r="AX32" s="36"/>
-      <c r="AY32" s="37"/>
-      <c r="AZ32" s="35"/>
-      <c r="BA32" s="36"/>
-      <c r="BB32" s="36"/>
-      <c r="BC32" s="36"/>
-      <c r="BD32" s="36"/>
-      <c r="BE32" s="36"/>
-      <c r="BF32" s="36"/>
-      <c r="BG32" s="37"/>
-      <c r="BH32" s="35"/>
-      <c r="BI32" s="36"/>
-      <c r="BJ32" s="36"/>
-      <c r="BK32" s="36"/>
-      <c r="BL32" s="36"/>
-      <c r="BM32" s="36"/>
-      <c r="BN32" s="36"/>
-      <c r="BO32" s="37"/>
-      <c r="BP32" s="35"/>
-      <c r="BQ32" s="36"/>
-      <c r="BR32" s="36"/>
-      <c r="BS32" s="36"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="16"/>
+      <c r="AZ32" s="14"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="16"/>
+      <c r="BH32" s="14"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="16"/>
+      <c r="BP32" s="14"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
       <c r="BT32" s="36"/>
       <c r="BU32" s="36"/>
       <c r="BV32" s="36"/>
       <c r="BW32" s="37"/>
-      <c r="BX32" s="35"/>
-      <c r="BY32" s="36"/>
-      <c r="BZ32" s="36"/>
-      <c r="CA32" s="36"/>
-      <c r="CB32" s="36"/>
-      <c r="CC32" s="36"/>
-      <c r="CD32" s="36"/>
-      <c r="CE32" s="37"/>
-      <c r="CF32" s="79"/>
+      <c r="BX32" s="14"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="15"/>
+      <c r="CA32" s="15"/>
+      <c r="CB32" s="15"/>
+      <c r="CC32" s="15"/>
+      <c r="CD32" s="15"/>
+      <c r="CE32" s="16"/>
+      <c r="CF32" s="86"/>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="B33" s="23"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="15"/>
-      <c r="AM33" s="15"/>
-      <c r="AN33" s="15"/>
-      <c r="AO33" s="15"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="15"/>
-      <c r="AT33" s="15"/>
-      <c r="AU33" s="15"/>
-      <c r="AV33" s="15"/>
-      <c r="AW33" s="15"/>
-      <c r="AX33" s="15"/>
-      <c r="AY33" s="16"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="15"/>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="15"/>
-      <c r="BD33" s="15"/>
-      <c r="BE33" s="15"/>
-      <c r="BF33" s="15"/>
-      <c r="BG33" s="16"/>
-      <c r="BH33" s="14"/>
-      <c r="BI33" s="15"/>
-      <c r="BJ33" s="15"/>
-      <c r="BK33" s="15"/>
-      <c r="BL33" s="15"/>
-      <c r="BM33" s="15"/>
-      <c r="BN33" s="15"/>
-      <c r="BO33" s="16"/>
-      <c r="BP33" s="14"/>
-      <c r="BQ33" s="15"/>
-      <c r="BR33" s="15"/>
-      <c r="BS33" s="15"/>
-      <c r="BT33" s="15"/>
-      <c r="BU33" s="15"/>
-      <c r="BV33" s="15"/>
-      <c r="BW33" s="16"/>
-      <c r="BX33" s="14"/>
-      <c r="BY33" s="15"/>
-      <c r="BZ33" s="15"/>
-      <c r="CA33" s="15"/>
-      <c r="CB33" s="15"/>
-      <c r="CC33" s="15"/>
-      <c r="CD33" s="15"/>
-      <c r="CE33" s="16"/>
-      <c r="CF33" s="79"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="36"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="35"/>
+      <c r="AS33" s="36"/>
+      <c r="AT33" s="36"/>
+      <c r="AU33" s="36"/>
+      <c r="AV33" s="36"/>
+      <c r="AW33" s="36"/>
+      <c r="AX33" s="36"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="35"/>
+      <c r="BA33" s="36"/>
+      <c r="BB33" s="36"/>
+      <c r="BC33" s="36"/>
+      <c r="BD33" s="36"/>
+      <c r="BE33" s="36"/>
+      <c r="BF33" s="36"/>
+      <c r="BG33" s="37"/>
+      <c r="BH33" s="35"/>
+      <c r="BI33" s="36"/>
+      <c r="BJ33" s="36"/>
+      <c r="BK33" s="36"/>
+      <c r="BL33" s="36"/>
+      <c r="BM33" s="36"/>
+      <c r="BN33" s="36"/>
+      <c r="BO33" s="37"/>
+      <c r="BP33" s="35"/>
+      <c r="BQ33" s="36"/>
+      <c r="BR33" s="36"/>
+      <c r="BS33" s="36"/>
+      <c r="BT33" s="36"/>
+      <c r="BU33" s="36"/>
+      <c r="BV33" s="36"/>
+      <c r="BW33" s="37"/>
+      <c r="BX33" s="35"/>
+      <c r="BY33" s="36"/>
+      <c r="BZ33" s="36"/>
+      <c r="CA33" s="36"/>
+      <c r="CB33" s="36"/>
+      <c r="CC33" s="36"/>
+      <c r="CD33" s="36"/>
+      <c r="CE33" s="37"/>
+      <c r="CF33" s="86"/>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.15">
       <c r="B34" s="23"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -5000,14 +5022,14 @@
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="88"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="94"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
@@ -5064,9 +5086,9 @@
       <c r="CC34" s="15"/>
       <c r="CD34" s="15"/>
       <c r="CE34" s="16"/>
-      <c r="CF34" s="79"/>
+      <c r="CF34" s="86"/>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
       <c r="B35" s="23"/>
       <c r="C35" s="13"/>
@@ -5086,14 +5108,14 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="88"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="94"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -5150,205 +5172,303 @@
       <c r="CC35" s="15"/>
       <c r="CD35" s="15"/>
       <c r="CE35" s="16"/>
-      <c r="CF35" s="79"/>
+      <c r="CF35" s="86"/>
     </row>
-    <row r="36" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="91"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="20"/>
-      <c r="AM36" s="20"/>
-      <c r="AN36" s="20"/>
-      <c r="AO36" s="20"/>
-      <c r="AP36" s="20"/>
-      <c r="AQ36" s="21"/>
-      <c r="AR36" s="19"/>
-      <c r="AS36" s="20"/>
-      <c r="AT36" s="20"/>
-      <c r="AU36" s="20"/>
-      <c r="AV36" s="20"/>
-      <c r="AW36" s="20"/>
-      <c r="AX36" s="20"/>
-      <c r="AY36" s="21"/>
-      <c r="AZ36" s="19"/>
-      <c r="BA36" s="20"/>
-      <c r="BB36" s="20"/>
-      <c r="BC36" s="20"/>
-      <c r="BD36" s="20"/>
-      <c r="BE36" s="20"/>
-      <c r="BF36" s="20"/>
-      <c r="BG36" s="21"/>
-      <c r="BH36" s="19"/>
-      <c r="BI36" s="20"/>
-      <c r="BJ36" s="20"/>
-      <c r="BK36" s="20"/>
-      <c r="BL36" s="20"/>
-      <c r="BM36" s="20"/>
-      <c r="BN36" s="20"/>
-      <c r="BO36" s="21"/>
-      <c r="BP36" s="19"/>
-      <c r="BQ36" s="20"/>
-      <c r="BR36" s="20"/>
-      <c r="BS36" s="20"/>
-      <c r="BT36" s="20"/>
-      <c r="BU36" s="20"/>
-      <c r="BV36" s="20"/>
-      <c r="BW36" s="21"/>
-      <c r="BX36" s="19"/>
-      <c r="BY36" s="20"/>
-      <c r="BZ36" s="20"/>
-      <c r="CA36" s="20"/>
-      <c r="CB36" s="20"/>
-      <c r="CC36" s="20"/>
-      <c r="CD36" s="20"/>
-      <c r="CE36" s="21"/>
-      <c r="CF36" s="79"/>
+    <row r="36" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="16"/>
+      <c r="AZ36" s="14"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="16"/>
+      <c r="BH36" s="14"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="15"/>
+      <c r="BO36" s="16"/>
+      <c r="BP36" s="14"/>
+      <c r="BQ36" s="15"/>
+      <c r="BR36" s="15"/>
+      <c r="BS36" s="15"/>
+      <c r="BT36" s="15"/>
+      <c r="BU36" s="15"/>
+      <c r="BV36" s="15"/>
+      <c r="BW36" s="16"/>
+      <c r="BX36" s="14"/>
+      <c r="BY36" s="15"/>
+      <c r="BZ36" s="15"/>
+      <c r="CA36" s="15"/>
+      <c r="CB36" s="15"/>
+      <c r="CC36" s="15"/>
+      <c r="CD36" s="15"/>
+      <c r="CE36" s="16"/>
+      <c r="CF36" s="86"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="80"/>
-      <c r="X37" s="80"/>
-      <c r="Y37" s="80"/>
-      <c r="Z37" s="80"/>
-      <c r="AA37" s="80"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="80"/>
-      <c r="AD37" s="80"/>
-      <c r="AE37" s="80"/>
-      <c r="AF37" s="80"/>
-      <c r="AG37" s="80"/>
-      <c r="AH37" s="80"/>
-      <c r="AI37" s="80"/>
-      <c r="AJ37" s="80"/>
-      <c r="AK37" s="80"/>
-      <c r="AL37" s="80"/>
-      <c r="AM37" s="80"/>
-      <c r="AN37" s="80"/>
-      <c r="AO37" s="80"/>
-      <c r="AP37" s="80"/>
-      <c r="AQ37" s="80"/>
-      <c r="AR37" s="80"/>
-      <c r="AS37" s="80"/>
-      <c r="AT37" s="80"/>
-      <c r="AU37" s="80"/>
-      <c r="AV37" s="80"/>
-      <c r="AW37" s="80"/>
-      <c r="AX37" s="80"/>
-      <c r="AY37" s="80"/>
-      <c r="AZ37" s="80"/>
-      <c r="BA37" s="80"/>
-      <c r="BB37" s="80"/>
-      <c r="BC37" s="80"/>
-      <c r="BD37" s="80"/>
-      <c r="BE37" s="80"/>
-      <c r="BF37" s="80"/>
-      <c r="BG37" s="80"/>
-      <c r="BH37" s="80"/>
-      <c r="BI37" s="80"/>
-      <c r="BJ37" s="80"/>
-      <c r="BK37" s="80"/>
-      <c r="BL37" s="80"/>
-      <c r="BM37" s="80"/>
-      <c r="BN37" s="80"/>
-      <c r="BO37" s="80"/>
-      <c r="BP37" s="80"/>
-      <c r="BQ37" s="80"/>
-      <c r="BR37" s="80"/>
-      <c r="BS37" s="80"/>
-      <c r="BT37" s="80"/>
-      <c r="BU37" s="80"/>
-      <c r="BV37" s="80"/>
-      <c r="BW37" s="80"/>
-      <c r="BX37" s="80"/>
-      <c r="BY37" s="80"/>
-      <c r="BZ37" s="80"/>
-      <c r="CA37" s="80"/>
-      <c r="CB37" s="80"/>
-      <c r="CC37" s="80"/>
-      <c r="CD37" s="80"/>
-      <c r="CE37" s="80"/>
+    <row r="37" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="96"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="96"/>
+      <c r="X37" s="96"/>
+      <c r="Y37" s="96"/>
+      <c r="Z37" s="96"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="20"/>
+      <c r="AT37" s="20"/>
+      <c r="AU37" s="20"/>
+      <c r="AV37" s="20"/>
+      <c r="AW37" s="20"/>
+      <c r="AX37" s="20"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="20"/>
+      <c r="BB37" s="20"/>
+      <c r="BC37" s="20"/>
+      <c r="BD37" s="20"/>
+      <c r="BE37" s="20"/>
+      <c r="BF37" s="20"/>
+      <c r="BG37" s="21"/>
+      <c r="BH37" s="19"/>
+      <c r="BI37" s="20"/>
+      <c r="BJ37" s="20"/>
+      <c r="BK37" s="20"/>
+      <c r="BL37" s="20"/>
+      <c r="BM37" s="20"/>
+      <c r="BN37" s="20"/>
+      <c r="BO37" s="21"/>
+      <c r="BP37" s="19"/>
+      <c r="BQ37" s="20"/>
+      <c r="BR37" s="20"/>
+      <c r="BS37" s="20"/>
+      <c r="BT37" s="20"/>
+      <c r="BU37" s="20"/>
+      <c r="BV37" s="20"/>
+      <c r="BW37" s="21"/>
+      <c r="BX37" s="19"/>
+      <c r="BY37" s="20"/>
+      <c r="BZ37" s="20"/>
+      <c r="CA37" s="20"/>
+      <c r="CB37" s="20"/>
+      <c r="CC37" s="20"/>
+      <c r="CD37" s="20"/>
+      <c r="CE37" s="21"/>
+      <c r="CF37" s="86"/>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
+    <row r="38" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A38" s="98"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
+      <c r="X38" s="98"/>
+      <c r="Y38" s="98"/>
+      <c r="Z38" s="98"/>
+      <c r="AA38" s="98"/>
+      <c r="AB38" s="98"/>
+      <c r="AC38" s="98"/>
+      <c r="AD38" s="98"/>
+      <c r="AE38" s="98"/>
+      <c r="AF38" s="98"/>
+      <c r="AG38" s="98"/>
+      <c r="AH38" s="98"/>
+      <c r="AI38" s="98"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="98"/>
+      <c r="AN38" s="98"/>
+      <c r="AO38" s="98"/>
+      <c r="AP38" s="98"/>
+      <c r="AQ38" s="98"/>
+      <c r="AR38" s="98"/>
+      <c r="AS38" s="98"/>
+      <c r="AT38" s="98"/>
+      <c r="AU38" s="98"/>
+      <c r="AV38" s="98"/>
+      <c r="AW38" s="98"/>
+      <c r="AX38" s="98"/>
+      <c r="AY38" s="98"/>
+      <c r="AZ38" s="98"/>
+      <c r="BA38" s="98"/>
+      <c r="BB38" s="98"/>
+      <c r="BC38" s="98"/>
+      <c r="BD38" s="98"/>
+      <c r="BE38" s="98"/>
+      <c r="BF38" s="98"/>
+      <c r="BG38" s="98"/>
+      <c r="BH38" s="98"/>
+      <c r="BI38" s="98"/>
+      <c r="BJ38" s="98"/>
+      <c r="BK38" s="98"/>
+      <c r="BL38" s="98"/>
+      <c r="BM38" s="98"/>
+      <c r="BN38" s="98"/>
+      <c r="BO38" s="98"/>
+      <c r="BP38" s="98"/>
+      <c r="BQ38" s="98"/>
+      <c r="BR38" s="98"/>
+      <c r="BS38" s="98"/>
+      <c r="BT38" s="98"/>
+      <c r="BU38" s="98"/>
+      <c r="BV38" s="98"/>
+      <c r="BW38" s="98"/>
+      <c r="BX38" s="98"/>
+      <c r="BY38" s="98"/>
+      <c r="BZ38" s="98"/>
+      <c r="CA38" s="98"/>
+      <c r="CB38" s="98"/>
+      <c r="CC38" s="98"/>
+      <c r="CD38" s="98"/>
+      <c r="CE38" s="98"/>
+    </row>
+    <row r="41" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="B41" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="39"/>
+      <c r="C41" s="39"/>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="B42" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="40"/>
+      <c r="C42" s="40"/>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="B43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="41"/>
+      <c r="C43" s="41"/>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
+    <row r="44" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="B44" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="42"/>
+      <c r="C44" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A38:CE38"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF37"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA37"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
@@ -5365,21 +5485,9 @@
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="CF4:CF36"/>
-    <mergeCell ref="A37:CE37"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA36"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B14 B17:B36">
+  <conditionalFormatting sqref="B18:B37 B6:B15">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
@@ -5618,15 +5726,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -5635,6 +5734,15 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5657,26 +5765,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wickil01\Downloads\306project-G4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{CAA3355F-B15E-4D88-9B7A-72CC10C5C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E935518-463F-384B-AB49-6D7BC397DD6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5093F91-6E43-4C47-8D2F-B0655AAE4905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2200" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>Tâches</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>lundi</t>
-  </si>
-  <si>
-    <t>[Nom des personnes]</t>
   </si>
   <si>
     <t xml:space="preserve">Création Planning </t>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Création système login/register</t>
+  </si>
+  <si>
+    <t>Wicki, Beer, Dubusc</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -999,9 +999,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1117,34 +1114,86 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1153,56 +1202,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1270,7 @@
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>16936</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>160868</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1320,7 +1332,7 @@
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>162683</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>159658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1382,7 +1394,7 @@
     <xdr:to>
       <xdr:col>74</xdr:col>
       <xdr:colOff>15726</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>166915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1807,39 +1819,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF44"/>
+  <dimension ref="A1:CF43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="3" customWidth="1"/>
-    <col min="4" max="83" width="2.1640625" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.1640625" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.1640625" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.5" style="3"/>
+    <col min="1" max="1" width="46.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="4" max="83" width="2.140625" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+    <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1874,177 +1886,177 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="78"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="78"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="78"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="78"/>
-      <c r="BQ2" s="78"/>
-      <c r="BR2" s="78"/>
-      <c r="BS2" s="78"/>
-      <c r="BT2" s="78"/>
-      <c r="BU2" s="78"/>
-      <c r="BV2" s="78"/>
-      <c r="BW2" s="78"/>
-      <c r="BX2" s="78"/>
-      <c r="BY2" s="78"/>
-      <c r="BZ2" s="78"/>
-      <c r="CA2" s="78"/>
-      <c r="CB2" s="78"/>
-      <c r="CC2" s="78"/>
-      <c r="CD2" s="78"/>
-      <c r="CE2" s="78"/>
+        <v>45</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="77"/>
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="77"/>
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="77"/>
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="77"/>
+      <c r="BH2" s="77"/>
+      <c r="BI2" s="77"/>
+      <c r="BJ2" s="77"/>
+      <c r="BK2" s="77"/>
+      <c r="BL2" s="77"/>
+      <c r="BM2" s="77"/>
+      <c r="BN2" s="77"/>
+      <c r="BO2" s="77"/>
+      <c r="BP2" s="77"/>
+      <c r="BQ2" s="77"/>
+      <c r="BR2" s="77"/>
+      <c r="BS2" s="77"/>
+      <c r="BT2" s="77"/>
+      <c r="BU2" s="77"/>
+      <c r="BV2" s="77"/>
+      <c r="BW2" s="77"/>
+      <c r="BX2" s="77"/>
+      <c r="BY2" s="77"/>
+      <c r="BZ2" s="77"/>
+      <c r="CA2" s="77"/>
+      <c r="CB2" s="77"/>
+      <c r="CC2" s="77"/>
+      <c r="CD2" s="77"/>
+      <c r="CE2" s="77"/>
     </row>
-    <row r="3" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="79"/>
-      <c r="AS3" s="79"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="79"/>
-      <c r="BF3" s="79"/>
-      <c r="BG3" s="79"/>
-      <c r="BH3" s="79"/>
-      <c r="BI3" s="79"/>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
-      <c r="BQ3" s="79"/>
-      <c r="BR3" s="79"/>
-      <c r="BS3" s="79"/>
-      <c r="BT3" s="79"/>
-      <c r="BU3" s="79"/>
-      <c r="BV3" s="79"/>
-      <c r="BW3" s="79"/>
-      <c r="BX3" s="79"/>
-      <c r="BY3" s="79"/>
-      <c r="BZ3" s="79"/>
-      <c r="CA3" s="79"/>
-      <c r="CB3" s="79"/>
-      <c r="CC3" s="79"/>
-      <c r="CD3" s="79"/>
-      <c r="CE3" s="79"/>
+    <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78"/>
+      <c r="BS3" s="78"/>
+      <c r="BT3" s="78"/>
+      <c r="BU3" s="78"/>
+      <c r="BV3" s="78"/>
+      <c r="BW3" s="78"/>
+      <c r="BX3" s="78"/>
+      <c r="BY3" s="78"/>
+      <c r="BZ3" s="78"/>
+      <c r="CA3" s="78"/>
+      <c r="CB3" s="78"/>
+      <c r="CC3" s="78"/>
+      <c r="CD3" s="78"/>
+      <c r="CE3" s="78"/>
     </row>
-    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="87" t="s">
+    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2053,132 +2065,132 @@
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82">
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93">
         <v>45992</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="80" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82">
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93">
         <v>45993</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="80" t="s">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="82">
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="93">
         <v>45999</v>
       </c>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="80" t="s">
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="82">
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="93">
         <v>46000</v>
       </c>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="80" t="s">
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="82">
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="93">
         <v>46006</v>
       </c>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="80" t="s">
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="82">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="93">
         <v>46007</v>
       </c>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="83"/>
-      <c r="AZ4" s="80" t="s">
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="82">
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="93">
         <v>46027</v>
       </c>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="82"/>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="80" t="s">
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="82">
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93">
         <v>46028</v>
       </c>
-      <c r="BM4" s="82"/>
-      <c r="BN4" s="82"/>
-      <c r="BO4" s="83"/>
-      <c r="BP4" s="80" t="s">
+      <c r="BM4" s="93"/>
+      <c r="BN4" s="93"/>
+      <c r="BO4" s="94"/>
+      <c r="BP4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="81"/>
-      <c r="BR4" s="81"/>
-      <c r="BS4" s="81"/>
-      <c r="BT4" s="82">
+      <c r="BQ4" s="92"/>
+      <c r="BR4" s="92"/>
+      <c r="BS4" s="92"/>
+      <c r="BT4" s="93">
         <v>46034</v>
       </c>
-      <c r="BU4" s="82"/>
-      <c r="BV4" s="82"/>
-      <c r="BW4" s="83"/>
-      <c r="BX4" s="80" t="s">
+      <c r="BU4" s="93"/>
+      <c r="BV4" s="93"/>
+      <c r="BW4" s="94"/>
+      <c r="BX4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="81"/>
-      <c r="BZ4" s="81"/>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="82">
+      <c r="BY4" s="92"/>
+      <c r="BZ4" s="92"/>
+      <c r="CA4" s="92"/>
+      <c r="CB4" s="93">
         <v>46035</v>
       </c>
-      <c r="CC4" s="82"/>
-      <c r="CD4" s="82"/>
-      <c r="CE4" s="83"/>
-      <c r="CF4" s="86" t="s">
+      <c r="CC4" s="93"/>
+      <c r="CD4" s="93"/>
+      <c r="CE4" s="94"/>
+      <c r="CF4" s="79" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
+    <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
@@ -2425,14 +2437,14 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="86"/>
+      <c r="CF5" s="79"/>
     </row>
-    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76" t="s">
-        <v>44</v>
+    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="75" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="29"/>
@@ -2451,16 +2463,16 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="89" t="s">
+      <c r="T6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="91"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="84"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -2517,14 +2529,14 @@
       <c r="CC6" s="9"/>
       <c r="CD6" s="9"/>
       <c r="CE6" s="10"/>
-      <c r="CF6" s="86"/>
+      <c r="CF6" s="79"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -2543,14 +2555,14 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="94"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="87"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
@@ -2607,14 +2619,14 @@
       <c r="CC7" s="15"/>
       <c r="CD7" s="15"/>
       <c r="CE7" s="16"/>
-      <c r="CF7" s="86"/>
+      <c r="CF7" s="79"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -2633,14 +2645,14 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="94"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="87"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
@@ -2697,14 +2709,14 @@
       <c r="CC8" s="15"/>
       <c r="CD8" s="15"/>
       <c r="CE8" s="16"/>
-      <c r="CF8" s="86"/>
+      <c r="CF8" s="79"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -2723,14 +2735,14 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="94"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="87"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
@@ -2787,14 +2799,14 @@
       <c r="CC9" s="15"/>
       <c r="CD9" s="15"/>
       <c r="CE9" s="16"/>
-      <c r="CF9" s="86"/>
+      <c r="CF9" s="79"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -2813,14 +2825,14 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="94"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="87"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
@@ -2877,102 +2889,102 @@
       <c r="CC10" s="15"/>
       <c r="CD10" s="15"/>
       <c r="CE10" s="16"/>
-      <c r="CF10" s="86"/>
+      <c r="CF10" s="79"/>
     </row>
-    <row r="11" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="61"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="63"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="59"/>
-      <c r="AW11" s="59"/>
-      <c r="AX11" s="59"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="59"/>
-      <c r="BB11" s="59"/>
-      <c r="BC11" s="59"/>
-      <c r="BD11" s="59"/>
-      <c r="BE11" s="59"/>
-      <c r="BF11" s="59"/>
-      <c r="BG11" s="62"/>
-      <c r="BH11" s="58"/>
-      <c r="BI11" s="59"/>
-      <c r="BJ11" s="59"/>
-      <c r="BK11" s="59"/>
-      <c r="BL11" s="59"/>
-      <c r="BM11" s="59"/>
-      <c r="BN11" s="59"/>
-      <c r="BO11" s="62"/>
-      <c r="BP11" s="58"/>
-      <c r="BQ11" s="59"/>
-      <c r="BR11" s="59"/>
-      <c r="BS11" s="59"/>
-      <c r="BT11" s="59"/>
-      <c r="BU11" s="59"/>
-      <c r="BV11" s="59"/>
-      <c r="BW11" s="62"/>
-      <c r="BX11" s="58"/>
-      <c r="BY11" s="59"/>
-      <c r="BZ11" s="59"/>
-      <c r="CA11" s="59"/>
-      <c r="CB11" s="59"/>
-      <c r="CC11" s="59"/>
-      <c r="CD11" s="59"/>
-      <c r="CE11" s="62"/>
-      <c r="CF11" s="86"/>
+    <row r="11" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="57"/>
+      <c r="BA11" s="58"/>
+      <c r="BB11" s="58"/>
+      <c r="BC11" s="58"/>
+      <c r="BD11" s="58"/>
+      <c r="BE11" s="58"/>
+      <c r="BF11" s="58"/>
+      <c r="BG11" s="61"/>
+      <c r="BH11" s="57"/>
+      <c r="BI11" s="58"/>
+      <c r="BJ11" s="58"/>
+      <c r="BK11" s="58"/>
+      <c r="BL11" s="58"/>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="61"/>
+      <c r="BP11" s="57"/>
+      <c r="BQ11" s="58"/>
+      <c r="BR11" s="58"/>
+      <c r="BS11" s="58"/>
+      <c r="BT11" s="58"/>
+      <c r="BU11" s="58"/>
+      <c r="BV11" s="58"/>
+      <c r="BW11" s="61"/>
+      <c r="BX11" s="57"/>
+      <c r="BY11" s="58"/>
+      <c r="BZ11" s="58"/>
+      <c r="CA11" s="58"/>
+      <c r="CB11" s="58"/>
+      <c r="CC11" s="58"/>
+      <c r="CD11" s="58"/>
+      <c r="CE11" s="61"/>
+      <c r="CF11" s="79"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A12" s="98" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -2991,52 +3003,44 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="16"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="94"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="87"/>
       <c r="AB12" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC12" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD12" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE12" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="AD12" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="53" t="s">
+        <v>34</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="16"/>
-      <c r="AJ12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="46"/>
-      <c r="AT12" s="46"/>
-      <c r="AU12" s="46"/>
+      <c r="AJ12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
       <c r="AW12" s="15"/>
       <c r="AX12" s="15"/>
@@ -3073,732 +3077,791 @@
       <c r="CC12" s="15"/>
       <c r="CD12" s="15"/>
       <c r="CE12" s="16"/>
-      <c r="CF12" s="86"/>
+      <c r="CF12" s="79"/>
     </row>
-    <row r="13" spans="1:84" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="61"/>
-      <c r="AN13" s="61"/>
-      <c r="AO13" s="61"/>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="63"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="61"/>
-      <c r="AU13" s="61"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="62"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="62"/>
-      <c r="BP13" s="58"/>
-      <c r="BQ13" s="59"/>
-      <c r="BR13" s="59"/>
-      <c r="BS13" s="59"/>
-      <c r="BT13" s="59"/>
-      <c r="BU13" s="59"/>
-      <c r="BV13" s="59"/>
-      <c r="BW13" s="62"/>
-      <c r="BX13" s="58"/>
-      <c r="BY13" s="59"/>
-      <c r="BZ13" s="59"/>
-      <c r="CA13" s="59"/>
-      <c r="CB13" s="59"/>
-      <c r="CC13" s="59"/>
-      <c r="CD13" s="59"/>
-      <c r="CE13" s="62"/>
-      <c r="CF13" s="86"/>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A13" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="14"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="15"/>
+      <c r="BS13" s="15"/>
+      <c r="BT13" s="15"/>
+      <c r="BU13" s="15"/>
+      <c r="BV13" s="15"/>
+      <c r="BW13" s="16"/>
+      <c r="BX13" s="14"/>
+      <c r="BY13" s="15"/>
+      <c r="BZ13" s="15"/>
+      <c r="CA13" s="15"/>
+      <c r="CB13" s="15"/>
+      <c r="CC13" s="15"/>
+      <c r="CD13" s="15"/>
+      <c r="CE13" s="16"/>
+      <c r="CF13" s="79"/>
     </row>
-    <row r="14" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="61"/>
-      <c r="AO14" s="61"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="63"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="61"/>
-      <c r="AU14" s="61"/>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="59"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="59"/>
-      <c r="BC14" s="59"/>
-      <c r="BD14" s="59"/>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="59"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="58"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="59"/>
-      <c r="BK14" s="59"/>
-      <c r="BL14" s="59"/>
-      <c r="BM14" s="59"/>
-      <c r="BN14" s="59"/>
-      <c r="BO14" s="62"/>
-      <c r="BP14" s="58"/>
-      <c r="BQ14" s="59"/>
-      <c r="BR14" s="59"/>
-      <c r="BS14" s="59"/>
-      <c r="BT14" s="59"/>
-      <c r="BU14" s="59"/>
-      <c r="BV14" s="59"/>
-      <c r="BW14" s="62"/>
-      <c r="BX14" s="58"/>
-      <c r="BY14" s="59"/>
-      <c r="BZ14" s="59"/>
-      <c r="CA14" s="59"/>
-      <c r="CB14" s="59"/>
-      <c r="CC14" s="59"/>
-      <c r="CD14" s="59"/>
-      <c r="CE14" s="62"/>
-      <c r="CF14" s="86"/>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A14" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC14" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD14" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE14" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="14"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="15"/>
+      <c r="BS14" s="15"/>
+      <c r="BT14" s="15"/>
+      <c r="BU14" s="15"/>
+      <c r="BV14" s="15"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="14"/>
+      <c r="BY14" s="15"/>
+      <c r="BZ14" s="15"/>
+      <c r="CA14" s="15"/>
+      <c r="CB14" s="15"/>
+      <c r="CC14" s="15"/>
+      <c r="CD14" s="15"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="79"/>
     </row>
-    <row r="15" spans="1:84" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="66"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="61"/>
-      <c r="AK15" s="61"/>
-      <c r="AL15" s="61"/>
-      <c r="AM15" s="61"/>
-      <c r="AN15" s="61"/>
-      <c r="AO15" s="61"/>
-      <c r="AP15" s="61"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="61"/>
-      <c r="AT15" s="61"/>
-      <c r="AU15" s="61"/>
-      <c r="AV15" s="61"/>
-      <c r="AW15" s="61"/>
-      <c r="AX15" s="61"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="61"/>
-      <c r="BA15" s="61"/>
-      <c r="BB15" s="61"/>
-      <c r="BC15" s="61"/>
-      <c r="BD15" s="61"/>
-      <c r="BE15" s="61"/>
-      <c r="BF15" s="61"/>
-      <c r="BG15" s="63"/>
-      <c r="BH15" s="61"/>
-      <c r="BI15" s="61"/>
-      <c r="BJ15" s="61"/>
-      <c r="BK15" s="61"/>
-      <c r="BL15" s="61"/>
-      <c r="BM15" s="61"/>
-      <c r="BN15" s="61"/>
-      <c r="BO15" s="63"/>
-      <c r="BP15" s="61"/>
-      <c r="BQ15" s="61"/>
-      <c r="BR15" s="61"/>
-      <c r="BS15" s="61"/>
-      <c r="BT15" s="61"/>
-      <c r="BU15" s="61"/>
-      <c r="BV15" s="61"/>
-      <c r="BW15" s="63"/>
-      <c r="BX15" s="61"/>
-      <c r="BY15" s="61"/>
-      <c r="BZ15" s="61"/>
-      <c r="CA15" s="61"/>
-      <c r="CB15" s="61"/>
-      <c r="CC15" s="61"/>
-      <c r="CD15" s="61"/>
-      <c r="CE15" s="63"/>
-      <c r="CF15" s="86"/>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A15" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="15"/>
+      <c r="BO15" s="16"/>
+      <c r="BP15" s="14"/>
+      <c r="BQ15" s="15"/>
+      <c r="BR15" s="15"/>
+      <c r="BS15" s="15"/>
+      <c r="BT15" s="15"/>
+      <c r="BU15" s="15"/>
+      <c r="BV15" s="15"/>
+      <c r="BW15" s="16"/>
+      <c r="BX15" s="14"/>
+      <c r="BY15" s="15"/>
+      <c r="BZ15" s="15"/>
+      <c r="CA15" s="15"/>
+      <c r="CB15" s="15"/>
+      <c r="CC15" s="15"/>
+      <c r="CD15" s="15"/>
+      <c r="CE15" s="16"/>
+      <c r="CF15" s="79"/>
     </row>
-    <row r="16" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="65"/>
-      <c r="BE16" s="65"/>
-      <c r="BF16" s="65"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
-      <c r="BJ16" s="65"/>
-      <c r="BK16" s="65"/>
-      <c r="BL16" s="65"/>
-      <c r="BM16" s="65"/>
-      <c r="BN16" s="65"/>
-      <c r="BO16" s="68"/>
-      <c r="BP16" s="65"/>
-      <c r="BQ16" s="65"/>
-      <c r="BR16" s="65"/>
-      <c r="BS16" s="65"/>
-      <c r="BT16" s="65"/>
-      <c r="BU16" s="65"/>
-      <c r="BV16" s="65"/>
-      <c r="BW16" s="68"/>
-      <c r="BX16" s="65"/>
-      <c r="BY16" s="65"/>
-      <c r="BZ16" s="65"/>
-      <c r="CA16" s="65"/>
-      <c r="CB16" s="65"/>
-      <c r="CC16" s="65"/>
-      <c r="CD16" s="65"/>
-      <c r="CE16" s="68"/>
-      <c r="CF16" s="86"/>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A16" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="45"/>
+      <c r="BA16" s="45"/>
+      <c r="BB16" s="45"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="15"/>
+      <c r="BO16" s="16"/>
+      <c r="BP16" s="14"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="15"/>
+      <c r="BS16" s="15"/>
+      <c r="BT16" s="15"/>
+      <c r="BU16" s="15"/>
+      <c r="BV16" s="15"/>
+      <c r="BW16" s="16"/>
+      <c r="BX16" s="14"/>
+      <c r="BY16" s="15"/>
+      <c r="BZ16" s="15"/>
+      <c r="CA16" s="15"/>
+      <c r="CB16" s="15"/>
+      <c r="CC16" s="15"/>
+      <c r="CD16" s="15"/>
+      <c r="CE16" s="16"/>
+      <c r="CF16" s="79"/>
     </row>
-    <row r="17" spans="1:84" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="68"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="68"/>
-      <c r="BP17" s="65"/>
-      <c r="BQ17" s="65"/>
-      <c r="BR17" s="65"/>
-      <c r="BS17" s="65"/>
-      <c r="BT17" s="65"/>
-      <c r="BU17" s="65"/>
-      <c r="BV17" s="65"/>
-      <c r="BW17" s="68"/>
-      <c r="BX17" s="65"/>
-      <c r="BY17" s="65"/>
-      <c r="BZ17" s="65"/>
-      <c r="CA17" s="65"/>
-      <c r="CB17" s="65"/>
-      <c r="CC17" s="65"/>
-      <c r="CD17" s="65"/>
-      <c r="CE17" s="68"/>
-      <c r="CF17" s="86"/>
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A17" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="15"/>
+      <c r="BO17" s="16"/>
+      <c r="BP17" s="14"/>
+      <c r="BQ17" s="15"/>
+      <c r="BR17" s="15"/>
+      <c r="BS17" s="15"/>
+      <c r="BT17" s="15"/>
+      <c r="BU17" s="15"/>
+      <c r="BV17" s="15"/>
+      <c r="BW17" s="16"/>
+      <c r="BX17" s="14"/>
+      <c r="BY17" s="15"/>
+      <c r="BZ17" s="15"/>
+      <c r="CA17" s="15"/>
+      <c r="CB17" s="15"/>
+      <c r="CC17" s="15"/>
+      <c r="CD17" s="15"/>
+      <c r="CE17" s="16"/>
+      <c r="CF17" s="79"/>
     </row>
-    <row r="18" spans="1:84" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="59"/>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="59"/>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="59"/>
-      <c r="BG18" s="62"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="59"/>
-      <c r="BJ18" s="59"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="59"/>
-      <c r="BM18" s="59"/>
-      <c r="BN18" s="59"/>
-      <c r="BO18" s="62"/>
-      <c r="BP18" s="58"/>
-      <c r="BQ18" s="59"/>
-      <c r="BR18" s="59"/>
-      <c r="BS18" s="59"/>
-      <c r="BT18" s="59"/>
-      <c r="BU18" s="59"/>
-      <c r="BV18" s="59"/>
-      <c r="BW18" s="62"/>
-      <c r="BX18" s="58"/>
-      <c r="BY18" s="59"/>
-      <c r="BZ18" s="59"/>
-      <c r="CA18" s="59"/>
-      <c r="CB18" s="59"/>
-      <c r="CC18" s="59"/>
-      <c r="CD18" s="59"/>
-      <c r="CE18" s="62"/>
-      <c r="CF18" s="86"/>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A18" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK18" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL18" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM18" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN18" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="15"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="14"/>
+      <c r="BQ18" s="15"/>
+      <c r="BR18" s="15"/>
+      <c r="BS18" s="15"/>
+      <c r="BT18" s="15"/>
+      <c r="BU18" s="15"/>
+      <c r="BV18" s="15"/>
+      <c r="BW18" s="16"/>
+      <c r="BX18" s="14"/>
+      <c r="BY18" s="15"/>
+      <c r="BZ18" s="15"/>
+      <c r="CA18" s="15"/>
+      <c r="CB18" s="15"/>
+      <c r="CC18" s="15"/>
+      <c r="CD18" s="15"/>
+      <c r="CE18" s="16"/>
+      <c r="CF18" s="79"/>
     </row>
-    <row r="19" spans="1:84" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="58"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="61"/>
-      <c r="AU19" s="61"/>
-      <c r="AV19" s="59"/>
-      <c r="AW19" s="59"/>
-      <c r="AX19" s="59"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="58"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="59"/>
-      <c r="BC19" s="59"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="59"/>
-      <c r="BF19" s="59"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="59"/>
-      <c r="BJ19" s="59"/>
-      <c r="BK19" s="59"/>
-      <c r="BL19" s="59"/>
-      <c r="BM19" s="59"/>
-      <c r="BN19" s="59"/>
-      <c r="BO19" s="62"/>
-      <c r="BP19" s="58"/>
-      <c r="BQ19" s="59"/>
-      <c r="BR19" s="59"/>
-      <c r="BS19" s="59"/>
-      <c r="BT19" s="59"/>
-      <c r="BU19" s="59"/>
-      <c r="BV19" s="59"/>
-      <c r="BW19" s="62"/>
-      <c r="BX19" s="58"/>
-      <c r="BY19" s="59"/>
-      <c r="BZ19" s="59"/>
-      <c r="CA19" s="59"/>
-      <c r="CB19" s="59"/>
-      <c r="CC19" s="59"/>
-      <c r="CD19" s="59"/>
-      <c r="CE19" s="62"/>
-      <c r="CF19" s="86"/>
+    <row r="19" spans="1:84" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="60"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="60"/>
+      <c r="AT19" s="60"/>
+      <c r="AU19" s="60"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="57"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="58"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="58"/>
+      <c r="BG19" s="61"/>
+      <c r="BH19" s="57"/>
+      <c r="BI19" s="58"/>
+      <c r="BJ19" s="58"/>
+      <c r="BK19" s="58"/>
+      <c r="BL19" s="58"/>
+      <c r="BM19" s="58"/>
+      <c r="BN19" s="58"/>
+      <c r="BO19" s="61"/>
+      <c r="BP19" s="57"/>
+      <c r="BQ19" s="58"/>
+      <c r="BR19" s="58"/>
+      <c r="BS19" s="58"/>
+      <c r="BT19" s="58"/>
+      <c r="BU19" s="58"/>
+      <c r="BV19" s="58"/>
+      <c r="BW19" s="61"/>
+      <c r="BX19" s="57"/>
+      <c r="BY19" s="58"/>
+      <c r="BZ19" s="58"/>
+      <c r="CA19" s="58"/>
+      <c r="CB19" s="58"/>
+      <c r="CC19" s="58"/>
+      <c r="CD19" s="58"/>
+      <c r="CE19" s="61"/>
+      <c r="CF19" s="79"/>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC20" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD20" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE20" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="46"/>
-      <c r="AR20" s="46"/>
-      <c r="AS20" s="46"/>
-      <c r="AT20" s="46"/>
-      <c r="AU20" s="46"/>
-      <c r="AV20" s="15"/>
-      <c r="AW20" s="15"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="16"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="15"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="15"/>
-      <c r="BD20" s="15"/>
-      <c r="BE20" s="15"/>
-      <c r="BF20" s="15"/>
-      <c r="BG20" s="16"/>
-      <c r="BH20" s="14"/>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="15"/>
-      <c r="BK20" s="15"/>
-      <c r="BL20" s="15"/>
-      <c r="BM20" s="15"/>
-      <c r="BN20" s="15"/>
-      <c r="BO20" s="16"/>
-      <c r="BP20" s="14"/>
-      <c r="BQ20" s="15"/>
-      <c r="BR20" s="15"/>
-      <c r="BS20" s="15"/>
-      <c r="BT20" s="15"/>
-      <c r="BU20" s="15"/>
-      <c r="BV20" s="15"/>
-      <c r="BW20" s="16"/>
-      <c r="BX20" s="14"/>
-      <c r="BY20" s="15"/>
-      <c r="BZ20" s="15"/>
-      <c r="CA20" s="15"/>
-      <c r="CB20" s="15"/>
-      <c r="CC20" s="15"/>
-      <c r="CD20" s="15"/>
-      <c r="CE20" s="16"/>
-      <c r="CF20" s="86"/>
+    <row r="20" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="60"/>
+      <c r="AP20" s="60"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="60"/>
+      <c r="AT20" s="60"/>
+      <c r="AU20" s="60"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="57"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="58"/>
+      <c r="BC20" s="58"/>
+      <c r="BD20" s="58"/>
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="58"/>
+      <c r="BG20" s="61"/>
+      <c r="BH20" s="57"/>
+      <c r="BI20" s="58"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="61"/>
+      <c r="BP20" s="57"/>
+      <c r="BQ20" s="58"/>
+      <c r="BR20" s="58"/>
+      <c r="BS20" s="58"/>
+      <c r="BT20" s="58"/>
+      <c r="BU20" s="58"/>
+      <c r="BV20" s="58"/>
+      <c r="BW20" s="61"/>
+      <c r="BX20" s="57"/>
+      <c r="BY20" s="58"/>
+      <c r="BZ20" s="58"/>
+      <c r="CA20" s="58"/>
+      <c r="CB20" s="58"/>
+      <c r="CC20" s="58"/>
+      <c r="CD20" s="58"/>
+      <c r="CE20" s="61"/>
+      <c r="CF20" s="79"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
-        <v>45</v>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A21" s="100" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="13"/>
@@ -3818,46 +3881,46 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="94"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="87"/>
       <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="14"/>
-      <c r="AK21" s="49"/>
-      <c r="AL21" s="49"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="50"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="16"/>
       <c r="AR21" s="14"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
       <c r="AV21" s="15"/>
       <c r="AW21" s="15"/>
       <c r="AX21" s="15"/>
       <c r="AY21" s="16"/>
-      <c r="AZ21" s="51"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="51"/>
-      <c r="BC21" s="51"/>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="14"/>
-      <c r="BF21" s="14"/>
-      <c r="BG21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="16"/>
       <c r="BH21" s="14"/>
       <c r="BI21" s="15"/>
       <c r="BJ21" s="15"/>
@@ -3870,10 +3933,10 @@
       <c r="BQ21" s="15"/>
       <c r="BR21" s="15"/>
       <c r="BS21" s="15"/>
-      <c r="BT21" s="15"/>
-      <c r="BU21" s="15"/>
-      <c r="BV21" s="15"/>
-      <c r="BW21" s="16"/>
+      <c r="BT21" s="36"/>
+      <c r="BU21" s="36"/>
+      <c r="BV21" s="36"/>
+      <c r="BW21" s="37"/>
       <c r="BX21" s="14"/>
       <c r="BY21" s="15"/>
       <c r="BZ21" s="15"/>
@@ -3882,15 +3945,13 @@
       <c r="CC21" s="15"/>
       <c r="CD21" s="15"/>
       <c r="CE21" s="16"/>
-      <c r="CF21" s="86"/>
+      <c r="CF21" s="79"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>17</v>
-      </c>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A22" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="23"/>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
@@ -3908,33 +3969,23 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="16"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC22" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD22" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE22" s="54" t="s">
-        <v>35</v>
-      </c>
+      <c r="T22" s="85"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="16"/>
-      <c r="AJ22" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ22" s="14"/>
       <c r="AK22" s="15"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
@@ -3970,10 +4021,10 @@
       <c r="BQ22" s="15"/>
       <c r="BR22" s="15"/>
       <c r="BS22" s="15"/>
-      <c r="BT22" s="15"/>
-      <c r="BU22" s="15"/>
-      <c r="BV22" s="15"/>
-      <c r="BW22" s="16"/>
+      <c r="BT22" s="36"/>
+      <c r="BU22" s="36"/>
+      <c r="BV22" s="36"/>
+      <c r="BW22" s="37"/>
       <c r="BX22" s="14"/>
       <c r="BY22" s="15"/>
       <c r="BZ22" s="15"/>
@@ -3982,15 +4033,13 @@
       <c r="CC22" s="15"/>
       <c r="CD22" s="15"/>
       <c r="CE22" s="16"/>
-      <c r="CF22" s="86"/>
+      <c r="CF22" s="79"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>17</v>
-      </c>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A23" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="23"/>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
@@ -4008,29 +4057,25 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="94"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="87"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="15"/>
-      <c r="AD23" s="31"/>
+      <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="14"/>
-      <c r="AK23" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL23" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
       <c r="AO23" s="15"/>
@@ -4052,16 +4097,16 @@
       <c r="BE23" s="15"/>
       <c r="BF23" s="15"/>
       <c r="BG23" s="16"/>
-      <c r="BH23" s="14"/>
-      <c r="BI23" s="15"/>
-      <c r="BJ23" s="15"/>
-      <c r="BK23" s="15"/>
+      <c r="BH23" s="46"/>
+      <c r="BI23" s="46"/>
+      <c r="BJ23" s="46"/>
+      <c r="BK23" s="46"/>
       <c r="BL23" s="15"/>
       <c r="BM23" s="15"/>
       <c r="BN23" s="15"/>
       <c r="BO23" s="16"/>
-      <c r="BP23" s="14"/>
-      <c r="BQ23" s="15"/>
+      <c r="BP23" s="46"/>
+      <c r="BQ23" s="46"/>
       <c r="BR23" s="15"/>
       <c r="BS23" s="15"/>
       <c r="BT23" s="15"/>
@@ -4076,15 +4121,13 @@
       <c r="CC23" s="15"/>
       <c r="CD23" s="15"/>
       <c r="CE23" s="16"/>
-      <c r="CF23" s="86"/>
+      <c r="CF23" s="79"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A24" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>17</v>
-      </c>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A24" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="23"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -4102,60 +4145,46 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="94"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="87"/>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="31"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="15"/>
       <c r="AI24" s="16"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="47"/>
-      <c r="AL24" s="47"/>
-      <c r="AM24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="47"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
       <c r="AV24" s="15"/>
       <c r="AW24" s="15"/>
       <c r="AX24" s="15"/>
       <c r="AY24" s="16"/>
-      <c r="AZ24" s="47"/>
-      <c r="BA24" s="47"/>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="15"/>
-      <c r="BD24" s="15"/>
-      <c r="BE24" s="15"/>
-      <c r="BF24" s="15"/>
-      <c r="BG24" s="16"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
+      <c r="BD24" s="50"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
       <c r="BH24" s="14"/>
       <c r="BI24" s="15"/>
       <c r="BJ24" s="15"/>
@@ -4180,11 +4209,11 @@
       <c r="CC24" s="15"/>
       <c r="CD24" s="15"/>
       <c r="CE24" s="16"/>
-      <c r="CF24" s="86"/>
+      <c r="CF24" s="79"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
-        <v>32</v>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A25" s="100" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="13"/>
@@ -4204,14 +4233,14 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="94"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="87"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
@@ -4236,29 +4265,24 @@
       <c r="AW25" s="15"/>
       <c r="AX25" s="15"/>
       <c r="AY25" s="16"/>
-      <c r="AZ25" s="16"/>
-      <c r="BA25" s="16"/>
-      <c r="BB25" s="16"/>
-      <c r="BC25" s="16"/>
-      <c r="BD25" s="16"/>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="44"/>
-      <c r="BJ25" s="48"/>
-      <c r="BK25" s="48"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="45"/>
+      <c r="BD25" s="45"/>
+      <c r="BE25" s="45"/>
+      <c r="BF25" s="45"/>
+      <c r="BG25" s="45"/>
+      <c r="BH25" s="43"/>
+      <c r="BI25" s="45"/>
+      <c r="BJ25" s="43"/>
       <c r="BL25" s="15"/>
       <c r="BM25" s="15"/>
       <c r="BN25" s="15"/>
       <c r="BO25" s="16"/>
-      <c r="BP25" s="48"/>
-      <c r="BQ25" s="48"/>
-      <c r="BR25" s="48"/>
-      <c r="BS25" s="48"/>
-      <c r="BT25" s="48"/>
-      <c r="BU25" s="48"/>
-      <c r="BV25" s="48"/>
+      <c r="BT25" s="15"/>
+      <c r="BU25" s="15"/>
+      <c r="BV25" s="15"/>
       <c r="BW25" s="16"/>
       <c r="BX25" s="14"/>
       <c r="BY25" s="15"/>
@@ -4268,392 +4292,360 @@
       <c r="CC25" s="15"/>
       <c r="CD25" s="15"/>
       <c r="CE25" s="16"/>
-      <c r="CF25" s="86"/>
+      <c r="CF25" s="79"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A26" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="16"/>
-      <c r="AR26" s="14"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="15"/>
-      <c r="AW26" s="15"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="16"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="15"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="46"/>
-      <c r="BD26" s="46"/>
-      <c r="BE26" s="46"/>
-      <c r="BF26" s="46"/>
-      <c r="BG26" s="46"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="46"/>
-      <c r="BJ26" s="43"/>
-      <c r="BL26" s="15"/>
-      <c r="BM26" s="15"/>
-      <c r="BN26" s="15"/>
-      <c r="BO26" s="16"/>
-      <c r="BT26" s="15"/>
-      <c r="BU26" s="15"/>
-      <c r="BV26" s="15"/>
-      <c r="BW26" s="16"/>
-      <c r="BX26" s="14"/>
-      <c r="BY26" s="15"/>
-      <c r="BZ26" s="15"/>
-      <c r="CA26" s="15"/>
-      <c r="CB26" s="15"/>
-      <c r="CC26" s="15"/>
-      <c r="CD26" s="15"/>
-      <c r="CE26" s="16"/>
-      <c r="CF26" s="86"/>
+    <row r="26" spans="1:84" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="65"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="60"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="60"/>
+      <c r="AS26" s="60"/>
+      <c r="AT26" s="60"/>
+      <c r="AU26" s="60"/>
+      <c r="AV26" s="60"/>
+      <c r="AW26" s="60"/>
+      <c r="AX26" s="60"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="60"/>
+      <c r="BA26" s="60"/>
+      <c r="BB26" s="60"/>
+      <c r="BC26" s="60"/>
+      <c r="BD26" s="60"/>
+      <c r="BE26" s="60"/>
+      <c r="BF26" s="60"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="60"/>
+      <c r="BI26" s="60"/>
+      <c r="BJ26" s="60"/>
+      <c r="BK26" s="60"/>
+      <c r="BL26" s="60"/>
+      <c r="BM26" s="60"/>
+      <c r="BN26" s="60"/>
+      <c r="BO26" s="62"/>
+      <c r="BP26" s="60"/>
+      <c r="BQ26" s="60"/>
+      <c r="BR26" s="60"/>
+      <c r="BS26" s="60"/>
+      <c r="BT26" s="60"/>
+      <c r="BU26" s="60"/>
+      <c r="BV26" s="60"/>
+      <c r="BW26" s="62"/>
+      <c r="BX26" s="60"/>
+      <c r="BY26" s="60"/>
+      <c r="BZ26" s="60"/>
+      <c r="CA26" s="60"/>
+      <c r="CB26" s="60"/>
+      <c r="CC26" s="60"/>
+      <c r="CD26" s="60"/>
+      <c r="CE26" s="62"/>
+      <c r="CF26" s="79"/>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A27" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC27" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD27" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE27" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU27" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV27" s="15"/>
-      <c r="AW27" s="15"/>
-      <c r="AX27" s="15"/>
-      <c r="AY27" s="16"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="15"/>
-      <c r="BC27" s="15"/>
-      <c r="BD27" s="15"/>
-      <c r="BE27" s="15"/>
-      <c r="BF27" s="15"/>
-      <c r="BG27" s="16"/>
-      <c r="BH27" s="14"/>
-      <c r="BI27" s="15"/>
-      <c r="BJ27" s="15"/>
-      <c r="BK27" s="15"/>
-      <c r="BL27" s="15"/>
-      <c r="BM27" s="15"/>
-      <c r="BN27" s="15"/>
-      <c r="BO27" s="16"/>
-      <c r="BP27" s="14"/>
-      <c r="BQ27" s="15"/>
-      <c r="BR27" s="15"/>
-      <c r="BS27" s="15"/>
-      <c r="BT27" s="15"/>
-      <c r="BU27" s="15"/>
-      <c r="BV27" s="15"/>
-      <c r="BW27" s="16"/>
-      <c r="BX27" s="14"/>
-      <c r="BY27" s="15"/>
-      <c r="BZ27" s="15"/>
-      <c r="CA27" s="15"/>
-      <c r="CB27" s="15"/>
-      <c r="CC27" s="15"/>
-      <c r="CD27" s="15"/>
-      <c r="CE27" s="16"/>
-      <c r="CF27" s="86"/>
+    <row r="27" spans="1:84" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="67"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="67"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="64"/>
+      <c r="BD27" s="64"/>
+      <c r="BE27" s="64"/>
+      <c r="BF27" s="64"/>
+      <c r="BG27" s="67"/>
+      <c r="BH27" s="64"/>
+      <c r="BI27" s="64"/>
+      <c r="BJ27" s="64"/>
+      <c r="BK27" s="64"/>
+      <c r="BL27" s="64"/>
+      <c r="BM27" s="64"/>
+      <c r="BN27" s="64"/>
+      <c r="BO27" s="67"/>
+      <c r="BP27" s="64"/>
+      <c r="BQ27" s="64"/>
+      <c r="BR27" s="64"/>
+      <c r="BS27" s="64"/>
+      <c r="BT27" s="64"/>
+      <c r="BU27" s="64"/>
+      <c r="BV27" s="64"/>
+      <c r="BW27" s="67"/>
+      <c r="BX27" s="64"/>
+      <c r="BY27" s="64"/>
+      <c r="BZ27" s="64"/>
+      <c r="CA27" s="64"/>
+      <c r="CB27" s="64"/>
+      <c r="CC27" s="64"/>
+      <c r="CD27" s="64"/>
+      <c r="CE27" s="67"/>
+      <c r="CF27" s="79"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="15"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="15"/>
-      <c r="AP28" s="15"/>
-      <c r="AQ28" s="16"/>
-      <c r="AR28" s="14"/>
-      <c r="AS28" s="15"/>
-      <c r="AT28" s="15"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="15"/>
-      <c r="AW28" s="15"/>
-      <c r="AX28" s="15"/>
-      <c r="AY28" s="16"/>
-      <c r="AZ28" s="14"/>
-      <c r="BA28" s="15"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="15"/>
-      <c r="BD28" s="15"/>
-      <c r="BE28" s="15"/>
-      <c r="BF28" s="15"/>
-      <c r="BG28" s="16"/>
-      <c r="BH28" s="47"/>
-      <c r="BI28" s="47"/>
-      <c r="BJ28" s="47"/>
-      <c r="BK28" s="47"/>
-      <c r="BL28" s="15"/>
-      <c r="BM28" s="15"/>
-      <c r="BN28" s="15"/>
-      <c r="BO28" s="16"/>
-      <c r="BP28" s="47"/>
-      <c r="BQ28" s="47"/>
-      <c r="BR28" s="15"/>
-      <c r="BS28" s="15"/>
-      <c r="BT28" s="15"/>
-      <c r="BU28" s="15"/>
-      <c r="BV28" s="15"/>
-      <c r="BW28" s="16"/>
-      <c r="BX28" s="14"/>
-      <c r="BY28" s="15"/>
-      <c r="BZ28" s="15"/>
-      <c r="CA28" s="15"/>
-      <c r="CB28" s="15"/>
-      <c r="CC28" s="15"/>
-      <c r="CD28" s="15"/>
-      <c r="CE28" s="16"/>
-      <c r="CF28" s="86"/>
+    <row r="28" spans="1:84" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="67"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="67"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="67"/>
+      <c r="BH28" s="64"/>
+      <c r="BI28" s="64"/>
+      <c r="BJ28" s="64"/>
+      <c r="BK28" s="64"/>
+      <c r="BL28" s="64"/>
+      <c r="BM28" s="64"/>
+      <c r="BN28" s="64"/>
+      <c r="BO28" s="67"/>
+      <c r="BP28" s="64"/>
+      <c r="BQ28" s="64"/>
+      <c r="BR28" s="64"/>
+      <c r="BS28" s="64"/>
+      <c r="BT28" s="64"/>
+      <c r="BU28" s="64"/>
+      <c r="BV28" s="64"/>
+      <c r="BW28" s="67"/>
+      <c r="BX28" s="64"/>
+      <c r="BY28" s="64"/>
+      <c r="BZ28" s="64"/>
+      <c r="CA28" s="64"/>
+      <c r="CB28" s="64"/>
+      <c r="CC28" s="64"/>
+      <c r="CD28" s="64"/>
+      <c r="CE28" s="67"/>
+      <c r="CF28" s="79"/>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="15"/>
-      <c r="AO29" s="15"/>
-      <c r="AP29" s="15"/>
-      <c r="AQ29" s="16"/>
-      <c r="AR29" s="14"/>
-      <c r="AS29" s="15"/>
-      <c r="AT29" s="15"/>
-      <c r="AU29" s="15"/>
-      <c r="AV29" s="15"/>
-      <c r="AW29" s="15"/>
-      <c r="AX29" s="15"/>
-      <c r="AY29" s="16"/>
-      <c r="AZ29" s="46"/>
-      <c r="BA29" s="46"/>
-      <c r="BB29" s="46"/>
-      <c r="BC29" s="15"/>
-      <c r="BD29" s="15"/>
-      <c r="BE29" s="15"/>
-      <c r="BF29" s="15"/>
-      <c r="BG29" s="16"/>
-      <c r="BH29" s="14"/>
-      <c r="BI29" s="15"/>
-      <c r="BJ29" s="15"/>
-      <c r="BK29" s="15"/>
-      <c r="BL29" s="15"/>
-      <c r="BM29" s="15"/>
-      <c r="BN29" s="15"/>
-      <c r="BO29" s="16"/>
-      <c r="BP29" s="14"/>
-      <c r="BQ29" s="15"/>
-      <c r="BR29" s="15"/>
-      <c r="BS29" s="15"/>
-      <c r="BT29" s="15"/>
-      <c r="BU29" s="15"/>
-      <c r="BV29" s="15"/>
-      <c r="BW29" s="16"/>
-      <c r="BX29" s="14"/>
-      <c r="BY29" s="15"/>
-      <c r="BZ29" s="15"/>
-      <c r="CA29" s="15"/>
-      <c r="CB29" s="15"/>
-      <c r="CC29" s="15"/>
-      <c r="CD29" s="15"/>
-      <c r="CE29" s="16"/>
-      <c r="CF29" s="86"/>
+    <row r="29" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="58"/>
+      <c r="AG29" s="58"/>
+      <c r="AH29" s="58"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="60"/>
+      <c r="AL29" s="60"/>
+      <c r="AM29" s="60"/>
+      <c r="AN29" s="60"/>
+      <c r="AO29" s="60"/>
+      <c r="AP29" s="60"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="60"/>
+      <c r="AT29" s="60"/>
+      <c r="AU29" s="60"/>
+      <c r="AV29" s="58"/>
+      <c r="AW29" s="58"/>
+      <c r="AX29" s="58"/>
+      <c r="AY29" s="61"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="58"/>
+      <c r="BB29" s="58"/>
+      <c r="BC29" s="58"/>
+      <c r="BD29" s="58"/>
+      <c r="BE29" s="58"/>
+      <c r="BF29" s="58"/>
+      <c r="BG29" s="61"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="58"/>
+      <c r="BJ29" s="58"/>
+      <c r="BK29" s="58"/>
+      <c r="BL29" s="58"/>
+      <c r="BM29" s="58"/>
+      <c r="BN29" s="58"/>
+      <c r="BO29" s="61"/>
+      <c r="BP29" s="57"/>
+      <c r="BQ29" s="58"/>
+      <c r="BR29" s="58"/>
+      <c r="BS29" s="58"/>
+      <c r="BT29" s="58"/>
+      <c r="BU29" s="58"/>
+      <c r="BV29" s="58"/>
+      <c r="BW29" s="61"/>
+      <c r="BX29" s="57"/>
+      <c r="BY29" s="58"/>
+      <c r="BZ29" s="58"/>
+      <c r="CA29" s="58"/>
+      <c r="CB29" s="58"/>
+      <c r="CC29" s="58"/>
+      <c r="CD29" s="58"/>
+      <c r="CE29" s="61"/>
+      <c r="CF29" s="79"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A30" s="45" t="s">
-        <v>33</v>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A30" s="102" t="s">
+        <v>31</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="13"/>
@@ -4673,14 +4665,14 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="94"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="87"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
@@ -4705,29 +4697,29 @@
       <c r="AW30" s="15"/>
       <c r="AX30" s="15"/>
       <c r="AY30" s="16"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="15"/>
-      <c r="BB30" s="15"/>
-      <c r="BC30" s="31"/>
-      <c r="BD30" s="31"/>
-      <c r="BE30" s="31"/>
-      <c r="BF30" s="31"/>
-      <c r="BG30" s="31"/>
-      <c r="BH30" s="14"/>
-      <c r="BI30" s="15"/>
-      <c r="BJ30" s="15"/>
-      <c r="BK30" s="15"/>
+      <c r="AZ30" s="16"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="16"/>
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="16"/>
+      <c r="BE30" s="44"/>
+      <c r="BF30" s="44"/>
+      <c r="BG30" s="44"/>
+      <c r="BH30" s="44"/>
+      <c r="BI30" s="44"/>
+      <c r="BJ30" s="47"/>
+      <c r="BK30" s="47"/>
       <c r="BL30" s="15"/>
       <c r="BM30" s="15"/>
       <c r="BN30" s="15"/>
       <c r="BO30" s="16"/>
-      <c r="BP30" s="14"/>
-      <c r="BQ30" s="15"/>
-      <c r="BR30" s="15"/>
-      <c r="BS30" s="15"/>
-      <c r="BT30" s="15"/>
-      <c r="BU30" s="15"/>
-      <c r="BV30" s="15"/>
+      <c r="BP30" s="47"/>
+      <c r="BQ30" s="47"/>
+      <c r="BR30" s="47"/>
+      <c r="BS30" s="47"/>
+      <c r="BT30" s="47"/>
+      <c r="BU30" s="47"/>
+      <c r="BV30" s="47"/>
       <c r="BW30" s="16"/>
       <c r="BX30" s="14"/>
       <c r="BY30" s="15"/>
@@ -4737,273 +4729,271 @@
       <c r="CC30" s="15"/>
       <c r="CD30" s="15"/>
       <c r="CE30" s="16"/>
-      <c r="CF30" s="86"/>
+      <c r="CF30" s="79"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A31" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="15"/>
-      <c r="AO31" s="15"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="16"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="15"/>
-      <c r="AT31" s="15"/>
-      <c r="AU31" s="15"/>
-      <c r="AV31" s="15"/>
-      <c r="AW31" s="15"/>
-      <c r="AX31" s="15"/>
-      <c r="AY31" s="16"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="15"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="15"/>
-      <c r="BD31" s="15"/>
-      <c r="BE31" s="15"/>
-      <c r="BF31" s="15"/>
-      <c r="BG31" s="16"/>
-      <c r="BH31" s="14"/>
-      <c r="BI31" s="15"/>
-      <c r="BJ31" s="15"/>
-      <c r="BK31" s="15"/>
-      <c r="BL31" s="15"/>
-      <c r="BM31" s="15"/>
-      <c r="BN31" s="15"/>
-      <c r="BO31" s="16"/>
-      <c r="BP31" s="14"/>
-      <c r="BQ31" s="15"/>
-      <c r="BR31" s="15"/>
-      <c r="BS31" s="15"/>
-      <c r="BT31" s="36"/>
-      <c r="BU31" s="36"/>
-      <c r="BV31" s="36"/>
-      <c r="BW31" s="37"/>
-      <c r="BX31" s="14"/>
-      <c r="BY31" s="15"/>
-      <c r="BZ31" s="15"/>
-      <c r="CA31" s="15"/>
-      <c r="CB31" s="15"/>
-      <c r="CC31" s="15"/>
-      <c r="CD31" s="15"/>
-      <c r="CE31" s="16"/>
-      <c r="CF31" s="86"/>
+    <row r="31" spans="1:84" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="58"/>
+      <c r="AG31" s="58"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
+      <c r="AN31" s="60"/>
+      <c r="AO31" s="60"/>
+      <c r="AP31" s="60"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="60"/>
+      <c r="AT31" s="60"/>
+      <c r="AU31" s="60"/>
+      <c r="AV31" s="58"/>
+      <c r="AW31" s="58"/>
+      <c r="AX31" s="58"/>
+      <c r="AY31" s="61"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="58"/>
+      <c r="BB31" s="58"/>
+      <c r="BC31" s="58"/>
+      <c r="BD31" s="58"/>
+      <c r="BE31" s="58"/>
+      <c r="BF31" s="58"/>
+      <c r="BG31" s="61"/>
+      <c r="BH31" s="57"/>
+      <c r="BI31" s="58"/>
+      <c r="BJ31" s="58"/>
+      <c r="BK31" s="58"/>
+      <c r="BL31" s="58"/>
+      <c r="BM31" s="58"/>
+      <c r="BN31" s="58"/>
+      <c r="BO31" s="61"/>
+      <c r="BP31" s="57"/>
+      <c r="BQ31" s="58"/>
+      <c r="BR31" s="58"/>
+      <c r="BS31" s="58"/>
+      <c r="BT31" s="58"/>
+      <c r="BU31" s="58"/>
+      <c r="BV31" s="58"/>
+      <c r="BW31" s="61"/>
+      <c r="BX31" s="57"/>
+      <c r="BY31" s="58"/>
+      <c r="BZ31" s="58"/>
+      <c r="CA31" s="58"/>
+      <c r="CB31" s="58"/>
+      <c r="CC31" s="58"/>
+      <c r="CD31" s="58"/>
+      <c r="CE31" s="61"/>
+      <c r="CF31" s="79"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="15"/>
-      <c r="AL32" s="15"/>
-      <c r="AM32" s="15"/>
-      <c r="AN32" s="15"/>
-      <c r="AO32" s="15"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="16"/>
-      <c r="AR32" s="14"/>
-      <c r="AS32" s="15"/>
-      <c r="AT32" s="15"/>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="15"/>
-      <c r="AW32" s="15"/>
-      <c r="AX32" s="15"/>
-      <c r="AY32" s="16"/>
-      <c r="AZ32" s="14"/>
-      <c r="BA32" s="15"/>
-      <c r="BB32" s="15"/>
-      <c r="BC32" s="15"/>
-      <c r="BD32" s="15"/>
-      <c r="BE32" s="15"/>
-      <c r="BF32" s="15"/>
-      <c r="BG32" s="16"/>
-      <c r="BH32" s="14"/>
-      <c r="BI32" s="15"/>
-      <c r="BJ32" s="15"/>
-      <c r="BK32" s="15"/>
-      <c r="BL32" s="15"/>
-      <c r="BM32" s="15"/>
-      <c r="BN32" s="15"/>
-      <c r="BO32" s="16"/>
-      <c r="BP32" s="14"/>
-      <c r="BQ32" s="15"/>
-      <c r="BR32" s="15"/>
-      <c r="BS32" s="15"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="35"/>
+      <c r="AK32" s="36"/>
+      <c r="AL32" s="36"/>
+      <c r="AM32" s="36"/>
+      <c r="AN32" s="36"/>
+      <c r="AO32" s="36"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="35"/>
+      <c r="AS32" s="36"/>
+      <c r="AT32" s="36"/>
+      <c r="AU32" s="36"/>
+      <c r="AV32" s="36"/>
+      <c r="AW32" s="36"/>
+      <c r="AX32" s="36"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="35"/>
+      <c r="BA32" s="36"/>
+      <c r="BB32" s="36"/>
+      <c r="BC32" s="36"/>
+      <c r="BD32" s="36"/>
+      <c r="BE32" s="36"/>
+      <c r="BF32" s="36"/>
+      <c r="BG32" s="37"/>
+      <c r="BH32" s="35"/>
+      <c r="BI32" s="36"/>
+      <c r="BJ32" s="36"/>
+      <c r="BK32" s="36"/>
+      <c r="BL32" s="36"/>
+      <c r="BM32" s="36"/>
+      <c r="BN32" s="36"/>
+      <c r="BO32" s="37"/>
+      <c r="BP32" s="35"/>
+      <c r="BQ32" s="36"/>
+      <c r="BR32" s="36"/>
+      <c r="BS32" s="36"/>
       <c r="BT32" s="36"/>
       <c r="BU32" s="36"/>
       <c r="BV32" s="36"/>
       <c r="BW32" s="37"/>
-      <c r="BX32" s="14"/>
-      <c r="BY32" s="15"/>
-      <c r="BZ32" s="15"/>
-      <c r="CA32" s="15"/>
-      <c r="CB32" s="15"/>
-      <c r="CC32" s="15"/>
-      <c r="CD32" s="15"/>
-      <c r="CE32" s="16"/>
-      <c r="CF32" s="86"/>
+      <c r="BX32" s="35"/>
+      <c r="BY32" s="36"/>
+      <c r="BZ32" s="36"/>
+      <c r="CA32" s="36"/>
+      <c r="CB32" s="36"/>
+      <c r="CC32" s="36"/>
+      <c r="CD32" s="36"/>
+      <c r="CE32" s="37"/>
+      <c r="CF32" s="79"/>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
-        <v>16</v>
-      </c>
+    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B33" s="23"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="37"/>
-      <c r="AR33" s="35"/>
-      <c r="AS33" s="36"/>
-      <c r="AT33" s="36"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="36"/>
-      <c r="AW33" s="36"/>
-      <c r="AX33" s="36"/>
-      <c r="AY33" s="37"/>
-      <c r="AZ33" s="35"/>
-      <c r="BA33" s="36"/>
-      <c r="BB33" s="36"/>
-      <c r="BC33" s="36"/>
-      <c r="BD33" s="36"/>
-      <c r="BE33" s="36"/>
-      <c r="BF33" s="36"/>
-      <c r="BG33" s="37"/>
-      <c r="BH33" s="35"/>
-      <c r="BI33" s="36"/>
-      <c r="BJ33" s="36"/>
-      <c r="BK33" s="36"/>
-      <c r="BL33" s="36"/>
-      <c r="BM33" s="36"/>
-      <c r="BN33" s="36"/>
-      <c r="BO33" s="37"/>
-      <c r="BP33" s="35"/>
-      <c r="BQ33" s="36"/>
-      <c r="BR33" s="36"/>
-      <c r="BS33" s="36"/>
-      <c r="BT33" s="36"/>
-      <c r="BU33" s="36"/>
-      <c r="BV33" s="36"/>
-      <c r="BW33" s="37"/>
-      <c r="BX33" s="35"/>
-      <c r="BY33" s="36"/>
-      <c r="BZ33" s="36"/>
-      <c r="CA33" s="36"/>
-      <c r="CB33" s="36"/>
-      <c r="CC33" s="36"/>
-      <c r="CD33" s="36"/>
-      <c r="CE33" s="37"/>
-      <c r="CF33" s="86"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="16"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="16"/>
+      <c r="BH33" s="14"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="15"/>
+      <c r="BO33" s="16"/>
+      <c r="BP33" s="14"/>
+      <c r="BQ33" s="15"/>
+      <c r="BR33" s="15"/>
+      <c r="BS33" s="15"/>
+      <c r="BT33" s="15"/>
+      <c r="BU33" s="15"/>
+      <c r="BV33" s="15"/>
+      <c r="BW33" s="16"/>
+      <c r="BX33" s="14"/>
+      <c r="BY33" s="15"/>
+      <c r="BZ33" s="15"/>
+      <c r="CA33" s="15"/>
+      <c r="CB33" s="15"/>
+      <c r="CC33" s="15"/>
+      <c r="CD33" s="15"/>
+      <c r="CE33" s="16"/>
+      <c r="CF33" s="79"/>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
       <c r="B34" s="23"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -5022,14 +5012,14 @@
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="94"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="86"/>
+      <c r="Y34" s="86"/>
+      <c r="Z34" s="86"/>
+      <c r="AA34" s="87"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
@@ -5086,9 +5076,9 @@
       <c r="CC34" s="15"/>
       <c r="CD34" s="15"/>
       <c r="CE34" s="16"/>
-      <c r="CF34" s="86"/>
+      <c r="CF34" s="79"/>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="23"/>
       <c r="C35" s="13"/>
@@ -5108,14 +5098,14 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="93"/>
-      <c r="W35" s="93"/>
-      <c r="X35" s="93"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="94"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="87"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -5172,303 +5162,205 @@
       <c r="CC35" s="15"/>
       <c r="CD35" s="15"/>
       <c r="CE35" s="16"/>
-      <c r="CF35" s="86"/>
+      <c r="CF35" s="79"/>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="93"/>
-      <c r="W36" s="93"/>
-      <c r="X36" s="93"/>
-      <c r="Y36" s="93"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="15"/>
-      <c r="AI36" s="16"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="15"/>
-      <c r="AL36" s="15"/>
-      <c r="AM36" s="15"/>
-      <c r="AN36" s="15"/>
-      <c r="AO36" s="15"/>
-      <c r="AP36" s="15"/>
-      <c r="AQ36" s="16"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="15"/>
-      <c r="AT36" s="15"/>
-      <c r="AU36" s="15"/>
-      <c r="AV36" s="15"/>
-      <c r="AW36" s="15"/>
-      <c r="AX36" s="15"/>
-      <c r="AY36" s="16"/>
-      <c r="AZ36" s="14"/>
-      <c r="BA36" s="15"/>
-      <c r="BB36" s="15"/>
-      <c r="BC36" s="15"/>
-      <c r="BD36" s="15"/>
-      <c r="BE36" s="15"/>
-      <c r="BF36" s="15"/>
-      <c r="BG36" s="16"/>
-      <c r="BH36" s="14"/>
-      <c r="BI36" s="15"/>
-      <c r="BJ36" s="15"/>
-      <c r="BK36" s="15"/>
-      <c r="BL36" s="15"/>
-      <c r="BM36" s="15"/>
-      <c r="BN36" s="15"/>
-      <c r="BO36" s="16"/>
-      <c r="BP36" s="14"/>
-      <c r="BQ36" s="15"/>
-      <c r="BR36" s="15"/>
-      <c r="BS36" s="15"/>
-      <c r="BT36" s="15"/>
-      <c r="BU36" s="15"/>
-      <c r="BV36" s="15"/>
-      <c r="BW36" s="16"/>
-      <c r="BX36" s="14"/>
-      <c r="BY36" s="15"/>
-      <c r="BZ36" s="15"/>
-      <c r="CA36" s="15"/>
-      <c r="CB36" s="15"/>
-      <c r="CC36" s="15"/>
-      <c r="CD36" s="15"/>
-      <c r="CE36" s="16"/>
-      <c r="CF36" s="86"/>
+    <row r="36" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="20"/>
+      <c r="AT36" s="20"/>
+      <c r="AU36" s="20"/>
+      <c r="AV36" s="20"/>
+      <c r="AW36" s="20"/>
+      <c r="AX36" s="20"/>
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="19"/>
+      <c r="BA36" s="20"/>
+      <c r="BB36" s="20"/>
+      <c r="BC36" s="20"/>
+      <c r="BD36" s="20"/>
+      <c r="BE36" s="20"/>
+      <c r="BF36" s="20"/>
+      <c r="BG36" s="21"/>
+      <c r="BH36" s="19"/>
+      <c r="BI36" s="20"/>
+      <c r="BJ36" s="20"/>
+      <c r="BK36" s="20"/>
+      <c r="BL36" s="20"/>
+      <c r="BM36" s="20"/>
+      <c r="BN36" s="20"/>
+      <c r="BO36" s="21"/>
+      <c r="BP36" s="19"/>
+      <c r="BQ36" s="20"/>
+      <c r="BR36" s="20"/>
+      <c r="BS36" s="20"/>
+      <c r="BT36" s="20"/>
+      <c r="BU36" s="20"/>
+      <c r="BV36" s="20"/>
+      <c r="BW36" s="21"/>
+      <c r="BX36" s="19"/>
+      <c r="BY36" s="20"/>
+      <c r="BZ36" s="20"/>
+      <c r="CA36" s="20"/>
+      <c r="CB36" s="20"/>
+      <c r="CC36" s="20"/>
+      <c r="CD36" s="20"/>
+      <c r="CE36" s="21"/>
+      <c r="CF36" s="79"/>
     </row>
-    <row r="37" spans="1:84" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="20"/>
-      <c r="AO37" s="20"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="19"/>
-      <c r="AS37" s="20"/>
-      <c r="AT37" s="20"/>
-      <c r="AU37" s="20"/>
-      <c r="AV37" s="20"/>
-      <c r="AW37" s="20"/>
-      <c r="AX37" s="20"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="19"/>
-      <c r="BA37" s="20"/>
-      <c r="BB37" s="20"/>
-      <c r="BC37" s="20"/>
-      <c r="BD37" s="20"/>
-      <c r="BE37" s="20"/>
-      <c r="BF37" s="20"/>
-      <c r="BG37" s="21"/>
-      <c r="BH37" s="19"/>
-      <c r="BI37" s="20"/>
-      <c r="BJ37" s="20"/>
-      <c r="BK37" s="20"/>
-      <c r="BL37" s="20"/>
-      <c r="BM37" s="20"/>
-      <c r="BN37" s="20"/>
-      <c r="BO37" s="21"/>
-      <c r="BP37" s="19"/>
-      <c r="BQ37" s="20"/>
-      <c r="BR37" s="20"/>
-      <c r="BS37" s="20"/>
-      <c r="BT37" s="20"/>
-      <c r="BU37" s="20"/>
-      <c r="BV37" s="20"/>
-      <c r="BW37" s="21"/>
-      <c r="BX37" s="19"/>
-      <c r="BY37" s="20"/>
-      <c r="BZ37" s="20"/>
-      <c r="CA37" s="20"/>
-      <c r="CB37" s="20"/>
-      <c r="CC37" s="20"/>
-      <c r="CD37" s="20"/>
-      <c r="CE37" s="21"/>
-      <c r="CF37" s="86"/>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="76"/>
+      <c r="AD37" s="76"/>
+      <c r="AE37" s="76"/>
+      <c r="AF37" s="76"/>
+      <c r="AG37" s="76"/>
+      <c r="AH37" s="76"/>
+      <c r="AI37" s="76"/>
+      <c r="AJ37" s="76"/>
+      <c r="AK37" s="76"/>
+      <c r="AL37" s="76"/>
+      <c r="AM37" s="76"/>
+      <c r="AN37" s="76"/>
+      <c r="AO37" s="76"/>
+      <c r="AP37" s="76"/>
+      <c r="AQ37" s="76"/>
+      <c r="AR37" s="76"/>
+      <c r="AS37" s="76"/>
+      <c r="AT37" s="76"/>
+      <c r="AU37" s="76"/>
+      <c r="AV37" s="76"/>
+      <c r="AW37" s="76"/>
+      <c r="AX37" s="76"/>
+      <c r="AY37" s="76"/>
+      <c r="AZ37" s="76"/>
+      <c r="BA37" s="76"/>
+      <c r="BB37" s="76"/>
+      <c r="BC37" s="76"/>
+      <c r="BD37" s="76"/>
+      <c r="BE37" s="76"/>
+      <c r="BF37" s="76"/>
+      <c r="BG37" s="76"/>
+      <c r="BH37" s="76"/>
+      <c r="BI37" s="76"/>
+      <c r="BJ37" s="76"/>
+      <c r="BK37" s="76"/>
+      <c r="BL37" s="76"/>
+      <c r="BM37" s="76"/>
+      <c r="BN37" s="76"/>
+      <c r="BO37" s="76"/>
+      <c r="BP37" s="76"/>
+      <c r="BQ37" s="76"/>
+      <c r="BR37" s="76"/>
+      <c r="BS37" s="76"/>
+      <c r="BT37" s="76"/>
+      <c r="BU37" s="76"/>
+      <c r="BV37" s="76"/>
+      <c r="BW37" s="76"/>
+      <c r="BX37" s="76"/>
+      <c r="BY37" s="76"/>
+      <c r="BZ37" s="76"/>
+      <c r="CA37" s="76"/>
+      <c r="CB37" s="76"/>
+      <c r="CC37" s="76"/>
+      <c r="CD37" s="76"/>
+      <c r="CE37" s="76"/>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="A38" s="98"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="98"/>
-      <c r="S38" s="98"/>
-      <c r="T38" s="98"/>
-      <c r="U38" s="98"/>
-      <c r="V38" s="98"/>
-      <c r="W38" s="98"/>
-      <c r="X38" s="98"/>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="98"/>
-      <c r="AB38" s="98"/>
-      <c r="AC38" s="98"/>
-      <c r="AD38" s="98"/>
-      <c r="AE38" s="98"/>
-      <c r="AF38" s="98"/>
-      <c r="AG38" s="98"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="98"/>
-      <c r="AL38" s="98"/>
-      <c r="AM38" s="98"/>
-      <c r="AN38" s="98"/>
-      <c r="AO38" s="98"/>
-      <c r="AP38" s="98"/>
-      <c r="AQ38" s="98"/>
-      <c r="AR38" s="98"/>
-      <c r="AS38" s="98"/>
-      <c r="AT38" s="98"/>
-      <c r="AU38" s="98"/>
-      <c r="AV38" s="98"/>
-      <c r="AW38" s="98"/>
-      <c r="AX38" s="98"/>
-      <c r="AY38" s="98"/>
-      <c r="AZ38" s="98"/>
-      <c r="BA38" s="98"/>
-      <c r="BB38" s="98"/>
-      <c r="BC38" s="98"/>
-      <c r="BD38" s="98"/>
-      <c r="BE38" s="98"/>
-      <c r="BF38" s="98"/>
-      <c r="BG38" s="98"/>
-      <c r="BH38" s="98"/>
-      <c r="BI38" s="98"/>
-      <c r="BJ38" s="98"/>
-      <c r="BK38" s="98"/>
-      <c r="BL38" s="98"/>
-      <c r="BM38" s="98"/>
-      <c r="BN38" s="98"/>
-      <c r="BO38" s="98"/>
-      <c r="BP38" s="98"/>
-      <c r="BQ38" s="98"/>
-      <c r="BR38" s="98"/>
-      <c r="BS38" s="98"/>
-      <c r="BT38" s="98"/>
-      <c r="BU38" s="98"/>
-      <c r="BV38" s="98"/>
-      <c r="BW38" s="98"/>
-      <c r="BX38" s="98"/>
-      <c r="BY38" s="98"/>
-      <c r="BZ38" s="98"/>
-      <c r="CA38" s="98"/>
-      <c r="CB38" s="98"/>
-      <c r="CC38" s="98"/>
-      <c r="CD38" s="98"/>
-      <c r="CE38" s="98"/>
+    <row r="40" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="B40" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="39"/>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B41" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="39"/>
+      <c r="C41" s="40"/>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B42" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="40"/>
+      <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="41"/>
-    </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.15">
-      <c r="B44" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="42"/>
+      <c r="C43" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A38:CE38"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="CF4:CF37"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA37"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
@@ -5485,9 +5377,21 @@
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A37:CE37"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF36"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA36"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B18:B37 B6:B15">
+  <conditionalFormatting sqref="B6:B26 B29:B36">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
@@ -5513,6 +5417,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5725,41 +5649,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5782,9 +5675,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wickil01\Downloads\306project-G4\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emf\306\306project-G4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5093F91-6E43-4C47-8D2F-B0655AAE4905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B78822-A6CC-4E43-828D-BC431C3592A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Tâches</t>
   </si>
@@ -1114,18 +1114,61 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -1172,49 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1822,36 +1822,36 @@
   <dimension ref="A1:CF43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="BH23" sqref="BH23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="46.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="83" width="2.140625" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.42578125" style="3"/>
+    <col min="4" max="83" width="2.1796875" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.1796875" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.1796875" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.5">
+      <c r="A1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1886,177 +1886,177 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77"/>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="77"/>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77"/>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="77"/>
-      <c r="BL2" s="77"/>
-      <c r="BM2" s="77"/>
-      <c r="BN2" s="77"/>
-      <c r="BO2" s="77"/>
-      <c r="BP2" s="77"/>
-      <c r="BQ2" s="77"/>
-      <c r="BR2" s="77"/>
-      <c r="BS2" s="77"/>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77"/>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77"/>
-      <c r="BX2" s="77"/>
-      <c r="BY2" s="77"/>
-      <c r="BZ2" s="77"/>
-      <c r="CA2" s="77"/>
-      <c r="CB2" s="77"/>
-      <c r="CC2" s="77"/>
-      <c r="CD2" s="77"/>
-      <c r="CE2" s="77"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="82"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="82"/>
+      <c r="BR2" s="82"/>
+      <c r="BS2" s="82"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="82"/>
+      <c r="BV2" s="82"/>
+      <c r="BW2" s="82"/>
+      <c r="BX2" s="82"/>
+      <c r="BY2" s="82"/>
+      <c r="BZ2" s="82"/>
+      <c r="CA2" s="82"/>
+      <c r="CB2" s="82"/>
+      <c r="CC2" s="82"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
     </row>
-    <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="78"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="78"/>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="78"/>
-      <c r="BP3" s="78"/>
-      <c r="BQ3" s="78"/>
-      <c r="BR3" s="78"/>
-      <c r="BS3" s="78"/>
-      <c r="BT3" s="78"/>
-      <c r="BU3" s="78"/>
-      <c r="BV3" s="78"/>
-      <c r="BW3" s="78"/>
-      <c r="BX3" s="78"/>
-      <c r="BY3" s="78"/>
-      <c r="BZ3" s="78"/>
-      <c r="CA3" s="78"/>
-      <c r="CB3" s="78"/>
-      <c r="CC3" s="78"/>
-      <c r="CD3" s="78"/>
-      <c r="CE3" s="78"/>
+    <row r="3" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+      <c r="BR3" s="83"/>
+      <c r="BS3" s="83"/>
+      <c r="BT3" s="83"/>
+      <c r="BU3" s="83"/>
+      <c r="BV3" s="83"/>
+      <c r="BW3" s="83"/>
+      <c r="BX3" s="83"/>
+      <c r="BY3" s="83"/>
+      <c r="BZ3" s="83"/>
+      <c r="CA3" s="83"/>
+      <c r="CB3" s="83"/>
+      <c r="CC3" s="83"/>
+      <c r="CD3" s="83"/>
+      <c r="CE3" s="83"/>
     </row>
-    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+    <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2065,132 +2065,132 @@
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86">
         <v>45992</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="91" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93">
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86">
         <v>45993</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="91" t="s">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93">
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="86">
         <v>45999</v>
       </c>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="91" t="s">
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="93">
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="86">
         <v>46000</v>
       </c>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="91" t="s">
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="93">
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="86">
         <v>46006</v>
       </c>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="91" t="s">
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="93">
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="86">
         <v>46007</v>
       </c>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="94"/>
-      <c r="AZ4" s="91" t="s">
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="93">
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="85"/>
+      <c r="BC4" s="85"/>
+      <c r="BD4" s="86">
         <v>46027</v>
       </c>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="91" t="s">
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="86"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93">
+      <c r="BI4" s="85"/>
+      <c r="BJ4" s="85"/>
+      <c r="BK4" s="85"/>
+      <c r="BL4" s="86">
         <v>46028</v>
       </c>
-      <c r="BM4" s="93"/>
-      <c r="BN4" s="93"/>
-      <c r="BO4" s="94"/>
-      <c r="BP4" s="91" t="s">
+      <c r="BM4" s="86"/>
+      <c r="BN4" s="86"/>
+      <c r="BO4" s="87"/>
+      <c r="BP4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="92"/>
-      <c r="BR4" s="92"/>
-      <c r="BS4" s="92"/>
-      <c r="BT4" s="93">
+      <c r="BQ4" s="85"/>
+      <c r="BR4" s="85"/>
+      <c r="BS4" s="85"/>
+      <c r="BT4" s="86">
         <v>46034</v>
       </c>
-      <c r="BU4" s="93"/>
-      <c r="BV4" s="93"/>
-      <c r="BW4" s="94"/>
-      <c r="BX4" s="91" t="s">
+      <c r="BU4" s="86"/>
+      <c r="BV4" s="86"/>
+      <c r="BW4" s="87"/>
+      <c r="BX4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="92"/>
-      <c r="BZ4" s="92"/>
-      <c r="CA4" s="92"/>
-      <c r="CB4" s="93">
+      <c r="BY4" s="85"/>
+      <c r="BZ4" s="85"/>
+      <c r="CA4" s="85"/>
+      <c r="CB4" s="86">
         <v>46035</v>
       </c>
-      <c r="CC4" s="93"/>
-      <c r="CD4" s="93"/>
-      <c r="CE4" s="94"/>
-      <c r="CF4" s="79" t="s">
+      <c r="CC4" s="86"/>
+      <c r="CD4" s="86"/>
+      <c r="CE4" s="87"/>
+      <c r="CF4" s="91" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+    <row r="5" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="93"/>
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
@@ -2437,9 +2437,9 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="79"/>
+      <c r="CF5" s="91"/>
     </row>
-    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>43</v>
       </c>
@@ -2463,16 +2463,16 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="82" t="s">
+      <c r="T6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="84"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="96"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -2529,9 +2529,9 @@
       <c r="CC6" s="9"/>
       <c r="CD6" s="9"/>
       <c r="CE6" s="10"/>
-      <c r="CF6" s="79"/>
+      <c r="CF6" s="91"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
@@ -2555,14 +2555,14 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="87"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="99"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
@@ -2619,9 +2619,9 @@
       <c r="CC7" s="15"/>
       <c r="CD7" s="15"/>
       <c r="CE7" s="16"/>
-      <c r="CF7" s="79"/>
+      <c r="CF7" s="91"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -2645,14 +2645,14 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="87"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="99"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
@@ -2709,9 +2709,9 @@
       <c r="CC8" s="15"/>
       <c r="CD8" s="15"/>
       <c r="CE8" s="16"/>
-      <c r="CF8" s="79"/>
+      <c r="CF8" s="91"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2735,14 +2735,14 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="87"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="99"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
@@ -2799,9 +2799,9 @@
       <c r="CC9" s="15"/>
       <c r="CD9" s="15"/>
       <c r="CE9" s="16"/>
-      <c r="CF9" s="79"/>
+      <c r="CF9" s="91"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>22</v>
       </c>
@@ -2825,14 +2825,14 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="87"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="99"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
@@ -2889,9 +2889,9 @@
       <c r="CC10" s="15"/>
       <c r="CD10" s="15"/>
       <c r="CE10" s="16"/>
-      <c r="CF10" s="79"/>
+      <c r="CF10" s="91"/>
     </row>
-    <row r="11" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>36</v>
       </c>
@@ -2913,14 +2913,14 @@
       <c r="Q11" s="58"/>
       <c r="R11" s="58"/>
       <c r="S11" s="61"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="87"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="99"/>
       <c r="AB11" s="57"/>
       <c r="AC11" s="60"/>
       <c r="AD11" s="60"/>
@@ -2977,10 +2977,10 @@
       <c r="CC11" s="58"/>
       <c r="CD11" s="58"/>
       <c r="CE11" s="61"/>
-      <c r="CF11" s="79"/>
+      <c r="CF11" s="91"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A12" s="98" t="s">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -3003,14 +3003,14 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="16"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="87"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="99"/>
       <c r="AB12" s="52" t="s">
         <v>34</v>
       </c>
@@ -3077,10 +3077,10 @@
       <c r="CC12" s="15"/>
       <c r="CD12" s="15"/>
       <c r="CE12" s="16"/>
-      <c r="CF12" s="79"/>
+      <c r="CF12" s="91"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A13" s="98" t="s">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -3103,14 +3103,14 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="87"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="99"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="31"/>
@@ -3171,10 +3171,10 @@
       <c r="CC13" s="15"/>
       <c r="CD13" s="15"/>
       <c r="CE13" s="16"/>
-      <c r="CF13" s="79"/>
+      <c r="CF13" s="91"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A14" s="98" t="s">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -3197,14 +3197,14 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="16"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="87"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="99"/>
       <c r="AB14" s="54" t="s">
         <v>34</v>
       </c>
@@ -3293,10 +3293,10 @@
       <c r="CC14" s="15"/>
       <c r="CD14" s="15"/>
       <c r="CE14" s="16"/>
-      <c r="CF14" s="79"/>
+      <c r="CF14" s="91"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A15" s="98" t="s">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="23"/>
@@ -3317,14 +3317,14 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="16"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="87"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="99"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
@@ -3350,7 +3350,9 @@
       <c r="AX15" s="15"/>
       <c r="AY15" s="16"/>
       <c r="AZ15" s="14"/>
-      <c r="BA15" s="15"/>
+      <c r="BA15" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="BB15" s="15"/>
       <c r="BC15" s="31"/>
       <c r="BD15" s="31"/>
@@ -3381,10 +3383,10 @@
       <c r="CC15" s="15"/>
       <c r="CD15" s="15"/>
       <c r="CE15" s="16"/>
-      <c r="CF15" s="79"/>
+      <c r="CF15" s="91"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A16" s="99" t="s">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="23"/>
@@ -3405,14 +3407,14 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="16"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="87"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="99"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
@@ -3469,10 +3471,10 @@
       <c r="CC16" s="15"/>
       <c r="CD16" s="15"/>
       <c r="CE16" s="16"/>
-      <c r="CF16" s="79"/>
+      <c r="CF16" s="91"/>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A17" s="98" t="s">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A17" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -3495,14 +3497,14 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="87"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="99"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
@@ -3535,13 +3537,19 @@
       <c r="AS17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="46"/>
+      <c r="AT17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU17" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="AV17" s="15"/>
       <c r="AW17" s="15"/>
       <c r="AX17" s="15"/>
       <c r="AY17" s="16"/>
-      <c r="AZ17" s="46"/>
+      <c r="AZ17" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="BA17" s="46"/>
       <c r="BB17" s="15"/>
       <c r="BC17" s="15"/>
@@ -3573,10 +3581,10 @@
       <c r="CC17" s="15"/>
       <c r="CD17" s="15"/>
       <c r="CE17" s="16"/>
-      <c r="CF17" s="79"/>
+      <c r="CF17" s="91"/>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A18" s="98" t="s">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -3599,14 +3607,14 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="16"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="87"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="99"/>
       <c r="AB18" s="51" t="s">
         <v>34</v>
       </c>
@@ -3681,9 +3689,9 @@
       <c r="CC18" s="15"/>
       <c r="CD18" s="15"/>
       <c r="CE18" s="16"/>
-      <c r="CF18" s="79"/>
+      <c r="CF18" s="91"/>
     </row>
-    <row r="19" spans="1:84" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>35</v>
       </c>
@@ -3705,14 +3713,14 @@
       <c r="Q19" s="58"/>
       <c r="R19" s="58"/>
       <c r="S19" s="61"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="87"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="99"/>
       <c r="AB19" s="57"/>
       <c r="AC19" s="60"/>
       <c r="AD19" s="60"/>
@@ -3769,9 +3777,9 @@
       <c r="CC19" s="58"/>
       <c r="CD19" s="58"/>
       <c r="CE19" s="61"/>
-      <c r="CF19" s="79"/>
+      <c r="CF19" s="91"/>
     </row>
-    <row r="20" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>37</v>
       </c>
@@ -3793,14 +3801,14 @@
       <c r="Q20" s="58"/>
       <c r="R20" s="58"/>
       <c r="S20" s="61"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="87"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="99"/>
       <c r="AB20" s="57"/>
       <c r="AC20" s="60"/>
       <c r="AD20" s="60"/>
@@ -3857,10 +3865,10 @@
       <c r="CC20" s="58"/>
       <c r="CD20" s="58"/>
       <c r="CE20" s="61"/>
-      <c r="CF20" s="79"/>
+      <c r="CF20" s="91"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A21" s="100" t="s">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="23"/>
@@ -3881,14 +3889,14 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="87"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="99"/>
       <c r="AB21" s="14"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
@@ -3945,10 +3953,10 @@
       <c r="CC21" s="15"/>
       <c r="CD21" s="15"/>
       <c r="CE21" s="16"/>
-      <c r="CF21" s="79"/>
+      <c r="CF21" s="91"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A22" s="101" t="s">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="23"/>
@@ -3969,14 +3977,14 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="16"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="87"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
@@ -4033,10 +4041,10 @@
       <c r="CC22" s="15"/>
       <c r="CD22" s="15"/>
       <c r="CE22" s="16"/>
-      <c r="CF22" s="79"/>
+      <c r="CF22" s="91"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A23" s="100" t="s">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="23"/>
@@ -4057,14 +4065,14 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="87"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="99"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
@@ -4121,10 +4129,10 @@
       <c r="CC23" s="15"/>
       <c r="CD23" s="15"/>
       <c r="CE23" s="16"/>
-      <c r="CF23" s="79"/>
+      <c r="CF23" s="91"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A24" s="100" t="s">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="23"/>
@@ -4145,14 +4153,14 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="87"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="48"/>
@@ -4209,10 +4217,10 @@
       <c r="CC24" s="15"/>
       <c r="CD24" s="15"/>
       <c r="CE24" s="16"/>
-      <c r="CF24" s="79"/>
+      <c r="CF24" s="91"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A25" s="100" t="s">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="23"/>
@@ -4233,14 +4241,14 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="87"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="99"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
@@ -4292,9 +4300,9 @@
       <c r="CC25" s="15"/>
       <c r="CD25" s="15"/>
       <c r="CE25" s="16"/>
-      <c r="CF25" s="79"/>
+      <c r="CF25" s="91"/>
     </row>
-    <row r="26" spans="1:84" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71" t="s">
         <v>38</v>
       </c>
@@ -4315,14 +4323,14 @@
       <c r="Q26" s="60"/>
       <c r="R26" s="60"/>
       <c r="S26" s="62"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="87"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="99"/>
       <c r="AB26" s="60"/>
       <c r="AC26" s="60"/>
       <c r="AD26" s="60"/>
@@ -4379,9 +4387,9 @@
       <c r="CC26" s="60"/>
       <c r="CD26" s="60"/>
       <c r="CE26" s="62"/>
-      <c r="CF26" s="79"/>
+      <c r="CF26" s="91"/>
     </row>
-    <row r="27" spans="1:84" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
         <v>39</v>
       </c>
@@ -4402,14 +4410,14 @@
       <c r="Q27" s="64"/>
       <c r="R27" s="64"/>
       <c r="S27" s="67"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="87"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
       <c r="AB27" s="64"/>
       <c r="AC27" s="64"/>
       <c r="AD27" s="64"/>
@@ -4466,9 +4474,9 @@
       <c r="CC27" s="64"/>
       <c r="CD27" s="64"/>
       <c r="CE27" s="67"/>
-      <c r="CF27" s="79"/>
+      <c r="CF27" s="91"/>
     </row>
-    <row r="28" spans="1:84" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
         <v>40</v>
       </c>
@@ -4489,14 +4497,14 @@
       <c r="Q28" s="64"/>
       <c r="R28" s="64"/>
       <c r="S28" s="67"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="87"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="99"/>
       <c r="AB28" s="64"/>
       <c r="AC28" s="64"/>
       <c r="AD28" s="64"/>
@@ -4553,9 +4561,9 @@
       <c r="CC28" s="64"/>
       <c r="CD28" s="64"/>
       <c r="CE28" s="67"/>
-      <c r="CF28" s="79"/>
+      <c r="CF28" s="91"/>
     </row>
-    <row r="29" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="73" t="s">
         <v>41</v>
       </c>
@@ -4577,14 +4585,14 @@
       <c r="Q29" s="58"/>
       <c r="R29" s="58"/>
       <c r="S29" s="61"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="87"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="99"/>
       <c r="AB29" s="57"/>
       <c r="AC29" s="60"/>
       <c r="AD29" s="60"/>
@@ -4641,10 +4649,10 @@
       <c r="CC29" s="58"/>
       <c r="CD29" s="58"/>
       <c r="CE29" s="61"/>
-      <c r="CF29" s="79"/>
+      <c r="CF29" s="91"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A30" s="102" t="s">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A30" s="80" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="23"/>
@@ -4665,14 +4673,14 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="86"/>
-      <c r="AA30" s="87"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="99"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
@@ -4729,9 +4737,9 @@
       <c r="CC30" s="15"/>
       <c r="CD30" s="15"/>
       <c r="CE30" s="16"/>
-      <c r="CF30" s="79"/>
+      <c r="CF30" s="91"/>
     </row>
-    <row r="31" spans="1:84" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
         <v>42</v>
       </c>
@@ -4753,14 +4761,14 @@
       <c r="Q31" s="58"/>
       <c r="R31" s="58"/>
       <c r="S31" s="61"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="87"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="99"/>
       <c r="AB31" s="57"/>
       <c r="AC31" s="60"/>
       <c r="AD31" s="60"/>
@@ -4817,9 +4825,9 @@
       <c r="CC31" s="58"/>
       <c r="CD31" s="58"/>
       <c r="CE31" s="61"/>
-      <c r="CF31" s="79"/>
+      <c r="CF31" s="91"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>15</v>
       </c>
@@ -4841,14 +4849,14 @@
       <c r="Q32" s="33"/>
       <c r="R32" s="33"/>
       <c r="S32" s="34"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="86"/>
-      <c r="AA32" s="87"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="99"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="36"/>
       <c r="AD32" s="36"/>
@@ -4905,9 +4913,9 @@
       <c r="CC32" s="36"/>
       <c r="CD32" s="36"/>
       <c r="CE32" s="37"/>
-      <c r="CF32" s="79"/>
+      <c r="CF32" s="91"/>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
@@ -4926,14 +4934,14 @@
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="16"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
-      <c r="AA33" s="87"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="99"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
@@ -4990,9 +4998,9 @@
       <c r="CC33" s="15"/>
       <c r="CD33" s="15"/>
       <c r="CE33" s="16"/>
-      <c r="CF33" s="79"/>
+      <c r="CF33" s="91"/>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="23"/>
       <c r="C34" s="13"/>
@@ -5012,14 +5020,14 @@
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="86"/>
-      <c r="Y34" s="86"/>
-      <c r="Z34" s="86"/>
-      <c r="AA34" s="87"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="98"/>
+      <c r="W34" s="98"/>
+      <c r="X34" s="98"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="99"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
@@ -5076,9 +5084,9 @@
       <c r="CC34" s="15"/>
       <c r="CD34" s="15"/>
       <c r="CE34" s="16"/>
-      <c r="CF34" s="79"/>
+      <c r="CF34" s="91"/>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="23"/>
       <c r="C35" s="13"/>
@@ -5098,14 +5106,14 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="86"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="86"/>
-      <c r="X35" s="86"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="87"/>
+      <c r="T35" s="97"/>
+      <c r="U35" s="98"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="98"/>
+      <c r="X35" s="98"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="99"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -5162,9 +5170,9 @@
       <c r="CC35" s="15"/>
       <c r="CD35" s="15"/>
       <c r="CE35" s="16"/>
-      <c r="CF35" s="79"/>
+      <c r="CF35" s="91"/>
     </row>
-    <row r="36" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="24"/>
       <c r="C36" s="18"/>
@@ -5184,14 +5192,14 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="90"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="102"/>
       <c r="AB36" s="19"/>
       <c r="AC36" s="20"/>
       <c r="AD36" s="20"/>
@@ -5248,112 +5256,112 @@
       <c r="CC36" s="20"/>
       <c r="CD36" s="20"/>
       <c r="CE36" s="21"/>
-      <c r="CF36" s="79"/>
+      <c r="CF36" s="91"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="76"/>
-      <c r="AD37" s="76"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="76"/>
-      <c r="AG37" s="76"/>
-      <c r="AH37" s="76"/>
-      <c r="AI37" s="76"/>
-      <c r="AJ37" s="76"/>
-      <c r="AK37" s="76"/>
-      <c r="AL37" s="76"/>
-      <c r="AM37" s="76"/>
-      <c r="AN37" s="76"/>
-      <c r="AO37" s="76"/>
-      <c r="AP37" s="76"/>
-      <c r="AQ37" s="76"/>
-      <c r="AR37" s="76"/>
-      <c r="AS37" s="76"/>
-      <c r="AT37" s="76"/>
-      <c r="AU37" s="76"/>
-      <c r="AV37" s="76"/>
-      <c r="AW37" s="76"/>
-      <c r="AX37" s="76"/>
-      <c r="AY37" s="76"/>
-      <c r="AZ37" s="76"/>
-      <c r="BA37" s="76"/>
-      <c r="BB37" s="76"/>
-      <c r="BC37" s="76"/>
-      <c r="BD37" s="76"/>
-      <c r="BE37" s="76"/>
-      <c r="BF37" s="76"/>
-      <c r="BG37" s="76"/>
-      <c r="BH37" s="76"/>
-      <c r="BI37" s="76"/>
-      <c r="BJ37" s="76"/>
-      <c r="BK37" s="76"/>
-      <c r="BL37" s="76"/>
-      <c r="BM37" s="76"/>
-      <c r="BN37" s="76"/>
-      <c r="BO37" s="76"/>
-      <c r="BP37" s="76"/>
-      <c r="BQ37" s="76"/>
-      <c r="BR37" s="76"/>
-      <c r="BS37" s="76"/>
-      <c r="BT37" s="76"/>
-      <c r="BU37" s="76"/>
-      <c r="BV37" s="76"/>
-      <c r="BW37" s="76"/>
-      <c r="BX37" s="76"/>
-      <c r="BY37" s="76"/>
-      <c r="BZ37" s="76"/>
-      <c r="CA37" s="76"/>
-      <c r="CB37" s="76"/>
-      <c r="CC37" s="76"/>
-      <c r="CD37" s="76"/>
-      <c r="CE37" s="76"/>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="90"/>
+      <c r="AE37" s="90"/>
+      <c r="AF37" s="90"/>
+      <c r="AG37" s="90"/>
+      <c r="AH37" s="90"/>
+      <c r="AI37" s="90"/>
+      <c r="AJ37" s="90"/>
+      <c r="AK37" s="90"/>
+      <c r="AL37" s="90"/>
+      <c r="AM37" s="90"/>
+      <c r="AN37" s="90"/>
+      <c r="AO37" s="90"/>
+      <c r="AP37" s="90"/>
+      <c r="AQ37" s="90"/>
+      <c r="AR37" s="90"/>
+      <c r="AS37" s="90"/>
+      <c r="AT37" s="90"/>
+      <c r="AU37" s="90"/>
+      <c r="AV37" s="90"/>
+      <c r="AW37" s="90"/>
+      <c r="AX37" s="90"/>
+      <c r="AY37" s="90"/>
+      <c r="AZ37" s="90"/>
+      <c r="BA37" s="90"/>
+      <c r="BB37" s="90"/>
+      <c r="BC37" s="90"/>
+      <c r="BD37" s="90"/>
+      <c r="BE37" s="90"/>
+      <c r="BF37" s="90"/>
+      <c r="BG37" s="90"/>
+      <c r="BH37" s="90"/>
+      <c r="BI37" s="90"/>
+      <c r="BJ37" s="90"/>
+      <c r="BK37" s="90"/>
+      <c r="BL37" s="90"/>
+      <c r="BM37" s="90"/>
+      <c r="BN37" s="90"/>
+      <c r="BO37" s="90"/>
+      <c r="BP37" s="90"/>
+      <c r="BQ37" s="90"/>
+      <c r="BR37" s="90"/>
+      <c r="BS37" s="90"/>
+      <c r="BT37" s="90"/>
+      <c r="BU37" s="90"/>
+      <c r="BV37" s="90"/>
+      <c r="BW37" s="90"/>
+      <c r="BX37" s="90"/>
+      <c r="BY37" s="90"/>
+      <c r="BZ37" s="90"/>
+      <c r="CA37" s="90"/>
+      <c r="CB37" s="90"/>
+      <c r="CC37" s="90"/>
+      <c r="CD37" s="90"/>
+      <c r="CE37" s="90"/>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="39"/>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B41" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="40"/>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B43" s="38" t="s">
         <v>20</v>
       </c>
@@ -5361,6 +5369,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A37:CE37"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF36"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA36"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
@@ -5377,18 +5397,6 @@
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A37:CE37"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="CF4:CF36"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA36"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B6:B26 B29:B36">
@@ -5417,26 +5425,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5649,10 +5637,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5675,20 +5694,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emf\306\306project-G4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B78822-A6CC-4E43-828D-BC431C3592A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E33B3F0-20E5-497B-96D0-010ABD55531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
   <si>
     <t>Tâches</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Vérification et fix du rafraîchissement des données</t>
-  </si>
-  <si>
-    <t>En cours</t>
   </si>
   <si>
     <t>x</t>
@@ -1129,92 +1126,92 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1822,10 +1819,10 @@
   <dimension ref="A1:CF43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="AR23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BH23" sqref="BH23"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1840,18 +1837,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1888,10 +1885,10 @@
     </row>
     <row r="2" spans="1:84" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
+        <v>44</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
       <c r="F2" s="82"/>
@@ -2056,7 +2053,7 @@
       <c r="CE3" s="83"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2065,132 +2062,132 @@
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86">
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98">
         <v>45992</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="84" t="s">
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86">
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="98">
         <v>45993</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="84" t="s">
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="86">
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="98">
         <v>45999</v>
       </c>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="84" t="s">
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="86">
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="98">
         <v>46000</v>
       </c>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="84" t="s">
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="AK4" s="85"/>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="86">
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="98">
         <v>46006</v>
       </c>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="84" t="s">
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="86">
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="98">
         <v>46007</v>
       </c>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="84" t="s">
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="86">
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="98">
         <v>46027</v>
       </c>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="86"/>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="84" t="s">
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="86">
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98">
         <v>46028</v>
       </c>
-      <c r="BM4" s="86"/>
-      <c r="BN4" s="86"/>
-      <c r="BO4" s="87"/>
-      <c r="BP4" s="84" t="s">
+      <c r="BM4" s="98"/>
+      <c r="BN4" s="98"/>
+      <c r="BO4" s="99"/>
+      <c r="BP4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="85"/>
-      <c r="BR4" s="85"/>
-      <c r="BS4" s="85"/>
-      <c r="BT4" s="86">
+      <c r="BQ4" s="97"/>
+      <c r="BR4" s="97"/>
+      <c r="BS4" s="97"/>
+      <c r="BT4" s="98">
         <v>46034</v>
       </c>
-      <c r="BU4" s="86"/>
-      <c r="BV4" s="86"/>
-      <c r="BW4" s="87"/>
-      <c r="BX4" s="84" t="s">
+      <c r="BU4" s="98"/>
+      <c r="BV4" s="98"/>
+      <c r="BW4" s="99"/>
+      <c r="BX4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="85"/>
-      <c r="BZ4" s="85"/>
-      <c r="CA4" s="85"/>
-      <c r="CB4" s="86">
+      <c r="BY4" s="97"/>
+      <c r="BZ4" s="97"/>
+      <c r="CA4" s="97"/>
+      <c r="CB4" s="98">
         <v>46035</v>
       </c>
-      <c r="CC4" s="86"/>
-      <c r="CD4" s="86"/>
-      <c r="CE4" s="87"/>
-      <c r="CF4" s="91" t="s">
+      <c r="CC4" s="98"/>
+      <c r="CD4" s="98"/>
+      <c r="CE4" s="99"/>
+      <c r="CF4" s="84" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
@@ -2437,11 +2434,11 @@
       <c r="CE5" s="7">
         <v>8</v>
       </c>
-      <c r="CF5" s="91"/>
+      <c r="CF5" s="84"/>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>16</v>
@@ -2463,16 +2460,16 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="94" t="s">
+      <c r="T6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="96"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="89"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -2529,7 +2526,7 @@
       <c r="CC6" s="9"/>
       <c r="CD6" s="9"/>
       <c r="CE6" s="10"/>
-      <c r="CF6" s="91"/>
+      <c r="CF6" s="84"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -2555,14 +2552,14 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="99"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="92"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
@@ -2619,7 +2616,7 @@
       <c r="CC7" s="15"/>
       <c r="CD7" s="15"/>
       <c r="CE7" s="16"/>
-      <c r="CF7" s="91"/>
+      <c r="CF7" s="84"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -2645,14 +2642,14 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="99"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="92"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
@@ -2709,7 +2706,7 @@
       <c r="CC8" s="15"/>
       <c r="CD8" s="15"/>
       <c r="CE8" s="16"/>
-      <c r="CF8" s="91"/>
+      <c r="CF8" s="84"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2735,14 +2732,14 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="99"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="92"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
@@ -2799,7 +2796,7 @@
       <c r="CC9" s="15"/>
       <c r="CD9" s="15"/>
       <c r="CE9" s="16"/>
-      <c r="CF9" s="91"/>
+      <c r="CF9" s="84"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
@@ -2825,14 +2822,14 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="99"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="92"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
@@ -2889,11 +2886,11 @@
       <c r="CC10" s="15"/>
       <c r="CD10" s="15"/>
       <c r="CE10" s="16"/>
-      <c r="CF10" s="91"/>
+      <c r="CF10" s="84"/>
     </row>
     <row r="11" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="56"/>
@@ -2913,14 +2910,14 @@
       <c r="Q11" s="58"/>
       <c r="R11" s="58"/>
       <c r="S11" s="61"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="99"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="92"/>
       <c r="AB11" s="57"/>
       <c r="AC11" s="60"/>
       <c r="AD11" s="60"/>
@@ -2977,7 +2974,7 @@
       <c r="CC11" s="58"/>
       <c r="CD11" s="58"/>
       <c r="CE11" s="61"/>
-      <c r="CF11" s="91"/>
+      <c r="CF11" s="84"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -3003,32 +3000,32 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="16"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="99"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="92"/>
       <c r="AB12" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC12" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD12" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE12" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK12" s="15"/>
       <c r="AL12" s="15"/>
@@ -3077,7 +3074,7 @@
       <c r="CC12" s="15"/>
       <c r="CD12" s="15"/>
       <c r="CE12" s="16"/>
-      <c r="CF12" s="91"/>
+      <c r="CF12" s="84"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
@@ -3103,14 +3100,14 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="99"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="92"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="31"/>
@@ -3121,10 +3118,10 @@
       <c r="AI13" s="16"/>
       <c r="AJ13" s="14"/>
       <c r="AK13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AM13" s="15"/>
       <c r="AN13" s="15"/>
@@ -3171,14 +3168,14 @@
       <c r="CC13" s="15"/>
       <c r="CD13" s="15"/>
       <c r="CE13" s="16"/>
-      <c r="CF13" s="91"/>
+      <c r="CF13" s="84"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
@@ -3197,65 +3194,65 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="16"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="99"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="92"/>
       <c r="AB14" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC14" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD14" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE14" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="15"/>
       <c r="AI14" s="16"/>
       <c r="AJ14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AM14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AO14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AP14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AQ14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AR14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AT14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AU14" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AV14" s="15"/>
       <c r="AW14" s="15"/>
@@ -3293,13 +3290,15 @@
       <c r="CC14" s="15"/>
       <c r="CD14" s="15"/>
       <c r="CE14" s="16"/>
-      <c r="CF14" s="91"/>
+      <c r="CF14" s="84"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
@@ -3317,14 +3316,14 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="16"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="99"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="92"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
@@ -3351,7 +3350,7 @@
       <c r="AY15" s="16"/>
       <c r="AZ15" s="14"/>
       <c r="BA15" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BB15" s="15"/>
       <c r="BC15" s="31"/>
@@ -3383,13 +3382,15 @@
       <c r="CC15" s="15"/>
       <c r="CD15" s="15"/>
       <c r="CE15" s="16"/>
-      <c r="CF15" s="91"/>
+      <c r="CF15" s="84"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -3407,14 +3408,14 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="16"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="99"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="92"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
@@ -3471,7 +3472,7 @@
       <c r="CC16" s="15"/>
       <c r="CD16" s="15"/>
       <c r="CE16" s="16"/>
-      <c r="CF16" s="91"/>
+      <c r="CF16" s="84"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
@@ -3497,14 +3498,14 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="99"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="92"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
@@ -3517,38 +3518,38 @@
       <c r="AK17" s="46"/>
       <c r="AL17" s="46"/>
       <c r="AM17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AO17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AP17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AQ17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AR17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AT17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AU17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AV17" s="15"/>
       <c r="AW17" s="15"/>
       <c r="AX17" s="15"/>
       <c r="AY17" s="16"/>
       <c r="AZ17" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BA17" s="46"/>
       <c r="BB17" s="15"/>
@@ -3581,7 +3582,7 @@
       <c r="CC17" s="15"/>
       <c r="CD17" s="15"/>
       <c r="CE17" s="16"/>
-      <c r="CF17" s="91"/>
+      <c r="CF17" s="84"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
@@ -3607,44 +3608,44 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="16"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="99"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="92"/>
       <c r="AB18" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC18" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD18" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE18" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="16"/>
       <c r="AJ18" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK18" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL18" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AM18" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN18" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
@@ -3689,13 +3690,15 @@
       <c r="CC18" s="15"/>
       <c r="CD18" s="15"/>
       <c r="CE18" s="16"/>
-      <c r="CF18" s="91"/>
+      <c r="CF18" s="84"/>
     </row>
     <row r="19" spans="1:84" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="55"/>
+        <v>34</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="C19" s="56"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
@@ -3713,14 +3716,14 @@
       <c r="Q19" s="58"/>
       <c r="R19" s="58"/>
       <c r="S19" s="61"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="99"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="92"/>
       <c r="AB19" s="57"/>
       <c r="AC19" s="60"/>
       <c r="AD19" s="60"/>
@@ -3777,11 +3780,11 @@
       <c r="CC19" s="58"/>
       <c r="CD19" s="58"/>
       <c r="CE19" s="61"/>
-      <c r="CF19" s="91"/>
+      <c r="CF19" s="84"/>
     </row>
     <row r="20" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="56"/>
@@ -3801,14 +3804,14 @@
       <c r="Q20" s="58"/>
       <c r="R20" s="58"/>
       <c r="S20" s="61"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="99"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="92"/>
       <c r="AB20" s="57"/>
       <c r="AC20" s="60"/>
       <c r="AD20" s="60"/>
@@ -3865,13 +3868,15 @@
       <c r="CC20" s="58"/>
       <c r="CD20" s="58"/>
       <c r="CE20" s="61"/>
-      <c r="CF20" s="91"/>
+      <c r="CF20" s="84"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
@@ -3889,14 +3894,14 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="99"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="92"/>
       <c r="AB21" s="14"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
@@ -3953,13 +3958,15 @@
       <c r="CC21" s="15"/>
       <c r="CD21" s="15"/>
       <c r="CE21" s="16"/>
-      <c r="CF21" s="91"/>
+      <c r="CF21" s="84"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
@@ -3977,14 +3984,14 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="16"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="92"/>
       <c r="AB22" s="14"/>
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
@@ -4041,13 +4048,15 @@
       <c r="CC22" s="15"/>
       <c r="CD22" s="15"/>
       <c r="CE22" s="16"/>
-      <c r="CF22" s="91"/>
+      <c r="CF22" s="84"/>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
@@ -4065,14 +4074,14 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="99"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="92"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
@@ -4129,13 +4138,15 @@
       <c r="CC23" s="15"/>
       <c r="CD23" s="15"/>
       <c r="CE23" s="16"/>
-      <c r="CF23" s="91"/>
+      <c r="CF23" s="84"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -4153,14 +4164,14 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="99"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="92"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="48"/>
@@ -4217,13 +4228,15 @@
       <c r="CC24" s="15"/>
       <c r="CD24" s="15"/>
       <c r="CE24" s="16"/>
-      <c r="CF24" s="91"/>
+      <c r="CF24" s="84"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A25" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
@@ -4241,14 +4254,14 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="99"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="92"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
@@ -4300,13 +4313,15 @@
       <c r="CC25" s="15"/>
       <c r="CD25" s="15"/>
       <c r="CE25" s="16"/>
-      <c r="CF25" s="91"/>
+      <c r="CF25" s="84"/>
     </row>
     <row r="26" spans="1:84" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="65"/>
+        <v>37</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>16</v>
+      </c>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
@@ -4323,14 +4338,14 @@
       <c r="Q26" s="60"/>
       <c r="R26" s="60"/>
       <c r="S26" s="62"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="99"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="92"/>
       <c r="AB26" s="60"/>
       <c r="AC26" s="60"/>
       <c r="AD26" s="60"/>
@@ -4387,13 +4402,15 @@
       <c r="CC26" s="60"/>
       <c r="CD26" s="60"/>
       <c r="CE26" s="62"/>
-      <c r="CF26" s="91"/>
+      <c r="CF26" s="84"/>
     </row>
     <row r="27" spans="1:84" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="64"/>
+        <v>38</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>16</v>
+      </c>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -4410,14 +4427,14 @@
       <c r="Q27" s="64"/>
       <c r="R27" s="64"/>
       <c r="S27" s="67"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="92"/>
       <c r="AB27" s="64"/>
       <c r="AC27" s="64"/>
       <c r="AD27" s="64"/>
@@ -4474,13 +4491,15 @@
       <c r="CC27" s="64"/>
       <c r="CD27" s="64"/>
       <c r="CE27" s="67"/>
-      <c r="CF27" s="91"/>
+      <c r="CF27" s="84"/>
     </row>
     <row r="28" spans="1:84" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="64"/>
+        <v>39</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>16</v>
+      </c>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -4497,14 +4516,14 @@
       <c r="Q28" s="64"/>
       <c r="R28" s="64"/>
       <c r="S28" s="67"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="99"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="92"/>
       <c r="AB28" s="64"/>
       <c r="AC28" s="64"/>
       <c r="AD28" s="64"/>
@@ -4561,11 +4580,11 @@
       <c r="CC28" s="64"/>
       <c r="CD28" s="64"/>
       <c r="CE28" s="67"/>
-      <c r="CF28" s="91"/>
+      <c r="CF28" s="84"/>
     </row>
     <row r="29" spans="1:84" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="56"/>
@@ -4585,14 +4604,14 @@
       <c r="Q29" s="58"/>
       <c r="R29" s="58"/>
       <c r="S29" s="61"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="99"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="91"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="91"/>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="92"/>
       <c r="AB29" s="57"/>
       <c r="AC29" s="60"/>
       <c r="AD29" s="60"/>
@@ -4649,7 +4668,7 @@
       <c r="CC29" s="58"/>
       <c r="CD29" s="58"/>
       <c r="CE29" s="61"/>
-      <c r="CF29" s="91"/>
+      <c r="CF29" s="84"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
@@ -4673,14 +4692,14 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="99"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="92"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
@@ -4737,11 +4756,11 @@
       <c r="CC30" s="15"/>
       <c r="CD30" s="15"/>
       <c r="CE30" s="16"/>
-      <c r="CF30" s="91"/>
+      <c r="CF30" s="84"/>
     </row>
     <row r="31" spans="1:84" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="56"/>
@@ -4761,14 +4780,14 @@
       <c r="Q31" s="58"/>
       <c r="R31" s="58"/>
       <c r="S31" s="61"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="99"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="92"/>
       <c r="AB31" s="57"/>
       <c r="AC31" s="60"/>
       <c r="AD31" s="60"/>
@@ -4825,7 +4844,7 @@
       <c r="CC31" s="58"/>
       <c r="CD31" s="58"/>
       <c r="CE31" s="61"/>
-      <c r="CF31" s="91"/>
+      <c r="CF31" s="84"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
@@ -4849,14 +4868,14 @@
       <c r="Q32" s="33"/>
       <c r="R32" s="33"/>
       <c r="S32" s="34"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="99"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="91"/>
+      <c r="AA32" s="92"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="36"/>
       <c r="AD32" s="36"/>
@@ -4913,7 +4932,7 @@
       <c r="CC32" s="36"/>
       <c r="CD32" s="36"/>
       <c r="CE32" s="37"/>
-      <c r="CF32" s="91"/>
+      <c r="CF32" s="84"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
@@ -4934,14 +4953,14 @@
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="16"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="99"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="92"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
@@ -4998,7 +5017,7 @@
       <c r="CC33" s="15"/>
       <c r="CD33" s="15"/>
       <c r="CE33" s="16"/>
-      <c r="CF33" s="91"/>
+      <c r="CF33" s="84"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -5020,14 +5039,14 @@
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="98"/>
-      <c r="V34" s="98"/>
-      <c r="W34" s="98"/>
-      <c r="X34" s="98"/>
-      <c r="Y34" s="98"/>
-      <c r="Z34" s="98"/>
-      <c r="AA34" s="99"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="92"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
@@ -5084,7 +5103,7 @@
       <c r="CC34" s="15"/>
       <c r="CD34" s="15"/>
       <c r="CE34" s="16"/>
-      <c r="CF34" s="91"/>
+      <c r="CF34" s="84"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
@@ -5106,14 +5125,14 @@
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="97"/>
-      <c r="U35" s="98"/>
-      <c r="V35" s="98"/>
-      <c r="W35" s="98"/>
-      <c r="X35" s="98"/>
-      <c r="Y35" s="98"/>
-      <c r="Z35" s="98"/>
-      <c r="AA35" s="99"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
+      <c r="AA35" s="92"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -5170,7 +5189,7 @@
       <c r="CC35" s="15"/>
       <c r="CD35" s="15"/>
       <c r="CE35" s="16"/>
-      <c r="CF35" s="91"/>
+      <c r="CF35" s="84"/>
     </row>
     <row r="36" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
@@ -5192,14 +5211,14 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="102"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="95"/>
       <c r="AB36" s="19"/>
       <c r="AC36" s="20"/>
       <c r="AD36" s="20"/>
@@ -5256,92 +5275,92 @@
       <c r="CC36" s="20"/>
       <c r="CD36" s="20"/>
       <c r="CE36" s="21"/>
-      <c r="CF36" s="91"/>
+      <c r="CF36" s="84"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="90"/>
-      <c r="AB37" s="90"/>
-      <c r="AC37" s="90"/>
-      <c r="AD37" s="90"/>
-      <c r="AE37" s="90"/>
-      <c r="AF37" s="90"/>
-      <c r="AG37" s="90"/>
-      <c r="AH37" s="90"/>
-      <c r="AI37" s="90"/>
-      <c r="AJ37" s="90"/>
-      <c r="AK37" s="90"/>
-      <c r="AL37" s="90"/>
-      <c r="AM37" s="90"/>
-      <c r="AN37" s="90"/>
-      <c r="AO37" s="90"/>
-      <c r="AP37" s="90"/>
-      <c r="AQ37" s="90"/>
-      <c r="AR37" s="90"/>
-      <c r="AS37" s="90"/>
-      <c r="AT37" s="90"/>
-      <c r="AU37" s="90"/>
-      <c r="AV37" s="90"/>
-      <c r="AW37" s="90"/>
-      <c r="AX37" s="90"/>
-      <c r="AY37" s="90"/>
-      <c r="AZ37" s="90"/>
-      <c r="BA37" s="90"/>
-      <c r="BB37" s="90"/>
-      <c r="BC37" s="90"/>
-      <c r="BD37" s="90"/>
-      <c r="BE37" s="90"/>
-      <c r="BF37" s="90"/>
-      <c r="BG37" s="90"/>
-      <c r="BH37" s="90"/>
-      <c r="BI37" s="90"/>
-      <c r="BJ37" s="90"/>
-      <c r="BK37" s="90"/>
-      <c r="BL37" s="90"/>
-      <c r="BM37" s="90"/>
-      <c r="BN37" s="90"/>
-      <c r="BO37" s="90"/>
-      <c r="BP37" s="90"/>
-      <c r="BQ37" s="90"/>
-      <c r="BR37" s="90"/>
-      <c r="BS37" s="90"/>
-      <c r="BT37" s="90"/>
-      <c r="BU37" s="90"/>
-      <c r="BV37" s="90"/>
-      <c r="BW37" s="90"/>
-      <c r="BX37" s="90"/>
-      <c r="BY37" s="90"/>
-      <c r="BZ37" s="90"/>
-      <c r="CA37" s="90"/>
-      <c r="CB37" s="90"/>
-      <c r="CC37" s="90"/>
-      <c r="CD37" s="90"/>
-      <c r="CE37" s="90"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="81"/>
+      <c r="AD37" s="81"/>
+      <c r="AE37" s="81"/>
+      <c r="AF37" s="81"/>
+      <c r="AG37" s="81"/>
+      <c r="AH37" s="81"/>
+      <c r="AI37" s="81"/>
+      <c r="AJ37" s="81"/>
+      <c r="AK37" s="81"/>
+      <c r="AL37" s="81"/>
+      <c r="AM37" s="81"/>
+      <c r="AN37" s="81"/>
+      <c r="AO37" s="81"/>
+      <c r="AP37" s="81"/>
+      <c r="AQ37" s="81"/>
+      <c r="AR37" s="81"/>
+      <c r="AS37" s="81"/>
+      <c r="AT37" s="81"/>
+      <c r="AU37" s="81"/>
+      <c r="AV37" s="81"/>
+      <c r="AW37" s="81"/>
+      <c r="AX37" s="81"/>
+      <c r="AY37" s="81"/>
+      <c r="AZ37" s="81"/>
+      <c r="BA37" s="81"/>
+      <c r="BB37" s="81"/>
+      <c r="BC37" s="81"/>
+      <c r="BD37" s="81"/>
+      <c r="BE37" s="81"/>
+      <c r="BF37" s="81"/>
+      <c r="BG37" s="81"/>
+      <c r="BH37" s="81"/>
+      <c r="BI37" s="81"/>
+      <c r="BJ37" s="81"/>
+      <c r="BK37" s="81"/>
+      <c r="BL37" s="81"/>
+      <c r="BM37" s="81"/>
+      <c r="BN37" s="81"/>
+      <c r="BO37" s="81"/>
+      <c r="BP37" s="81"/>
+      <c r="BQ37" s="81"/>
+      <c r="BR37" s="81"/>
+      <c r="BS37" s="81"/>
+      <c r="BT37" s="81"/>
+      <c r="BU37" s="81"/>
+      <c r="BV37" s="81"/>
+      <c r="BW37" s="81"/>
+      <c r="BX37" s="81"/>
+      <c r="BY37" s="81"/>
+      <c r="BZ37" s="81"/>
+      <c r="CA37" s="81"/>
+      <c r="CB37" s="81"/>
+      <c r="CC37" s="81"/>
+      <c r="CD37" s="81"/>
+      <c r="CE37" s="81"/>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
@@ -5369,18 +5388,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A37:CE37"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="CF4:CF36"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T6:AA36"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="AR2:CE3"/>
     <mergeCell ref="AJ4:AM4"/>
@@ -5397,9 +5404,21 @@
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="CB4:CE4"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A37:CE37"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="CF4:CF36"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T6:AA36"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B26 B29:B36">
+  <conditionalFormatting sqref="B6:B36">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
@@ -5425,6 +5444,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5637,41 +5676,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5694,9 +5702,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>